--- a/Daraz sign up and login test cases.xlsx
+++ b/Daraz sign up and login test cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\02. Manula Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A890BB-65CF-45AE-B368-8D61A3BC5DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB090FBE-8171-4C46-B7C7-9CBB2F26B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,16 +377,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Check minimum digits of phone number</t>
-  </si>
-  <si>
     <t>Please enter a valid phone number</t>
   </si>
   <si>
     <t>min number</t>
-  </si>
-  <si>
-    <t>Checking maximum digits of phone number</t>
   </si>
   <si>
     <t>When it is more than 11 digits it will give "Please enter a valid phone number."</t>
@@ -732,6 +726,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sign Up &amp;  Login </t>
+  </si>
+  <si>
+    <t>Check less than minimum digits of phone number</t>
+  </si>
+  <si>
+    <t>Check more than maximum digits of phone number</t>
   </si>
 </sst>
 </file>
@@ -1988,52 +1988,19 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2058,20 +2025,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2515,9 +2515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
   <dimension ref="A1:AC390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:B188"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2539,10 +2539,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="248"/>
+      <c r="B1" s="226"/>
       <c r="C1" s="168" t="s">
         <v>52</v>
       </c>
@@ -2560,10 +2560,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="249" t="s">
+      <c r="L1" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="250"/>
+      <c r="M1" s="228"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2582,12 +2582,12 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="248"/>
+      <c r="B2" s="226"/>
       <c r="C2" s="173" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D2" s="174" t="s">
         <v>11</v>
@@ -2626,10 +2626,10 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="248"/>
+      <c r="B3" s="226"/>
       <c r="C3" s="173"/>
       <c r="D3" s="174" t="s">
         <v>14</v>
@@ -2670,10 +2670,10 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="248" t="s">
+      <c r="A4" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="248"/>
+      <c r="B4" s="226"/>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
         <v>17</v>
@@ -2712,15 +2712,15 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2908,13 +2908,13 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="241" t="s">
+      <c r="B10" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="242" t="s">
+      <c r="C10" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="230"/>
       <c r="E10" s="9" t="s">
         <v>55</v>
       </c>
@@ -2957,9 +2957,9 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="241"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="241"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="230"/>
       <c r="E11" s="9" t="s">
         <v>59</v>
       </c>
@@ -3002,9 +3002,9 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="241"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="230"/>
       <c r="E12" s="9" t="s">
         <v>68</v>
       </c>
@@ -3047,9 +3047,9 @@
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="241"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="241"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="9" t="s">
         <v>61</v>
       </c>
@@ -3094,11 +3094,11 @@
       <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="241"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="241"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="230"/>
       <c r="E14" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>91</v>
@@ -3110,10 +3110,10 @@
         <v>41</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J14" s="166" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="20" t="s">
@@ -3141,9 +3141,9 @@
       <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="241"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="241"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="230"/>
       <c r="E15" s="9" t="s">
         <v>63</v>
       </c>
@@ -3188,9 +3188,9 @@
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="230"/>
       <c r="E16" s="9" t="s">
         <v>82</v>
       </c>
@@ -3235,9 +3235,9 @@
       <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="241"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="241"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="230"/>
       <c r="E17" s="9" t="s">
         <v>69</v>
       </c>
@@ -3282,9 +3282,9 @@
       <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="241"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="241"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="230"/>
       <c r="E18" s="9" t="s">
         <v>72</v>
       </c>
@@ -3327,9 +3327,9 @@
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="241"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="241"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="230"/>
       <c r="E19" s="9" t="s">
         <v>74</v>
       </c>
@@ -3372,9 +3372,9 @@
       <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="241"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="241"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="230"/>
       <c r="E20" s="9" t="s">
         <v>75</v>
       </c>
@@ -3415,9 +3415,9 @@
     </row>
     <row r="21" spans="1:29" s="194" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
-      <c r="B21" s="241"/>
+      <c r="B21" s="230"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="241"/>
+      <c r="D21" s="230"/>
       <c r="E21" s="188"/>
       <c r="F21" s="188"/>
       <c r="G21" s="188"/>
@@ -3448,11 +3448,11 @@
       <c r="A22" s="27">
         <v>13</v>
       </c>
-      <c r="B22" s="241"/>
-      <c r="C22" s="241" t="s">
+      <c r="B22" s="230"/>
+      <c r="C22" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="241"/>
+      <c r="D22" s="230"/>
       <c r="E22" s="28" t="s">
         <v>45</v>
       </c>
@@ -3497,9 +3497,9 @@
       <c r="A23" s="27">
         <v>14</v>
       </c>
-      <c r="B23" s="241"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="230"/>
       <c r="E23" s="28" t="s">
         <v>87</v>
       </c>
@@ -3542,14 +3542,14 @@
       <c r="A24" s="27">
         <v>15</v>
       </c>
-      <c r="B24" s="241"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="230"/>
       <c r="E24" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>43</v>
@@ -3561,7 +3561,7 @@
         <v>90</v>
       </c>
       <c r="J24" s="166" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="12" t="s">
@@ -3589,14 +3589,14 @@
       <c r="A25" s="27">
         <v>16</v>
       </c>
-      <c r="B25" s="241"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="241"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
       <c r="E25" s="36" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>43</v>
@@ -3608,7 +3608,7 @@
         <v>90</v>
       </c>
       <c r="J25" s="167" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="12" t="s">
@@ -3636,9 +3636,9 @@
       <c r="A26" s="27">
         <v>17</v>
       </c>
-      <c r="B26" s="241"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
       <c r="E26" s="36" t="s">
         <v>92</v>
       </c>
@@ -3683,9 +3683,9 @@
       <c r="A27" s="27">
         <v>18</v>
       </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="230"/>
       <c r="E27" s="36" t="s">
         <v>94</v>
       </c>
@@ -3730,11 +3730,11 @@
       <c r="A28" s="27">
         <v>19</v>
       </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
       <c r="E28" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>101</v>
@@ -3775,11 +3775,11 @@
       <c r="A29" s="27">
         <v>20</v>
       </c>
-      <c r="B29" s="241"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="241"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
       <c r="E29" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>101</v>
@@ -3820,9 +3820,9 @@
       <c r="A30" s="27">
         <v>21</v>
       </c>
-      <c r="B30" s="241"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="230"/>
+      <c r="D30" s="230"/>
       <c r="E30" s="28" t="s">
         <v>102</v>
       </c>
@@ -3865,9 +3865,9 @@
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="241"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="241"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="230"/>
+      <c r="D31" s="230"/>
       <c r="E31" s="28" t="s">
         <v>106</v>
       </c>
@@ -3910,14 +3910,14 @@
       <c r="A32" s="27">
         <v>23</v>
       </c>
-      <c r="B32" s="241"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="241"/>
+      <c r="B32" s="230"/>
+      <c r="C32" s="230"/>
+      <c r="D32" s="230"/>
       <c r="E32" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>37</v>
@@ -3955,20 +3955,20 @@
       <c r="A33" s="27">
         <v>24</v>
       </c>
-      <c r="B33" s="241"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="230"/>
+      <c r="D33" s="230"/>
       <c r="E33" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>105</v>
@@ -4000,14 +4000,14 @@
       <c r="A34" s="27">
         <v>25</v>
       </c>
-      <c r="B34" s="241"/>
-      <c r="C34" s="241"/>
-      <c r="D34" s="241"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="230"/>
       <c r="E34" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>37</v>
@@ -4045,20 +4045,20 @@
       <c r="A35" s="27">
         <v>26</v>
       </c>
-      <c r="B35" s="241"/>
-      <c r="C35" s="241"/>
-      <c r="D35" s="241"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="230"/>
       <c r="E35" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F35" s="221" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H35" s="165" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>105</v>
@@ -4090,23 +4090,23 @@
       <c r="A36" s="27">
         <v>27</v>
       </c>
-      <c r="B36" s="241"/>
-      <c r="C36" s="241"/>
-      <c r="D36" s="241"/>
+      <c r="B36" s="230"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="230"/>
       <c r="E36" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="31"/>
@@ -4135,14 +4135,14 @@
       <c r="A37" s="27">
         <v>28</v>
       </c>
-      <c r="B37" s="241"/>
-      <c r="C37" s="241"/>
-      <c r="D37" s="241"/>
+      <c r="B37" s="230"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="230"/>
       <c r="E37" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>43</v>
@@ -4151,10 +4151,10 @@
         <v>123</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J37" s="166" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="12" t="s">
@@ -4182,23 +4182,23 @@
       <c r="A38" s="27">
         <v>29</v>
       </c>
-      <c r="B38" s="241"/>
-      <c r="C38" s="241"/>
-      <c r="D38" s="241"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="230"/>
+      <c r="D38" s="230"/>
       <c r="E38" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -4227,26 +4227,26 @@
       <c r="A39" s="27">
         <v>30</v>
       </c>
-      <c r="B39" s="241"/>
-      <c r="C39" s="241"/>
-      <c r="D39" s="241"/>
+      <c r="B39" s="230"/>
+      <c r="C39" s="230"/>
+      <c r="D39" s="230"/>
       <c r="E39" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>43</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J39" s="166" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="12" t="s">
@@ -4274,23 +4274,23 @@
       <c r="A40" s="27">
         <v>31</v>
       </c>
-      <c r="B40" s="241"/>
-      <c r="C40" s="241"/>
-      <c r="D40" s="241"/>
+      <c r="B40" s="230"/>
+      <c r="C40" s="230"/>
+      <c r="D40" s="230"/>
       <c r="E40" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H40" s="165" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -4319,23 +4319,23 @@
       <c r="A41" s="27">
         <v>32</v>
       </c>
-      <c r="B41" s="241"/>
-      <c r="C41" s="241"/>
-      <c r="D41" s="241"/>
+      <c r="B41" s="230"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="230"/>
       <c r="E41" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
@@ -4364,14 +4364,14 @@
       <c r="A42" s="27">
         <v>33</v>
       </c>
-      <c r="B42" s="241"/>
-      <c r="C42" s="241"/>
-      <c r="D42" s="241"/>
+      <c r="B42" s="230"/>
+      <c r="C42" s="230"/>
+      <c r="D42" s="230"/>
       <c r="E42" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>37</v>
@@ -4380,7 +4380,7 @@
         <v>41</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -4409,14 +4409,14 @@
       <c r="A43" s="27">
         <v>34</v>
       </c>
-      <c r="B43" s="241"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="241"/>
+      <c r="B43" s="230"/>
+      <c r="C43" s="230"/>
+      <c r="D43" s="230"/>
       <c r="E43" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>37</v>
@@ -4425,7 +4425,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -4454,14 +4454,14 @@
       <c r="A44" s="27">
         <v>35</v>
       </c>
-      <c r="B44" s="241"/>
-      <c r="C44" s="241"/>
-      <c r="D44" s="241"/>
+      <c r="B44" s="230"/>
+      <c r="C44" s="230"/>
+      <c r="D44" s="230"/>
       <c r="E44" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>37</v>
@@ -4470,7 +4470,7 @@
         <v>41</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -4497,9 +4497,9 @@
     </row>
     <row r="45" spans="1:29" s="199" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="195"/>
-      <c r="B45" s="241"/>
+      <c r="B45" s="230"/>
       <c r="C45" s="196"/>
-      <c r="D45" s="241"/>
+      <c r="D45" s="230"/>
       <c r="E45" s="197"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188"/>
@@ -4530,25 +4530,25 @@
       <c r="A46" s="27">
         <v>36</v>
       </c>
-      <c r="B46" s="241"/>
-      <c r="C46" s="241" t="s">
+      <c r="B46" s="230"/>
+      <c r="C46" s="230" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="241"/>
+      <c r="D46" s="230"/>
       <c r="E46" s="36" t="s">
         <v>46</v>
       </c>
       <c r="F46" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="I46" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -4577,23 +4577,23 @@
       <c r="A47" s="27">
         <v>37</v>
       </c>
-      <c r="B47" s="241"/>
-      <c r="C47" s="241"/>
-      <c r="D47" s="241"/>
+      <c r="B47" s="230"/>
+      <c r="C47" s="230"/>
+      <c r="D47" s="230"/>
       <c r="E47" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="I47" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -4622,26 +4622,26 @@
       <c r="A48" s="27">
         <v>38</v>
       </c>
-      <c r="B48" s="241"/>
-      <c r="C48" s="241"/>
-      <c r="D48" s="241"/>
+      <c r="B48" s="230"/>
+      <c r="C48" s="230"/>
+      <c r="D48" s="230"/>
       <c r="E48" s="43" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="I48" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="J48" s="166" t="s">
         <v>165</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J48" s="166" t="s">
-        <v>167</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="12" t="s">
@@ -4667,7 +4667,7 @@
     </row>
     <row r="49" spans="1:29" s="208" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="200"/>
-      <c r="B49" s="241"/>
+      <c r="B49" s="230"/>
       <c r="C49" s="201"/>
       <c r="D49" s="202"/>
       <c r="E49" s="203"/>
@@ -4700,12 +4700,12 @@
       <c r="A50" s="27">
         <v>39</v>
       </c>
-      <c r="B50" s="241"/>
-      <c r="C50" s="243" t="s">
+      <c r="B50" s="230"/>
+      <c r="C50" s="232" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="243" t="s">
-        <v>169</v>
+      <c r="D50" s="232" t="s">
+        <v>167</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>49</v>
@@ -4720,7 +4720,7 @@
         <v>41</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -4749,23 +4749,23 @@
       <c r="A51" s="27">
         <v>40</v>
       </c>
-      <c r="B51" s="241"/>
-      <c r="C51" s="244"/>
-      <c r="D51" s="244"/>
+      <c r="B51" s="230"/>
+      <c r="C51" s="233"/>
+      <c r="D51" s="233"/>
       <c r="E51" s="36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="31"/>
@@ -4794,14 +4794,14 @@
       <c r="A52" s="27">
         <v>41</v>
       </c>
-      <c r="B52" s="241"/>
-      <c r="C52" s="244"/>
-      <c r="D52" s="244"/>
+      <c r="B52" s="230"/>
+      <c r="C52" s="233"/>
+      <c r="D52" s="233"/>
       <c r="E52" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>43</v>
@@ -4810,10 +4810,10 @@
         <v>1.23451234567897E+77</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="12" t="s">
@@ -4832,26 +4832,26 @@
       <c r="A53" s="27">
         <v>42</v>
       </c>
-      <c r="B53" s="241"/>
-      <c r="C53" s="244"/>
-      <c r="D53" s="244"/>
+      <c r="B53" s="230"/>
+      <c r="C53" s="233"/>
+      <c r="D53" s="233"/>
       <c r="E53" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>43</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J53" s="166" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="12" t="s">
@@ -4879,14 +4879,14 @@
       <c r="A54" s="27">
         <v>43</v>
       </c>
-      <c r="B54" s="241"/>
-      <c r="C54" s="244"/>
-      <c r="D54" s="244"/>
+      <c r="B54" s="230"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="233"/>
       <c r="E54" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>43</v>
@@ -4895,10 +4895,10 @@
         <v>104</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J54" s="166" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="12" t="s">
@@ -4926,23 +4926,23 @@
       <c r="A55" s="27">
         <v>44</v>
       </c>
-      <c r="B55" s="241"/>
-      <c r="C55" s="244"/>
-      <c r="D55" s="244"/>
+      <c r="B55" s="230"/>
+      <c r="C55" s="233"/>
+      <c r="D55" s="233"/>
       <c r="E55" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
@@ -4971,23 +4971,23 @@
       <c r="A56" s="27">
         <v>45</v>
       </c>
-      <c r="B56" s="241"/>
-      <c r="C56" s="244"/>
-      <c r="D56" s="244"/>
+      <c r="B56" s="230"/>
+      <c r="C56" s="233"/>
+      <c r="D56" s="233"/>
       <c r="E56" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -5016,23 +5016,23 @@
       <c r="A57" s="27">
         <v>46</v>
       </c>
-      <c r="B57" s="241"/>
-      <c r="C57" s="244"/>
-      <c r="D57" s="244"/>
+      <c r="B57" s="230"/>
+      <c r="C57" s="233"/>
+      <c r="D57" s="233"/>
       <c r="E57" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="222"/>
@@ -5061,21 +5061,21 @@
       <c r="A58" s="27">
         <v>47</v>
       </c>
-      <c r="B58" s="241"/>
-      <c r="C58" s="244"/>
-      <c r="D58" s="244"/>
+      <c r="B58" s="230"/>
+      <c r="C58" s="233"/>
+      <c r="D58" s="233"/>
       <c r="E58" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H58" s="165"/>
       <c r="I58" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -5104,14 +5104,14 @@
       <c r="A59" s="27">
         <v>48</v>
       </c>
-      <c r="B59" s="241"/>
-      <c r="C59" s="244"/>
-      <c r="D59" s="244"/>
+      <c r="B59" s="230"/>
+      <c r="C59" s="233"/>
+      <c r="D59" s="233"/>
       <c r="E59" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>37</v>
@@ -5120,7 +5120,7 @@
         <v>41</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -5149,14 +5149,14 @@
       <c r="A60" s="27">
         <v>49</v>
       </c>
-      <c r="B60" s="241"/>
-      <c r="C60" s="244"/>
-      <c r="D60" s="244"/>
+      <c r="B60" s="230"/>
+      <c r="C60" s="233"/>
+      <c r="D60" s="233"/>
       <c r="E60" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>37</v>
@@ -5165,7 +5165,7 @@
         <v>41</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -5194,14 +5194,14 @@
       <c r="A61" s="27">
         <v>50</v>
       </c>
-      <c r="B61" s="241"/>
-      <c r="C61" s="244"/>
-      <c r="D61" s="244"/>
+      <c r="B61" s="230"/>
+      <c r="C61" s="233"/>
+      <c r="D61" s="233"/>
       <c r="E61" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>37</v>
@@ -5210,7 +5210,7 @@
         <v>41</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -5239,14 +5239,14 @@
       <c r="A62" s="27">
         <v>51</v>
       </c>
-      <c r="B62" s="241"/>
-      <c r="C62" s="244"/>
-      <c r="D62" s="244"/>
+      <c r="B62" s="230"/>
+      <c r="C62" s="233"/>
+      <c r="D62" s="233"/>
       <c r="E62" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>37</v>
@@ -5255,7 +5255,7 @@
         <v>41</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
@@ -5284,14 +5284,14 @@
       <c r="A63" s="27">
         <v>52</v>
       </c>
-      <c r="B63" s="241"/>
-      <c r="C63" s="244"/>
-      <c r="D63" s="244"/>
+      <c r="B63" s="230"/>
+      <c r="C63" s="233"/>
+      <c r="D63" s="233"/>
       <c r="E63" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>37</v>
@@ -5300,7 +5300,7 @@
         <v>41</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
@@ -5329,14 +5329,14 @@
       <c r="A64" s="27">
         <v>53</v>
       </c>
-      <c r="B64" s="241"/>
-      <c r="C64" s="244"/>
-      <c r="D64" s="244"/>
+      <c r="B64" s="230"/>
+      <c r="C64" s="233"/>
+      <c r="D64" s="233"/>
       <c r="E64" s="36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>43</v>
@@ -5345,10 +5345,10 @@
         <v>41</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J64" s="166" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="12" t="s">
@@ -5376,14 +5376,14 @@
       <c r="A65" s="27">
         <v>54</v>
       </c>
-      <c r="B65" s="241"/>
-      <c r="C65" s="244"/>
-      <c r="D65" s="244"/>
+      <c r="B65" s="230"/>
+      <c r="C65" s="233"/>
+      <c r="D65" s="233"/>
       <c r="E65" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>37</v>
@@ -5392,7 +5392,7 @@
         <v>41</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
@@ -5421,14 +5421,14 @@
       <c r="A66" s="27">
         <v>55</v>
       </c>
-      <c r="B66" s="241"/>
-      <c r="C66" s="244"/>
-      <c r="D66" s="244"/>
+      <c r="B66" s="230"/>
+      <c r="C66" s="233"/>
+      <c r="D66" s="233"/>
       <c r="E66" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>37</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -5466,14 +5466,14 @@
       <c r="A67" s="27">
         <v>56</v>
       </c>
-      <c r="B67" s="241"/>
-      <c r="C67" s="244"/>
-      <c r="D67" s="244"/>
+      <c r="B67" s="230"/>
+      <c r="C67" s="233"/>
+      <c r="D67" s="233"/>
       <c r="E67" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
@@ -5500,10 +5500,12 @@
       <c r="AC67" s="33"/>
     </row>
     <row r="68" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="241"/>
-      <c r="C68" s="244"/>
-      <c r="D68" s="244"/>
+      <c r="A68" s="27">
+        <v>57</v>
+      </c>
+      <c r="B68" s="230"/>
+      <c r="C68" s="233"/>
+      <c r="D68" s="233"/>
       <c r="E68" s="36"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
@@ -5531,15 +5533,17 @@
       <c r="AC68" s="33"/>
     </row>
     <row r="69" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
-      <c r="B69" s="241"/>
-      <c r="C69" s="244"/>
-      <c r="D69" s="244"/>
+      <c r="A69" s="27">
+        <v>58</v>
+      </c>
+      <c r="B69" s="230"/>
+      <c r="C69" s="233"/>
+      <c r="D69" s="233"/>
       <c r="E69" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>43</v>
@@ -5548,10 +5552,10 @@
         <v>41</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J69" s="166" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K69" s="29"/>
       <c r="L69" s="12" t="s">
@@ -5576,15 +5580,17 @@
       <c r="AC69" s="33"/>
     </row>
     <row r="70" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
-      <c r="B70" s="241"/>
-      <c r="C70" s="244"/>
-      <c r="D70" s="244"/>
+      <c r="A70" s="27">
+        <v>59</v>
+      </c>
+      <c r="B70" s="230"/>
+      <c r="C70" s="233"/>
+      <c r="D70" s="233"/>
       <c r="E70" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>37</v>
@@ -5593,7 +5599,7 @@
         <v>41</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
@@ -5619,15 +5625,17 @@
       <c r="AC70" s="33"/>
     </row>
     <row r="71" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
-      <c r="B71" s="241"/>
-      <c r="C71" s="244"/>
-      <c r="D71" s="244"/>
+      <c r="A71" s="27">
+        <v>60</v>
+      </c>
+      <c r="B71" s="230"/>
+      <c r="C71" s="233"/>
+      <c r="D71" s="233"/>
       <c r="E71" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>226</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>37</v>
@@ -5636,7 +5644,7 @@
         <v>41</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
@@ -5663,9 +5671,9 @@
     </row>
     <row r="72" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
-      <c r="B72" s="241"/>
-      <c r="C72" s="244"/>
-      <c r="D72" s="244"/>
+      <c r="B72" s="230"/>
+      <c r="C72" s="233"/>
+      <c r="D72" s="233"/>
       <c r="E72" s="36"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -5694,9 +5702,9 @@
     </row>
     <row r="73" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
-      <c r="B73" s="241"/>
-      <c r="C73" s="244"/>
-      <c r="D73" s="244"/>
+      <c r="B73" s="230"/>
+      <c r="C73" s="233"/>
+      <c r="D73" s="233"/>
       <c r="E73" s="36"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -5725,9 +5733,9 @@
     </row>
     <row r="74" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
-      <c r="B74" s="241"/>
-      <c r="C74" s="244"/>
-      <c r="D74" s="244"/>
+      <c r="B74" s="230"/>
+      <c r="C74" s="233"/>
+      <c r="D74" s="233"/>
       <c r="E74" s="36"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -5756,9 +5764,9 @@
     </row>
     <row r="75" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
-      <c r="B75" s="241"/>
-      <c r="C75" s="244"/>
-      <c r="D75" s="244"/>
+      <c r="B75" s="230"/>
+      <c r="C75" s="233"/>
+      <c r="D75" s="233"/>
       <c r="E75" s="36"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
@@ -5789,9 +5797,9 @@
       <c r="A76" s="27">
         <v>57</v>
       </c>
-      <c r="B76" s="241"/>
-      <c r="C76" s="244"/>
-      <c r="D76" s="244"/>
+      <c r="B76" s="230"/>
+      <c r="C76" s="233"/>
+      <c r="D76" s="233"/>
       <c r="E76" s="36"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
@@ -5822,9 +5830,9 @@
       <c r="A77" s="27">
         <v>58</v>
       </c>
-      <c r="B77" s="241"/>
-      <c r="C77" s="245"/>
-      <c r="D77" s="245"/>
+      <c r="B77" s="230"/>
+      <c r="C77" s="234"/>
+      <c r="D77" s="234"/>
       <c r="E77" s="36"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
@@ -5853,7 +5861,7 @@
     </row>
     <row r="78" spans="1:29" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
-      <c r="B78" s="241"/>
+      <c r="B78" s="230"/>
       <c r="C78" s="47"/>
       <c r="D78" s="48"/>
       <c r="E78" s="49"/>
@@ -5884,9 +5892,9 @@
     </row>
     <row r="79" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
-      <c r="B79" s="241"/>
-      <c r="C79" s="246"/>
-      <c r="D79" s="247"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="235"/>
+      <c r="D79" s="236"/>
       <c r="E79" s="36"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
@@ -5915,9 +5923,9 @@
     </row>
     <row r="80" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
-      <c r="B80" s="241"/>
-      <c r="C80" s="246"/>
-      <c r="D80" s="247"/>
+      <c r="B80" s="230"/>
+      <c r="C80" s="235"/>
+      <c r="D80" s="236"/>
       <c r="E80" s="36"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
@@ -5946,9 +5954,9 @@
     </row>
     <row r="81" spans="1:29" s="34" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
-      <c r="B81" s="241"/>
-      <c r="C81" s="246"/>
-      <c r="D81" s="247"/>
+      <c r="B81" s="230"/>
+      <c r="C81" s="235"/>
+      <c r="D81" s="236"/>
       <c r="E81" s="29"/>
       <c r="F81" s="18"/>
       <c r="G81" s="29"/>
@@ -5977,9 +5985,9 @@
     </row>
     <row r="82" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="27"/>
-      <c r="B82" s="241"/>
-      <c r="C82" s="246"/>
-      <c r="D82" s="247"/>
+      <c r="B82" s="230"/>
+      <c r="C82" s="235"/>
+      <c r="D82" s="236"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
@@ -6008,8 +6016,8 @@
     </row>
     <row r="83" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="27"/>
-      <c r="B83" s="241"/>
-      <c r="C83" s="246"/>
+      <c r="B83" s="230"/>
+      <c r="C83" s="235"/>
       <c r="D83" s="52"/>
       <c r="E83" s="53"/>
       <c r="F83" s="29"/>
@@ -6039,7 +6047,7 @@
     </row>
     <row r="84" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
-      <c r="B84" s="241"/>
+      <c r="B84" s="230"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
       <c r="E84" s="53"/>
@@ -6070,7 +6078,7 @@
     </row>
     <row r="85" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
-      <c r="B85" s="241"/>
+      <c r="B85" s="230"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
       <c r="E85" s="55"/>
@@ -6101,7 +6109,7 @@
     </row>
     <row r="86" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
-      <c r="B86" s="241"/>
+      <c r="B86" s="230"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
       <c r="E86" s="55"/>
@@ -6132,7 +6140,7 @@
     </row>
     <row r="87" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
-      <c r="B87" s="241"/>
+      <c r="B87" s="230"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
       <c r="E87" s="55"/>
@@ -6163,7 +6171,7 @@
     </row>
     <row r="88" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
-      <c r="B88" s="241"/>
+      <c r="B88" s="230"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
       <c r="E88" s="55"/>
@@ -6194,7 +6202,7 @@
     </row>
     <row r="89" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="54"/>
-      <c r="B89" s="241"/>
+      <c r="B89" s="230"/>
       <c r="C89" s="51"/>
       <c r="D89" s="56"/>
       <c r="E89" s="55"/>
@@ -6225,9 +6233,9 @@
     </row>
     <row r="90" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54"/>
-      <c r="B90" s="241"/>
+      <c r="B90" s="230"/>
       <c r="C90" s="51"/>
-      <c r="D90" s="235"/>
+      <c r="D90" s="237"/>
       <c r="E90" s="55"/>
       <c r="F90" s="18"/>
       <c r="G90" s="29"/>
@@ -6256,9 +6264,9 @@
     </row>
     <row r="91" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="54"/>
-      <c r="B91" s="241"/>
+      <c r="B91" s="230"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="235"/>
+      <c r="D91" s="237"/>
       <c r="E91" s="55"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
@@ -6287,9 +6295,9 @@
     </row>
     <row r="92" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
-      <c r="B92" s="241"/>
+      <c r="B92" s="230"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="235"/>
+      <c r="D92" s="237"/>
       <c r="E92" s="57"/>
       <c r="F92" s="9"/>
       <c r="G92" s="29"/>
@@ -6318,9 +6326,9 @@
     </row>
     <row r="93" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
-      <c r="B93" s="241"/>
+      <c r="B93" s="230"/>
       <c r="C93" s="51"/>
-      <c r="D93" s="235"/>
+      <c r="D93" s="237"/>
       <c r="E93" s="57"/>
       <c r="F93" s="9"/>
       <c r="G93" s="29"/>
@@ -6349,9 +6357,9 @@
     </row>
     <row r="94" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54"/>
-      <c r="B94" s="241"/>
+      <c r="B94" s="230"/>
       <c r="C94" s="51"/>
-      <c r="D94" s="235"/>
+      <c r="D94" s="237"/>
       <c r="E94" s="57"/>
       <c r="F94" s="9"/>
       <c r="G94" s="29"/>
@@ -6380,7 +6388,7 @@
     </row>
     <row r="95" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
-      <c r="B95" s="241"/>
+      <c r="B95" s="230"/>
       <c r="C95" s="51"/>
       <c r="D95" s="58"/>
       <c r="E95" s="59"/>
@@ -6411,9 +6419,9 @@
     </row>
     <row r="96" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="54"/>
-      <c r="B96" s="241"/>
+      <c r="B96" s="230"/>
       <c r="C96" s="51"/>
-      <c r="D96" s="235"/>
+      <c r="D96" s="237"/>
       <c r="E96" s="53"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -6442,9 +6450,9 @@
     </row>
     <row r="97" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="54"/>
-      <c r="B97" s="241"/>
+      <c r="B97" s="230"/>
       <c r="C97" s="51"/>
-      <c r="D97" s="235"/>
+      <c r="D97" s="237"/>
       <c r="E97" s="53"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -6473,7 +6481,7 @@
     </row>
     <row r="98" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="54"/>
-      <c r="B98" s="241"/>
+      <c r="B98" s="230"/>
       <c r="C98" s="51"/>
       <c r="D98" s="60"/>
       <c r="E98" s="55"/>
@@ -6504,9 +6512,9 @@
     </row>
     <row r="99" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54"/>
-      <c r="B99" s="241"/>
+      <c r="B99" s="230"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="236"/>
+      <c r="D99" s="238"/>
       <c r="E99" s="55"/>
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
@@ -6535,9 +6543,9 @@
     </row>
     <row r="100" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="54"/>
-      <c r="B100" s="241"/>
+      <c r="B100" s="230"/>
       <c r="C100" s="51"/>
-      <c r="D100" s="236"/>
+      <c r="D100" s="238"/>
       <c r="E100" s="55"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -6566,9 +6574,9 @@
     </row>
     <row r="101" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54"/>
-      <c r="B101" s="241"/>
+      <c r="B101" s="230"/>
       <c r="C101" s="51"/>
-      <c r="D101" s="236"/>
+      <c r="D101" s="238"/>
       <c r="E101" s="57"/>
       <c r="F101" s="9"/>
       <c r="G101" s="29"/>
@@ -6597,9 +6605,9 @@
     </row>
     <row r="102" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="54"/>
-      <c r="B102" s="241"/>
+      <c r="B102" s="230"/>
       <c r="C102" s="51"/>
-      <c r="D102" s="236"/>
+      <c r="D102" s="238"/>
       <c r="E102" s="53"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -6628,9 +6636,9 @@
     </row>
     <row r="103" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="54"/>
-      <c r="B103" s="241"/>
+      <c r="B103" s="230"/>
       <c r="C103" s="51"/>
-      <c r="D103" s="236"/>
+      <c r="D103" s="238"/>
       <c r="E103" s="53"/>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
@@ -6659,9 +6667,9 @@
     </row>
     <row r="104" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="54"/>
-      <c r="B104" s="241"/>
+      <c r="B104" s="230"/>
       <c r="C104" s="51"/>
-      <c r="D104" s="236"/>
+      <c r="D104" s="238"/>
       <c r="E104" s="55"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
@@ -6690,9 +6698,9 @@
     </row>
     <row r="105" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="54"/>
-      <c r="B105" s="241"/>
+      <c r="B105" s="230"/>
       <c r="C105" s="51"/>
-      <c r="D105" s="236"/>
+      <c r="D105" s="238"/>
       <c r="E105" s="55"/>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -6721,9 +6729,9 @@
     </row>
     <row r="106" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="54"/>
-      <c r="B106" s="241"/>
+      <c r="B106" s="230"/>
       <c r="C106" s="51"/>
-      <c r="D106" s="236"/>
+      <c r="D106" s="238"/>
       <c r="E106" s="55"/>
       <c r="F106" s="29"/>
       <c r="G106" s="29"/>
@@ -6752,9 +6760,9 @@
     </row>
     <row r="107" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="54"/>
-      <c r="B107" s="241"/>
+      <c r="B107" s="230"/>
       <c r="C107" s="51"/>
-      <c r="D107" s="236"/>
+      <c r="D107" s="238"/>
       <c r="E107" s="57"/>
       <c r="F107" s="9"/>
       <c r="G107" s="29"/>
@@ -6783,9 +6791,9 @@
     </row>
     <row r="108" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="54"/>
-      <c r="B108" s="241"/>
+      <c r="B108" s="230"/>
       <c r="C108" s="51"/>
-      <c r="D108" s="236"/>
+      <c r="D108" s="238"/>
       <c r="E108" s="59"/>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
@@ -6814,9 +6822,9 @@
     </row>
     <row r="109" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
-      <c r="B109" s="241"/>
+      <c r="B109" s="230"/>
       <c r="C109" s="51"/>
-      <c r="D109" s="236"/>
+      <c r="D109" s="238"/>
       <c r="E109" s="53"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
@@ -6845,7 +6853,7 @@
     </row>
     <row r="110" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="54"/>
-      <c r="B110" s="241"/>
+      <c r="B110" s="230"/>
       <c r="C110" s="51"/>
       <c r="D110" s="60"/>
       <c r="E110" s="53"/>
@@ -6876,9 +6884,9 @@
     </row>
     <row r="111" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="54"/>
-      <c r="B111" s="241"/>
+      <c r="B111" s="230"/>
       <c r="C111" s="51"/>
-      <c r="D111" s="237"/>
+      <c r="D111" s="239"/>
       <c r="E111" s="55"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -6907,9 +6915,9 @@
     </row>
     <row r="112" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="54"/>
-      <c r="B112" s="241"/>
+      <c r="B112" s="230"/>
       <c r="C112" s="51"/>
-      <c r="D112" s="237"/>
+      <c r="D112" s="239"/>
       <c r="E112" s="55"/>
       <c r="F112" s="29"/>
       <c r="G112" s="29"/>
@@ -6938,9 +6946,9 @@
     </row>
     <row r="113" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="54"/>
-      <c r="B113" s="241"/>
+      <c r="B113" s="230"/>
       <c r="C113" s="51"/>
-      <c r="D113" s="237"/>
+      <c r="D113" s="239"/>
       <c r="E113" s="55"/>
       <c r="F113" s="29"/>
       <c r="G113" s="29"/>
@@ -6969,9 +6977,9 @@
     </row>
     <row r="114" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="54"/>
-      <c r="B114" s="241"/>
+      <c r="B114" s="230"/>
       <c r="C114" s="51"/>
-      <c r="D114" s="237"/>
+      <c r="D114" s="239"/>
       <c r="E114" s="57"/>
       <c r="F114" s="9"/>
       <c r="G114" s="29"/>
@@ -7000,9 +7008,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="62"/>
-      <c r="B115" s="241"/>
+      <c r="B115" s="230"/>
       <c r="C115" s="63"/>
-      <c r="D115" s="237"/>
+      <c r="D115" s="239"/>
       <c r="E115" s="64"/>
       <c r="F115" s="65"/>
       <c r="G115" s="65"/>
@@ -7031,9 +7039,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="68"/>
-      <c r="B116" s="241"/>
+      <c r="B116" s="230"/>
       <c r="C116" s="63"/>
-      <c r="D116" s="237"/>
+      <c r="D116" s="239"/>
       <c r="E116" s="69"/>
       <c r="F116" s="70"/>
       <c r="G116" s="71"/>
@@ -7062,9 +7070,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
-      <c r="B117" s="241"/>
+      <c r="B117" s="230"/>
       <c r="C117" s="63"/>
-      <c r="D117" s="237"/>
+      <c r="D117" s="239"/>
       <c r="E117" s="75"/>
       <c r="F117" s="76"/>
       <c r="G117" s="76"/>
@@ -7093,9 +7101,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="68"/>
-      <c r="B118" s="241"/>
+      <c r="B118" s="230"/>
       <c r="C118" s="63"/>
-      <c r="D118" s="237"/>
+      <c r="D118" s="239"/>
       <c r="E118" s="75"/>
       <c r="F118" s="76"/>
       <c r="G118" s="76"/>
@@ -7124,9 +7132,9 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="68"/>
-      <c r="B119" s="241"/>
+      <c r="B119" s="230"/>
       <c r="C119" s="63"/>
-      <c r="D119" s="237"/>
+      <c r="D119" s="239"/>
       <c r="E119" s="79"/>
       <c r="F119" s="76"/>
       <c r="G119" s="76"/>
@@ -7155,9 +7163,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
-      <c r="B120" s="241"/>
+      <c r="B120" s="230"/>
       <c r="C120" s="63"/>
-      <c r="D120" s="237"/>
+      <c r="D120" s="239"/>
       <c r="E120" s="80"/>
       <c r="F120" s="70"/>
       <c r="G120" s="71"/>
@@ -7186,7 +7194,7 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="68"/>
-      <c r="B121" s="241"/>
+      <c r="B121" s="230"/>
       <c r="C121" s="63"/>
       <c r="D121" s="81"/>
       <c r="E121" s="69"/>
@@ -7217,9 +7225,9 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
-      <c r="B122" s="241"/>
+      <c r="B122" s="230"/>
       <c r="C122" s="63"/>
-      <c r="D122" s="238"/>
+      <c r="D122" s="240"/>
       <c r="E122" s="82"/>
       <c r="F122" s="70"/>
       <c r="G122" s="71"/>
@@ -7248,9 +7256,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
-      <c r="B123" s="241"/>
+      <c r="B123" s="230"/>
       <c r="C123" s="63"/>
-      <c r="D123" s="238"/>
+      <c r="D123" s="240"/>
       <c r="E123" s="84"/>
       <c r="F123" s="76"/>
       <c r="G123" s="76"/>
@@ -7279,7 +7287,7 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
-      <c r="B124" s="241"/>
+      <c r="B124" s="230"/>
       <c r="C124" s="63"/>
       <c r="D124" s="1"/>
       <c r="E124" s="85"/>
@@ -7310,9 +7318,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="68"/>
-      <c r="B125" s="241"/>
+      <c r="B125" s="230"/>
       <c r="C125" s="63"/>
-      <c r="D125" s="239"/>
+      <c r="D125" s="241"/>
       <c r="E125" s="84"/>
       <c r="F125" s="76"/>
       <c r="G125" s="76"/>
@@ -7341,9 +7349,9 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="68"/>
-      <c r="B126" s="241"/>
+      <c r="B126" s="230"/>
       <c r="C126" s="63"/>
-      <c r="D126" s="239"/>
+      <c r="D126" s="241"/>
       <c r="E126" s="82"/>
       <c r="F126" s="76"/>
       <c r="G126" s="76"/>
@@ -7372,9 +7380,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="68"/>
-      <c r="B127" s="241"/>
+      <c r="B127" s="230"/>
       <c r="C127" s="63"/>
-      <c r="D127" s="239"/>
+      <c r="D127" s="241"/>
       <c r="E127" s="84"/>
       <c r="F127" s="76"/>
       <c r="G127" s="76"/>
@@ -7403,9 +7411,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="68"/>
-      <c r="B128" s="241"/>
+      <c r="B128" s="230"/>
       <c r="C128" s="63"/>
-      <c r="D128" s="239"/>
+      <c r="D128" s="241"/>
       <c r="E128" s="82"/>
       <c r="F128" s="70"/>
       <c r="G128" s="71"/>
@@ -7434,9 +7442,9 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="68"/>
-      <c r="B129" s="241"/>
+      <c r="B129" s="230"/>
       <c r="C129" s="63"/>
-      <c r="D129" s="239"/>
+      <c r="D129" s="241"/>
       <c r="E129" s="86"/>
       <c r="F129" s="87"/>
       <c r="G129" s="78"/>
@@ -7465,9 +7473,9 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
-      <c r="B130" s="241"/>
+      <c r="B130" s="230"/>
       <c r="C130" s="63"/>
-      <c r="D130" s="239"/>
+      <c r="D130" s="241"/>
       <c r="E130" s="82"/>
       <c r="F130" s="88"/>
       <c r="G130" s="71"/>
@@ -7496,9 +7504,9 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68"/>
-      <c r="B131" s="241"/>
+      <c r="B131" s="230"/>
       <c r="C131" s="63"/>
-      <c r="D131" s="239"/>
+      <c r="D131" s="241"/>
       <c r="E131" s="86"/>
       <c r="F131" s="89"/>
       <c r="G131" s="78"/>
@@ -7527,7 +7535,7 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68"/>
-      <c r="B132" s="241"/>
+      <c r="B132" s="230"/>
       <c r="C132" s="63"/>
       <c r="D132" s="90"/>
       <c r="E132" s="86"/>
@@ -7558,9 +7566,9 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68"/>
-      <c r="B133" s="241"/>
+      <c r="B133" s="230"/>
       <c r="C133" s="63"/>
-      <c r="D133" s="240"/>
+      <c r="D133" s="229"/>
       <c r="E133" s="91"/>
       <c r="F133" s="92"/>
       <c r="G133" s="78"/>
@@ -7589,9 +7597,9 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68"/>
-      <c r="B134" s="241"/>
+      <c r="B134" s="230"/>
       <c r="C134" s="63"/>
-      <c r="D134" s="240"/>
+      <c r="D134" s="229"/>
       <c r="E134" s="86"/>
       <c r="F134" s="92"/>
       <c r="G134" s="78"/>
@@ -7620,9 +7628,9 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
-      <c r="B135" s="241"/>
+      <c r="B135" s="230"/>
       <c r="C135" s="63"/>
-      <c r="D135" s="240"/>
+      <c r="D135" s="229"/>
       <c r="E135" s="93"/>
       <c r="F135" s="83"/>
       <c r="G135" s="83"/>
@@ -7651,9 +7659,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68"/>
-      <c r="B136" s="241"/>
+      <c r="B136" s="230"/>
       <c r="C136" s="63"/>
-      <c r="D136" s="240"/>
+      <c r="D136" s="229"/>
       <c r="E136" s="93"/>
       <c r="F136" s="83"/>
       <c r="G136" s="83"/>
@@ -7682,9 +7690,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68"/>
-      <c r="B137" s="241"/>
+      <c r="B137" s="230"/>
       <c r="C137" s="63"/>
-      <c r="D137" s="240"/>
+      <c r="D137" s="229"/>
       <c r="E137" s="93"/>
       <c r="F137" s="83"/>
       <c r="G137" s="83"/>
@@ -7713,9 +7721,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68"/>
-      <c r="B138" s="241"/>
+      <c r="B138" s="230"/>
       <c r="C138" s="63"/>
-      <c r="D138" s="240"/>
+      <c r="D138" s="229"/>
       <c r="E138" s="93"/>
       <c r="F138" s="83"/>
       <c r="G138" s="83"/>
@@ -7744,9 +7752,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68"/>
-      <c r="B139" s="241"/>
+      <c r="B139" s="230"/>
       <c r="C139" s="63"/>
-      <c r="D139" s="240"/>
+      <c r="D139" s="229"/>
       <c r="E139" s="93"/>
       <c r="F139" s="83"/>
       <c r="G139" s="83"/>
@@ -7775,9 +7783,9 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68"/>
-      <c r="B140" s="241"/>
+      <c r="B140" s="230"/>
       <c r="C140" s="63"/>
-      <c r="D140" s="240"/>
+      <c r="D140" s="229"/>
       <c r="E140" s="93"/>
       <c r="F140" s="83"/>
       <c r="G140" s="83"/>
@@ -7806,9 +7814,9 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68"/>
-      <c r="B141" s="241"/>
+      <c r="B141" s="230"/>
       <c r="C141" s="63"/>
-      <c r="D141" s="240"/>
+      <c r="D141" s="229"/>
       <c r="E141" s="93"/>
       <c r="F141" s="83"/>
       <c r="G141" s="83"/>
@@ -7837,7 +7845,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68"/>
-      <c r="B142" s="241"/>
+      <c r="B142" s="230"/>
       <c r="C142" s="94"/>
       <c r="D142" s="95"/>
       <c r="E142" s="93"/>
@@ -7868,7 +7876,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68"/>
-      <c r="B143" s="241"/>
+      <c r="B143" s="230"/>
       <c r="C143" s="96"/>
       <c r="D143" s="95"/>
       <c r="E143" s="93"/>
@@ -7899,7 +7907,7 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68"/>
-      <c r="B144" s="241"/>
+      <c r="B144" s="230"/>
       <c r="C144" s="96"/>
       <c r="D144" s="97"/>
       <c r="E144" s="93"/>
@@ -7930,9 +7938,9 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68"/>
-      <c r="B145" s="241"/>
+      <c r="B145" s="230"/>
       <c r="C145" s="96"/>
-      <c r="D145" s="231"/>
+      <c r="D145" s="244"/>
       <c r="E145" s="98"/>
       <c r="F145" s="83"/>
       <c r="G145" s="83"/>
@@ -7961,9 +7969,9 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68"/>
-      <c r="B146" s="241"/>
+      <c r="B146" s="230"/>
       <c r="C146" s="96"/>
-      <c r="D146" s="231"/>
+      <c r="D146" s="244"/>
       <c r="E146" s="98"/>
       <c r="F146" s="83"/>
       <c r="G146" s="83"/>
@@ -7992,7 +8000,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68"/>
-      <c r="B147" s="241"/>
+      <c r="B147" s="230"/>
       <c r="C147" s="96"/>
       <c r="D147" s="99"/>
       <c r="E147" s="93"/>
@@ -8023,7 +8031,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68"/>
-      <c r="B148" s="241"/>
+      <c r="B148" s="230"/>
       <c r="C148" s="96"/>
       <c r="D148" s="100"/>
       <c r="E148" s="93"/>
@@ -8054,7 +8062,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68"/>
-      <c r="B149" s="241"/>
+      <c r="B149" s="230"/>
       <c r="C149" s="96"/>
       <c r="D149" s="100"/>
       <c r="E149" s="101"/>
@@ -8085,7 +8093,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68"/>
-      <c r="B150" s="241"/>
+      <c r="B150" s="230"/>
       <c r="C150" s="96"/>
       <c r="D150" s="100"/>
       <c r="E150" s="93"/>
@@ -8116,7 +8124,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68"/>
-      <c r="B151" s="241"/>
+      <c r="B151" s="230"/>
       <c r="C151" s="96"/>
       <c r="D151" s="100"/>
       <c r="E151" s="93"/>
@@ -8147,7 +8155,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68"/>
-      <c r="B152" s="241"/>
+      <c r="B152" s="230"/>
       <c r="C152" s="96"/>
       <c r="D152" s="100"/>
       <c r="E152" s="93"/>
@@ -8178,7 +8186,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68"/>
-      <c r="B153" s="241"/>
+      <c r="B153" s="230"/>
       <c r="C153" s="96"/>
       <c r="D153" s="100"/>
       <c r="E153" s="93"/>
@@ -8209,7 +8217,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68"/>
-      <c r="B154" s="241"/>
+      <c r="B154" s="230"/>
       <c r="C154" s="96"/>
       <c r="D154" s="100"/>
       <c r="E154" s="101"/>
@@ -8240,7 +8248,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68"/>
-      <c r="B155" s="241"/>
+      <c r="B155" s="230"/>
       <c r="C155" s="96"/>
       <c r="D155" s="100"/>
       <c r="E155" s="101"/>
@@ -8271,7 +8279,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="68"/>
-      <c r="B156" s="241"/>
+      <c r="B156" s="230"/>
       <c r="C156" s="96"/>
       <c r="D156" s="100"/>
       <c r="E156" s="101"/>
@@ -8302,7 +8310,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68"/>
-      <c r="B157" s="241"/>
+      <c r="B157" s="230"/>
       <c r="C157" s="96"/>
       <c r="D157" s="100"/>
       <c r="E157" s="93"/>
@@ -8333,7 +8341,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="68"/>
-      <c r="B158" s="241"/>
+      <c r="B158" s="230"/>
       <c r="C158" s="96"/>
       <c r="D158" s="100"/>
       <c r="E158" s="93"/>
@@ -8364,7 +8372,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68"/>
-      <c r="B159" s="241"/>
+      <c r="B159" s="230"/>
       <c r="C159" s="96"/>
       <c r="D159" s="100"/>
       <c r="E159" s="93"/>
@@ -8395,7 +8403,7 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68"/>
-      <c r="B160" s="241"/>
+      <c r="B160" s="230"/>
       <c r="C160" s="96"/>
       <c r="D160" s="100"/>
       <c r="E160" s="93"/>
@@ -8426,7 +8434,7 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="68"/>
-      <c r="B161" s="241"/>
+      <c r="B161" s="230"/>
       <c r="C161" s="96"/>
       <c r="D161" s="100"/>
       <c r="E161" s="93"/>
@@ -8457,7 +8465,7 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="68"/>
-      <c r="B162" s="241"/>
+      <c r="B162" s="230"/>
       <c r="C162" s="96"/>
       <c r="D162" s="100"/>
       <c r="E162" s="93"/>
@@ -8488,7 +8496,7 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="106"/>
-      <c r="B163" s="241"/>
+      <c r="B163" s="230"/>
       <c r="C163" s="96"/>
       <c r="D163" s="107"/>
       <c r="E163" s="108"/>
@@ -8519,7 +8527,7 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="106"/>
-      <c r="B164" s="241"/>
+      <c r="B164" s="230"/>
       <c r="C164" s="96"/>
       <c r="D164" s="109"/>
       <c r="E164" s="93"/>
@@ -8550,7 +8558,7 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="106"/>
-      <c r="B165" s="241"/>
+      <c r="B165" s="230"/>
       <c r="C165" s="96"/>
       <c r="D165" s="109"/>
       <c r="E165" s="93"/>
@@ -8581,7 +8589,7 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="106"/>
-      <c r="B166" s="241"/>
+      <c r="B166" s="230"/>
       <c r="C166" s="96"/>
       <c r="D166" s="109"/>
       <c r="E166" s="110"/>
@@ -8612,7 +8620,7 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="106"/>
-      <c r="B167" s="241"/>
+      <c r="B167" s="230"/>
       <c r="C167" s="96"/>
       <c r="D167" s="109"/>
       <c r="E167" s="111"/>
@@ -8643,7 +8651,7 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="106"/>
-      <c r="B168" s="241"/>
+      <c r="B168" s="230"/>
       <c r="C168" s="96"/>
       <c r="D168" s="109"/>
       <c r="E168" s="111"/>
@@ -8674,7 +8682,7 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="106"/>
-      <c r="B169" s="241"/>
+      <c r="B169" s="230"/>
       <c r="C169" s="96"/>
       <c r="D169" s="109"/>
       <c r="E169" s="111"/>
@@ -8705,7 +8713,7 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="106"/>
-      <c r="B170" s="241"/>
+      <c r="B170" s="230"/>
       <c r="C170" s="96"/>
       <c r="D170" s="109"/>
       <c r="E170" s="111"/>
@@ -8736,7 +8744,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="106"/>
-      <c r="B171" s="241"/>
+      <c r="B171" s="230"/>
       <c r="C171" s="96"/>
       <c r="D171" s="109"/>
       <c r="E171" s="93"/>
@@ -8767,7 +8775,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="106"/>
-      <c r="B172" s="241"/>
+      <c r="B172" s="230"/>
       <c r="C172" s="96"/>
       <c r="D172" s="109"/>
       <c r="E172" s="93"/>
@@ -8798,7 +8806,7 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="106"/>
-      <c r="B173" s="241"/>
+      <c r="B173" s="230"/>
       <c r="C173" s="96"/>
       <c r="D173" s="109"/>
       <c r="E173" s="93"/>
@@ -8829,7 +8837,7 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="106"/>
-      <c r="B174" s="241"/>
+      <c r="B174" s="230"/>
       <c r="C174" s="96"/>
       <c r="D174" s="109"/>
       <c r="E174" s="93"/>
@@ -8860,7 +8868,7 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="106"/>
-      <c r="B175" s="241"/>
+      <c r="B175" s="230"/>
       <c r="C175" s="96"/>
       <c r="D175" s="109"/>
       <c r="E175" s="108"/>
@@ -8891,7 +8899,7 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="106"/>
-      <c r="B176" s="241"/>
+      <c r="B176" s="230"/>
       <c r="C176" s="96"/>
       <c r="D176" s="112"/>
       <c r="E176" s="113"/>
@@ -8922,7 +8930,7 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="106"/>
-      <c r="B177" s="241"/>
+      <c r="B177" s="230"/>
       <c r="C177" s="96"/>
       <c r="D177" s="114"/>
       <c r="E177" s="108"/>
@@ -8953,9 +8961,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="106"/>
-      <c r="B178" s="241"/>
+      <c r="B178" s="230"/>
       <c r="C178" s="96"/>
-      <c r="D178" s="232"/>
+      <c r="D178" s="245"/>
       <c r="E178" s="93"/>
       <c r="F178" s="83"/>
       <c r="G178" s="83"/>
@@ -8964,7 +8972,7 @@
       <c r="J178" s="83"/>
       <c r="K178" s="83"/>
       <c r="L178" s="74"/>
-      <c r="M178" s="233"/>
+      <c r="M178" s="246"/>
       <c r="N178" s="67"/>
       <c r="O178" s="67"/>
       <c r="P178" s="67"/>
@@ -8984,9 +8992,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="68"/>
-      <c r="B179" s="241"/>
+      <c r="B179" s="230"/>
       <c r="C179" s="96"/>
-      <c r="D179" s="232"/>
+      <c r="D179" s="245"/>
       <c r="E179" s="93"/>
       <c r="F179" s="83"/>
       <c r="G179" s="83"/>
@@ -8995,7 +9003,7 @@
       <c r="J179" s="83"/>
       <c r="K179" s="83"/>
       <c r="L179" s="74"/>
-      <c r="M179" s="233"/>
+      <c r="M179" s="246"/>
       <c r="N179" s="67"/>
       <c r="O179" s="67"/>
       <c r="P179" s="67"/>
@@ -9015,9 +9023,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="68"/>
-      <c r="B180" s="241"/>
+      <c r="B180" s="230"/>
       <c r="C180" s="96"/>
-      <c r="D180" s="232"/>
+      <c r="D180" s="245"/>
       <c r="E180" s="110"/>
       <c r="F180" s="83"/>
       <c r="G180" s="83"/>
@@ -9026,7 +9034,7 @@
       <c r="J180" s="83"/>
       <c r="K180" s="83"/>
       <c r="L180" s="74"/>
-      <c r="M180" s="233"/>
+      <c r="M180" s="246"/>
       <c r="N180" s="67"/>
       <c r="O180" s="67"/>
       <c r="P180" s="67"/>
@@ -9046,9 +9054,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="68"/>
-      <c r="B181" s="241"/>
+      <c r="B181" s="230"/>
       <c r="C181" s="96"/>
-      <c r="D181" s="232"/>
+      <c r="D181" s="245"/>
       <c r="E181" s="111"/>
       <c r="F181" s="83"/>
       <c r="G181" s="83"/>
@@ -9057,7 +9065,7 @@
       <c r="J181" s="83"/>
       <c r="K181" s="83"/>
       <c r="L181" s="74"/>
-      <c r="M181" s="233"/>
+      <c r="M181" s="246"/>
       <c r="N181" s="67"/>
       <c r="O181" s="67"/>
       <c r="P181" s="67"/>
@@ -9077,9 +9085,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="68"/>
-      <c r="B182" s="241"/>
+      <c r="B182" s="230"/>
       <c r="C182" s="96"/>
-      <c r="D182" s="232"/>
+      <c r="D182" s="245"/>
       <c r="E182" s="111"/>
       <c r="F182" s="83"/>
       <c r="G182" s="83"/>
@@ -9088,7 +9096,7 @@
       <c r="J182" s="83"/>
       <c r="K182" s="83"/>
       <c r="L182" s="74"/>
-      <c r="M182" s="233"/>
+      <c r="M182" s="246"/>
       <c r="N182" s="67"/>
       <c r="O182" s="67"/>
       <c r="P182" s="67"/>
@@ -9108,9 +9116,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="68"/>
-      <c r="B183" s="241"/>
+      <c r="B183" s="230"/>
       <c r="C183" s="96"/>
-      <c r="D183" s="232"/>
+      <c r="D183" s="245"/>
       <c r="E183" s="111"/>
       <c r="F183" s="83"/>
       <c r="G183" s="83"/>
@@ -9119,7 +9127,7 @@
       <c r="J183" s="83"/>
       <c r="K183" s="83"/>
       <c r="L183" s="74"/>
-      <c r="M183" s="233"/>
+      <c r="M183" s="246"/>
       <c r="N183" s="67"/>
       <c r="O183" s="67"/>
       <c r="P183" s="67"/>
@@ -9139,9 +9147,9 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="68"/>
-      <c r="B184" s="241"/>
+      <c r="B184" s="230"/>
       <c r="C184" s="96"/>
-      <c r="D184" s="232"/>
+      <c r="D184" s="245"/>
       <c r="E184" s="111"/>
       <c r="F184" s="83"/>
       <c r="G184" s="83"/>
@@ -9150,7 +9158,7 @@
       <c r="J184" s="83"/>
       <c r="K184" s="83"/>
       <c r="L184" s="74"/>
-      <c r="M184" s="233"/>
+      <c r="M184" s="246"/>
       <c r="N184" s="67"/>
       <c r="O184" s="67"/>
       <c r="P184" s="67"/>
@@ -9170,9 +9178,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="68"/>
-      <c r="B185" s="241"/>
+      <c r="B185" s="230"/>
       <c r="C185" s="96"/>
-      <c r="D185" s="232"/>
+      <c r="D185" s="245"/>
       <c r="E185" s="93"/>
       <c r="F185" s="83"/>
       <c r="G185" s="83"/>
@@ -9181,7 +9189,7 @@
       <c r="J185" s="83"/>
       <c r="K185" s="83"/>
       <c r="L185" s="74"/>
-      <c r="M185" s="233"/>
+      <c r="M185" s="246"/>
       <c r="N185" s="67"/>
       <c r="O185" s="67"/>
       <c r="P185" s="67"/>
@@ -9201,9 +9209,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="68"/>
-      <c r="B186" s="241"/>
+      <c r="B186" s="230"/>
       <c r="C186" s="96"/>
-      <c r="D186" s="232"/>
+      <c r="D186" s="245"/>
       <c r="E186" s="93"/>
       <c r="F186" s="83"/>
       <c r="G186" s="83"/>
@@ -9232,9 +9240,9 @@
     </row>
     <row r="187" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="68"/>
-      <c r="B187" s="241"/>
+      <c r="B187" s="230"/>
       <c r="C187" s="96"/>
-      <c r="D187" s="232"/>
+      <c r="D187" s="245"/>
       <c r="E187" s="93"/>
       <c r="F187" s="83"/>
       <c r="G187" s="83"/>
@@ -9263,9 +9271,9 @@
     </row>
     <row r="188" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="68"/>
-      <c r="B188" s="241"/>
+      <c r="B188" s="230"/>
       <c r="C188" s="96"/>
-      <c r="D188" s="232"/>
+      <c r="D188" s="245"/>
       <c r="E188" s="93"/>
       <c r="F188" s="83"/>
       <c r="G188" s="83"/>
@@ -9329,7 +9337,7 @@
       <c r="C190" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D190" s="234"/>
+      <c r="D190" s="247"/>
       <c r="E190" s="93"/>
       <c r="F190" s="83"/>
       <c r="G190" s="105"/>
@@ -9360,7 +9368,7 @@
       <c r="A191" s="115"/>
       <c r="B191" s="114"/>
       <c r="C191" s="119"/>
-      <c r="D191" s="234"/>
+      <c r="D191" s="247"/>
       <c r="E191" s="93"/>
       <c r="F191" s="83"/>
       <c r="G191" s="105"/>
@@ -9391,7 +9399,7 @@
       <c r="A192" s="115"/>
       <c r="B192" s="114"/>
       <c r="C192" s="119"/>
-      <c r="D192" s="234"/>
+      <c r="D192" s="247"/>
       <c r="E192" s="93"/>
       <c r="F192" s="83"/>
       <c r="G192" s="105"/>
@@ -9422,7 +9430,7 @@
       <c r="A193" s="115"/>
       <c r="B193" s="114"/>
       <c r="C193" s="114"/>
-      <c r="D193" s="234"/>
+      <c r="D193" s="247"/>
       <c r="E193" s="101"/>
       <c r="F193" s="83"/>
       <c r="G193" s="105"/>
@@ -9453,7 +9461,7 @@
       <c r="A194" s="115"/>
       <c r="B194" s="118"/>
       <c r="C194" s="114"/>
-      <c r="D194" s="234"/>
+      <c r="D194" s="247"/>
       <c r="E194" s="101"/>
       <c r="F194" s="83"/>
       <c r="G194" s="105"/>
@@ -9484,7 +9492,7 @@
       <c r="A195" s="115"/>
       <c r="B195" s="118"/>
       <c r="C195" s="114"/>
-      <c r="D195" s="234"/>
+      <c r="D195" s="247"/>
       <c r="E195" s="101"/>
       <c r="F195" s="83"/>
       <c r="G195" s="105"/>
@@ -9515,7 +9523,7 @@
       <c r="A196" s="115"/>
       <c r="B196" s="118"/>
       <c r="C196" s="114"/>
-      <c r="D196" s="234"/>
+      <c r="D196" s="247"/>
       <c r="E196" s="93"/>
       <c r="F196" s="83"/>
       <c r="G196" s="105"/>
@@ -9546,7 +9554,7 @@
       <c r="A197" s="115"/>
       <c r="B197" s="118"/>
       <c r="C197" s="114"/>
-      <c r="D197" s="234"/>
+      <c r="D197" s="247"/>
       <c r="E197" s="93"/>
       <c r="F197" s="83"/>
       <c r="G197" s="105"/>
@@ -9577,7 +9585,7 @@
       <c r="A198" s="115"/>
       <c r="B198" s="118"/>
       <c r="C198" s="118"/>
-      <c r="D198" s="234"/>
+      <c r="D198" s="247"/>
       <c r="E198" s="93"/>
       <c r="F198" s="83"/>
       <c r="G198" s="105"/>
@@ -10917,8 +10925,8 @@
       <c r="H241" s="139"/>
       <c r="I241" s="139"/>
       <c r="J241" s="139"/>
-      <c r="K241" s="230"/>
-      <c r="L241" s="233"/>
+      <c r="K241" s="243"/>
+      <c r="L241" s="246"/>
       <c r="M241" s="134"/>
       <c r="N241" s="67"/>
       <c r="O241" s="67"/>
@@ -10948,8 +10956,8 @@
       <c r="H242" s="140"/>
       <c r="I242" s="140"/>
       <c r="J242" s="140"/>
-      <c r="K242" s="230"/>
-      <c r="L242" s="233"/>
+      <c r="K242" s="243"/>
+      <c r="L242" s="246"/>
       <c r="M242" s="134"/>
       <c r="N242" s="67"/>
       <c r="O242" s="67"/>
@@ -10979,8 +10987,8 @@
       <c r="H243" s="65"/>
       <c r="I243" s="65"/>
       <c r="J243" s="65"/>
-      <c r="K243" s="230"/>
-      <c r="L243" s="233"/>
+      <c r="K243" s="243"/>
+      <c r="L243" s="246"/>
       <c r="M243" s="134"/>
       <c r="N243" s="67"/>
       <c r="O243" s="67"/>
@@ -11188,9 +11196,9 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="115"/>
       <c r="B250" s="126"/>
-      <c r="C250" s="224"/>
+      <c r="C250" s="248"/>
       <c r="D250" s="114"/>
-      <c r="E250" s="228"/>
+      <c r="E250" s="249"/>
       <c r="F250" s="76"/>
       <c r="G250" s="76"/>
       <c r="H250" s="76"/>
@@ -11219,9 +11227,9 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="115"/>
       <c r="B251" s="126"/>
-      <c r="C251" s="224"/>
+      <c r="C251" s="248"/>
       <c r="D251" s="114"/>
-      <c r="E251" s="228"/>
+      <c r="E251" s="249"/>
       <c r="F251" s="76"/>
       <c r="G251" s="76"/>
       <c r="H251" s="76"/>
@@ -11250,9 +11258,9 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="115"/>
       <c r="B252" s="126"/>
-      <c r="C252" s="224"/>
+      <c r="C252" s="248"/>
       <c r="D252" s="114"/>
-      <c r="E252" s="228"/>
+      <c r="E252" s="249"/>
       <c r="F252" s="76"/>
       <c r="G252" s="76"/>
       <c r="H252" s="76"/>
@@ -11281,7 +11289,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="115"/>
       <c r="B253" s="126"/>
-      <c r="C253" s="224"/>
+      <c r="C253" s="248"/>
       <c r="D253" s="114"/>
       <c r="E253" s="84"/>
       <c r="F253" s="76"/>
@@ -11312,7 +11320,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="115"/>
       <c r="B254" s="126"/>
-      <c r="C254" s="224"/>
+      <c r="C254" s="248"/>
       <c r="D254" s="114"/>
       <c r="E254" s="84"/>
       <c r="F254" s="76"/>
@@ -11343,7 +11351,7 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="115"/>
       <c r="B255" s="126"/>
-      <c r="C255" s="224"/>
+      <c r="C255" s="248"/>
       <c r="D255" s="114"/>
       <c r="E255" s="84"/>
       <c r="F255" s="137"/>
@@ -11374,7 +11382,7 @@
     <row r="256" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="115"/>
       <c r="B256" s="126"/>
-      <c r="C256" s="224"/>
+      <c r="C256" s="248"/>
       <c r="D256" s="114"/>
       <c r="E256" s="84"/>
       <c r="F256" s="76"/>
@@ -11405,7 +11413,7 @@
     <row r="257" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="115"/>
       <c r="B257" s="126"/>
-      <c r="C257" s="225"/>
+      <c r="C257" s="242"/>
       <c r="D257" s="124"/>
       <c r="E257" s="84"/>
       <c r="F257" s="137"/>
@@ -11436,7 +11444,7 @@
     <row r="258" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="115"/>
       <c r="B258" s="126"/>
-      <c r="C258" s="225"/>
+      <c r="C258" s="242"/>
       <c r="D258" s="145"/>
       <c r="E258" s="84"/>
       <c r="F258" s="137"/>
@@ -11498,7 +11506,7 @@
     <row r="260" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="115"/>
       <c r="B260" s="126"/>
-      <c r="C260" s="225"/>
+      <c r="C260" s="242"/>
       <c r="D260" s="124"/>
       <c r="E260" s="84"/>
       <c r="F260" s="76"/>
@@ -11529,7 +11537,7 @@
     <row r="261" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="115"/>
       <c r="B261" s="126"/>
-      <c r="C261" s="225"/>
+      <c r="C261" s="242"/>
       <c r="D261" s="125"/>
       <c r="E261" s="84"/>
       <c r="F261" s="76"/>
@@ -11560,7 +11568,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="115"/>
       <c r="B262" s="126"/>
-      <c r="C262" s="225"/>
+      <c r="C262" s="242"/>
       <c r="D262" s="125"/>
       <c r="E262" s="84"/>
       <c r="F262" s="76"/>
@@ -11591,7 +11599,7 @@
     <row r="263" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="115"/>
       <c r="B263" s="126"/>
-      <c r="C263" s="225"/>
+      <c r="C263" s="242"/>
       <c r="D263" s="125"/>
       <c r="E263" s="84"/>
       <c r="F263" s="137"/>
@@ -11622,7 +11630,7 @@
     <row r="264" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="115"/>
       <c r="B264" s="126"/>
-      <c r="C264" s="225"/>
+      <c r="C264" s="242"/>
       <c r="D264" s="125"/>
       <c r="E264" s="147"/>
       <c r="F264" s="76"/>
@@ -12002,7 +12010,7 @@
       <c r="H276" s="137"/>
       <c r="I276" s="137"/>
       <c r="J276" s="137"/>
-      <c r="K276" s="229"/>
+      <c r="K276" s="250"/>
       <c r="L276" s="74"/>
       <c r="M276" s="103"/>
       <c r="N276" s="67"/>
@@ -12033,7 +12041,7 @@
       <c r="H277" s="137"/>
       <c r="I277" s="137"/>
       <c r="J277" s="137"/>
-      <c r="K277" s="229"/>
+      <c r="K277" s="250"/>
       <c r="L277" s="74"/>
       <c r="M277" s="103"/>
       <c r="N277" s="67"/>
@@ -12118,7 +12126,7 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="115"/>
       <c r="B280" s="126"/>
-      <c r="C280" s="225"/>
+      <c r="C280" s="242"/>
       <c r="D280" s="124"/>
       <c r="E280" s="84"/>
       <c r="F280" s="137"/>
@@ -12126,7 +12134,7 @@
       <c r="H280" s="137"/>
       <c r="I280" s="137"/>
       <c r="J280" s="137"/>
-      <c r="K280" s="230"/>
+      <c r="K280" s="243"/>
       <c r="L280" s="74"/>
       <c r="M280" s="103"/>
       <c r="N280" s="67"/>
@@ -12149,7 +12157,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="115"/>
       <c r="B281" s="126"/>
-      <c r="C281" s="225"/>
+      <c r="C281" s="242"/>
       <c r="D281" s="145"/>
       <c r="E281" s="84"/>
       <c r="F281" s="137"/>
@@ -12157,7 +12165,7 @@
       <c r="H281" s="137"/>
       <c r="I281" s="137"/>
       <c r="J281" s="137"/>
-      <c r="K281" s="230"/>
+      <c r="K281" s="243"/>
       <c r="L281" s="74"/>
       <c r="M281" s="103"/>
       <c r="N281" s="67"/>
@@ -12180,7 +12188,7 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="115"/>
       <c r="B282" s="126"/>
-      <c r="C282" s="224"/>
+      <c r="C282" s="248"/>
       <c r="D282" s="138"/>
       <c r="E282" s="101"/>
       <c r="F282" s="83"/>
@@ -12211,7 +12219,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="115"/>
       <c r="B283" s="126"/>
-      <c r="C283" s="224"/>
+      <c r="C283" s="248"/>
       <c r="D283" s="99"/>
       <c r="E283" s="101"/>
       <c r="F283" s="83"/>
@@ -12273,7 +12281,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="115"/>
       <c r="B285" s="126"/>
-      <c r="C285" s="225"/>
+      <c r="C285" s="242"/>
       <c r="D285" s="124"/>
       <c r="E285" s="101"/>
       <c r="F285" s="83"/>
@@ -12304,7 +12312,7 @@
     <row r="286" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="115"/>
       <c r="B286" s="126"/>
-      <c r="C286" s="225"/>
+      <c r="C286" s="242"/>
       <c r="D286" s="125"/>
       <c r="E286" s="101"/>
       <c r="F286" s="83"/>
@@ -12335,7 +12343,7 @@
     <row r="287" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="115"/>
       <c r="B287" s="126"/>
-      <c r="C287" s="225"/>
+      <c r="C287" s="242"/>
       <c r="D287" s="145"/>
       <c r="E287" s="101"/>
       <c r="F287" s="83"/>
@@ -12520,10 +12528,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="121"/>
-      <c r="B293" s="226"/>
-      <c r="C293" s="224"/>
+      <c r="B293" s="251"/>
+      <c r="C293" s="248"/>
       <c r="D293" s="114"/>
-      <c r="E293" s="224"/>
+      <c r="E293" s="248"/>
       <c r="F293" s="76"/>
       <c r="G293" s="76"/>
       <c r="H293" s="76"/>
@@ -12551,10 +12559,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="121"/>
-      <c r="B294" s="226"/>
-      <c r="C294" s="226"/>
+      <c r="B294" s="251"/>
+      <c r="C294" s="251"/>
       <c r="D294" s="114"/>
-      <c r="E294" s="224"/>
+      <c r="E294" s="248"/>
       <c r="F294" s="76"/>
       <c r="G294" s="76"/>
       <c r="H294" s="76"/>
@@ -12582,10 +12590,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="121"/>
-      <c r="B295" s="226"/>
-      <c r="C295" s="226"/>
+      <c r="B295" s="251"/>
+      <c r="C295" s="251"/>
       <c r="D295" s="114"/>
-      <c r="E295" s="224"/>
+      <c r="E295" s="248"/>
       <c r="F295" s="76"/>
       <c r="G295" s="76"/>
       <c r="H295" s="76"/>
@@ -12613,10 +12621,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="121"/>
-      <c r="B296" s="226"/>
-      <c r="C296" s="226"/>
+      <c r="B296" s="251"/>
+      <c r="C296" s="251"/>
       <c r="D296" s="114"/>
-      <c r="E296" s="224"/>
+      <c r="E296" s="248"/>
       <c r="F296" s="76"/>
       <c r="G296" s="76"/>
       <c r="H296" s="76"/>
@@ -12644,10 +12652,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="121"/>
-      <c r="B297" s="226"/>
-      <c r="C297" s="226"/>
+      <c r="B297" s="251"/>
+      <c r="C297" s="251"/>
       <c r="D297" s="114"/>
-      <c r="E297" s="224"/>
+      <c r="E297" s="248"/>
       <c r="F297" s="76"/>
       <c r="G297" s="76"/>
       <c r="H297" s="76"/>
@@ -12675,10 +12683,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="121"/>
-      <c r="B298" s="226"/>
-      <c r="C298" s="226"/>
+      <c r="B298" s="251"/>
+      <c r="C298" s="251"/>
       <c r="D298" s="114"/>
-      <c r="E298" s="224"/>
+      <c r="E298" s="248"/>
       <c r="F298" s="137"/>
       <c r="G298" s="137"/>
       <c r="H298" s="137"/>
@@ -12706,10 +12714,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="121"/>
-      <c r="B299" s="226"/>
-      <c r="C299" s="226"/>
+      <c r="B299" s="251"/>
+      <c r="C299" s="251"/>
       <c r="D299" s="114"/>
-      <c r="E299" s="224"/>
+      <c r="E299" s="248"/>
       <c r="F299" s="76"/>
       <c r="G299" s="76"/>
       <c r="H299" s="76"/>
@@ -12737,10 +12745,10 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="121"/>
-      <c r="B300" s="226"/>
-      <c r="C300" s="226"/>
+      <c r="B300" s="251"/>
+      <c r="C300" s="251"/>
       <c r="D300" s="114"/>
-      <c r="E300" s="224"/>
+      <c r="E300" s="248"/>
       <c r="F300" s="76"/>
       <c r="G300" s="76"/>
       <c r="H300" s="76"/>
@@ -12768,8 +12776,8 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="121"/>
-      <c r="B301" s="226"/>
-      <c r="C301" s="226"/>
+      <c r="B301" s="251"/>
+      <c r="C301" s="251"/>
       <c r="D301" s="114"/>
       <c r="E301" s="118"/>
       <c r="F301" s="73"/>
@@ -12799,8 +12807,8 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="121"/>
-      <c r="B302" s="226"/>
-      <c r="C302" s="226"/>
+      <c r="B302" s="251"/>
+      <c r="C302" s="251"/>
       <c r="D302" s="114"/>
       <c r="E302" s="118"/>
       <c r="F302" s="74"/>
@@ -12830,10 +12838,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="121"/>
-      <c r="B303" s="226"/>
-      <c r="C303" s="226"/>
+      <c r="B303" s="251"/>
+      <c r="C303" s="251"/>
       <c r="D303" s="138"/>
-      <c r="E303" s="224"/>
+      <c r="E303" s="248"/>
       <c r="F303" s="83"/>
       <c r="G303" s="83"/>
       <c r="H303" s="83"/>
@@ -12861,10 +12869,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="121"/>
-      <c r="B304" s="226"/>
-      <c r="C304" s="226"/>
+      <c r="B304" s="251"/>
+      <c r="C304" s="251"/>
       <c r="D304" s="159"/>
-      <c r="E304" s="224"/>
+      <c r="E304" s="248"/>
       <c r="F304" s="74"/>
       <c r="G304" s="74"/>
       <c r="H304" s="74"/>
@@ -12892,10 +12900,10 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="121"/>
-      <c r="B305" s="226"/>
-      <c r="C305" s="226"/>
+      <c r="B305" s="251"/>
+      <c r="C305" s="251"/>
       <c r="D305" s="159"/>
-      <c r="E305" s="224"/>
+      <c r="E305" s="248"/>
       <c r="F305" s="74"/>
       <c r="G305" s="74"/>
       <c r="H305" s="74"/>
@@ -12923,10 +12931,10 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="121"/>
-      <c r="B306" s="226"/>
-      <c r="C306" s="224"/>
+      <c r="B306" s="251"/>
+      <c r="C306" s="248"/>
       <c r="D306" s="99"/>
-      <c r="E306" s="224"/>
+      <c r="E306" s="248"/>
       <c r="F306" s="74"/>
       <c r="G306" s="74"/>
       <c r="H306" s="74"/>
@@ -12954,7 +12962,7 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="121"/>
-      <c r="B307" s="226"/>
+      <c r="B307" s="251"/>
       <c r="C307" s="114"/>
       <c r="D307" s="159"/>
       <c r="E307" s="159"/>
@@ -12985,10 +12993,10 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="121"/>
-      <c r="B308" s="226"/>
-      <c r="C308" s="224"/>
+      <c r="B308" s="251"/>
+      <c r="C308" s="248"/>
       <c r="D308" s="138"/>
-      <c r="E308" s="227"/>
+      <c r="E308" s="252"/>
       <c r="F308" s="83"/>
       <c r="G308" s="83"/>
       <c r="H308" s="83"/>
@@ -13016,10 +13024,10 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="121"/>
-      <c r="B309" s="226"/>
-      <c r="C309" s="226"/>
+      <c r="B309" s="251"/>
+      <c r="C309" s="251"/>
       <c r="D309" s="99"/>
-      <c r="E309" s="227"/>
+      <c r="E309" s="252"/>
       <c r="F309" s="83"/>
       <c r="G309" s="83"/>
       <c r="H309" s="83"/>
@@ -13047,10 +13055,10 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="121"/>
-      <c r="B310" s="226"/>
-      <c r="C310" s="226"/>
+      <c r="B310" s="251"/>
+      <c r="C310" s="251"/>
       <c r="D310" s="114"/>
-      <c r="E310" s="227"/>
+      <c r="E310" s="252"/>
       <c r="F310" s="83"/>
       <c r="G310" s="83"/>
       <c r="H310" s="83"/>
@@ -13078,10 +13086,10 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="121"/>
-      <c r="B311" s="226"/>
-      <c r="C311" s="224"/>
+      <c r="B311" s="251"/>
+      <c r="C311" s="248"/>
       <c r="D311" s="114"/>
-      <c r="E311" s="227"/>
+      <c r="E311" s="252"/>
       <c r="F311" s="83"/>
       <c r="G311" s="83"/>
       <c r="H311" s="83"/>
@@ -13109,7 +13117,7 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="121"/>
-      <c r="B312" s="226"/>
+      <c r="B312" s="251"/>
       <c r="C312" s="118"/>
       <c r="D312" s="118"/>
       <c r="E312" s="121"/>
@@ -13140,10 +13148,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="121"/>
-      <c r="B313" s="226"/>
-      <c r="C313" s="224"/>
+      <c r="B313" s="251"/>
+      <c r="C313" s="248"/>
       <c r="D313" s="138"/>
-      <c r="E313" s="224"/>
+      <c r="E313" s="248"/>
       <c r="F313" s="83"/>
       <c r="G313" s="83"/>
       <c r="H313" s="83"/>
@@ -13171,10 +13179,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="121"/>
-      <c r="B314" s="226"/>
-      <c r="C314" s="226"/>
+      <c r="B314" s="251"/>
+      <c r="C314" s="251"/>
       <c r="D314" s="159"/>
-      <c r="E314" s="224"/>
+      <c r="E314" s="248"/>
       <c r="F314" s="83"/>
       <c r="G314" s="83"/>
       <c r="H314" s="83"/>
@@ -13202,10 +13210,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="121"/>
-      <c r="B315" s="226"/>
-      <c r="C315" s="226"/>
+      <c r="B315" s="251"/>
+      <c r="C315" s="251"/>
       <c r="D315" s="159"/>
-      <c r="E315" s="224"/>
+      <c r="E315" s="248"/>
       <c r="F315" s="83"/>
       <c r="G315" s="83"/>
       <c r="H315" s="83"/>
@@ -13233,10 +13241,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="121"/>
-      <c r="B316" s="226"/>
-      <c r="C316" s="226"/>
+      <c r="B316" s="251"/>
+      <c r="C316" s="251"/>
       <c r="D316" s="159"/>
-      <c r="E316" s="224"/>
+      <c r="E316" s="248"/>
       <c r="F316" s="83"/>
       <c r="G316" s="83"/>
       <c r="H316" s="83"/>
@@ -13264,10 +13272,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="121"/>
-      <c r="B317" s="226"/>
-      <c r="C317" s="226"/>
+      <c r="B317" s="251"/>
+      <c r="C317" s="251"/>
       <c r="D317" s="159"/>
-      <c r="E317" s="224"/>
+      <c r="E317" s="248"/>
       <c r="F317" s="76"/>
       <c r="G317" s="76"/>
       <c r="H317" s="76"/>
@@ -13295,10 +13303,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="121"/>
-      <c r="B318" s="226"/>
-      <c r="C318" s="226"/>
+      <c r="B318" s="251"/>
+      <c r="C318" s="251"/>
       <c r="D318" s="99"/>
-      <c r="E318" s="224"/>
+      <c r="E318" s="248"/>
       <c r="F318" s="76"/>
       <c r="G318" s="76"/>
       <c r="H318" s="76"/>
@@ -13326,10 +13334,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="121"/>
-      <c r="B319" s="226"/>
-      <c r="C319" s="226"/>
+      <c r="B319" s="251"/>
+      <c r="C319" s="251"/>
       <c r="D319" s="138"/>
-      <c r="E319" s="224"/>
+      <c r="E319" s="248"/>
       <c r="F319" s="83"/>
       <c r="G319" s="83"/>
       <c r="H319" s="83"/>
@@ -13357,10 +13365,10 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="121"/>
-      <c r="B320" s="226"/>
-      <c r="C320" s="226"/>
+      <c r="B320" s="251"/>
+      <c r="C320" s="251"/>
       <c r="D320" s="159"/>
-      <c r="E320" s="224"/>
+      <c r="E320" s="248"/>
       <c r="F320" s="74"/>
       <c r="G320" s="74"/>
       <c r="H320" s="74"/>
@@ -13388,10 +13396,10 @@
     </row>
     <row r="321" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="121"/>
-      <c r="B321" s="226"/>
-      <c r="C321" s="226"/>
+      <c r="B321" s="251"/>
+      <c r="C321" s="251"/>
       <c r="D321" s="159"/>
-      <c r="E321" s="224"/>
+      <c r="E321" s="248"/>
       <c r="F321" s="74"/>
       <c r="G321" s="74"/>
       <c r="H321" s="74"/>
@@ -13419,10 +13427,10 @@
     </row>
     <row r="322" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="121"/>
-      <c r="B322" s="226"/>
-      <c r="C322" s="226"/>
+      <c r="B322" s="251"/>
+      <c r="C322" s="251"/>
       <c r="D322" s="99"/>
-      <c r="E322" s="224"/>
+      <c r="E322" s="248"/>
       <c r="F322" s="74"/>
       <c r="G322" s="74"/>
       <c r="H322" s="74"/>
@@ -15558,13 +15566,31 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E313:E318"/>
+    <mergeCell ref="E319:E322"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="C285:C287"/>
+    <mergeCell ref="B293:B322"/>
+    <mergeCell ref="C293:C306"/>
+    <mergeCell ref="E293:E300"/>
+    <mergeCell ref="E303:E306"/>
+    <mergeCell ref="C308:C311"/>
+    <mergeCell ref="E308:E309"/>
+    <mergeCell ref="E310:E311"/>
+    <mergeCell ref="C313:C322"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="K280:K281"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D178:D188"/>
+    <mergeCell ref="M178:M185"/>
+    <mergeCell ref="D190:D198"/>
+    <mergeCell ref="K241:K243"/>
+    <mergeCell ref="L241:L243"/>
+    <mergeCell ref="C250:C256"/>
+    <mergeCell ref="E250:E252"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="C260:C264"/>
+    <mergeCell ref="K276:K277"/>
     <mergeCell ref="D133:D141"/>
     <mergeCell ref="B10:B188"/>
     <mergeCell ref="C10:C20"/>
@@ -15581,31 +15607,13 @@
     <mergeCell ref="D111:D120"/>
     <mergeCell ref="D122:D123"/>
     <mergeCell ref="D125:D131"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="K280:K281"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D178:D188"/>
-    <mergeCell ref="M178:M185"/>
-    <mergeCell ref="D190:D198"/>
-    <mergeCell ref="K241:K243"/>
-    <mergeCell ref="L241:L243"/>
-    <mergeCell ref="C250:C256"/>
-    <mergeCell ref="E250:E252"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="C260:C264"/>
-    <mergeCell ref="K276:K277"/>
-    <mergeCell ref="E313:E318"/>
-    <mergeCell ref="E319:E322"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="B293:B322"/>
-    <mergeCell ref="C293:C306"/>
-    <mergeCell ref="E293:E300"/>
-    <mergeCell ref="E303:E306"/>
-    <mergeCell ref="C308:C311"/>
-    <mergeCell ref="E308:E309"/>
-    <mergeCell ref="E310:E311"/>
-    <mergeCell ref="C313:C322"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="L8 L10:L48">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">

--- a/Daraz sign up and login test cases.xlsx
+++ b/Daraz sign up and login test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB090FBE-8171-4C46-B7C7-9CBB2F26B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE4F761-318E-4900-AE92-28F90C40B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,9 +443,6 @@
     <t xml:space="preserve">Verify name with only alphabets </t>
   </si>
   <si>
-    <t xml:space="preserve">Verify name with only neumerics </t>
-  </si>
-  <si>
     <t>Should not accept the input</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
   </si>
   <si>
     <t>Kamal123</t>
-  </si>
-  <si>
-    <t>Starting name with neumeric</t>
   </si>
   <si>
     <t>12Kamal</t>
@@ -732,6 +726,12 @@
   </si>
   <si>
     <t>Check more than maximum digits of phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify name with only numerics </t>
+  </si>
+  <si>
+    <t>Starting name with numeric</t>
   </si>
 </sst>
 </file>
@@ -1988,20 +1988,38 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2040,38 +2058,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2515,9 +2515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
   <dimension ref="A1:AC390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2539,10 +2539,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="226"/>
+      <c r="B1" s="250"/>
       <c r="C1" s="168" t="s">
         <v>52</v>
       </c>
@@ -2560,10 +2560,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="227" t="s">
+      <c r="L1" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="228"/>
+      <c r="M1" s="252"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2582,12 +2582,12 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="226"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="173" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" s="174" t="s">
         <v>11</v>
@@ -2626,10 +2626,10 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="226"/>
+      <c r="B3" s="250"/>
       <c r="C3" s="173"/>
       <c r="D3" s="174" t="s">
         <v>14</v>
@@ -2670,10 +2670,10 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="226"/>
+      <c r="B4" s="250"/>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
         <v>17</v>
@@ -2712,15 +2712,15 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2908,13 +2908,13 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="231" t="s">
+      <c r="C10" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="230"/>
+      <c r="D10" s="236"/>
       <c r="E10" s="9" t="s">
         <v>55</v>
       </c>
@@ -2957,9 +2957,9 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="230"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="230"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="236"/>
       <c r="E11" s="9" t="s">
         <v>59</v>
       </c>
@@ -3002,9 +3002,9 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="230"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="230"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="236"/>
       <c r="E12" s="9" t="s">
         <v>68</v>
       </c>
@@ -3047,9 +3047,9 @@
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="230"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="230"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="236"/>
       <c r="E13" s="9" t="s">
         <v>61</v>
       </c>
@@ -3094,9 +3094,9 @@
       <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="230"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="230"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="236"/>
       <c r="E14" s="9" t="s">
         <v>126</v>
       </c>
@@ -3141,9 +3141,9 @@
       <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="230"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="230"/>
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="236"/>
       <c r="E15" s="9" t="s">
         <v>63</v>
       </c>
@@ -3188,9 +3188,9 @@
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="230"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="230"/>
+      <c r="B16" s="236"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="236"/>
       <c r="E16" s="9" t="s">
         <v>82</v>
       </c>
@@ -3235,9 +3235,9 @@
       <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="230"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="230"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="236"/>
       <c r="E17" s="9" t="s">
         <v>69</v>
       </c>
@@ -3282,9 +3282,9 @@
       <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="230"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="230"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="237"/>
+      <c r="D18" s="236"/>
       <c r="E18" s="9" t="s">
         <v>72</v>
       </c>
@@ -3327,9 +3327,9 @@
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="230"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="236"/>
       <c r="E19" s="9" t="s">
         <v>74</v>
       </c>
@@ -3372,9 +3372,9 @@
       <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="230"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="230"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="236"/>
       <c r="E20" s="9" t="s">
         <v>75</v>
       </c>
@@ -3415,9 +3415,9 @@
     </row>
     <row r="21" spans="1:29" s="194" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
-      <c r="B21" s="230"/>
+      <c r="B21" s="236"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="230"/>
+      <c r="D21" s="236"/>
       <c r="E21" s="188"/>
       <c r="F21" s="188"/>
       <c r="G21" s="188"/>
@@ -3448,11 +3448,11 @@
       <c r="A22" s="27">
         <v>13</v>
       </c>
-      <c r="B22" s="230"/>
-      <c r="C22" s="230" t="s">
+      <c r="B22" s="236"/>
+      <c r="C22" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="230"/>
+      <c r="D22" s="236"/>
       <c r="E22" s="28" t="s">
         <v>45</v>
       </c>
@@ -3497,9 +3497,9 @@
       <c r="A23" s="27">
         <v>14</v>
       </c>
-      <c r="B23" s="230"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="230"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
       <c r="E23" s="28" t="s">
         <v>87</v>
       </c>
@@ -3542,11 +3542,11 @@
       <c r="A24" s="27">
         <v>15</v>
       </c>
-      <c r="B24" s="230"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
+      <c r="B24" s="236"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
       <c r="E24" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>111</v>
@@ -3589,11 +3589,11 @@
       <c r="A25" s="27">
         <v>16</v>
       </c>
-      <c r="B25" s="230"/>
-      <c r="C25" s="230"/>
-      <c r="D25" s="230"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
       <c r="E25" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>113</v>
@@ -3636,9 +3636,9 @@
       <c r="A26" s="27">
         <v>17</v>
       </c>
-      <c r="B26" s="230"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
       <c r="E26" s="36" t="s">
         <v>92</v>
       </c>
@@ -3683,9 +3683,9 @@
       <c r="A27" s="27">
         <v>18</v>
       </c>
-      <c r="B27" s="230"/>
-      <c r="C27" s="230"/>
-      <c r="D27" s="230"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
       <c r="E27" s="36" t="s">
         <v>94</v>
       </c>
@@ -3730,9 +3730,9 @@
       <c r="A28" s="27">
         <v>19</v>
       </c>
-      <c r="B28" s="230"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
       <c r="E28" s="28" t="s">
         <v>115</v>
       </c>
@@ -3775,9 +3775,9 @@
       <c r="A29" s="27">
         <v>20</v>
       </c>
-      <c r="B29" s="230"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
       <c r="E29" s="28" t="s">
         <v>116</v>
       </c>
@@ -3820,9 +3820,9 @@
       <c r="A30" s="27">
         <v>21</v>
       </c>
-      <c r="B30" s="230"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="230"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
       <c r="E30" s="28" t="s">
         <v>102</v>
       </c>
@@ -3865,9 +3865,9 @@
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="230"/>
-      <c r="C31" s="230"/>
-      <c r="D31" s="230"/>
+      <c r="B31" s="236"/>
+      <c r="C31" s="236"/>
+      <c r="D31" s="236"/>
       <c r="E31" s="28" t="s">
         <v>106</v>
       </c>
@@ -3910,9 +3910,9 @@
       <c r="A32" s="27">
         <v>23</v>
       </c>
-      <c r="B32" s="230"/>
-      <c r="C32" s="230"/>
-      <c r="D32" s="230"/>
+      <c r="B32" s="236"/>
+      <c r="C32" s="236"/>
+      <c r="D32" s="236"/>
       <c r="E32" s="28" t="s">
         <v>117</v>
       </c>
@@ -3955,9 +3955,9 @@
       <c r="A33" s="27">
         <v>24</v>
       </c>
-      <c r="B33" s="230"/>
-      <c r="C33" s="230"/>
-      <c r="D33" s="230"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="236"/>
+      <c r="D33" s="236"/>
       <c r="E33" s="28" t="s">
         <v>118</v>
       </c>
@@ -4000,9 +4000,9 @@
       <c r="A34" s="27">
         <v>25</v>
       </c>
-      <c r="B34" s="230"/>
-      <c r="C34" s="230"/>
-      <c r="D34" s="230"/>
+      <c r="B34" s="236"/>
+      <c r="C34" s="236"/>
+      <c r="D34" s="236"/>
       <c r="E34" s="28" t="s">
         <v>121</v>
       </c>
@@ -4045,9 +4045,9 @@
       <c r="A35" s="27">
         <v>26</v>
       </c>
-      <c r="B35" s="230"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="230"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="236"/>
+      <c r="D35" s="236"/>
       <c r="E35" s="28" t="s">
         <v>123</v>
       </c>
@@ -4090,9 +4090,9 @@
       <c r="A36" s="27">
         <v>27</v>
       </c>
-      <c r="B36" s="230"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="230"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="236"/>
+      <c r="D36" s="236"/>
       <c r="E36" s="28" t="s">
         <v>132</v>
       </c>
@@ -4135,14 +4135,14 @@
       <c r="A37" s="27">
         <v>28</v>
       </c>
-      <c r="B37" s="230"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="230"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="236"/>
+      <c r="D37" s="236"/>
       <c r="E37" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>43</v>
@@ -4154,7 +4154,7 @@
         <v>131</v>
       </c>
       <c r="J37" s="166" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="12" t="s">
@@ -4182,11 +4182,11 @@
       <c r="A38" s="27">
         <v>29</v>
       </c>
-      <c r="B38" s="230"/>
-      <c r="C38" s="230"/>
-      <c r="D38" s="230"/>
+      <c r="B38" s="236"/>
+      <c r="C38" s="236"/>
+      <c r="D38" s="236"/>
       <c r="E38" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>129</v>
@@ -4195,7 +4195,7 @@
         <v>37</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>131</v>
@@ -4227,26 +4227,26 @@
       <c r="A39" s="27">
         <v>30</v>
       </c>
-      <c r="B39" s="230"/>
-      <c r="C39" s="230"/>
-      <c r="D39" s="230"/>
+      <c r="B39" s="236"/>
+      <c r="C39" s="236"/>
+      <c r="D39" s="236"/>
       <c r="E39" s="36" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>43</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>131</v>
       </c>
       <c r="J39" s="166" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="12" t="s">
@@ -4274,20 +4274,20 @@
       <c r="A40" s="27">
         <v>31</v>
       </c>
-      <c r="B40" s="230"/>
-      <c r="C40" s="230"/>
-      <c r="D40" s="230"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="236"/>
+      <c r="D40" s="236"/>
       <c r="E40" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H40" s="165" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>131</v>
@@ -4319,20 +4319,20 @@
       <c r="A41" s="27">
         <v>32</v>
       </c>
-      <c r="B41" s="230"/>
-      <c r="C41" s="230"/>
-      <c r="D41" s="230"/>
+      <c r="B41" s="236"/>
+      <c r="C41" s="236"/>
+      <c r="D41" s="236"/>
       <c r="E41" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>131</v>
@@ -4364,14 +4364,14 @@
       <c r="A42" s="27">
         <v>33</v>
       </c>
-      <c r="B42" s="230"/>
-      <c r="C42" s="230"/>
-      <c r="D42" s="230"/>
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="236"/>
       <c r="E42" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>37</v>
@@ -4380,7 +4380,7 @@
         <v>41</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -4409,14 +4409,14 @@
       <c r="A43" s="27">
         <v>34</v>
       </c>
-      <c r="B43" s="230"/>
-      <c r="C43" s="230"/>
-      <c r="D43" s="230"/>
+      <c r="B43" s="236"/>
+      <c r="C43" s="236"/>
+      <c r="D43" s="236"/>
       <c r="E43" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>37</v>
@@ -4425,7 +4425,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -4454,14 +4454,14 @@
       <c r="A44" s="27">
         <v>35</v>
       </c>
-      <c r="B44" s="230"/>
-      <c r="C44" s="230"/>
-      <c r="D44" s="230"/>
+      <c r="B44" s="236"/>
+      <c r="C44" s="236"/>
+      <c r="D44" s="236"/>
       <c r="E44" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>37</v>
@@ -4470,7 +4470,7 @@
         <v>41</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -4497,9 +4497,9 @@
     </row>
     <row r="45" spans="1:29" s="199" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="195"/>
-      <c r="B45" s="230"/>
+      <c r="B45" s="236"/>
       <c r="C45" s="196"/>
-      <c r="D45" s="230"/>
+      <c r="D45" s="236"/>
       <c r="E45" s="197"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188"/>
@@ -4530,25 +4530,25 @@
       <c r="A46" s="27">
         <v>36</v>
       </c>
-      <c r="B46" s="230"/>
-      <c r="C46" s="230" t="s">
+      <c r="B46" s="236"/>
+      <c r="C46" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="230"/>
+      <c r="D46" s="236"/>
       <c r="E46" s="36" t="s">
         <v>46</v>
       </c>
       <c r="F46" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="I46" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -4577,23 +4577,23 @@
       <c r="A47" s="27">
         <v>37</v>
       </c>
-      <c r="B47" s="230"/>
-      <c r="C47" s="230"/>
-      <c r="D47" s="230"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="236"/>
       <c r="E47" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="I47" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -4622,26 +4622,26 @@
       <c r="A48" s="27">
         <v>38</v>
       </c>
-      <c r="B48" s="230"/>
-      <c r="C48" s="230"/>
-      <c r="D48" s="230"/>
+      <c r="B48" s="236"/>
+      <c r="C48" s="236"/>
+      <c r="D48" s="236"/>
       <c r="E48" s="43" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H48" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="I48" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="J48" s="166" t="s">
         <v>163</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J48" s="166" t="s">
-        <v>165</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="12" t="s">
@@ -4667,7 +4667,7 @@
     </row>
     <row r="49" spans="1:29" s="208" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="200"/>
-      <c r="B49" s="230"/>
+      <c r="B49" s="236"/>
       <c r="C49" s="201"/>
       <c r="D49" s="202"/>
       <c r="E49" s="203"/>
@@ -4700,12 +4700,12 @@
       <c r="A50" s="27">
         <v>39</v>
       </c>
-      <c r="B50" s="230"/>
-      <c r="C50" s="232" t="s">
+      <c r="B50" s="236"/>
+      <c r="C50" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="232" t="s">
-        <v>167</v>
+      <c r="D50" s="238" t="s">
+        <v>165</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>49</v>
@@ -4720,7 +4720,7 @@
         <v>41</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -4749,23 +4749,23 @@
       <c r="A51" s="27">
         <v>40</v>
       </c>
-      <c r="B51" s="230"/>
-      <c r="C51" s="233"/>
-      <c r="D51" s="233"/>
+      <c r="B51" s="236"/>
+      <c r="C51" s="239"/>
+      <c r="D51" s="239"/>
       <c r="E51" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="31"/>
@@ -4794,14 +4794,14 @@
       <c r="A52" s="27">
         <v>41</v>
       </c>
-      <c r="B52" s="230"/>
-      <c r="C52" s="233"/>
-      <c r="D52" s="233"/>
+      <c r="B52" s="236"/>
+      <c r="C52" s="239"/>
+      <c r="D52" s="239"/>
       <c r="E52" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>43</v>
@@ -4810,10 +4810,10 @@
         <v>1.23451234567897E+77</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="12" t="s">
@@ -4832,26 +4832,26 @@
       <c r="A53" s="27">
         <v>42</v>
       </c>
-      <c r="B53" s="230"/>
-      <c r="C53" s="233"/>
-      <c r="D53" s="233"/>
+      <c r="B53" s="236"/>
+      <c r="C53" s="239"/>
+      <c r="D53" s="239"/>
       <c r="E53" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>43</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J53" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="12" t="s">
@@ -4879,14 +4879,14 @@
       <c r="A54" s="27">
         <v>43</v>
       </c>
-      <c r="B54" s="230"/>
-      <c r="C54" s="233"/>
-      <c r="D54" s="233"/>
+      <c r="B54" s="236"/>
+      <c r="C54" s="239"/>
+      <c r="D54" s="239"/>
       <c r="E54" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>43</v>
@@ -4895,10 +4895,10 @@
         <v>104</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J54" s="166" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="12" t="s">
@@ -4926,23 +4926,23 @@
       <c r="A55" s="27">
         <v>44</v>
       </c>
-      <c r="B55" s="230"/>
-      <c r="C55" s="233"/>
-      <c r="D55" s="233"/>
+      <c r="B55" s="236"/>
+      <c r="C55" s="239"/>
+      <c r="D55" s="239"/>
       <c r="E55" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
@@ -4971,23 +4971,23 @@
       <c r="A56" s="27">
         <v>45</v>
       </c>
-      <c r="B56" s="230"/>
-      <c r="C56" s="233"/>
-      <c r="D56" s="233"/>
+      <c r="B56" s="236"/>
+      <c r="C56" s="239"/>
+      <c r="D56" s="239"/>
       <c r="E56" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -5016,23 +5016,23 @@
       <c r="A57" s="27">
         <v>46</v>
       </c>
-      <c r="B57" s="230"/>
-      <c r="C57" s="233"/>
-      <c r="D57" s="233"/>
+      <c r="B57" s="236"/>
+      <c r="C57" s="239"/>
+      <c r="D57" s="239"/>
       <c r="E57" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="222"/>
@@ -5061,21 +5061,21 @@
       <c r="A58" s="27">
         <v>47</v>
       </c>
-      <c r="B58" s="230"/>
-      <c r="C58" s="233"/>
-      <c r="D58" s="233"/>
+      <c r="B58" s="236"/>
+      <c r="C58" s="239"/>
+      <c r="D58" s="239"/>
       <c r="E58" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H58" s="165"/>
       <c r="I58" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -5104,14 +5104,14 @@
       <c r="A59" s="27">
         <v>48</v>
       </c>
-      <c r="B59" s="230"/>
-      <c r="C59" s="233"/>
-      <c r="D59" s="233"/>
+      <c r="B59" s="236"/>
+      <c r="C59" s="239"/>
+      <c r="D59" s="239"/>
       <c r="E59" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>37</v>
@@ -5120,7 +5120,7 @@
         <v>41</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -5149,14 +5149,14 @@
       <c r="A60" s="27">
         <v>49</v>
       </c>
-      <c r="B60" s="230"/>
-      <c r="C60" s="233"/>
-      <c r="D60" s="233"/>
+      <c r="B60" s="236"/>
+      <c r="C60" s="239"/>
+      <c r="D60" s="239"/>
       <c r="E60" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>37</v>
@@ -5165,7 +5165,7 @@
         <v>41</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -5194,14 +5194,14 @@
       <c r="A61" s="27">
         <v>50</v>
       </c>
-      <c r="B61" s="230"/>
-      <c r="C61" s="233"/>
-      <c r="D61" s="233"/>
+      <c r="B61" s="236"/>
+      <c r="C61" s="239"/>
+      <c r="D61" s="239"/>
       <c r="E61" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>37</v>
@@ -5210,7 +5210,7 @@
         <v>41</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -5239,14 +5239,14 @@
       <c r="A62" s="27">
         <v>51</v>
       </c>
-      <c r="B62" s="230"/>
-      <c r="C62" s="233"/>
-      <c r="D62" s="233"/>
+      <c r="B62" s="236"/>
+      <c r="C62" s="239"/>
+      <c r="D62" s="239"/>
       <c r="E62" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>37</v>
@@ -5255,7 +5255,7 @@
         <v>41</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
@@ -5284,14 +5284,14 @@
       <c r="A63" s="27">
         <v>52</v>
       </c>
-      <c r="B63" s="230"/>
-      <c r="C63" s="233"/>
-      <c r="D63" s="233"/>
+      <c r="B63" s="236"/>
+      <c r="C63" s="239"/>
+      <c r="D63" s="239"/>
       <c r="E63" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>37</v>
@@ -5300,7 +5300,7 @@
         <v>41</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
@@ -5329,14 +5329,14 @@
       <c r="A64" s="27">
         <v>53</v>
       </c>
-      <c r="B64" s="230"/>
-      <c r="C64" s="233"/>
-      <c r="D64" s="233"/>
+      <c r="B64" s="236"/>
+      <c r="C64" s="239"/>
+      <c r="D64" s="239"/>
       <c r="E64" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>43</v>
@@ -5345,10 +5345,10 @@
         <v>41</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J64" s="166" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="12" t="s">
@@ -5376,14 +5376,14 @@
       <c r="A65" s="27">
         <v>54</v>
       </c>
-      <c r="B65" s="230"/>
-      <c r="C65" s="233"/>
-      <c r="D65" s="233"/>
+      <c r="B65" s="236"/>
+      <c r="C65" s="239"/>
+      <c r="D65" s="239"/>
       <c r="E65" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>37</v>
@@ -5392,7 +5392,7 @@
         <v>41</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
@@ -5421,14 +5421,14 @@
       <c r="A66" s="27">
         <v>55</v>
       </c>
-      <c r="B66" s="230"/>
-      <c r="C66" s="233"/>
-      <c r="D66" s="233"/>
+      <c r="B66" s="236"/>
+      <c r="C66" s="239"/>
+      <c r="D66" s="239"/>
       <c r="E66" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>37</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -5466,14 +5466,14 @@
       <c r="A67" s="27">
         <v>56</v>
       </c>
-      <c r="B67" s="230"/>
-      <c r="C67" s="233"/>
-      <c r="D67" s="233"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="239"/>
+      <c r="D67" s="239"/>
       <c r="E67" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
@@ -5503,9 +5503,9 @@
       <c r="A68" s="27">
         <v>57</v>
       </c>
-      <c r="B68" s="230"/>
-      <c r="C68" s="233"/>
-      <c r="D68" s="233"/>
+      <c r="B68" s="236"/>
+      <c r="C68" s="239"/>
+      <c r="D68" s="239"/>
       <c r="E68" s="36"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
@@ -5536,14 +5536,14 @@
       <c r="A69" s="27">
         <v>58</v>
       </c>
-      <c r="B69" s="230"/>
-      <c r="C69" s="233"/>
-      <c r="D69" s="233"/>
+      <c r="B69" s="236"/>
+      <c r="C69" s="239"/>
+      <c r="D69" s="239"/>
       <c r="E69" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>43</v>
@@ -5552,10 +5552,10 @@
         <v>41</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J69" s="166" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K69" s="29"/>
       <c r="L69" s="12" t="s">
@@ -5583,14 +5583,14 @@
       <c r="A70" s="27">
         <v>59</v>
       </c>
-      <c r="B70" s="230"/>
-      <c r="C70" s="233"/>
-      <c r="D70" s="233"/>
+      <c r="B70" s="236"/>
+      <c r="C70" s="239"/>
+      <c r="D70" s="239"/>
       <c r="E70" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>37</v>
@@ -5599,7 +5599,7 @@
         <v>41</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
@@ -5628,14 +5628,14 @@
       <c r="A71" s="27">
         <v>60</v>
       </c>
-      <c r="B71" s="230"/>
-      <c r="C71" s="233"/>
-      <c r="D71" s="233"/>
+      <c r="B71" s="236"/>
+      <c r="C71" s="239"/>
+      <c r="D71" s="239"/>
       <c r="E71" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" s="29" t="s">
         <v>222</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>224</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>37</v>
@@ -5644,7 +5644,7 @@
         <v>41</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
@@ -5671,9 +5671,9 @@
     </row>
     <row r="72" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
-      <c r="B72" s="230"/>
-      <c r="C72" s="233"/>
-      <c r="D72" s="233"/>
+      <c r="B72" s="236"/>
+      <c r="C72" s="239"/>
+      <c r="D72" s="239"/>
       <c r="E72" s="36"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -5702,9 +5702,9 @@
     </row>
     <row r="73" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
-      <c r="B73" s="230"/>
-      <c r="C73" s="233"/>
-      <c r="D73" s="233"/>
+      <c r="B73" s="236"/>
+      <c r="C73" s="239"/>
+      <c r="D73" s="239"/>
       <c r="E73" s="36"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -5733,9 +5733,9 @@
     </row>
     <row r="74" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
-      <c r="B74" s="230"/>
-      <c r="C74" s="233"/>
-      <c r="D74" s="233"/>
+      <c r="B74" s="236"/>
+      <c r="C74" s="239"/>
+      <c r="D74" s="239"/>
       <c r="E74" s="36"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -5764,9 +5764,9 @@
     </row>
     <row r="75" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
-      <c r="B75" s="230"/>
-      <c r="C75" s="233"/>
-      <c r="D75" s="233"/>
+      <c r="B75" s="236"/>
+      <c r="C75" s="239"/>
+      <c r="D75" s="239"/>
       <c r="E75" s="36"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
@@ -5797,9 +5797,9 @@
       <c r="A76" s="27">
         <v>57</v>
       </c>
-      <c r="B76" s="230"/>
-      <c r="C76" s="233"/>
-      <c r="D76" s="233"/>
+      <c r="B76" s="236"/>
+      <c r="C76" s="239"/>
+      <c r="D76" s="239"/>
       <c r="E76" s="36"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
@@ -5830,9 +5830,9 @@
       <c r="A77" s="27">
         <v>58</v>
       </c>
-      <c r="B77" s="230"/>
-      <c r="C77" s="234"/>
-      <c r="D77" s="234"/>
+      <c r="B77" s="236"/>
+      <c r="C77" s="240"/>
+      <c r="D77" s="240"/>
       <c r="E77" s="36"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="78" spans="1:29" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
-      <c r="B78" s="230"/>
+      <c r="B78" s="236"/>
       <c r="C78" s="47"/>
       <c r="D78" s="48"/>
       <c r="E78" s="49"/>
@@ -5892,9 +5892,9 @@
     </row>
     <row r="79" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
-      <c r="B79" s="230"/>
-      <c r="C79" s="235"/>
-      <c r="D79" s="236"/>
+      <c r="B79" s="236"/>
+      <c r="C79" s="241"/>
+      <c r="D79" s="242"/>
       <c r="E79" s="36"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
@@ -5923,9 +5923,9 @@
     </row>
     <row r="80" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
-      <c r="B80" s="230"/>
-      <c r="C80" s="235"/>
-      <c r="D80" s="236"/>
+      <c r="B80" s="236"/>
+      <c r="C80" s="241"/>
+      <c r="D80" s="242"/>
       <c r="E80" s="36"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
@@ -5954,9 +5954,9 @@
     </row>
     <row r="81" spans="1:29" s="34" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
-      <c r="B81" s="230"/>
-      <c r="C81" s="235"/>
-      <c r="D81" s="236"/>
+      <c r="B81" s="236"/>
+      <c r="C81" s="241"/>
+      <c r="D81" s="242"/>
       <c r="E81" s="29"/>
       <c r="F81" s="18"/>
       <c r="G81" s="29"/>
@@ -5985,9 +5985,9 @@
     </row>
     <row r="82" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="27"/>
-      <c r="B82" s="230"/>
-      <c r="C82" s="235"/>
-      <c r="D82" s="236"/>
+      <c r="B82" s="236"/>
+      <c r="C82" s="241"/>
+      <c r="D82" s="242"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
@@ -6016,8 +6016,8 @@
     </row>
     <row r="83" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="27"/>
-      <c r="B83" s="230"/>
-      <c r="C83" s="235"/>
+      <c r="B83" s="236"/>
+      <c r="C83" s="241"/>
       <c r="D83" s="52"/>
       <c r="E83" s="53"/>
       <c r="F83" s="29"/>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="84" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
-      <c r="B84" s="230"/>
+      <c r="B84" s="236"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
       <c r="E84" s="53"/>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="85" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
-      <c r="B85" s="230"/>
+      <c r="B85" s="236"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
       <c r="E85" s="55"/>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="86" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
-      <c r="B86" s="230"/>
+      <c r="B86" s="236"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
       <c r="E86" s="55"/>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="87" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
-      <c r="B87" s="230"/>
+      <c r="B87" s="236"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
       <c r="E87" s="55"/>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="88" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
-      <c r="B88" s="230"/>
+      <c r="B88" s="236"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
       <c r="E88" s="55"/>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="89" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="54"/>
-      <c r="B89" s="230"/>
+      <c r="B89" s="236"/>
       <c r="C89" s="51"/>
       <c r="D89" s="56"/>
       <c r="E89" s="55"/>
@@ -6233,9 +6233,9 @@
     </row>
     <row r="90" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54"/>
-      <c r="B90" s="230"/>
+      <c r="B90" s="236"/>
       <c r="C90" s="51"/>
-      <c r="D90" s="237"/>
+      <c r="D90" s="243"/>
       <c r="E90" s="55"/>
       <c r="F90" s="18"/>
       <c r="G90" s="29"/>
@@ -6264,9 +6264,9 @@
     </row>
     <row r="91" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="54"/>
-      <c r="B91" s="230"/>
+      <c r="B91" s="236"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="237"/>
+      <c r="D91" s="243"/>
       <c r="E91" s="55"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
@@ -6295,9 +6295,9 @@
     </row>
     <row r="92" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
-      <c r="B92" s="230"/>
+      <c r="B92" s="236"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="237"/>
+      <c r="D92" s="243"/>
       <c r="E92" s="57"/>
       <c r="F92" s="9"/>
       <c r="G92" s="29"/>
@@ -6326,9 +6326,9 @@
     </row>
     <row r="93" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
-      <c r="B93" s="230"/>
+      <c r="B93" s="236"/>
       <c r="C93" s="51"/>
-      <c r="D93" s="237"/>
+      <c r="D93" s="243"/>
       <c r="E93" s="57"/>
       <c r="F93" s="9"/>
       <c r="G93" s="29"/>
@@ -6357,9 +6357,9 @@
     </row>
     <row r="94" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54"/>
-      <c r="B94" s="230"/>
+      <c r="B94" s="236"/>
       <c r="C94" s="51"/>
-      <c r="D94" s="237"/>
+      <c r="D94" s="243"/>
       <c r="E94" s="57"/>
       <c r="F94" s="9"/>
       <c r="G94" s="29"/>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="95" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
-      <c r="B95" s="230"/>
+      <c r="B95" s="236"/>
       <c r="C95" s="51"/>
       <c r="D95" s="58"/>
       <c r="E95" s="59"/>
@@ -6419,9 +6419,9 @@
     </row>
     <row r="96" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="54"/>
-      <c r="B96" s="230"/>
+      <c r="B96" s="236"/>
       <c r="C96" s="51"/>
-      <c r="D96" s="237"/>
+      <c r="D96" s="243"/>
       <c r="E96" s="53"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -6450,9 +6450,9 @@
     </row>
     <row r="97" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="54"/>
-      <c r="B97" s="230"/>
+      <c r="B97" s="236"/>
       <c r="C97" s="51"/>
-      <c r="D97" s="237"/>
+      <c r="D97" s="243"/>
       <c r="E97" s="53"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="98" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="54"/>
-      <c r="B98" s="230"/>
+      <c r="B98" s="236"/>
       <c r="C98" s="51"/>
       <c r="D98" s="60"/>
       <c r="E98" s="55"/>
@@ -6512,9 +6512,9 @@
     </row>
     <row r="99" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54"/>
-      <c r="B99" s="230"/>
+      <c r="B99" s="236"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="238"/>
+      <c r="D99" s="244"/>
       <c r="E99" s="55"/>
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
@@ -6543,9 +6543,9 @@
     </row>
     <row r="100" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="54"/>
-      <c r="B100" s="230"/>
+      <c r="B100" s="236"/>
       <c r="C100" s="51"/>
-      <c r="D100" s="238"/>
+      <c r="D100" s="244"/>
       <c r="E100" s="55"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -6574,9 +6574,9 @@
     </row>
     <row r="101" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54"/>
-      <c r="B101" s="230"/>
+      <c r="B101" s="236"/>
       <c r="C101" s="51"/>
-      <c r="D101" s="238"/>
+      <c r="D101" s="244"/>
       <c r="E101" s="57"/>
       <c r="F101" s="9"/>
       <c r="G101" s="29"/>
@@ -6605,9 +6605,9 @@
     </row>
     <row r="102" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="54"/>
-      <c r="B102" s="230"/>
+      <c r="B102" s="236"/>
       <c r="C102" s="51"/>
-      <c r="D102" s="238"/>
+      <c r="D102" s="244"/>
       <c r="E102" s="53"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -6636,9 +6636,9 @@
     </row>
     <row r="103" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="54"/>
-      <c r="B103" s="230"/>
+      <c r="B103" s="236"/>
       <c r="C103" s="51"/>
-      <c r="D103" s="238"/>
+      <c r="D103" s="244"/>
       <c r="E103" s="53"/>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
@@ -6667,9 +6667,9 @@
     </row>
     <row r="104" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="54"/>
-      <c r="B104" s="230"/>
+      <c r="B104" s="236"/>
       <c r="C104" s="51"/>
-      <c r="D104" s="238"/>
+      <c r="D104" s="244"/>
       <c r="E104" s="55"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
@@ -6698,9 +6698,9 @@
     </row>
     <row r="105" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="54"/>
-      <c r="B105" s="230"/>
+      <c r="B105" s="236"/>
       <c r="C105" s="51"/>
-      <c r="D105" s="238"/>
+      <c r="D105" s="244"/>
       <c r="E105" s="55"/>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -6729,9 +6729,9 @@
     </row>
     <row r="106" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="54"/>
-      <c r="B106" s="230"/>
+      <c r="B106" s="236"/>
       <c r="C106" s="51"/>
-      <c r="D106" s="238"/>
+      <c r="D106" s="244"/>
       <c r="E106" s="55"/>
       <c r="F106" s="29"/>
       <c r="G106" s="29"/>
@@ -6760,9 +6760,9 @@
     </row>
     <row r="107" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="54"/>
-      <c r="B107" s="230"/>
+      <c r="B107" s="236"/>
       <c r="C107" s="51"/>
-      <c r="D107" s="238"/>
+      <c r="D107" s="244"/>
       <c r="E107" s="57"/>
       <c r="F107" s="9"/>
       <c r="G107" s="29"/>
@@ -6791,9 +6791,9 @@
     </row>
     <row r="108" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="54"/>
-      <c r="B108" s="230"/>
+      <c r="B108" s="236"/>
       <c r="C108" s="51"/>
-      <c r="D108" s="238"/>
+      <c r="D108" s="244"/>
       <c r="E108" s="59"/>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
@@ -6822,9 +6822,9 @@
     </row>
     <row r="109" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
-      <c r="B109" s="230"/>
+      <c r="B109" s="236"/>
       <c r="C109" s="51"/>
-      <c r="D109" s="238"/>
+      <c r="D109" s="244"/>
       <c r="E109" s="53"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="110" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="54"/>
-      <c r="B110" s="230"/>
+      <c r="B110" s="236"/>
       <c r="C110" s="51"/>
       <c r="D110" s="60"/>
       <c r="E110" s="53"/>
@@ -6884,9 +6884,9 @@
     </row>
     <row r="111" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="54"/>
-      <c r="B111" s="230"/>
+      <c r="B111" s="236"/>
       <c r="C111" s="51"/>
-      <c r="D111" s="239"/>
+      <c r="D111" s="245"/>
       <c r="E111" s="55"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -6915,9 +6915,9 @@
     </row>
     <row r="112" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="54"/>
-      <c r="B112" s="230"/>
+      <c r="B112" s="236"/>
       <c r="C112" s="51"/>
-      <c r="D112" s="239"/>
+      <c r="D112" s="245"/>
       <c r="E112" s="55"/>
       <c r="F112" s="29"/>
       <c r="G112" s="29"/>
@@ -6946,9 +6946,9 @@
     </row>
     <row r="113" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="54"/>
-      <c r="B113" s="230"/>
+      <c r="B113" s="236"/>
       <c r="C113" s="51"/>
-      <c r="D113" s="239"/>
+      <c r="D113" s="245"/>
       <c r="E113" s="55"/>
       <c r="F113" s="29"/>
       <c r="G113" s="29"/>
@@ -6977,9 +6977,9 @@
     </row>
     <row r="114" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="54"/>
-      <c r="B114" s="230"/>
+      <c r="B114" s="236"/>
       <c r="C114" s="51"/>
-      <c r="D114" s="239"/>
+      <c r="D114" s="245"/>
       <c r="E114" s="57"/>
       <c r="F114" s="9"/>
       <c r="G114" s="29"/>
@@ -7008,9 +7008,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="62"/>
-      <c r="B115" s="230"/>
+      <c r="B115" s="236"/>
       <c r="C115" s="63"/>
-      <c r="D115" s="239"/>
+      <c r="D115" s="245"/>
       <c r="E115" s="64"/>
       <c r="F115" s="65"/>
       <c r="G115" s="65"/>
@@ -7039,9 +7039,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="68"/>
-      <c r="B116" s="230"/>
+      <c r="B116" s="236"/>
       <c r="C116" s="63"/>
-      <c r="D116" s="239"/>
+      <c r="D116" s="245"/>
       <c r="E116" s="69"/>
       <c r="F116" s="70"/>
       <c r="G116" s="71"/>
@@ -7070,9 +7070,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
-      <c r="B117" s="230"/>
+      <c r="B117" s="236"/>
       <c r="C117" s="63"/>
-      <c r="D117" s="239"/>
+      <c r="D117" s="245"/>
       <c r="E117" s="75"/>
       <c r="F117" s="76"/>
       <c r="G117" s="76"/>
@@ -7101,9 +7101,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="68"/>
-      <c r="B118" s="230"/>
+      <c r="B118" s="236"/>
       <c r="C118" s="63"/>
-      <c r="D118" s="239"/>
+      <c r="D118" s="245"/>
       <c r="E118" s="75"/>
       <c r="F118" s="76"/>
       <c r="G118" s="76"/>
@@ -7132,9 +7132,9 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="68"/>
-      <c r="B119" s="230"/>
+      <c r="B119" s="236"/>
       <c r="C119" s="63"/>
-      <c r="D119" s="239"/>
+      <c r="D119" s="245"/>
       <c r="E119" s="79"/>
       <c r="F119" s="76"/>
       <c r="G119" s="76"/>
@@ -7163,9 +7163,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
-      <c r="B120" s="230"/>
+      <c r="B120" s="236"/>
       <c r="C120" s="63"/>
-      <c r="D120" s="239"/>
+      <c r="D120" s="245"/>
       <c r="E120" s="80"/>
       <c r="F120" s="70"/>
       <c r="G120" s="71"/>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="68"/>
-      <c r="B121" s="230"/>
+      <c r="B121" s="236"/>
       <c r="C121" s="63"/>
       <c r="D121" s="81"/>
       <c r="E121" s="69"/>
@@ -7225,9 +7225,9 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
-      <c r="B122" s="230"/>
+      <c r="B122" s="236"/>
       <c r="C122" s="63"/>
-      <c r="D122" s="240"/>
+      <c r="D122" s="246"/>
       <c r="E122" s="82"/>
       <c r="F122" s="70"/>
       <c r="G122" s="71"/>
@@ -7256,9 +7256,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
-      <c r="B123" s="230"/>
+      <c r="B123" s="236"/>
       <c r="C123" s="63"/>
-      <c r="D123" s="240"/>
+      <c r="D123" s="246"/>
       <c r="E123" s="84"/>
       <c r="F123" s="76"/>
       <c r="G123" s="76"/>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
-      <c r="B124" s="230"/>
+      <c r="B124" s="236"/>
       <c r="C124" s="63"/>
       <c r="D124" s="1"/>
       <c r="E124" s="85"/>
@@ -7318,9 +7318,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="68"/>
-      <c r="B125" s="230"/>
+      <c r="B125" s="236"/>
       <c r="C125" s="63"/>
-      <c r="D125" s="241"/>
+      <c r="D125" s="247"/>
       <c r="E125" s="84"/>
       <c r="F125" s="76"/>
       <c r="G125" s="76"/>
@@ -7349,9 +7349,9 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="68"/>
-      <c r="B126" s="230"/>
+      <c r="B126" s="236"/>
       <c r="C126" s="63"/>
-      <c r="D126" s="241"/>
+      <c r="D126" s="247"/>
       <c r="E126" s="82"/>
       <c r="F126" s="76"/>
       <c r="G126" s="76"/>
@@ -7380,9 +7380,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="68"/>
-      <c r="B127" s="230"/>
+      <c r="B127" s="236"/>
       <c r="C127" s="63"/>
-      <c r="D127" s="241"/>
+      <c r="D127" s="247"/>
       <c r="E127" s="84"/>
       <c r="F127" s="76"/>
       <c r="G127" s="76"/>
@@ -7411,9 +7411,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="68"/>
-      <c r="B128" s="230"/>
+      <c r="B128" s="236"/>
       <c r="C128" s="63"/>
-      <c r="D128" s="241"/>
+      <c r="D128" s="247"/>
       <c r="E128" s="82"/>
       <c r="F128" s="70"/>
       <c r="G128" s="71"/>
@@ -7442,9 +7442,9 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="68"/>
-      <c r="B129" s="230"/>
+      <c r="B129" s="236"/>
       <c r="C129" s="63"/>
-      <c r="D129" s="241"/>
+      <c r="D129" s="247"/>
       <c r="E129" s="86"/>
       <c r="F129" s="87"/>
       <c r="G129" s="78"/>
@@ -7473,9 +7473,9 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
-      <c r="B130" s="230"/>
+      <c r="B130" s="236"/>
       <c r="C130" s="63"/>
-      <c r="D130" s="241"/>
+      <c r="D130" s="247"/>
       <c r="E130" s="82"/>
       <c r="F130" s="88"/>
       <c r="G130" s="71"/>
@@ -7504,9 +7504,9 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68"/>
-      <c r="B131" s="230"/>
+      <c r="B131" s="236"/>
       <c r="C131" s="63"/>
-      <c r="D131" s="241"/>
+      <c r="D131" s="247"/>
       <c r="E131" s="86"/>
       <c r="F131" s="89"/>
       <c r="G131" s="78"/>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68"/>
-      <c r="B132" s="230"/>
+      <c r="B132" s="236"/>
       <c r="C132" s="63"/>
       <c r="D132" s="90"/>
       <c r="E132" s="86"/>
@@ -7566,9 +7566,9 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68"/>
-      <c r="B133" s="230"/>
+      <c r="B133" s="236"/>
       <c r="C133" s="63"/>
-      <c r="D133" s="229"/>
+      <c r="D133" s="235"/>
       <c r="E133" s="91"/>
       <c r="F133" s="92"/>
       <c r="G133" s="78"/>
@@ -7597,9 +7597,9 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68"/>
-      <c r="B134" s="230"/>
+      <c r="B134" s="236"/>
       <c r="C134" s="63"/>
-      <c r="D134" s="229"/>
+      <c r="D134" s="235"/>
       <c r="E134" s="86"/>
       <c r="F134" s="92"/>
       <c r="G134" s="78"/>
@@ -7628,9 +7628,9 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
-      <c r="B135" s="230"/>
+      <c r="B135" s="236"/>
       <c r="C135" s="63"/>
-      <c r="D135" s="229"/>
+      <c r="D135" s="235"/>
       <c r="E135" s="93"/>
       <c r="F135" s="83"/>
       <c r="G135" s="83"/>
@@ -7659,9 +7659,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68"/>
-      <c r="B136" s="230"/>
+      <c r="B136" s="236"/>
       <c r="C136" s="63"/>
-      <c r="D136" s="229"/>
+      <c r="D136" s="235"/>
       <c r="E136" s="93"/>
       <c r="F136" s="83"/>
       <c r="G136" s="83"/>
@@ -7690,9 +7690,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68"/>
-      <c r="B137" s="230"/>
+      <c r="B137" s="236"/>
       <c r="C137" s="63"/>
-      <c r="D137" s="229"/>
+      <c r="D137" s="235"/>
       <c r="E137" s="93"/>
       <c r="F137" s="83"/>
       <c r="G137" s="83"/>
@@ -7721,9 +7721,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68"/>
-      <c r="B138" s="230"/>
+      <c r="B138" s="236"/>
       <c r="C138" s="63"/>
-      <c r="D138" s="229"/>
+      <c r="D138" s="235"/>
       <c r="E138" s="93"/>
       <c r="F138" s="83"/>
       <c r="G138" s="83"/>
@@ -7752,9 +7752,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68"/>
-      <c r="B139" s="230"/>
+      <c r="B139" s="236"/>
       <c r="C139" s="63"/>
-      <c r="D139" s="229"/>
+      <c r="D139" s="235"/>
       <c r="E139" s="93"/>
       <c r="F139" s="83"/>
       <c r="G139" s="83"/>
@@ -7783,9 +7783,9 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68"/>
-      <c r="B140" s="230"/>
+      <c r="B140" s="236"/>
       <c r="C140" s="63"/>
-      <c r="D140" s="229"/>
+      <c r="D140" s="235"/>
       <c r="E140" s="93"/>
       <c r="F140" s="83"/>
       <c r="G140" s="83"/>
@@ -7814,9 +7814,9 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68"/>
-      <c r="B141" s="230"/>
+      <c r="B141" s="236"/>
       <c r="C141" s="63"/>
-      <c r="D141" s="229"/>
+      <c r="D141" s="235"/>
       <c r="E141" s="93"/>
       <c r="F141" s="83"/>
       <c r="G141" s="83"/>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68"/>
-      <c r="B142" s="230"/>
+      <c r="B142" s="236"/>
       <c r="C142" s="94"/>
       <c r="D142" s="95"/>
       <c r="E142" s="93"/>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68"/>
-      <c r="B143" s="230"/>
+      <c r="B143" s="236"/>
       <c r="C143" s="96"/>
       <c r="D143" s="95"/>
       <c r="E143" s="93"/>
@@ -7907,7 +7907,7 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68"/>
-      <c r="B144" s="230"/>
+      <c r="B144" s="236"/>
       <c r="C144" s="96"/>
       <c r="D144" s="97"/>
       <c r="E144" s="93"/>
@@ -7938,9 +7938,9 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68"/>
-      <c r="B145" s="230"/>
+      <c r="B145" s="236"/>
       <c r="C145" s="96"/>
-      <c r="D145" s="244"/>
+      <c r="D145" s="229"/>
       <c r="E145" s="98"/>
       <c r="F145" s="83"/>
       <c r="G145" s="83"/>
@@ -7969,9 +7969,9 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68"/>
-      <c r="B146" s="230"/>
+      <c r="B146" s="236"/>
       <c r="C146" s="96"/>
-      <c r="D146" s="244"/>
+      <c r="D146" s="229"/>
       <c r="E146" s="98"/>
       <c r="F146" s="83"/>
       <c r="G146" s="83"/>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68"/>
-      <c r="B147" s="230"/>
+      <c r="B147" s="236"/>
       <c r="C147" s="96"/>
       <c r="D147" s="99"/>
       <c r="E147" s="93"/>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68"/>
-      <c r="B148" s="230"/>
+      <c r="B148" s="236"/>
       <c r="C148" s="96"/>
       <c r="D148" s="100"/>
       <c r="E148" s="93"/>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68"/>
-      <c r="B149" s="230"/>
+      <c r="B149" s="236"/>
       <c r="C149" s="96"/>
       <c r="D149" s="100"/>
       <c r="E149" s="101"/>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68"/>
-      <c r="B150" s="230"/>
+      <c r="B150" s="236"/>
       <c r="C150" s="96"/>
       <c r="D150" s="100"/>
       <c r="E150" s="93"/>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68"/>
-      <c r="B151" s="230"/>
+      <c r="B151" s="236"/>
       <c r="C151" s="96"/>
       <c r="D151" s="100"/>
       <c r="E151" s="93"/>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68"/>
-      <c r="B152" s="230"/>
+      <c r="B152" s="236"/>
       <c r="C152" s="96"/>
       <c r="D152" s="100"/>
       <c r="E152" s="93"/>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68"/>
-      <c r="B153" s="230"/>
+      <c r="B153" s="236"/>
       <c r="C153" s="96"/>
       <c r="D153" s="100"/>
       <c r="E153" s="93"/>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68"/>
-      <c r="B154" s="230"/>
+      <c r="B154" s="236"/>
       <c r="C154" s="96"/>
       <c r="D154" s="100"/>
       <c r="E154" s="101"/>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68"/>
-      <c r="B155" s="230"/>
+      <c r="B155" s="236"/>
       <c r="C155" s="96"/>
       <c r="D155" s="100"/>
       <c r="E155" s="101"/>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="68"/>
-      <c r="B156" s="230"/>
+      <c r="B156" s="236"/>
       <c r="C156" s="96"/>
       <c r="D156" s="100"/>
       <c r="E156" s="101"/>
@@ -8310,7 +8310,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68"/>
-      <c r="B157" s="230"/>
+      <c r="B157" s="236"/>
       <c r="C157" s="96"/>
       <c r="D157" s="100"/>
       <c r="E157" s="93"/>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="68"/>
-      <c r="B158" s="230"/>
+      <c r="B158" s="236"/>
       <c r="C158" s="96"/>
       <c r="D158" s="100"/>
       <c r="E158" s="93"/>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68"/>
-      <c r="B159" s="230"/>
+      <c r="B159" s="236"/>
       <c r="C159" s="96"/>
       <c r="D159" s="100"/>
       <c r="E159" s="93"/>
@@ -8403,7 +8403,7 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68"/>
-      <c r="B160" s="230"/>
+      <c r="B160" s="236"/>
       <c r="C160" s="96"/>
       <c r="D160" s="100"/>
       <c r="E160" s="93"/>
@@ -8434,7 +8434,7 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="68"/>
-      <c r="B161" s="230"/>
+      <c r="B161" s="236"/>
       <c r="C161" s="96"/>
       <c r="D161" s="100"/>
       <c r="E161" s="93"/>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="68"/>
-      <c r="B162" s="230"/>
+      <c r="B162" s="236"/>
       <c r="C162" s="96"/>
       <c r="D162" s="100"/>
       <c r="E162" s="93"/>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="106"/>
-      <c r="B163" s="230"/>
+      <c r="B163" s="236"/>
       <c r="C163" s="96"/>
       <c r="D163" s="107"/>
       <c r="E163" s="108"/>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="106"/>
-      <c r="B164" s="230"/>
+      <c r="B164" s="236"/>
       <c r="C164" s="96"/>
       <c r="D164" s="109"/>
       <c r="E164" s="93"/>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="106"/>
-      <c r="B165" s="230"/>
+      <c r="B165" s="236"/>
       <c r="C165" s="96"/>
       <c r="D165" s="109"/>
       <c r="E165" s="93"/>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="106"/>
-      <c r="B166" s="230"/>
+      <c r="B166" s="236"/>
       <c r="C166" s="96"/>
       <c r="D166" s="109"/>
       <c r="E166" s="110"/>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="106"/>
-      <c r="B167" s="230"/>
+      <c r="B167" s="236"/>
       <c r="C167" s="96"/>
       <c r="D167" s="109"/>
       <c r="E167" s="111"/>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="106"/>
-      <c r="B168" s="230"/>
+      <c r="B168" s="236"/>
       <c r="C168" s="96"/>
       <c r="D168" s="109"/>
       <c r="E168" s="111"/>
@@ -8682,7 +8682,7 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="106"/>
-      <c r="B169" s="230"/>
+      <c r="B169" s="236"/>
       <c r="C169" s="96"/>
       <c r="D169" s="109"/>
       <c r="E169" s="111"/>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="106"/>
-      <c r="B170" s="230"/>
+      <c r="B170" s="236"/>
       <c r="C170" s="96"/>
       <c r="D170" s="109"/>
       <c r="E170" s="111"/>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="106"/>
-      <c r="B171" s="230"/>
+      <c r="B171" s="236"/>
       <c r="C171" s="96"/>
       <c r="D171" s="109"/>
       <c r="E171" s="93"/>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="106"/>
-      <c r="B172" s="230"/>
+      <c r="B172" s="236"/>
       <c r="C172" s="96"/>
       <c r="D172" s="109"/>
       <c r="E172" s="93"/>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="106"/>
-      <c r="B173" s="230"/>
+      <c r="B173" s="236"/>
       <c r="C173" s="96"/>
       <c r="D173" s="109"/>
       <c r="E173" s="93"/>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="106"/>
-      <c r="B174" s="230"/>
+      <c r="B174" s="236"/>
       <c r="C174" s="96"/>
       <c r="D174" s="109"/>
       <c r="E174" s="93"/>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="106"/>
-      <c r="B175" s="230"/>
+      <c r="B175" s="236"/>
       <c r="C175" s="96"/>
       <c r="D175" s="109"/>
       <c r="E175" s="108"/>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="106"/>
-      <c r="B176" s="230"/>
+      <c r="B176" s="236"/>
       <c r="C176" s="96"/>
       <c r="D176" s="112"/>
       <c r="E176" s="113"/>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="106"/>
-      <c r="B177" s="230"/>
+      <c r="B177" s="236"/>
       <c r="C177" s="96"/>
       <c r="D177" s="114"/>
       <c r="E177" s="108"/>
@@ -8961,9 +8961,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="106"/>
-      <c r="B178" s="230"/>
+      <c r="B178" s="236"/>
       <c r="C178" s="96"/>
-      <c r="D178" s="245"/>
+      <c r="D178" s="230"/>
       <c r="E178" s="93"/>
       <c r="F178" s="83"/>
       <c r="G178" s="83"/>
@@ -8972,7 +8972,7 @@
       <c r="J178" s="83"/>
       <c r="K178" s="83"/>
       <c r="L178" s="74"/>
-      <c r="M178" s="246"/>
+      <c r="M178" s="231"/>
       <c r="N178" s="67"/>
       <c r="O178" s="67"/>
       <c r="P178" s="67"/>
@@ -8992,9 +8992,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="68"/>
-      <c r="B179" s="230"/>
+      <c r="B179" s="236"/>
       <c r="C179" s="96"/>
-      <c r="D179" s="245"/>
+      <c r="D179" s="230"/>
       <c r="E179" s="93"/>
       <c r="F179" s="83"/>
       <c r="G179" s="83"/>
@@ -9003,7 +9003,7 @@
       <c r="J179" s="83"/>
       <c r="K179" s="83"/>
       <c r="L179" s="74"/>
-      <c r="M179" s="246"/>
+      <c r="M179" s="231"/>
       <c r="N179" s="67"/>
       <c r="O179" s="67"/>
       <c r="P179" s="67"/>
@@ -9023,9 +9023,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="68"/>
-      <c r="B180" s="230"/>
+      <c r="B180" s="236"/>
       <c r="C180" s="96"/>
-      <c r="D180" s="245"/>
+      <c r="D180" s="230"/>
       <c r="E180" s="110"/>
       <c r="F180" s="83"/>
       <c r="G180" s="83"/>
@@ -9034,7 +9034,7 @@
       <c r="J180" s="83"/>
       <c r="K180" s="83"/>
       <c r="L180" s="74"/>
-      <c r="M180" s="246"/>
+      <c r="M180" s="231"/>
       <c r="N180" s="67"/>
       <c r="O180" s="67"/>
       <c r="P180" s="67"/>
@@ -9054,9 +9054,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="68"/>
-      <c r="B181" s="230"/>
+      <c r="B181" s="236"/>
       <c r="C181" s="96"/>
-      <c r="D181" s="245"/>
+      <c r="D181" s="230"/>
       <c r="E181" s="111"/>
       <c r="F181" s="83"/>
       <c r="G181" s="83"/>
@@ -9065,7 +9065,7 @@
       <c r="J181" s="83"/>
       <c r="K181" s="83"/>
       <c r="L181" s="74"/>
-      <c r="M181" s="246"/>
+      <c r="M181" s="231"/>
       <c r="N181" s="67"/>
       <c r="O181" s="67"/>
       <c r="P181" s="67"/>
@@ -9085,9 +9085,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="68"/>
-      <c r="B182" s="230"/>
+      <c r="B182" s="236"/>
       <c r="C182" s="96"/>
-      <c r="D182" s="245"/>
+      <c r="D182" s="230"/>
       <c r="E182" s="111"/>
       <c r="F182" s="83"/>
       <c r="G182" s="83"/>
@@ -9096,7 +9096,7 @@
       <c r="J182" s="83"/>
       <c r="K182" s="83"/>
       <c r="L182" s="74"/>
-      <c r="M182" s="246"/>
+      <c r="M182" s="231"/>
       <c r="N182" s="67"/>
       <c r="O182" s="67"/>
       <c r="P182" s="67"/>
@@ -9116,9 +9116,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="68"/>
-      <c r="B183" s="230"/>
+      <c r="B183" s="236"/>
       <c r="C183" s="96"/>
-      <c r="D183" s="245"/>
+      <c r="D183" s="230"/>
       <c r="E183" s="111"/>
       <c r="F183" s="83"/>
       <c r="G183" s="83"/>
@@ -9127,7 +9127,7 @@
       <c r="J183" s="83"/>
       <c r="K183" s="83"/>
       <c r="L183" s="74"/>
-      <c r="M183" s="246"/>
+      <c r="M183" s="231"/>
       <c r="N183" s="67"/>
       <c r="O183" s="67"/>
       <c r="P183" s="67"/>
@@ -9147,9 +9147,9 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="68"/>
-      <c r="B184" s="230"/>
+      <c r="B184" s="236"/>
       <c r="C184" s="96"/>
-      <c r="D184" s="245"/>
+      <c r="D184" s="230"/>
       <c r="E184" s="111"/>
       <c r="F184" s="83"/>
       <c r="G184" s="83"/>
@@ -9158,7 +9158,7 @@
       <c r="J184" s="83"/>
       <c r="K184" s="83"/>
       <c r="L184" s="74"/>
-      <c r="M184" s="246"/>
+      <c r="M184" s="231"/>
       <c r="N184" s="67"/>
       <c r="O184" s="67"/>
       <c r="P184" s="67"/>
@@ -9178,9 +9178,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="68"/>
-      <c r="B185" s="230"/>
+      <c r="B185" s="236"/>
       <c r="C185" s="96"/>
-      <c r="D185" s="245"/>
+      <c r="D185" s="230"/>
       <c r="E185" s="93"/>
       <c r="F185" s="83"/>
       <c r="G185" s="83"/>
@@ -9189,7 +9189,7 @@
       <c r="J185" s="83"/>
       <c r="K185" s="83"/>
       <c r="L185" s="74"/>
-      <c r="M185" s="246"/>
+      <c r="M185" s="231"/>
       <c r="N185" s="67"/>
       <c r="O185" s="67"/>
       <c r="P185" s="67"/>
@@ -9209,9 +9209,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="68"/>
-      <c r="B186" s="230"/>
+      <c r="B186" s="236"/>
       <c r="C186" s="96"/>
-      <c r="D186" s="245"/>
+      <c r="D186" s="230"/>
       <c r="E186" s="93"/>
       <c r="F186" s="83"/>
       <c r="G186" s="83"/>
@@ -9240,9 +9240,9 @@
     </row>
     <row r="187" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="68"/>
-      <c r="B187" s="230"/>
+      <c r="B187" s="236"/>
       <c r="C187" s="96"/>
-      <c r="D187" s="245"/>
+      <c r="D187" s="230"/>
       <c r="E187" s="93"/>
       <c r="F187" s="83"/>
       <c r="G187" s="83"/>
@@ -9271,9 +9271,9 @@
     </row>
     <row r="188" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="68"/>
-      <c r="B188" s="230"/>
+      <c r="B188" s="236"/>
       <c r="C188" s="96"/>
-      <c r="D188" s="245"/>
+      <c r="D188" s="230"/>
       <c r="E188" s="93"/>
       <c r="F188" s="83"/>
       <c r="G188" s="83"/>
@@ -9337,7 +9337,7 @@
       <c r="C190" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D190" s="247"/>
+      <c r="D190" s="232"/>
       <c r="E190" s="93"/>
       <c r="F190" s="83"/>
       <c r="G190" s="105"/>
@@ -9368,7 +9368,7 @@
       <c r="A191" s="115"/>
       <c r="B191" s="114"/>
       <c r="C191" s="119"/>
-      <c r="D191" s="247"/>
+      <c r="D191" s="232"/>
       <c r="E191" s="93"/>
       <c r="F191" s="83"/>
       <c r="G191" s="105"/>
@@ -9399,7 +9399,7 @@
       <c r="A192" s="115"/>
       <c r="B192" s="114"/>
       <c r="C192" s="119"/>
-      <c r="D192" s="247"/>
+      <c r="D192" s="232"/>
       <c r="E192" s="93"/>
       <c r="F192" s="83"/>
       <c r="G192" s="105"/>
@@ -9430,7 +9430,7 @@
       <c r="A193" s="115"/>
       <c r="B193" s="114"/>
       <c r="C193" s="114"/>
-      <c r="D193" s="247"/>
+      <c r="D193" s="232"/>
       <c r="E193" s="101"/>
       <c r="F193" s="83"/>
       <c r="G193" s="105"/>
@@ -9461,7 +9461,7 @@
       <c r="A194" s="115"/>
       <c r="B194" s="118"/>
       <c r="C194" s="114"/>
-      <c r="D194" s="247"/>
+      <c r="D194" s="232"/>
       <c r="E194" s="101"/>
       <c r="F194" s="83"/>
       <c r="G194" s="105"/>
@@ -9492,7 +9492,7 @@
       <c r="A195" s="115"/>
       <c r="B195" s="118"/>
       <c r="C195" s="114"/>
-      <c r="D195" s="247"/>
+      <c r="D195" s="232"/>
       <c r="E195" s="101"/>
       <c r="F195" s="83"/>
       <c r="G195" s="105"/>
@@ -9523,7 +9523,7 @@
       <c r="A196" s="115"/>
       <c r="B196" s="118"/>
       <c r="C196" s="114"/>
-      <c r="D196" s="247"/>
+      <c r="D196" s="232"/>
       <c r="E196" s="93"/>
       <c r="F196" s="83"/>
       <c r="G196" s="105"/>
@@ -9554,7 +9554,7 @@
       <c r="A197" s="115"/>
       <c r="B197" s="118"/>
       <c r="C197" s="114"/>
-      <c r="D197" s="247"/>
+      <c r="D197" s="232"/>
       <c r="E197" s="93"/>
       <c r="F197" s="83"/>
       <c r="G197" s="105"/>
@@ -9585,7 +9585,7 @@
       <c r="A198" s="115"/>
       <c r="B198" s="118"/>
       <c r="C198" s="118"/>
-      <c r="D198" s="247"/>
+      <c r="D198" s="232"/>
       <c r="E198" s="93"/>
       <c r="F198" s="83"/>
       <c r="G198" s="105"/>
@@ -10925,8 +10925,8 @@
       <c r="H241" s="139"/>
       <c r="I241" s="139"/>
       <c r="J241" s="139"/>
-      <c r="K241" s="243"/>
-      <c r="L241" s="246"/>
+      <c r="K241" s="228"/>
+      <c r="L241" s="231"/>
       <c r="M241" s="134"/>
       <c r="N241" s="67"/>
       <c r="O241" s="67"/>
@@ -10956,8 +10956,8 @@
       <c r="H242" s="140"/>
       <c r="I242" s="140"/>
       <c r="J242" s="140"/>
-      <c r="K242" s="243"/>
-      <c r="L242" s="246"/>
+      <c r="K242" s="228"/>
+      <c r="L242" s="231"/>
       <c r="M242" s="134"/>
       <c r="N242" s="67"/>
       <c r="O242" s="67"/>
@@ -10987,8 +10987,8 @@
       <c r="H243" s="65"/>
       <c r="I243" s="65"/>
       <c r="J243" s="65"/>
-      <c r="K243" s="243"/>
-      <c r="L243" s="246"/>
+      <c r="K243" s="228"/>
+      <c r="L243" s="231"/>
       <c r="M243" s="134"/>
       <c r="N243" s="67"/>
       <c r="O243" s="67"/>
@@ -11196,9 +11196,9 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="115"/>
       <c r="B250" s="126"/>
-      <c r="C250" s="248"/>
+      <c r="C250" s="224"/>
       <c r="D250" s="114"/>
-      <c r="E250" s="249"/>
+      <c r="E250" s="233"/>
       <c r="F250" s="76"/>
       <c r="G250" s="76"/>
       <c r="H250" s="76"/>
@@ -11227,9 +11227,9 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="115"/>
       <c r="B251" s="126"/>
-      <c r="C251" s="248"/>
+      <c r="C251" s="224"/>
       <c r="D251" s="114"/>
-      <c r="E251" s="249"/>
+      <c r="E251" s="233"/>
       <c r="F251" s="76"/>
       <c r="G251" s="76"/>
       <c r="H251" s="76"/>
@@ -11258,9 +11258,9 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="115"/>
       <c r="B252" s="126"/>
-      <c r="C252" s="248"/>
+      <c r="C252" s="224"/>
       <c r="D252" s="114"/>
-      <c r="E252" s="249"/>
+      <c r="E252" s="233"/>
       <c r="F252" s="76"/>
       <c r="G252" s="76"/>
       <c r="H252" s="76"/>
@@ -11289,7 +11289,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="115"/>
       <c r="B253" s="126"/>
-      <c r="C253" s="248"/>
+      <c r="C253" s="224"/>
       <c r="D253" s="114"/>
       <c r="E253" s="84"/>
       <c r="F253" s="76"/>
@@ -11320,7 +11320,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="115"/>
       <c r="B254" s="126"/>
-      <c r="C254" s="248"/>
+      <c r="C254" s="224"/>
       <c r="D254" s="114"/>
       <c r="E254" s="84"/>
       <c r="F254" s="76"/>
@@ -11351,7 +11351,7 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="115"/>
       <c r="B255" s="126"/>
-      <c r="C255" s="248"/>
+      <c r="C255" s="224"/>
       <c r="D255" s="114"/>
       <c r="E255" s="84"/>
       <c r="F255" s="137"/>
@@ -11382,7 +11382,7 @@
     <row r="256" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="115"/>
       <c r="B256" s="126"/>
-      <c r="C256" s="248"/>
+      <c r="C256" s="224"/>
       <c r="D256" s="114"/>
       <c r="E256" s="84"/>
       <c r="F256" s="76"/>
@@ -11413,7 +11413,7 @@
     <row r="257" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="115"/>
       <c r="B257" s="126"/>
-      <c r="C257" s="242"/>
+      <c r="C257" s="225"/>
       <c r="D257" s="124"/>
       <c r="E257" s="84"/>
       <c r="F257" s="137"/>
@@ -11444,7 +11444,7 @@
     <row r="258" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="115"/>
       <c r="B258" s="126"/>
-      <c r="C258" s="242"/>
+      <c r="C258" s="225"/>
       <c r="D258" s="145"/>
       <c r="E258" s="84"/>
       <c r="F258" s="137"/>
@@ -11506,7 +11506,7 @@
     <row r="260" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="115"/>
       <c r="B260" s="126"/>
-      <c r="C260" s="242"/>
+      <c r="C260" s="225"/>
       <c r="D260" s="124"/>
       <c r="E260" s="84"/>
       <c r="F260" s="76"/>
@@ -11537,7 +11537,7 @@
     <row r="261" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="115"/>
       <c r="B261" s="126"/>
-      <c r="C261" s="242"/>
+      <c r="C261" s="225"/>
       <c r="D261" s="125"/>
       <c r="E261" s="84"/>
       <c r="F261" s="76"/>
@@ -11568,7 +11568,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="115"/>
       <c r="B262" s="126"/>
-      <c r="C262" s="242"/>
+      <c r="C262" s="225"/>
       <c r="D262" s="125"/>
       <c r="E262" s="84"/>
       <c r="F262" s="76"/>
@@ -11599,7 +11599,7 @@
     <row r="263" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="115"/>
       <c r="B263" s="126"/>
-      <c r="C263" s="242"/>
+      <c r="C263" s="225"/>
       <c r="D263" s="125"/>
       <c r="E263" s="84"/>
       <c r="F263" s="137"/>
@@ -11630,7 +11630,7 @@
     <row r="264" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="115"/>
       <c r="B264" s="126"/>
-      <c r="C264" s="242"/>
+      <c r="C264" s="225"/>
       <c r="D264" s="125"/>
       <c r="E264" s="147"/>
       <c r="F264" s="76"/>
@@ -12010,7 +12010,7 @@
       <c r="H276" s="137"/>
       <c r="I276" s="137"/>
       <c r="J276" s="137"/>
-      <c r="K276" s="250"/>
+      <c r="K276" s="234"/>
       <c r="L276" s="74"/>
       <c r="M276" s="103"/>
       <c r="N276" s="67"/>
@@ -12041,7 +12041,7 @@
       <c r="H277" s="137"/>
       <c r="I277" s="137"/>
       <c r="J277" s="137"/>
-      <c r="K277" s="250"/>
+      <c r="K277" s="234"/>
       <c r="L277" s="74"/>
       <c r="M277" s="103"/>
       <c r="N277" s="67"/>
@@ -12126,7 +12126,7 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="115"/>
       <c r="B280" s="126"/>
-      <c r="C280" s="242"/>
+      <c r="C280" s="225"/>
       <c r="D280" s="124"/>
       <c r="E280" s="84"/>
       <c r="F280" s="137"/>
@@ -12134,7 +12134,7 @@
       <c r="H280" s="137"/>
       <c r="I280" s="137"/>
       <c r="J280" s="137"/>
-      <c r="K280" s="243"/>
+      <c r="K280" s="228"/>
       <c r="L280" s="74"/>
       <c r="M280" s="103"/>
       <c r="N280" s="67"/>
@@ -12157,7 +12157,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="115"/>
       <c r="B281" s="126"/>
-      <c r="C281" s="242"/>
+      <c r="C281" s="225"/>
       <c r="D281" s="145"/>
       <c r="E281" s="84"/>
       <c r="F281" s="137"/>
@@ -12165,7 +12165,7 @@
       <c r="H281" s="137"/>
       <c r="I281" s="137"/>
       <c r="J281" s="137"/>
-      <c r="K281" s="243"/>
+      <c r="K281" s="228"/>
       <c r="L281" s="74"/>
       <c r="M281" s="103"/>
       <c r="N281" s="67"/>
@@ -12188,7 +12188,7 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="115"/>
       <c r="B282" s="126"/>
-      <c r="C282" s="248"/>
+      <c r="C282" s="224"/>
       <c r="D282" s="138"/>
       <c r="E282" s="101"/>
       <c r="F282" s="83"/>
@@ -12219,7 +12219,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="115"/>
       <c r="B283" s="126"/>
-      <c r="C283" s="248"/>
+      <c r="C283" s="224"/>
       <c r="D283" s="99"/>
       <c r="E283" s="101"/>
       <c r="F283" s="83"/>
@@ -12281,7 +12281,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="115"/>
       <c r="B285" s="126"/>
-      <c r="C285" s="242"/>
+      <c r="C285" s="225"/>
       <c r="D285" s="124"/>
       <c r="E285" s="101"/>
       <c r="F285" s="83"/>
@@ -12312,7 +12312,7 @@
     <row r="286" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="115"/>
       <c r="B286" s="126"/>
-      <c r="C286" s="242"/>
+      <c r="C286" s="225"/>
       <c r="D286" s="125"/>
       <c r="E286" s="101"/>
       <c r="F286" s="83"/>
@@ -12343,7 +12343,7 @@
     <row r="287" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="115"/>
       <c r="B287" s="126"/>
-      <c r="C287" s="242"/>
+      <c r="C287" s="225"/>
       <c r="D287" s="145"/>
       <c r="E287" s="101"/>
       <c r="F287" s="83"/>
@@ -12528,10 +12528,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="121"/>
-      <c r="B293" s="251"/>
-      <c r="C293" s="248"/>
+      <c r="B293" s="226"/>
+      <c r="C293" s="224"/>
       <c r="D293" s="114"/>
-      <c r="E293" s="248"/>
+      <c r="E293" s="224"/>
       <c r="F293" s="76"/>
       <c r="G293" s="76"/>
       <c r="H293" s="76"/>
@@ -12559,10 +12559,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="121"/>
-      <c r="B294" s="251"/>
-      <c r="C294" s="251"/>
+      <c r="B294" s="226"/>
+      <c r="C294" s="226"/>
       <c r="D294" s="114"/>
-      <c r="E294" s="248"/>
+      <c r="E294" s="224"/>
       <c r="F294" s="76"/>
       <c r="G294" s="76"/>
       <c r="H294" s="76"/>
@@ -12590,10 +12590,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="121"/>
-      <c r="B295" s="251"/>
-      <c r="C295" s="251"/>
+      <c r="B295" s="226"/>
+      <c r="C295" s="226"/>
       <c r="D295" s="114"/>
-      <c r="E295" s="248"/>
+      <c r="E295" s="224"/>
       <c r="F295" s="76"/>
       <c r="G295" s="76"/>
       <c r="H295" s="76"/>
@@ -12621,10 +12621,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="121"/>
-      <c r="B296" s="251"/>
-      <c r="C296" s="251"/>
+      <c r="B296" s="226"/>
+      <c r="C296" s="226"/>
       <c r="D296" s="114"/>
-      <c r="E296" s="248"/>
+      <c r="E296" s="224"/>
       <c r="F296" s="76"/>
       <c r="G296" s="76"/>
       <c r="H296" s="76"/>
@@ -12652,10 +12652,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="121"/>
-      <c r="B297" s="251"/>
-      <c r="C297" s="251"/>
+      <c r="B297" s="226"/>
+      <c r="C297" s="226"/>
       <c r="D297" s="114"/>
-      <c r="E297" s="248"/>
+      <c r="E297" s="224"/>
       <c r="F297" s="76"/>
       <c r="G297" s="76"/>
       <c r="H297" s="76"/>
@@ -12683,10 +12683,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="121"/>
-      <c r="B298" s="251"/>
-      <c r="C298" s="251"/>
+      <c r="B298" s="226"/>
+      <c r="C298" s="226"/>
       <c r="D298" s="114"/>
-      <c r="E298" s="248"/>
+      <c r="E298" s="224"/>
       <c r="F298" s="137"/>
       <c r="G298" s="137"/>
       <c r="H298" s="137"/>
@@ -12714,10 +12714,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="121"/>
-      <c r="B299" s="251"/>
-      <c r="C299" s="251"/>
+      <c r="B299" s="226"/>
+      <c r="C299" s="226"/>
       <c r="D299" s="114"/>
-      <c r="E299" s="248"/>
+      <c r="E299" s="224"/>
       <c r="F299" s="76"/>
       <c r="G299" s="76"/>
       <c r="H299" s="76"/>
@@ -12745,10 +12745,10 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="121"/>
-      <c r="B300" s="251"/>
-      <c r="C300" s="251"/>
+      <c r="B300" s="226"/>
+      <c r="C300" s="226"/>
       <c r="D300" s="114"/>
-      <c r="E300" s="248"/>
+      <c r="E300" s="224"/>
       <c r="F300" s="76"/>
       <c r="G300" s="76"/>
       <c r="H300" s="76"/>
@@ -12776,8 +12776,8 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="121"/>
-      <c r="B301" s="251"/>
-      <c r="C301" s="251"/>
+      <c r="B301" s="226"/>
+      <c r="C301" s="226"/>
       <c r="D301" s="114"/>
       <c r="E301" s="118"/>
       <c r="F301" s="73"/>
@@ -12807,8 +12807,8 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="121"/>
-      <c r="B302" s="251"/>
-      <c r="C302" s="251"/>
+      <c r="B302" s="226"/>
+      <c r="C302" s="226"/>
       <c r="D302" s="114"/>
       <c r="E302" s="118"/>
       <c r="F302" s="74"/>
@@ -12838,10 +12838,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="121"/>
-      <c r="B303" s="251"/>
-      <c r="C303" s="251"/>
+      <c r="B303" s="226"/>
+      <c r="C303" s="226"/>
       <c r="D303" s="138"/>
-      <c r="E303" s="248"/>
+      <c r="E303" s="224"/>
       <c r="F303" s="83"/>
       <c r="G303" s="83"/>
       <c r="H303" s="83"/>
@@ -12869,10 +12869,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="121"/>
-      <c r="B304" s="251"/>
-      <c r="C304" s="251"/>
+      <c r="B304" s="226"/>
+      <c r="C304" s="226"/>
       <c r="D304" s="159"/>
-      <c r="E304" s="248"/>
+      <c r="E304" s="224"/>
       <c r="F304" s="74"/>
       <c r="G304" s="74"/>
       <c r="H304" s="74"/>
@@ -12900,10 +12900,10 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="121"/>
-      <c r="B305" s="251"/>
-      <c r="C305" s="251"/>
+      <c r="B305" s="226"/>
+      <c r="C305" s="226"/>
       <c r="D305" s="159"/>
-      <c r="E305" s="248"/>
+      <c r="E305" s="224"/>
       <c r="F305" s="74"/>
       <c r="G305" s="74"/>
       <c r="H305" s="74"/>
@@ -12931,10 +12931,10 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="121"/>
-      <c r="B306" s="251"/>
-      <c r="C306" s="248"/>
+      <c r="B306" s="226"/>
+      <c r="C306" s="224"/>
       <c r="D306" s="99"/>
-      <c r="E306" s="248"/>
+      <c r="E306" s="224"/>
       <c r="F306" s="74"/>
       <c r="G306" s="74"/>
       <c r="H306" s="74"/>
@@ -12962,7 +12962,7 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="121"/>
-      <c r="B307" s="251"/>
+      <c r="B307" s="226"/>
       <c r="C307" s="114"/>
       <c r="D307" s="159"/>
       <c r="E307" s="159"/>
@@ -12993,10 +12993,10 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="121"/>
-      <c r="B308" s="251"/>
-      <c r="C308" s="248"/>
+      <c r="B308" s="226"/>
+      <c r="C308" s="224"/>
       <c r="D308" s="138"/>
-      <c r="E308" s="252"/>
+      <c r="E308" s="227"/>
       <c r="F308" s="83"/>
       <c r="G308" s="83"/>
       <c r="H308" s="83"/>
@@ -13024,10 +13024,10 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="121"/>
-      <c r="B309" s="251"/>
-      <c r="C309" s="251"/>
+      <c r="B309" s="226"/>
+      <c r="C309" s="226"/>
       <c r="D309" s="99"/>
-      <c r="E309" s="252"/>
+      <c r="E309" s="227"/>
       <c r="F309" s="83"/>
       <c r="G309" s="83"/>
       <c r="H309" s="83"/>
@@ -13055,10 +13055,10 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="121"/>
-      <c r="B310" s="251"/>
-      <c r="C310" s="251"/>
+      <c r="B310" s="226"/>
+      <c r="C310" s="226"/>
       <c r="D310" s="114"/>
-      <c r="E310" s="252"/>
+      <c r="E310" s="227"/>
       <c r="F310" s="83"/>
       <c r="G310" s="83"/>
       <c r="H310" s="83"/>
@@ -13086,10 +13086,10 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="121"/>
-      <c r="B311" s="251"/>
-      <c r="C311" s="248"/>
+      <c r="B311" s="226"/>
+      <c r="C311" s="224"/>
       <c r="D311" s="114"/>
-      <c r="E311" s="252"/>
+      <c r="E311" s="227"/>
       <c r="F311" s="83"/>
       <c r="G311" s="83"/>
       <c r="H311" s="83"/>
@@ -13117,7 +13117,7 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="121"/>
-      <c r="B312" s="251"/>
+      <c r="B312" s="226"/>
       <c r="C312" s="118"/>
       <c r="D312" s="118"/>
       <c r="E312" s="121"/>
@@ -13148,10 +13148,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="121"/>
-      <c r="B313" s="251"/>
-      <c r="C313" s="248"/>
+      <c r="B313" s="226"/>
+      <c r="C313" s="224"/>
       <c r="D313" s="138"/>
-      <c r="E313" s="248"/>
+      <c r="E313" s="224"/>
       <c r="F313" s="83"/>
       <c r="G313" s="83"/>
       <c r="H313" s="83"/>
@@ -13179,10 +13179,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="121"/>
-      <c r="B314" s="251"/>
-      <c r="C314" s="251"/>
+      <c r="B314" s="226"/>
+      <c r="C314" s="226"/>
       <c r="D314" s="159"/>
-      <c r="E314" s="248"/>
+      <c r="E314" s="224"/>
       <c r="F314" s="83"/>
       <c r="G314" s="83"/>
       <c r="H314" s="83"/>
@@ -13210,10 +13210,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="121"/>
-      <c r="B315" s="251"/>
-      <c r="C315" s="251"/>
+      <c r="B315" s="226"/>
+      <c r="C315" s="226"/>
       <c r="D315" s="159"/>
-      <c r="E315" s="248"/>
+      <c r="E315" s="224"/>
       <c r="F315" s="83"/>
       <c r="G315" s="83"/>
       <c r="H315" s="83"/>
@@ -13241,10 +13241,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="121"/>
-      <c r="B316" s="251"/>
-      <c r="C316" s="251"/>
+      <c r="B316" s="226"/>
+      <c r="C316" s="226"/>
       <c r="D316" s="159"/>
-      <c r="E316" s="248"/>
+      <c r="E316" s="224"/>
       <c r="F316" s="83"/>
       <c r="G316" s="83"/>
       <c r="H316" s="83"/>
@@ -13272,10 +13272,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="121"/>
-      <c r="B317" s="251"/>
-      <c r="C317" s="251"/>
+      <c r="B317" s="226"/>
+      <c r="C317" s="226"/>
       <c r="D317" s="159"/>
-      <c r="E317" s="248"/>
+      <c r="E317" s="224"/>
       <c r="F317" s="76"/>
       <c r="G317" s="76"/>
       <c r="H317" s="76"/>
@@ -13303,10 +13303,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="121"/>
-      <c r="B318" s="251"/>
-      <c r="C318" s="251"/>
+      <c r="B318" s="226"/>
+      <c r="C318" s="226"/>
       <c r="D318" s="99"/>
-      <c r="E318" s="248"/>
+      <c r="E318" s="224"/>
       <c r="F318" s="76"/>
       <c r="G318" s="76"/>
       <c r="H318" s="76"/>
@@ -13334,10 +13334,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="121"/>
-      <c r="B319" s="251"/>
-      <c r="C319" s="251"/>
+      <c r="B319" s="226"/>
+      <c r="C319" s="226"/>
       <c r="D319" s="138"/>
-      <c r="E319" s="248"/>
+      <c r="E319" s="224"/>
       <c r="F319" s="83"/>
       <c r="G319" s="83"/>
       <c r="H319" s="83"/>
@@ -13365,10 +13365,10 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="121"/>
-      <c r="B320" s="251"/>
-      <c r="C320" s="251"/>
+      <c r="B320" s="226"/>
+      <c r="C320" s="226"/>
       <c r="D320" s="159"/>
-      <c r="E320" s="248"/>
+      <c r="E320" s="224"/>
       <c r="F320" s="74"/>
       <c r="G320" s="74"/>
       <c r="H320" s="74"/>
@@ -13396,10 +13396,10 @@
     </row>
     <row r="321" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="121"/>
-      <c r="B321" s="251"/>
-      <c r="C321" s="251"/>
+      <c r="B321" s="226"/>
+      <c r="C321" s="226"/>
       <c r="D321" s="159"/>
-      <c r="E321" s="248"/>
+      <c r="E321" s="224"/>
       <c r="F321" s="74"/>
       <c r="G321" s="74"/>
       <c r="H321" s="74"/>
@@ -13427,10 +13427,10 @@
     </row>
     <row r="322" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="121"/>
-      <c r="B322" s="251"/>
-      <c r="C322" s="251"/>
+      <c r="B322" s="226"/>
+      <c r="C322" s="226"/>
       <c r="D322" s="99"/>
-      <c r="E322" s="248"/>
+      <c r="E322" s="224"/>
       <c r="F322" s="74"/>
       <c r="G322" s="74"/>
       <c r="H322" s="74"/>
@@ -15566,31 +15566,13 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E313:E318"/>
-    <mergeCell ref="E319:E322"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="B293:B322"/>
-    <mergeCell ref="C293:C306"/>
-    <mergeCell ref="E293:E300"/>
-    <mergeCell ref="E303:E306"/>
-    <mergeCell ref="C308:C311"/>
-    <mergeCell ref="E308:E309"/>
-    <mergeCell ref="E310:E311"/>
-    <mergeCell ref="C313:C322"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="K280:K281"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D178:D188"/>
-    <mergeCell ref="M178:M185"/>
-    <mergeCell ref="D190:D198"/>
-    <mergeCell ref="K241:K243"/>
-    <mergeCell ref="L241:L243"/>
-    <mergeCell ref="C250:C256"/>
-    <mergeCell ref="E250:E252"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="C260:C264"/>
-    <mergeCell ref="K276:K277"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="D133:D141"/>
     <mergeCell ref="B10:B188"/>
     <mergeCell ref="C10:C20"/>
@@ -15607,13 +15589,31 @@
     <mergeCell ref="D111:D120"/>
     <mergeCell ref="D122:D123"/>
     <mergeCell ref="D125:D131"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="K280:K281"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D178:D188"/>
+    <mergeCell ref="M178:M185"/>
+    <mergeCell ref="D190:D198"/>
+    <mergeCell ref="K241:K243"/>
+    <mergeCell ref="L241:L243"/>
+    <mergeCell ref="C250:C256"/>
+    <mergeCell ref="E250:E252"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="C260:C264"/>
+    <mergeCell ref="K276:K277"/>
+    <mergeCell ref="E313:E318"/>
+    <mergeCell ref="E319:E322"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="C285:C287"/>
+    <mergeCell ref="B293:B322"/>
+    <mergeCell ref="C293:C306"/>
+    <mergeCell ref="E293:E300"/>
+    <mergeCell ref="E303:E306"/>
+    <mergeCell ref="C308:C311"/>
+    <mergeCell ref="E308:E309"/>
+    <mergeCell ref="E310:E311"/>
+    <mergeCell ref="C313:C322"/>
   </mergeCells>
   <conditionalFormatting sqref="L8 L10:L48">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">

--- a/Daraz sign up and login test cases.xlsx
+++ b/Daraz sign up and login test cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE4F761-318E-4900-AE92-28F90C40B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D8D50-D35C-4974-B1CD-2BD5522E56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="225">
   <si>
     <t>PASS</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Out of Scope</t>
-  </si>
-  <si>
-    <t>Functional Testing</t>
   </si>
   <si>
     <t>Usability Testing</t>
@@ -191,9 +188,6 @@
   </si>
   <si>
     <t>Should not allow user to login and display an error messeage</t>
-  </si>
-  <si>
-    <t>Negative test</t>
   </si>
   <si>
     <t>Daraz Bangladesh</t>
@@ -684,12 +678,6 @@
   </si>
   <si>
     <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Input valid phone number or email. 4.  Slide the slide button". 5. Click Mobile Verification button. 6. Click on send button</t>
-  </si>
-  <si>
-    <t>Check verification code</t>
-  </si>
-  <si>
-    <t>Code should come in whatsapp</t>
   </si>
   <si>
     <t>There should be available option</t>
@@ -1073,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1374,12 +1362,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1988,38 +1989,20 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2058,20 +2041,47 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2513,11 +2523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
-  <dimension ref="A1:AC390"/>
+  <dimension ref="A1:AC388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2539,31 +2549,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="168" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="169" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="168" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="169" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="170">
         <v>45553</v>
       </c>
       <c r="F1" s="171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="172"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="251" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="252"/>
+      <c r="L1" s="227" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="228"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2582,19 +2592,19 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="226" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="226"/>
+      <c r="C2" s="173" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="174" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="173" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="174" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="173"/>
       <c r="F2" s="175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="173"/>
       <c r="H2" s="2"/>
@@ -2605,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="212">
-        <f>COUNTIF(L8:L78, "Passed")</f>
+        <f>COUNTIF(L8:L76, "Passed")</f>
         <v>41</v>
       </c>
       <c r="N2" s="4"/>
@@ -2626,19 +2636,19 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="250" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="250"/>
+      <c r="A3" s="226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="226"/>
       <c r="C3" s="173"/>
       <c r="D3" s="174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="173" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="176" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="173" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="176" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="173"/>
       <c r="H3" s="2"/>
@@ -2649,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="214">
-        <f>COUNTIF(L8:L504, "Failed")</f>
+        <f>COUNTIF(L8:L502, "Failed")</f>
         <v>17</v>
       </c>
       <c r="N3" s="4"/>
@@ -2670,17 +2680,17 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="250" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="250"/>
+      <c r="A4" s="226" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="226"/>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="173"/>
       <c r="F4" s="176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="173"/>
       <c r="H4" s="2"/>
@@ -2691,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="216">
-        <f>COUNTIF(L7:L504, "Not Executed")</f>
+        <f>COUNTIF(L7:L502, "Not Executed")</f>
         <v>0</v>
       </c>
       <c r="N4" s="4"/>
@@ -2712,15 +2722,15 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
+      <c r="A5" s="224" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="224"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2729,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="218">
-        <f>COUNTIF(L7:L504, "Out of Scope")</f>
+        <f>COUNTIF(L7:L502, "Out of Scope")</f>
         <v>0</v>
       </c>
       <c r="N5" s="4"/>
@@ -2762,7 +2772,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="219" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="220">
         <f>SUM(M2:M5)</f>
@@ -2787,43 +2797,43 @@
     </row>
     <row r="7" spans="1:29" s="210" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="C7" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="D7" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="E7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="209" t="s">
+      <c r="F7" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="209" t="s">
+      <c r="G7" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="209" t="s">
+      <c r="H7" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="209" t="s">
+      <c r="I7" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="209" t="s">
+      <c r="J7" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="209" t="s">
+      <c r="K7" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="209" t="s">
+      <c r="L7" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="178" t="s">
+      <c r="M7" s="178" t="s">
         <v>32</v>
-      </c>
-      <c r="M7" s="178" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2832,28 +2842,28 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="14"/>
@@ -2908,32 +2918,32 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="236" t="s">
+      <c r="B10" s="230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="231" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="237" t="s">
+      <c r="D10" s="230"/>
+      <c r="E10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="I10" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="22"/>
@@ -2957,28 +2967,28 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="236"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="236"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="230"/>
       <c r="E11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="22"/>
@@ -3002,28 +3012,28 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="236"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="236"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="230"/>
       <c r="E12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="21"/>
       <c r="N12" s="22"/>
@@ -3047,30 +3057,30 @@
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="236"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="236"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J13" s="166" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -3094,30 +3104,30 @@
       <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="236"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="236"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="230"/>
       <c r="E14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="166" t="s">
         <v>126</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="166" t="s">
-        <v>128</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -3141,30 +3151,30 @@
       <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="236"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="236"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="230"/>
       <c r="E15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="166" t="s">
         <v>65</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="166" t="s">
-        <v>67</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
@@ -3188,30 +3198,30 @@
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="236"/>
-      <c r="C16" s="237"/>
-      <c r="D16" s="236"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="230"/>
       <c r="E16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="166" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="166" t="s">
-        <v>84</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
@@ -3235,30 +3245,30 @@
       <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="236"/>
-      <c r="C17" s="237"/>
-      <c r="D17" s="236"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="230"/>
       <c r="E17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="166" t="s">
         <v>69</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="166" t="s">
-        <v>71</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
@@ -3282,28 +3292,28 @@
       <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="236"/>
-      <c r="C18" s="237"/>
-      <c r="D18" s="236"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="230"/>
       <c r="E18" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
       <c r="L18" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
@@ -3327,28 +3337,28 @@
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="236"/>
-      <c r="C19" s="237"/>
-      <c r="D19" s="236"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="230"/>
       <c r="E19" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
@@ -3372,28 +3382,28 @@
       <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="236"/>
-      <c r="C20" s="237"/>
-      <c r="D20" s="236"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="230"/>
       <c r="E20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
@@ -3415,9 +3425,9 @@
     </row>
     <row r="21" spans="1:29" s="194" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
-      <c r="B21" s="236"/>
+      <c r="B21" s="230"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="236"/>
+      <c r="D21" s="230"/>
       <c r="E21" s="188"/>
       <c r="F21" s="188"/>
       <c r="G21" s="188"/>
@@ -3448,32 +3458,32 @@
       <c r="A22" s="27">
         <v>13</v>
       </c>
-      <c r="B22" s="236"/>
-      <c r="C22" s="236" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="236"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="230" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="230"/>
       <c r="E22" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22" s="29"/>
       <c r="N22" s="32"/>
@@ -3497,28 +3507,28 @@
       <c r="A23" s="27">
         <v>14</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="230"/>
       <c r="E23" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="I23" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="31"/>
       <c r="L23" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23" s="35"/>
       <c r="N23" s="32"/>
@@ -3542,30 +3552,30 @@
       <c r="A24" s="27">
         <v>15</v>
       </c>
-      <c r="B24" s="236"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="230"/>
       <c r="E24" s="28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="29">
         <v>17</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J24" s="166" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24" s="35"/>
       <c r="N24" s="32"/>
@@ -3589,30 +3599,30 @@
       <c r="A25" s="27">
         <v>16</v>
       </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
       <c r="E25" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="29">
         <v>1784813242456</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J25" s="167" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M25" s="35"/>
       <c r="N25" s="32"/>
@@ -3636,30 +3646,30 @@
       <c r="A26" s="27">
         <v>17</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
       <c r="E26" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="29">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J26" s="167" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K26" s="38"/>
       <c r="L26" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="32"/>
@@ -3683,30 +3693,30 @@
       <c r="A27" s="27">
         <v>18</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="230"/>
       <c r="E27" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="H27" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="29" t="s">
+      <c r="I27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="166" t="s">
-        <v>100</v>
+      <c r="J27" s="255" t="s">
+        <v>98</v>
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="32"/>
@@ -3730,28 +3740,27 @@
       <c r="A28" s="27">
         <v>19</v>
       </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
       <c r="E28" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" s="29">
         <v>555555</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28" s="31"/>
+      <c r="I28" s="253" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="254"/>
       <c r="L28" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28" s="35"/>
       <c r="N28" s="32"/>
@@ -3775,28 +3784,28 @@
       <c r="A29" s="27">
         <v>20</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
       <c r="E29" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="29">
         <v>66666666</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J29"/>
       <c r="K29" s="31"/>
       <c r="L29" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="32"/>
@@ -3820,28 +3829,28 @@
       <c r="A30" s="27">
         <v>21</v>
       </c>
-      <c r="B30" s="236"/>
-      <c r="C30" s="236"/>
-      <c r="D30" s="236"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="230"/>
+      <c r="D30" s="230"/>
       <c r="E30" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="I30" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="31"/>
       <c r="L30" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="32"/>
@@ -3865,28 +3874,28 @@
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="236"/>
-      <c r="C31" s="236"/>
-      <c r="D31" s="236"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="230"/>
+      <c r="D31" s="230"/>
       <c r="E31" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="31"/>
       <c r="L31" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M31" s="35"/>
       <c r="N31" s="32"/>
@@ -3910,28 +3919,28 @@
       <c r="A32" s="27">
         <v>23</v>
       </c>
-      <c r="B32" s="236"/>
-      <c r="C32" s="236"/>
-      <c r="D32" s="236"/>
+      <c r="B32" s="230"/>
+      <c r="C32" s="230"/>
+      <c r="D32" s="230"/>
       <c r="E32" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="31"/>
       <c r="L32" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="32"/>
@@ -3955,28 +3964,28 @@
       <c r="A33" s="27">
         <v>24</v>
       </c>
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="230"/>
+      <c r="D33" s="230"/>
       <c r="E33" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>120</v>
-      </c>
       <c r="I33" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="31"/>
       <c r="L33" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M33" s="35"/>
       <c r="N33" s="32"/>
@@ -4000,28 +4009,28 @@
       <c r="A34" s="27">
         <v>25</v>
       </c>
-      <c r="B34" s="236"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="236"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="230"/>
       <c r="E34" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" s="29">
         <v>222222</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="31"/>
       <c r="L34" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M34" s="35"/>
       <c r="N34" s="32"/>
@@ -4045,28 +4054,28 @@
       <c r="A35" s="27">
         <v>26</v>
       </c>
-      <c r="B35" s="236"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="236"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="230"/>
       <c r="E35" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="221" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="221" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="165" t="s">
-        <v>125</v>
-      </c>
       <c r="I35" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
       <c r="L35" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M35" s="35"/>
       <c r="N35" s="32"/>
@@ -4090,28 +4099,28 @@
       <c r="A36" s="27">
         <v>27</v>
       </c>
-      <c r="B36" s="236"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="236"/>
+      <c r="B36" s="230"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="230"/>
       <c r="E36" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F36" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="31"/>
       <c r="L36" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M36" s="35"/>
       <c r="N36" s="32"/>
@@ -4135,30 +4144,30 @@
       <c r="A37" s="27">
         <v>28</v>
       </c>
-      <c r="B37" s="236"/>
-      <c r="C37" s="236"/>
-      <c r="D37" s="236"/>
+      <c r="B37" s="230"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="230"/>
       <c r="E37" s="28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" s="39">
         <v>123</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J37" s="166" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M37" s="35"/>
       <c r="N37" s="32"/>
@@ -4182,28 +4191,28 @@
       <c r="A38" s="27">
         <v>29</v>
       </c>
-      <c r="B38" s="236"/>
-      <c r="C38" s="236"/>
-      <c r="D38" s="236"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="230"/>
+      <c r="D38" s="230"/>
       <c r="E38" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F38" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M38" s="35"/>
       <c r="N38" s="32"/>
@@ -4227,30 +4236,30 @@
       <c r="A39" s="27">
         <v>30</v>
       </c>
-      <c r="B39" s="236"/>
-      <c r="C39" s="236"/>
-      <c r="D39" s="236"/>
+      <c r="B39" s="230"/>
+      <c r="C39" s="230"/>
+      <c r="D39" s="230"/>
       <c r="E39" s="36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J39" s="166" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M39" s="35"/>
       <c r="N39" s="32"/>
@@ -4274,28 +4283,28 @@
       <c r="A40" s="27">
         <v>31</v>
       </c>
-      <c r="B40" s="236"/>
-      <c r="C40" s="236"/>
-      <c r="D40" s="236"/>
+      <c r="B40" s="230"/>
+      <c r="C40" s="230"/>
+      <c r="D40" s="230"/>
       <c r="E40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40" s="165" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="32"/>
@@ -4319,28 +4328,28 @@
       <c r="A41" s="27">
         <v>32</v>
       </c>
-      <c r="B41" s="236"/>
-      <c r="C41" s="236"/>
-      <c r="D41" s="236"/>
+      <c r="B41" s="230"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="230"/>
       <c r="E41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
       <c r="L41" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="32"/>
@@ -4364,28 +4373,28 @@
       <c r="A42" s="27">
         <v>33</v>
       </c>
-      <c r="B42" s="236"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="236"/>
+      <c r="B42" s="230"/>
+      <c r="C42" s="230"/>
+      <c r="D42" s="230"/>
       <c r="E42" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M42" s="12"/>
       <c r="N42" s="32"/>
@@ -4409,28 +4418,28 @@
       <c r="A43" s="27">
         <v>34</v>
       </c>
-      <c r="B43" s="236"/>
-      <c r="C43" s="236"/>
-      <c r="D43" s="236"/>
+      <c r="B43" s="230"/>
+      <c r="C43" s="230"/>
+      <c r="D43" s="230"/>
       <c r="E43" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M43" s="12"/>
       <c r="N43" s="32"/>
@@ -4454,28 +4463,28 @@
       <c r="A44" s="27">
         <v>35</v>
       </c>
-      <c r="B44" s="236"/>
-      <c r="C44" s="236"/>
-      <c r="D44" s="236"/>
+      <c r="B44" s="230"/>
+      <c r="C44" s="230"/>
+      <c r="D44" s="230"/>
       <c r="E44" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="32"/>
@@ -4497,9 +4506,9 @@
     </row>
     <row r="45" spans="1:29" s="199" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="195"/>
-      <c r="B45" s="236"/>
+      <c r="B45" s="230"/>
       <c r="C45" s="196"/>
-      <c r="D45" s="236"/>
+      <c r="D45" s="230"/>
       <c r="E45" s="197"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188"/>
@@ -4530,30 +4539,30 @@
       <c r="A46" s="27">
         <v>36</v>
       </c>
-      <c r="B46" s="236"/>
-      <c r="C46" s="236" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="236"/>
+      <c r="B46" s="230"/>
+      <c r="C46" s="230" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="230"/>
       <c r="E46" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="I46" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M46" s="12"/>
       <c r="N46" s="32"/>
@@ -4577,28 +4586,28 @@
       <c r="A47" s="27">
         <v>37</v>
       </c>
-      <c r="B47" s="236"/>
-      <c r="C47" s="236"/>
-      <c r="D47" s="236"/>
+      <c r="B47" s="230"/>
+      <c r="C47" s="230"/>
+      <c r="D47" s="230"/>
       <c r="E47" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="I47" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
       <c r="L47" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M47" s="12"/>
       <c r="N47" s="32"/>
@@ -4622,30 +4631,30 @@
       <c r="A48" s="27">
         <v>38</v>
       </c>
-      <c r="B48" s="236"/>
-      <c r="C48" s="236"/>
-      <c r="D48" s="236"/>
+      <c r="B48" s="230"/>
+      <c r="C48" s="230"/>
+      <c r="D48" s="230"/>
       <c r="E48" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="I48" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="J48" s="166" t="s">
         <v>161</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J48" s="166" t="s">
-        <v>163</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M48" s="12"/>
       <c r="N48" s="32"/>
@@ -4667,7 +4676,7 @@
     </row>
     <row r="49" spans="1:29" s="208" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="200"/>
-      <c r="B49" s="236"/>
+      <c r="B49" s="230"/>
       <c r="C49" s="201"/>
       <c r="D49" s="202"/>
       <c r="E49" s="203"/>
@@ -4700,32 +4709,32 @@
       <c r="A50" s="27">
         <v>39</v>
       </c>
-      <c r="B50" s="236"/>
-      <c r="C50" s="238" t="s">
+      <c r="B50" s="230"/>
+      <c r="C50" s="232" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="232" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="238" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="F50" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="G50" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
       <c r="L50" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M50" s="12"/>
       <c r="N50" s="32"/>
@@ -4749,28 +4758,28 @@
       <c r="A51" s="27">
         <v>40</v>
       </c>
-      <c r="B51" s="236"/>
-      <c r="C51" s="239"/>
-      <c r="D51" s="239"/>
+      <c r="B51" s="230"/>
+      <c r="C51" s="233"/>
+      <c r="D51" s="233"/>
       <c r="E51" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="I51" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="31"/>
       <c r="L51" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M51" s="35"/>
       <c r="N51" s="32"/>
@@ -4794,30 +4803,30 @@
       <c r="A52" s="27">
         <v>41</v>
       </c>
-      <c r="B52" s="236"/>
-      <c r="C52" s="239"/>
-      <c r="D52" s="239"/>
+      <c r="B52" s="230"/>
+      <c r="C52" s="233"/>
+      <c r="D52" s="233"/>
       <c r="E52" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H52" s="223">
         <v>1.23451234567897E+77</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M52" s="35"/>
       <c r="N52" s="32"/>
@@ -4832,30 +4841,30 @@
       <c r="A53" s="27">
         <v>42</v>
       </c>
-      <c r="B53" s="236"/>
-      <c r="C53" s="239"/>
-      <c r="D53" s="239"/>
+      <c r="B53" s="230"/>
+      <c r="C53" s="233"/>
+      <c r="D53" s="233"/>
       <c r="E53" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J53" s="166" t="s">
         <v>172</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="J53" s="166" t="s">
-        <v>174</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M53" s="35"/>
       <c r="N53" s="32"/>
@@ -4879,30 +4888,30 @@
       <c r="A54" s="27">
         <v>43</v>
       </c>
-      <c r="B54" s="236"/>
-      <c r="C54" s="239"/>
-      <c r="D54" s="239"/>
+      <c r="B54" s="230"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="233"/>
       <c r="E54" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="J54" s="166" t="s">
         <v>176</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J54" s="166" t="s">
-        <v>178</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M54" s="35"/>
       <c r="N54" s="32"/>
@@ -4926,28 +4935,28 @@
       <c r="A55" s="27">
         <v>44</v>
       </c>
-      <c r="B55" s="236"/>
-      <c r="C55" s="239"/>
-      <c r="D55" s="239"/>
+      <c r="B55" s="230"/>
+      <c r="C55" s="233"/>
+      <c r="D55" s="233"/>
       <c r="E55" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F55" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="29" t="s">
-        <v>181</v>
-      </c>
       <c r="I55" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
       <c r="L55" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M55" s="46"/>
       <c r="N55" s="32"/>
@@ -4971,28 +4980,28 @@
       <c r="A56" s="27">
         <v>45</v>
       </c>
-      <c r="B56" s="236"/>
-      <c r="C56" s="239"/>
-      <c r="D56" s="239"/>
+      <c r="B56" s="230"/>
+      <c r="C56" s="233"/>
+      <c r="D56" s="233"/>
       <c r="E56" s="36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
       <c r="L56" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M56" s="35"/>
       <c r="N56" s="32"/>
@@ -5016,28 +5025,28 @@
       <c r="A57" s="27">
         <v>46</v>
       </c>
-      <c r="B57" s="236"/>
-      <c r="C57" s="239"/>
-      <c r="D57" s="239"/>
+      <c r="B57" s="230"/>
+      <c r="C57" s="233"/>
+      <c r="D57" s="233"/>
       <c r="E57" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="I57" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="222"/>
       <c r="L57" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M57" s="35"/>
       <c r="N57" s="32"/>
@@ -5061,26 +5070,26 @@
       <c r="A58" s="27">
         <v>47</v>
       </c>
-      <c r="B58" s="236"/>
-      <c r="C58" s="239"/>
-      <c r="D58" s="239"/>
+      <c r="B58" s="230"/>
+      <c r="C58" s="233"/>
+      <c r="D58" s="233"/>
       <c r="E58" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" s="165"/>
       <c r="I58" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
       <c r="L58" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M58" s="35"/>
       <c r="N58" s="32"/>
@@ -5104,28 +5113,28 @@
       <c r="A59" s="27">
         <v>48</v>
       </c>
-      <c r="B59" s="236"/>
-      <c r="C59" s="239"/>
-      <c r="D59" s="239"/>
+      <c r="B59" s="230"/>
+      <c r="C59" s="233"/>
+      <c r="D59" s="233"/>
       <c r="E59" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M59" s="35"/>
       <c r="N59" s="32"/>
@@ -5149,28 +5158,28 @@
       <c r="A60" s="27">
         <v>49</v>
       </c>
-      <c r="B60" s="236"/>
-      <c r="C60" s="239"/>
-      <c r="D60" s="239"/>
+      <c r="B60" s="230"/>
+      <c r="C60" s="233"/>
+      <c r="D60" s="233"/>
       <c r="E60" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M60" s="35"/>
       <c r="N60" s="32"/>
@@ -5194,28 +5203,28 @@
       <c r="A61" s="27">
         <v>50</v>
       </c>
-      <c r="B61" s="236"/>
-      <c r="C61" s="239"/>
-      <c r="D61" s="239"/>
+      <c r="B61" s="230"/>
+      <c r="C61" s="233"/>
+      <c r="D61" s="233"/>
       <c r="E61" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M61" s="35"/>
       <c r="N61" s="32"/>
@@ -5239,28 +5248,28 @@
       <c r="A62" s="27">
         <v>51</v>
       </c>
-      <c r="B62" s="236"/>
-      <c r="C62" s="239"/>
-      <c r="D62" s="239"/>
+      <c r="B62" s="230"/>
+      <c r="C62" s="233"/>
+      <c r="D62" s="233"/>
       <c r="E62" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="G62" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
       <c r="L62" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M62" s="35"/>
       <c r="N62" s="32"/>
@@ -5284,28 +5293,28 @@
       <c r="A63" s="27">
         <v>52</v>
       </c>
-      <c r="B63" s="236"/>
-      <c r="C63" s="239"/>
-      <c r="D63" s="239"/>
+      <c r="B63" s="230"/>
+      <c r="C63" s="233"/>
+      <c r="D63" s="233"/>
       <c r="E63" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
       <c r="L63" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M63" s="35"/>
       <c r="N63" s="32"/>
@@ -5329,30 +5338,30 @@
       <c r="A64" s="27">
         <v>53</v>
       </c>
-      <c r="B64" s="236"/>
-      <c r="C64" s="239"/>
-      <c r="D64" s="239"/>
+      <c r="B64" s="230"/>
+      <c r="C64" s="233"/>
+      <c r="D64" s="233"/>
       <c r="E64" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J64" s="166" t="s">
         <v>205</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="J64" s="166" t="s">
-        <v>207</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M64" s="35"/>
       <c r="N64" s="32"/>
@@ -5376,28 +5385,28 @@
       <c r="A65" s="27">
         <v>54</v>
       </c>
-      <c r="B65" s="236"/>
-      <c r="C65" s="239"/>
-      <c r="D65" s="239"/>
+      <c r="B65" s="230"/>
+      <c r="C65" s="233"/>
+      <c r="D65" s="233"/>
       <c r="E65" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
       <c r="L65" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M65" s="35"/>
       <c r="N65" s="32"/>
@@ -5421,28 +5430,28 @@
       <c r="A66" s="27">
         <v>55</v>
       </c>
-      <c r="B66" s="236"/>
-      <c r="C66" s="239"/>
-      <c r="D66" s="239"/>
+      <c r="B66" s="230"/>
+      <c r="C66" s="233"/>
+      <c r="D66" s="233"/>
       <c r="E66" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
       <c r="L66" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M66" s="35"/>
       <c r="N66" s="32"/>
@@ -5466,21 +5475,31 @@
       <c r="A67" s="27">
         <v>56</v>
       </c>
-      <c r="B67" s="236"/>
-      <c r="C67" s="239"/>
-      <c r="D67" s="239"/>
+      <c r="B67" s="230"/>
+      <c r="C67" s="233"/>
+      <c r="D67" s="233"/>
       <c r="E67" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J67" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="F67" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="29"/>
       <c r="K67" s="29"/>
-      <c r="L67" s="12"/>
+      <c r="L67" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="M67" s="35"/>
       <c r="N67" s="32"/>
       <c r="O67" s="32"/>
@@ -5503,17 +5522,29 @@
       <c r="A68" s="27">
         <v>57</v>
       </c>
-      <c r="B68" s="236"/>
-      <c r="C68" s="239"/>
-      <c r="D68" s="239"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="10"/>
+      <c r="B68" s="230"/>
+      <c r="C68" s="233"/>
+      <c r="D68" s="233"/>
+      <c r="E68" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
-      <c r="L68" s="12"/>
+      <c r="L68" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="M68" s="35"/>
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
@@ -5536,30 +5567,28 @@
       <c r="A69" s="27">
         <v>58</v>
       </c>
-      <c r="B69" s="236"/>
-      <c r="C69" s="239"/>
-      <c r="D69" s="239"/>
+      <c r="B69" s="230"/>
+      <c r="C69" s="233"/>
+      <c r="D69" s="233"/>
       <c r="E69" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="F69" s="29" t="s">
-        <v>215</v>
-      </c>
       <c r="G69" s="29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J69" s="166" t="s">
-        <v>217</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="J69" s="29"/>
       <c r="K69" s="29"/>
       <c r="L69" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M69" s="35"/>
       <c r="N69" s="32"/>
@@ -5580,32 +5609,18 @@
       <c r="AC69" s="33"/>
     </row>
     <row r="70" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27">
-        <v>59</v>
-      </c>
-      <c r="B70" s="236"/>
-      <c r="C70" s="239"/>
-      <c r="D70" s="239"/>
-      <c r="E70" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>219</v>
-      </c>
+      <c r="A70" s="27"/>
+      <c r="B70" s="230"/>
+      <c r="C70" s="233"/>
+      <c r="D70" s="233"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="10"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
-      <c r="L70" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="L70" s="12"/>
       <c r="M70" s="35"/>
       <c r="N70" s="32"/>
       <c r="O70" s="32"/>
@@ -5625,32 +5640,18 @@
       <c r="AC70" s="33"/>
     </row>
     <row r="71" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27">
-        <v>60</v>
-      </c>
-      <c r="B71" s="236"/>
-      <c r="C71" s="239"/>
-      <c r="D71" s="239"/>
-      <c r="E71" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="G71" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>223</v>
-      </c>
+      <c r="A71" s="27"/>
+      <c r="B71" s="230"/>
+      <c r="C71" s="233"/>
+      <c r="D71" s="233"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="10"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
-      <c r="L71" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="L71" s="12"/>
       <c r="M71" s="35"/>
       <c r="N71" s="32"/>
       <c r="O71" s="32"/>
@@ -5671,9 +5672,9 @@
     </row>
     <row r="72" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
-      <c r="B72" s="236"/>
-      <c r="C72" s="239"/>
-      <c r="D72" s="239"/>
+      <c r="B72" s="230"/>
+      <c r="C72" s="233"/>
+      <c r="D72" s="233"/>
       <c r="E72" s="36"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -5702,9 +5703,9 @@
     </row>
     <row r="73" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
-      <c r="B73" s="236"/>
-      <c r="C73" s="239"/>
-      <c r="D73" s="239"/>
+      <c r="B73" s="230"/>
+      <c r="C73" s="233"/>
+      <c r="D73" s="233"/>
       <c r="E73" s="36"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -5732,10 +5733,12 @@
       <c r="AC73" s="33"/>
     </row>
     <row r="74" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
-      <c r="B74" s="236"/>
-      <c r="C74" s="239"/>
-      <c r="D74" s="239"/>
+      <c r="A74" s="27">
+        <v>57</v>
+      </c>
+      <c r="B74" s="230"/>
+      <c r="C74" s="233"/>
+      <c r="D74" s="233"/>
       <c r="E74" s="36"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -5763,10 +5766,12 @@
       <c r="AC74" s="33"/>
     </row>
     <row r="75" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
-      <c r="B75" s="236"/>
-      <c r="C75" s="239"/>
-      <c r="D75" s="239"/>
+      <c r="A75" s="27">
+        <v>58</v>
+      </c>
+      <c r="B75" s="230"/>
+      <c r="C75" s="234"/>
+      <c r="D75" s="234"/>
       <c r="E75" s="36"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
@@ -5793,51 +5798,47 @@
       <c r="AB75" s="33"/>
       <c r="AC75" s="33"/>
     </row>
-    <row r="76" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27">
-        <v>57</v>
-      </c>
-      <c r="B76" s="236"/>
-      <c r="C76" s="239"/>
-      <c r="D76" s="239"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32"/>
-      <c r="U76" s="33"/>
-      <c r="V76" s="33"/>
-      <c r="W76" s="33"/>
-      <c r="X76" s="33"/>
-      <c r="Y76" s="33"/>
-      <c r="Z76" s="33"/>
-      <c r="AA76" s="33"/>
-      <c r="AB76" s="33"/>
-      <c r="AC76" s="33"/>
-    </row>
-    <row r="77" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="27">
-        <v>58</v>
-      </c>
-      <c r="B77" s="236"/>
-      <c r="C77" s="240"/>
-      <c r="D77" s="240"/>
+    <row r="76" spans="1:29" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="40"/>
+      <c r="B76" s="230"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="17"/>
+      <c r="AB76" s="17"/>
+      <c r="AC76" s="17"/>
+    </row>
+    <row r="77" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="27"/>
+      <c r="B77" s="230"/>
+      <c r="C77" s="235"/>
+      <c r="D77" s="236"/>
       <c r="E77" s="36"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
-      <c r="I77" s="10"/>
+      <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="12"/>
@@ -5859,51 +5860,51 @@
       <c r="AB77" s="33"/>
       <c r="AC77" s="33"/>
     </row>
-    <row r="78" spans="1:29" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="236"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="17"/>
-      <c r="AB78" s="17"/>
-      <c r="AC78" s="17"/>
-    </row>
-    <row r="79" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="27"/>
+      <c r="B78" s="230"/>
+      <c r="C78" s="235"/>
+      <c r="D78" s="236"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="32"/>
+      <c r="U78" s="33"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
+      <c r="AA78" s="33"/>
+      <c r="AB78" s="33"/>
+      <c r="AC78" s="33"/>
+    </row>
+    <row r="79" spans="1:29" s="34" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
-      <c r="B79" s="236"/>
-      <c r="C79" s="241"/>
-      <c r="D79" s="242"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="29"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="235"/>
+      <c r="D79" s="236"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="18"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
+      <c r="K79" s="31"/>
       <c r="L79" s="12"/>
-      <c r="M79" s="35"/>
+      <c r="M79" s="12"/>
       <c r="N79" s="32"/>
       <c r="O79" s="32"/>
       <c r="P79" s="32"/>
@@ -5921,20 +5922,20 @@
       <c r="AB79" s="33"/>
       <c r="AC79" s="33"/>
     </row>
-    <row r="80" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
-      <c r="B80" s="236"/>
-      <c r="C80" s="241"/>
-      <c r="D80" s="242"/>
-      <c r="E80" s="36"/>
+      <c r="B80" s="230"/>
+      <c r="C80" s="235"/>
+      <c r="D80" s="236"/>
+      <c r="E80" s="29"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
+      <c r="K80" s="31"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="35"/>
+      <c r="M80" s="12"/>
       <c r="N80" s="32"/>
       <c r="O80" s="32"/>
       <c r="P80" s="32"/>
@@ -5952,13 +5953,13 @@
       <c r="AB80" s="33"/>
       <c r="AC80" s="33"/>
     </row>
-    <row r="81" spans="1:29" s="34" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
-      <c r="B81" s="236"/>
-      <c r="C81" s="241"/>
-      <c r="D81" s="242"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="18"/>
+      <c r="B81" s="230"/>
+      <c r="C81" s="235"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
@@ -5983,18 +5984,18 @@
       <c r="AB81" s="33"/>
       <c r="AC81" s="33"/>
     </row>
-    <row r="82" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="27"/>
-      <c r="B82" s="236"/>
-      <c r="C82" s="241"/>
-      <c r="D82" s="242"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
+    <row r="82" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="54"/>
+      <c r="B82" s="230"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
-      <c r="K82" s="31"/>
+      <c r="K82" s="29"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
       <c r="N82" s="32"/>
@@ -6014,12 +6015,12 @@
       <c r="AB82" s="33"/>
       <c r="AC82" s="33"/>
     </row>
-    <row r="83" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
-      <c r="B83" s="236"/>
-      <c r="C83" s="241"/>
+    <row r="83" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="54"/>
+      <c r="B83" s="230"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="52"/>
-      <c r="E83" s="53"/>
+      <c r="E83" s="55"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
@@ -6027,7 +6028,7 @@
       <c r="J83" s="29"/>
       <c r="K83" s="31"/>
       <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
+      <c r="M83" s="35"/>
       <c r="N83" s="32"/>
       <c r="O83" s="32"/>
       <c r="P83" s="32"/>
@@ -6047,10 +6048,10 @@
     </row>
     <row r="84" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
-      <c r="B84" s="236"/>
+      <c r="B84" s="230"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
-      <c r="E84" s="53"/>
+      <c r="E84" s="55"/>
       <c r="F84" s="18"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
@@ -6058,7 +6059,7 @@
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
       <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
+      <c r="M84" s="35"/>
       <c r="N84" s="32"/>
       <c r="O84" s="32"/>
       <c r="P84" s="32"/>
@@ -6078,7 +6079,7 @@
     </row>
     <row r="85" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
-      <c r="B85" s="236"/>
+      <c r="B85" s="230"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
       <c r="E85" s="55"/>
@@ -6087,7 +6088,7 @@
       <c r="H85" s="29"/>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
-      <c r="K85" s="31"/>
+      <c r="K85" s="29"/>
       <c r="L85" s="12"/>
       <c r="M85" s="35"/>
       <c r="N85" s="32"/>
@@ -6109,11 +6110,11 @@
     </row>
     <row r="86" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
-      <c r="B86" s="236"/>
+      <c r="B86" s="230"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
       <c r="E86" s="55"/>
-      <c r="F86" s="18"/>
+      <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
@@ -6140,9 +6141,9 @@
     </row>
     <row r="87" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
-      <c r="B87" s="236"/>
+      <c r="B87" s="230"/>
       <c r="C87" s="51"/>
-      <c r="D87" s="52"/>
+      <c r="D87" s="56"/>
       <c r="E87" s="55"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
@@ -6171,11 +6172,11 @@
     </row>
     <row r="88" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
-      <c r="B88" s="236"/>
+      <c r="B88" s="230"/>
       <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
+      <c r="D88" s="237"/>
       <c r="E88" s="55"/>
-      <c r="F88" s="29"/>
+      <c r="F88" s="18"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
@@ -6202,9 +6203,9 @@
     </row>
     <row r="89" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="54"/>
-      <c r="B89" s="236"/>
+      <c r="B89" s="230"/>
       <c r="C89" s="51"/>
-      <c r="D89" s="56"/>
+      <c r="D89" s="237"/>
       <c r="E89" s="55"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -6233,18 +6234,18 @@
     </row>
     <row r="90" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54"/>
-      <c r="B90" s="236"/>
+      <c r="B90" s="230"/>
       <c r="C90" s="51"/>
-      <c r="D90" s="243"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="18"/>
+      <c r="D90" s="237"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
       <c r="K90" s="29"/>
       <c r="L90" s="12"/>
-      <c r="M90" s="35"/>
+      <c r="M90" s="12"/>
       <c r="N90" s="32"/>
       <c r="O90" s="32"/>
       <c r="P90" s="32"/>
@@ -6264,18 +6265,18 @@
     </row>
     <row r="91" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="54"/>
-      <c r="B91" s="236"/>
+      <c r="B91" s="230"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="243"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="29"/>
+      <c r="D91" s="237"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
       <c r="L91" s="12"/>
-      <c r="M91" s="35"/>
+      <c r="M91" s="12"/>
       <c r="N91" s="32"/>
       <c r="O91" s="32"/>
       <c r="P91" s="32"/>
@@ -6295,9 +6296,9 @@
     </row>
     <row r="92" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
-      <c r="B92" s="236"/>
+      <c r="B92" s="230"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="243"/>
+      <c r="D92" s="237"/>
       <c r="E92" s="57"/>
       <c r="F92" s="9"/>
       <c r="G92" s="29"/>
@@ -6326,16 +6327,16 @@
     </row>
     <row r="93" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
-      <c r="B93" s="236"/>
+      <c r="B93" s="230"/>
       <c r="C93" s="51"/>
-      <c r="D93" s="243"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
       <c r="N93" s="32"/>
@@ -6357,16 +6358,16 @@
     </row>
     <row r="94" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54"/>
-      <c r="B94" s="236"/>
+      <c r="B94" s="230"/>
       <c r="C94" s="51"/>
-      <c r="D94" s="243"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="9"/>
+      <c r="D94" s="237"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="29"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
+      <c r="K94" s="31"/>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
       <c r="N94" s="32"/>
@@ -6388,16 +6389,16 @@
     </row>
     <row r="95" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
-      <c r="B95" s="236"/>
+      <c r="B95" s="230"/>
       <c r="C95" s="51"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
+      <c r="D95" s="237"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
       <c r="N95" s="32"/>
@@ -6419,18 +6420,18 @@
     </row>
     <row r="96" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="54"/>
-      <c r="B96" s="236"/>
+      <c r="B96" s="230"/>
       <c r="C96" s="51"/>
-      <c r="D96" s="243"/>
-      <c r="E96" s="53"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="55"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
       <c r="K96" s="31"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="35"/>
       <c r="N96" s="32"/>
       <c r="O96" s="32"/>
       <c r="P96" s="32"/>
@@ -6450,10 +6451,10 @@
     </row>
     <row r="97" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="54"/>
-      <c r="B97" s="236"/>
+      <c r="B97" s="230"/>
       <c r="C97" s="51"/>
-      <c r="D97" s="243"/>
-      <c r="E97" s="53"/>
+      <c r="D97" s="238"/>
+      <c r="E97" s="55"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
@@ -6461,7 +6462,7 @@
       <c r="J97" s="29"/>
       <c r="K97" s="29"/>
       <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
+      <c r="M97" s="35"/>
       <c r="N97" s="32"/>
       <c r="O97" s="32"/>
       <c r="P97" s="32"/>
@@ -6481,17 +6482,17 @@
     </row>
     <row r="98" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="54"/>
-      <c r="B98" s="236"/>
+      <c r="B98" s="230"/>
       <c r="C98" s="51"/>
-      <c r="D98" s="60"/>
+      <c r="D98" s="238"/>
       <c r="E98" s="55"/>
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
       <c r="J98" s="29"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="12"/>
       <c r="M98" s="35"/>
       <c r="N98" s="32"/>
       <c r="O98" s="32"/>
@@ -6512,18 +6513,18 @@
     </row>
     <row r="99" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54"/>
-      <c r="B99" s="236"/>
+      <c r="B99" s="230"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="244"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="29"/>
+      <c r="D99" s="238"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="9"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
       <c r="J99" s="29"/>
       <c r="K99" s="29"/>
       <c r="L99" s="12"/>
-      <c r="M99" s="35"/>
+      <c r="M99" s="12"/>
       <c r="N99" s="32"/>
       <c r="O99" s="32"/>
       <c r="P99" s="32"/>
@@ -6543,18 +6544,18 @@
     </row>
     <row r="100" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="54"/>
-      <c r="B100" s="236"/>
+      <c r="B100" s="230"/>
       <c r="C100" s="51"/>
-      <c r="D100" s="244"/>
-      <c r="E100" s="55"/>
+      <c r="D100" s="238"/>
+      <c r="E100" s="53"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
       <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
+      <c r="K100" s="31"/>
       <c r="L100" s="12"/>
-      <c r="M100" s="35"/>
+      <c r="M100" s="12"/>
       <c r="N100" s="32"/>
       <c r="O100" s="32"/>
       <c r="P100" s="32"/>
@@ -6574,11 +6575,11 @@
     </row>
     <row r="101" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54"/>
-      <c r="B101" s="236"/>
+      <c r="B101" s="230"/>
       <c r="C101" s="51"/>
-      <c r="D101" s="244"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="9"/>
+      <c r="D101" s="238"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="29"/>
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
       <c r="I101" s="29"/>
@@ -6605,10 +6606,10 @@
     </row>
     <row r="102" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="54"/>
-      <c r="B102" s="236"/>
+      <c r="B102" s="230"/>
       <c r="C102" s="51"/>
-      <c r="D102" s="244"/>
-      <c r="E102" s="53"/>
+      <c r="D102" s="238"/>
+      <c r="E102" s="55"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
@@ -6616,7 +6617,7 @@
       <c r="J102" s="29"/>
       <c r="K102" s="31"/>
       <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
+      <c r="M102" s="35"/>
       <c r="N102" s="32"/>
       <c r="O102" s="32"/>
       <c r="P102" s="32"/>
@@ -6636,10 +6637,10 @@
     </row>
     <row r="103" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="54"/>
-      <c r="B103" s="236"/>
+      <c r="B103" s="230"/>
       <c r="C103" s="51"/>
-      <c r="D103" s="244"/>
-      <c r="E103" s="53"/>
+      <c r="D103" s="238"/>
+      <c r="E103" s="55"/>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
@@ -6647,7 +6648,7 @@
       <c r="J103" s="29"/>
       <c r="K103" s="29"/>
       <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
+      <c r="M103" s="35"/>
       <c r="N103" s="32"/>
       <c r="O103" s="32"/>
       <c r="P103" s="32"/>
@@ -6667,16 +6668,16 @@
     </row>
     <row r="104" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="54"/>
-      <c r="B104" s="236"/>
+      <c r="B104" s="230"/>
       <c r="C104" s="51"/>
-      <c r="D104" s="244"/>
+      <c r="D104" s="238"/>
       <c r="E104" s="55"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
       <c r="I104" s="29"/>
       <c r="J104" s="29"/>
-      <c r="K104" s="31"/>
+      <c r="K104" s="29"/>
       <c r="L104" s="12"/>
       <c r="M104" s="35"/>
       <c r="N104" s="32"/>
@@ -6698,18 +6699,18 @@
     </row>
     <row r="105" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="54"/>
-      <c r="B105" s="236"/>
+      <c r="B105" s="230"/>
       <c r="C105" s="51"/>
-      <c r="D105" s="244"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="29"/>
+      <c r="D105" s="238"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
       <c r="I105" s="29"/>
       <c r="J105" s="29"/>
       <c r="K105" s="29"/>
       <c r="L105" s="12"/>
-      <c r="M105" s="35"/>
+      <c r="M105" s="12"/>
       <c r="N105" s="32"/>
       <c r="O105" s="32"/>
       <c r="P105" s="32"/>
@@ -6729,18 +6730,18 @@
     </row>
     <row r="106" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="54"/>
-      <c r="B106" s="236"/>
+      <c r="B106" s="230"/>
       <c r="C106" s="51"/>
-      <c r="D106" s="244"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
+      <c r="D106" s="238"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
       <c r="L106" s="12"/>
-      <c r="M106" s="35"/>
+      <c r="M106" s="12"/>
       <c r="N106" s="32"/>
       <c r="O106" s="32"/>
       <c r="P106" s="32"/>
@@ -6760,16 +6761,16 @@
     </row>
     <row r="107" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="54"/>
-      <c r="B107" s="236"/>
+      <c r="B107" s="230"/>
       <c r="C107" s="51"/>
-      <c r="D107" s="244"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="9"/>
+      <c r="D107" s="238"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="29"/>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
       <c r="I107" s="29"/>
       <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
+      <c r="K107" s="31"/>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
       <c r="N107" s="32"/>
@@ -6791,17 +6792,17 @@
     </row>
     <row r="108" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="54"/>
-      <c r="B108" s="236"/>
+      <c r="B108" s="230"/>
       <c r="C108" s="51"/>
-      <c r="D108" s="244"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="12"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
       <c r="M108" s="12"/>
       <c r="N108" s="32"/>
       <c r="O108" s="32"/>
@@ -6822,10 +6823,10 @@
     </row>
     <row r="109" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
-      <c r="B109" s="236"/>
+      <c r="B109" s="230"/>
       <c r="C109" s="51"/>
-      <c r="D109" s="244"/>
-      <c r="E109" s="53"/>
+      <c r="D109" s="239"/>
+      <c r="E109" s="55"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
@@ -6833,7 +6834,7 @@
       <c r="J109" s="29"/>
       <c r="K109" s="31"/>
       <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
+      <c r="M109" s="35"/>
       <c r="N109" s="32"/>
       <c r="O109" s="32"/>
       <c r="P109" s="32"/>
@@ -6853,18 +6854,18 @@
     </row>
     <row r="110" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="54"/>
-      <c r="B110" s="236"/>
+      <c r="B110" s="230"/>
       <c r="C110" s="51"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="53"/>
+      <c r="D110" s="239"/>
+      <c r="E110" s="55"/>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
       <c r="H110" s="29"/>
       <c r="I110" s="29"/>
       <c r="J110" s="29"/>
       <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="35"/>
       <c r="N110" s="32"/>
       <c r="O110" s="32"/>
       <c r="P110" s="32"/>
@@ -6884,16 +6885,16 @@
     </row>
     <row r="111" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="54"/>
-      <c r="B111" s="236"/>
+      <c r="B111" s="230"/>
       <c r="C111" s="51"/>
-      <c r="D111" s="245"/>
+      <c r="D111" s="239"/>
       <c r="E111" s="55"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
       <c r="H111" s="29"/>
       <c r="I111" s="29"/>
       <c r="J111" s="29"/>
-      <c r="K111" s="31"/>
+      <c r="K111" s="29"/>
       <c r="L111" s="12"/>
       <c r="M111" s="35"/>
       <c r="N111" s="32"/>
@@ -6915,19 +6916,19 @@
     </row>
     <row r="112" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="54"/>
-      <c r="B112" s="236"/>
+      <c r="B112" s="230"/>
       <c r="C112" s="51"/>
-      <c r="D112" s="245"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="29"/>
+      <c r="D112" s="239"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="29"/>
       <c r="H112" s="29"/>
       <c r="I112" s="29"/>
       <c r="J112" s="29"/>
       <c r="K112" s="29"/>
       <c r="L112" s="12"/>
-      <c r="M112" s="35"/>
-      <c r="N112" s="32"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="61"/>
       <c r="O112" s="32"/>
       <c r="P112" s="32"/>
       <c r="Q112" s="32"/>
@@ -6944,82 +6945,82 @@
       <c r="AB112" s="33"/>
       <c r="AC112" s="33"/>
     </row>
-    <row r="113" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="54"/>
-      <c r="B113" s="236"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="245"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="35"/>
-      <c r="N113" s="32"/>
-      <c r="O113" s="32"/>
-      <c r="P113" s="32"/>
-      <c r="Q113" s="32"/>
-      <c r="R113" s="32"/>
-      <c r="S113" s="32"/>
-      <c r="T113" s="32"/>
-      <c r="U113" s="33"/>
-      <c r="V113" s="33"/>
-      <c r="W113" s="33"/>
-      <c r="X113" s="33"/>
-      <c r="Y113" s="33"/>
-      <c r="Z113" s="33"/>
-      <c r="AA113" s="33"/>
-      <c r="AB113" s="33"/>
-      <c r="AC113" s="33"/>
-    </row>
-    <row r="114" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="54"/>
-      <c r="B114" s="236"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="245"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="61"/>
-      <c r="O114" s="32"/>
-      <c r="P114" s="32"/>
-      <c r="Q114" s="32"/>
-      <c r="R114" s="32"/>
-      <c r="S114" s="32"/>
-      <c r="T114" s="32"/>
-      <c r="U114" s="33"/>
-      <c r="V114" s="33"/>
-      <c r="W114" s="33"/>
-      <c r="X114" s="33"/>
-      <c r="Y114" s="33"/>
-      <c r="Z114" s="33"/>
-      <c r="AA114" s="33"/>
-      <c r="AB114" s="33"/>
-      <c r="AC114" s="33"/>
+    <row r="113" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="62"/>
+      <c r="B113" s="230"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="239"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
+      <c r="L113" s="65"/>
+      <c r="M113" s="66"/>
+      <c r="N113" s="67"/>
+      <c r="O113" s="67"/>
+      <c r="P113" s="67"/>
+      <c r="Q113" s="67"/>
+      <c r="R113" s="67"/>
+      <c r="S113" s="67"/>
+      <c r="T113" s="67"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+    </row>
+    <row r="114" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="68"/>
+      <c r="B114" s="230"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="239"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="71"/>
+      <c r="J114" s="65"/>
+      <c r="K114" s="72"/>
+      <c r="L114" s="73"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="67"/>
+      <c r="O114" s="67"/>
+      <c r="P114" s="67"/>
+      <c r="Q114" s="67"/>
+      <c r="R114" s="67"/>
+      <c r="S114" s="67"/>
+      <c r="T114" s="67"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="62"/>
-      <c r="B115" s="236"/>
+      <c r="A115" s="68"/>
+      <c r="B115" s="230"/>
       <c r="C115" s="63"/>
-      <c r="D115" s="245"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65"/>
-      <c r="J115" s="65"/>
-      <c r="K115" s="65"/>
-      <c r="L115" s="65"/>
-      <c r="M115" s="66"/>
+      <c r="D115" s="239"/>
+      <c r="E115" s="75"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+      <c r="K115" s="77"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
       <c r="N115" s="67"/>
       <c r="O115" s="67"/>
       <c r="P115" s="67"/>
@@ -7039,17 +7040,17 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="68"/>
-      <c r="B116" s="236"/>
+      <c r="B116" s="230"/>
       <c r="C116" s="63"/>
-      <c r="D116" s="245"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="70"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="71"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="72"/>
-      <c r="L116" s="73"/>
+      <c r="D116" s="239"/>
+      <c r="E116" s="75"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="76"/>
+      <c r="J116" s="76"/>
+      <c r="K116" s="78"/>
+      <c r="L116" s="74"/>
       <c r="M116" s="74"/>
       <c r="N116" s="67"/>
       <c r="O116" s="67"/>
@@ -7070,16 +7071,16 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
-      <c r="B117" s="236"/>
+      <c r="B117" s="230"/>
       <c r="C117" s="63"/>
-      <c r="D117" s="245"/>
-      <c r="E117" s="75"/>
+      <c r="D117" s="239"/>
+      <c r="E117" s="79"/>
       <c r="F117" s="76"/>
       <c r="G117" s="76"/>
       <c r="H117" s="76"/>
       <c r="I117" s="76"/>
       <c r="J117" s="76"/>
-      <c r="K117" s="77"/>
+      <c r="K117" s="78"/>
       <c r="L117" s="74"/>
       <c r="M117" s="74"/>
       <c r="N117" s="67"/>
@@ -7101,14 +7102,14 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="68"/>
-      <c r="B118" s="236"/>
+      <c r="B118" s="230"/>
       <c r="C118" s="63"/>
-      <c r="D118" s="245"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="I118" s="76"/>
+      <c r="D118" s="239"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
       <c r="J118" s="76"/>
       <c r="K118" s="78"/>
       <c r="L118" s="74"/>
@@ -7132,17 +7133,17 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="68"/>
-      <c r="B119" s="236"/>
+      <c r="B119" s="230"/>
       <c r="C119" s="63"/>
-      <c r="D119" s="245"/>
-      <c r="E119" s="79"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="69"/>
       <c r="F119" s="76"/>
       <c r="G119" s="76"/>
       <c r="H119" s="76"/>
       <c r="I119" s="76"/>
       <c r="J119" s="76"/>
       <c r="K119" s="78"/>
-      <c r="L119" s="74"/>
+      <c r="L119" s="78"/>
       <c r="M119" s="74"/>
       <c r="N119" s="67"/>
       <c r="O119" s="67"/>
@@ -7163,18 +7164,18 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
-      <c r="B120" s="236"/>
+      <c r="B120" s="230"/>
       <c r="C120" s="63"/>
-      <c r="D120" s="245"/>
-      <c r="E120" s="80"/>
+      <c r="D120" s="240"/>
+      <c r="E120" s="82"/>
       <c r="F120" s="70"/>
       <c r="G120" s="71"/>
       <c r="H120" s="71"/>
       <c r="I120" s="71"/>
       <c r="J120" s="76"/>
-      <c r="K120" s="78"/>
+      <c r="K120" s="77"/>
       <c r="L120" s="74"/>
-      <c r="M120" s="74"/>
+      <c r="M120" s="83"/>
       <c r="N120" s="67"/>
       <c r="O120" s="67"/>
       <c r="P120" s="67"/>
@@ -7194,18 +7195,18 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="68"/>
-      <c r="B121" s="236"/>
+      <c r="B121" s="230"/>
       <c r="C121" s="63"/>
-      <c r="D121" s="81"/>
-      <c r="E121" s="69"/>
+      <c r="D121" s="240"/>
+      <c r="E121" s="84"/>
       <c r="F121" s="76"/>
       <c r="G121" s="76"/>
       <c r="H121" s="76"/>
       <c r="I121" s="76"/>
       <c r="J121" s="76"/>
-      <c r="K121" s="78"/>
-      <c r="L121" s="78"/>
-      <c r="M121" s="74"/>
+      <c r="K121" s="77"/>
+      <c r="L121" s="74"/>
+      <c r="M121" s="83"/>
       <c r="N121" s="67"/>
       <c r="O121" s="67"/>
       <c r="P121" s="67"/>
@@ -7225,17 +7226,17 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
-      <c r="B122" s="236"/>
+      <c r="B122" s="230"/>
       <c r="C122" s="63"/>
-      <c r="D122" s="246"/>
-      <c r="E122" s="82"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="85"/>
       <c r="F122" s="70"/>
       <c r="G122" s="71"/>
       <c r="H122" s="71"/>
       <c r="I122" s="71"/>
       <c r="J122" s="76"/>
-      <c r="K122" s="77"/>
-      <c r="L122" s="74"/>
+      <c r="K122" s="78"/>
+      <c r="L122" s="67"/>
       <c r="M122" s="83"/>
       <c r="N122" s="67"/>
       <c r="O122" s="67"/>
@@ -7256,16 +7257,16 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
-      <c r="B123" s="236"/>
+      <c r="B123" s="230"/>
       <c r="C123" s="63"/>
-      <c r="D123" s="246"/>
+      <c r="D123" s="241"/>
       <c r="E123" s="84"/>
       <c r="F123" s="76"/>
       <c r="G123" s="76"/>
       <c r="H123" s="76"/>
       <c r="I123" s="76"/>
       <c r="J123" s="76"/>
-      <c r="K123" s="77"/>
+      <c r="K123" s="78"/>
       <c r="L123" s="74"/>
       <c r="M123" s="83"/>
       <c r="N123" s="67"/>
@@ -7287,17 +7288,17 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
-      <c r="B124" s="236"/>
+      <c r="B124" s="230"/>
       <c r="C124" s="63"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="70"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="71"/>
+      <c r="D124" s="241"/>
+      <c r="E124" s="82"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76"/>
+      <c r="I124" s="76"/>
       <c r="J124" s="76"/>
       <c r="K124" s="78"/>
-      <c r="L124" s="67"/>
+      <c r="L124" s="74"/>
       <c r="M124" s="83"/>
       <c r="N124" s="67"/>
       <c r="O124" s="67"/>
@@ -7318,9 +7319,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="68"/>
-      <c r="B125" s="236"/>
+      <c r="B125" s="230"/>
       <c r="C125" s="63"/>
-      <c r="D125" s="247"/>
+      <c r="D125" s="241"/>
       <c r="E125" s="84"/>
       <c r="F125" s="76"/>
       <c r="G125" s="76"/>
@@ -7349,18 +7350,18 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="68"/>
-      <c r="B126" s="236"/>
+      <c r="B126" s="230"/>
       <c r="C126" s="63"/>
-      <c r="D126" s="247"/>
+      <c r="D126" s="241"/>
       <c r="E126" s="82"/>
-      <c r="F126" s="76"/>
-      <c r="G126" s="76"/>
-      <c r="H126" s="76"/>
-      <c r="I126" s="76"/>
+      <c r="F126" s="70"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
       <c r="J126" s="76"/>
       <c r="K126" s="78"/>
       <c r="L126" s="74"/>
-      <c r="M126" s="83"/>
+      <c r="M126" s="74"/>
       <c r="N126" s="67"/>
       <c r="O126" s="67"/>
       <c r="P126" s="67"/>
@@ -7380,18 +7381,18 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="68"/>
-      <c r="B127" s="236"/>
+      <c r="B127" s="230"/>
       <c r="C127" s="63"/>
-      <c r="D127" s="247"/>
-      <c r="E127" s="84"/>
-      <c r="F127" s="76"/>
-      <c r="G127" s="76"/>
-      <c r="H127" s="76"/>
-      <c r="I127" s="76"/>
+      <c r="D127" s="241"/>
+      <c r="E127" s="86"/>
+      <c r="F127" s="87"/>
+      <c r="G127" s="78"/>
+      <c r="H127" s="78"/>
+      <c r="I127" s="78"/>
       <c r="J127" s="76"/>
       <c r="K127" s="78"/>
       <c r="L127" s="74"/>
-      <c r="M127" s="83"/>
+      <c r="M127" s="74"/>
       <c r="N127" s="67"/>
       <c r="O127" s="67"/>
       <c r="P127" s="67"/>
@@ -7411,11 +7412,11 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="68"/>
-      <c r="B128" s="236"/>
+      <c r="B128" s="230"/>
       <c r="C128" s="63"/>
-      <c r="D128" s="247"/>
+      <c r="D128" s="241"/>
       <c r="E128" s="82"/>
-      <c r="F128" s="70"/>
+      <c r="F128" s="88"/>
       <c r="G128" s="71"/>
       <c r="H128" s="71"/>
       <c r="I128" s="71"/>
@@ -7442,11 +7443,11 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="68"/>
-      <c r="B129" s="236"/>
+      <c r="B129" s="230"/>
       <c r="C129" s="63"/>
-      <c r="D129" s="247"/>
+      <c r="D129" s="241"/>
       <c r="E129" s="86"/>
-      <c r="F129" s="87"/>
+      <c r="F129" s="89"/>
       <c r="G129" s="78"/>
       <c r="H129" s="78"/>
       <c r="I129" s="78"/>
@@ -7473,17 +7474,17 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
-      <c r="B130" s="236"/>
+      <c r="B130" s="230"/>
       <c r="C130" s="63"/>
-      <c r="D130" s="247"/>
-      <c r="E130" s="82"/>
-      <c r="F130" s="88"/>
+      <c r="D130" s="90"/>
+      <c r="E130" s="86"/>
+      <c r="F130" s="70"/>
       <c r="G130" s="71"/>
       <c r="H130" s="71"/>
       <c r="I130" s="71"/>
       <c r="J130" s="76"/>
       <c r="K130" s="78"/>
-      <c r="L130" s="74"/>
+      <c r="L130" s="78"/>
       <c r="M130" s="74"/>
       <c r="N130" s="67"/>
       <c r="O130" s="67"/>
@@ -7504,11 +7505,11 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68"/>
-      <c r="B131" s="236"/>
+      <c r="B131" s="230"/>
       <c r="C131" s="63"/>
-      <c r="D131" s="247"/>
-      <c r="E131" s="86"/>
-      <c r="F131" s="89"/>
+      <c r="D131" s="229"/>
+      <c r="E131" s="91"/>
+      <c r="F131" s="92"/>
       <c r="G131" s="78"/>
       <c r="H131" s="78"/>
       <c r="I131" s="78"/>
@@ -7535,17 +7536,17 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68"/>
-      <c r="B132" s="236"/>
+      <c r="B132" s="230"/>
       <c r="C132" s="63"/>
-      <c r="D132" s="90"/>
+      <c r="D132" s="229"/>
       <c r="E132" s="86"/>
-      <c r="F132" s="70"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="71"/>
+      <c r="F132" s="92"/>
+      <c r="G132" s="78"/>
+      <c r="H132" s="78"/>
+      <c r="I132" s="78"/>
       <c r="J132" s="76"/>
       <c r="K132" s="78"/>
-      <c r="L132" s="78"/>
+      <c r="L132" s="74"/>
       <c r="M132" s="74"/>
       <c r="N132" s="67"/>
       <c r="O132" s="67"/>
@@ -7566,16 +7567,16 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68"/>
-      <c r="B133" s="236"/>
+      <c r="B133" s="230"/>
       <c r="C133" s="63"/>
-      <c r="D133" s="235"/>
-      <c r="E133" s="91"/>
-      <c r="F133" s="92"/>
-      <c r="G133" s="78"/>
-      <c r="H133" s="78"/>
-      <c r="I133" s="78"/>
-      <c r="J133" s="76"/>
-      <c r="K133" s="78"/>
+      <c r="D133" s="229"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="83"/>
+      <c r="H133" s="83"/>
+      <c r="I133" s="83"/>
+      <c r="J133" s="83"/>
+      <c r="K133" s="83"/>
       <c r="L133" s="74"/>
       <c r="M133" s="74"/>
       <c r="N133" s="67"/>
@@ -7597,16 +7598,16 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68"/>
-      <c r="B134" s="236"/>
+      <c r="B134" s="230"/>
       <c r="C134" s="63"/>
-      <c r="D134" s="235"/>
-      <c r="E134" s="86"/>
-      <c r="F134" s="92"/>
-      <c r="G134" s="78"/>
-      <c r="H134" s="78"/>
-      <c r="I134" s="78"/>
-      <c r="J134" s="76"/>
-      <c r="K134" s="78"/>
+      <c r="D134" s="229"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="83"/>
+      <c r="G134" s="83"/>
+      <c r="H134" s="83"/>
+      <c r="I134" s="83"/>
+      <c r="J134" s="83"/>
+      <c r="K134" s="83"/>
       <c r="L134" s="74"/>
       <c r="M134" s="74"/>
       <c r="N134" s="67"/>
@@ -7628,9 +7629,9 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
-      <c r="B135" s="236"/>
+      <c r="B135" s="230"/>
       <c r="C135" s="63"/>
-      <c r="D135" s="235"/>
+      <c r="D135" s="229"/>
       <c r="E135" s="93"/>
       <c r="F135" s="83"/>
       <c r="G135" s="83"/>
@@ -7659,9 +7660,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68"/>
-      <c r="B136" s="236"/>
+      <c r="B136" s="230"/>
       <c r="C136" s="63"/>
-      <c r="D136" s="235"/>
+      <c r="D136" s="229"/>
       <c r="E136" s="93"/>
       <c r="F136" s="83"/>
       <c r="G136" s="83"/>
@@ -7670,7 +7671,7 @@
       <c r="J136" s="83"/>
       <c r="K136" s="83"/>
       <c r="L136" s="74"/>
-      <c r="M136" s="74"/>
+      <c r="M136" s="83"/>
       <c r="N136" s="67"/>
       <c r="O136" s="67"/>
       <c r="P136" s="67"/>
@@ -7690,9 +7691,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68"/>
-      <c r="B137" s="236"/>
+      <c r="B137" s="230"/>
       <c r="C137" s="63"/>
-      <c r="D137" s="235"/>
+      <c r="D137" s="229"/>
       <c r="E137" s="93"/>
       <c r="F137" s="83"/>
       <c r="G137" s="83"/>
@@ -7721,9 +7722,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68"/>
-      <c r="B138" s="236"/>
+      <c r="B138" s="230"/>
       <c r="C138" s="63"/>
-      <c r="D138" s="235"/>
+      <c r="D138" s="229"/>
       <c r="E138" s="93"/>
       <c r="F138" s="83"/>
       <c r="G138" s="83"/>
@@ -7732,7 +7733,7 @@
       <c r="J138" s="83"/>
       <c r="K138" s="83"/>
       <c r="L138" s="74"/>
-      <c r="M138" s="83"/>
+      <c r="M138" s="74"/>
       <c r="N138" s="67"/>
       <c r="O138" s="67"/>
       <c r="P138" s="67"/>
@@ -7752,9 +7753,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68"/>
-      <c r="B139" s="236"/>
+      <c r="B139" s="230"/>
       <c r="C139" s="63"/>
-      <c r="D139" s="235"/>
+      <c r="D139" s="229"/>
       <c r="E139" s="93"/>
       <c r="F139" s="83"/>
       <c r="G139" s="83"/>
@@ -7783,9 +7784,9 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68"/>
-      <c r="B140" s="236"/>
-      <c r="C140" s="63"/>
-      <c r="D140" s="235"/>
+      <c r="B140" s="230"/>
+      <c r="C140" s="94"/>
+      <c r="D140" s="95"/>
       <c r="E140" s="93"/>
       <c r="F140" s="83"/>
       <c r="G140" s="83"/>
@@ -7814,9 +7815,9 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68"/>
-      <c r="B141" s="236"/>
-      <c r="C141" s="63"/>
-      <c r="D141" s="235"/>
+      <c r="B141" s="230"/>
+      <c r="C141" s="96"/>
+      <c r="D141" s="95"/>
       <c r="E141" s="93"/>
       <c r="F141" s="83"/>
       <c r="G141" s="83"/>
@@ -7845,9 +7846,9 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68"/>
-      <c r="B142" s="236"/>
-      <c r="C142" s="94"/>
-      <c r="D142" s="95"/>
+      <c r="B142" s="230"/>
+      <c r="C142" s="96"/>
+      <c r="D142" s="97"/>
       <c r="E142" s="93"/>
       <c r="F142" s="83"/>
       <c r="G142" s="83"/>
@@ -7876,10 +7877,10 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68"/>
-      <c r="B143" s="236"/>
+      <c r="B143" s="230"/>
       <c r="C143" s="96"/>
-      <c r="D143" s="95"/>
-      <c r="E143" s="93"/>
+      <c r="D143" s="244"/>
+      <c r="E143" s="98"/>
       <c r="F143" s="83"/>
       <c r="G143" s="83"/>
       <c r="H143" s="83"/>
@@ -7907,10 +7908,10 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68"/>
-      <c r="B144" s="236"/>
+      <c r="B144" s="230"/>
       <c r="C144" s="96"/>
-      <c r="D144" s="97"/>
-      <c r="E144" s="93"/>
+      <c r="D144" s="244"/>
+      <c r="E144" s="98"/>
       <c r="F144" s="83"/>
       <c r="G144" s="83"/>
       <c r="H144" s="83"/>
@@ -7938,10 +7939,10 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68"/>
-      <c r="B145" s="236"/>
+      <c r="B145" s="230"/>
       <c r="C145" s="96"/>
-      <c r="D145" s="229"/>
-      <c r="E145" s="98"/>
+      <c r="D145" s="99"/>
+      <c r="E145" s="93"/>
       <c r="F145" s="83"/>
       <c r="G145" s="83"/>
       <c r="H145" s="83"/>
@@ -7969,10 +7970,10 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68"/>
-      <c r="B146" s="236"/>
+      <c r="B146" s="230"/>
       <c r="C146" s="96"/>
-      <c r="D146" s="229"/>
-      <c r="E146" s="98"/>
+      <c r="D146" s="100"/>
+      <c r="E146" s="93"/>
       <c r="F146" s="83"/>
       <c r="G146" s="83"/>
       <c r="H146" s="83"/>
@@ -8000,10 +8001,10 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68"/>
-      <c r="B147" s="236"/>
+      <c r="B147" s="230"/>
       <c r="C147" s="96"/>
-      <c r="D147" s="99"/>
-      <c r="E147" s="93"/>
+      <c r="D147" s="100"/>
+      <c r="E147" s="101"/>
       <c r="F147" s="83"/>
       <c r="G147" s="83"/>
       <c r="H147" s="83"/>
@@ -8031,7 +8032,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68"/>
-      <c r="B148" s="236"/>
+      <c r="B148" s="230"/>
       <c r="C148" s="96"/>
       <c r="D148" s="100"/>
       <c r="E148" s="93"/>
@@ -8043,7 +8044,7 @@
       <c r="K148" s="83"/>
       <c r="L148" s="74"/>
       <c r="M148" s="74"/>
-      <c r="N148" s="67"/>
+      <c r="N148" s="102"/>
       <c r="O148" s="67"/>
       <c r="P148" s="67"/>
       <c r="Q148" s="67"/>
@@ -8062,10 +8063,10 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68"/>
-      <c r="B149" s="236"/>
+      <c r="B149" s="230"/>
       <c r="C149" s="96"/>
       <c r="D149" s="100"/>
-      <c r="E149" s="101"/>
+      <c r="E149" s="93"/>
       <c r="F149" s="83"/>
       <c r="G149" s="83"/>
       <c r="H149" s="83"/>
@@ -8093,7 +8094,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68"/>
-      <c r="B150" s="236"/>
+      <c r="B150" s="230"/>
       <c r="C150" s="96"/>
       <c r="D150" s="100"/>
       <c r="E150" s="93"/>
@@ -8105,7 +8106,7 @@
       <c r="K150" s="83"/>
       <c r="L150" s="74"/>
       <c r="M150" s="74"/>
-      <c r="N150" s="102"/>
+      <c r="N150" s="67"/>
       <c r="O150" s="67"/>
       <c r="P150" s="67"/>
       <c r="Q150" s="67"/>
@@ -8124,7 +8125,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68"/>
-      <c r="B151" s="236"/>
+      <c r="B151" s="230"/>
       <c r="C151" s="96"/>
       <c r="D151" s="100"/>
       <c r="E151" s="93"/>
@@ -8135,7 +8136,7 @@
       <c r="J151" s="83"/>
       <c r="K151" s="83"/>
       <c r="L151" s="74"/>
-      <c r="M151" s="74"/>
+      <c r="M151" s="103"/>
       <c r="N151" s="67"/>
       <c r="O151" s="67"/>
       <c r="P151" s="67"/>
@@ -8155,10 +8156,10 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68"/>
-      <c r="B152" s="236"/>
+      <c r="B152" s="230"/>
       <c r="C152" s="96"/>
       <c r="D152" s="100"/>
-      <c r="E152" s="93"/>
+      <c r="E152" s="101"/>
       <c r="F152" s="83"/>
       <c r="G152" s="83"/>
       <c r="H152" s="83"/>
@@ -8186,10 +8187,10 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68"/>
-      <c r="B153" s="236"/>
+      <c r="B153" s="230"/>
       <c r="C153" s="96"/>
       <c r="D153" s="100"/>
-      <c r="E153" s="93"/>
+      <c r="E153" s="101"/>
       <c r="F153" s="83"/>
       <c r="G153" s="83"/>
       <c r="H153" s="83"/>
@@ -8197,7 +8198,7 @@
       <c r="J153" s="83"/>
       <c r="K153" s="83"/>
       <c r="L153" s="74"/>
-      <c r="M153" s="103"/>
+      <c r="M153" s="74"/>
       <c r="N153" s="67"/>
       <c r="O153" s="67"/>
       <c r="P153" s="67"/>
@@ -8217,15 +8218,15 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68"/>
-      <c r="B154" s="236"/>
+      <c r="B154" s="230"/>
       <c r="C154" s="96"/>
       <c r="D154" s="100"/>
       <c r="E154" s="101"/>
       <c r="F154" s="83"/>
-      <c r="G154" s="83"/>
-      <c r="H154" s="83"/>
-      <c r="I154" s="83"/>
-      <c r="J154" s="83"/>
+      <c r="G154" s="104"/>
+      <c r="H154" s="104"/>
+      <c r="I154" s="104"/>
+      <c r="J154" s="104"/>
       <c r="K154" s="83"/>
       <c r="L154" s="74"/>
       <c r="M154" s="74"/>
@@ -8248,10 +8249,10 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68"/>
-      <c r="B155" s="236"/>
+      <c r="B155" s="230"/>
       <c r="C155" s="96"/>
       <c r="D155" s="100"/>
-      <c r="E155" s="101"/>
+      <c r="E155" s="93"/>
       <c r="F155" s="83"/>
       <c r="G155" s="83"/>
       <c r="H155" s="83"/>
@@ -8259,7 +8260,7 @@
       <c r="J155" s="83"/>
       <c r="K155" s="83"/>
       <c r="L155" s="74"/>
-      <c r="M155" s="74"/>
+      <c r="M155" s="70"/>
       <c r="N155" s="67"/>
       <c r="O155" s="67"/>
       <c r="P155" s="67"/>
@@ -8279,15 +8280,15 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="68"/>
-      <c r="B156" s="236"/>
+      <c r="B156" s="230"/>
       <c r="C156" s="96"/>
       <c r="D156" s="100"/>
-      <c r="E156" s="101"/>
+      <c r="E156" s="93"/>
       <c r="F156" s="83"/>
-      <c r="G156" s="104"/>
-      <c r="H156" s="104"/>
-      <c r="I156" s="104"/>
-      <c r="J156" s="104"/>
+      <c r="G156" s="83"/>
+      <c r="H156" s="83"/>
+      <c r="I156" s="83"/>
+      <c r="J156" s="83"/>
       <c r="K156" s="83"/>
       <c r="L156" s="74"/>
       <c r="M156" s="74"/>
@@ -8310,7 +8311,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68"/>
-      <c r="B157" s="236"/>
+      <c r="B157" s="230"/>
       <c r="C157" s="96"/>
       <c r="D157" s="100"/>
       <c r="E157" s="93"/>
@@ -8321,7 +8322,7 @@
       <c r="J157" s="83"/>
       <c r="K157" s="83"/>
       <c r="L157" s="74"/>
-      <c r="M157" s="70"/>
+      <c r="M157" s="74"/>
       <c r="N157" s="67"/>
       <c r="O157" s="67"/>
       <c r="P157" s="67"/>
@@ -8341,15 +8342,15 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="68"/>
-      <c r="B158" s="236"/>
+      <c r="B158" s="230"/>
       <c r="C158" s="96"/>
       <c r="D158" s="100"/>
       <c r="E158" s="93"/>
       <c r="F158" s="83"/>
-      <c r="G158" s="83"/>
-      <c r="H158" s="83"/>
-      <c r="I158" s="83"/>
-      <c r="J158" s="83"/>
+      <c r="G158" s="105"/>
+      <c r="H158" s="105"/>
+      <c r="I158" s="105"/>
+      <c r="J158" s="105"/>
       <c r="K158" s="83"/>
       <c r="L158" s="74"/>
       <c r="M158" s="74"/>
@@ -8372,15 +8373,15 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68"/>
-      <c r="B159" s="236"/>
+      <c r="B159" s="230"/>
       <c r="C159" s="96"/>
       <c r="D159" s="100"/>
       <c r="E159" s="93"/>
       <c r="F159" s="83"/>
-      <c r="G159" s="83"/>
-      <c r="H159" s="83"/>
-      <c r="I159" s="83"/>
-      <c r="J159" s="83"/>
+      <c r="G159" s="105"/>
+      <c r="H159" s="105"/>
+      <c r="I159" s="105"/>
+      <c r="J159" s="105"/>
       <c r="K159" s="83"/>
       <c r="L159" s="74"/>
       <c r="M159" s="74"/>
@@ -8403,7 +8404,7 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68"/>
-      <c r="B160" s="236"/>
+      <c r="B160" s="230"/>
       <c r="C160" s="96"/>
       <c r="D160" s="100"/>
       <c r="E160" s="93"/>
@@ -8414,7 +8415,7 @@
       <c r="J160" s="105"/>
       <c r="K160" s="83"/>
       <c r="L160" s="74"/>
-      <c r="M160" s="74"/>
+      <c r="M160" s="102"/>
       <c r="N160" s="67"/>
       <c r="O160" s="67"/>
       <c r="P160" s="67"/>
@@ -8433,16 +8434,16 @@
       <c r="AC160" s="4"/>
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="68"/>
-      <c r="B161" s="236"/>
+      <c r="A161" s="106"/>
+      <c r="B161" s="230"/>
       <c r="C161" s="96"/>
-      <c r="D161" s="100"/>
-      <c r="E161" s="93"/>
+      <c r="D161" s="107"/>
+      <c r="E161" s="108"/>
       <c r="F161" s="83"/>
-      <c r="G161" s="105"/>
-      <c r="H161" s="105"/>
-      <c r="I161" s="105"/>
-      <c r="J161" s="105"/>
+      <c r="G161" s="83"/>
+      <c r="H161" s="83"/>
+      <c r="I161" s="83"/>
+      <c r="J161" s="83"/>
       <c r="K161" s="83"/>
       <c r="L161" s="74"/>
       <c r="M161" s="74"/>
@@ -8464,19 +8465,19 @@
       <c r="AC161" s="4"/>
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="68"/>
-      <c r="B162" s="236"/>
+      <c r="A162" s="106"/>
+      <c r="B162" s="230"/>
       <c r="C162" s="96"/>
-      <c r="D162" s="100"/>
+      <c r="D162" s="109"/>
       <c r="E162" s="93"/>
       <c r="F162" s="83"/>
-      <c r="G162" s="105"/>
-      <c r="H162" s="105"/>
-      <c r="I162" s="105"/>
-      <c r="J162" s="105"/>
+      <c r="G162" s="83"/>
+      <c r="H162" s="83"/>
+      <c r="I162" s="83"/>
+      <c r="J162" s="83"/>
       <c r="K162" s="83"/>
       <c r="L162" s="74"/>
-      <c r="M162" s="102"/>
+      <c r="M162" s="74"/>
       <c r="N162" s="67"/>
       <c r="O162" s="67"/>
       <c r="P162" s="67"/>
@@ -8496,10 +8497,10 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="106"/>
-      <c r="B163" s="236"/>
+      <c r="B163" s="230"/>
       <c r="C163" s="96"/>
-      <c r="D163" s="107"/>
-      <c r="E163" s="108"/>
+      <c r="D163" s="109"/>
+      <c r="E163" s="93"/>
       <c r="F163" s="83"/>
       <c r="G163" s="83"/>
       <c r="H163" s="83"/>
@@ -8527,10 +8528,10 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="106"/>
-      <c r="B164" s="236"/>
+      <c r="B164" s="230"/>
       <c r="C164" s="96"/>
       <c r="D164" s="109"/>
-      <c r="E164" s="93"/>
+      <c r="E164" s="110"/>
       <c r="F164" s="83"/>
       <c r="G164" s="83"/>
       <c r="H164" s="83"/>
@@ -8558,10 +8559,10 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="106"/>
-      <c r="B165" s="236"/>
+      <c r="B165" s="230"/>
       <c r="C165" s="96"/>
       <c r="D165" s="109"/>
-      <c r="E165" s="93"/>
+      <c r="E165" s="111"/>
       <c r="F165" s="83"/>
       <c r="G165" s="83"/>
       <c r="H165" s="83"/>
@@ -8589,10 +8590,10 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="106"/>
-      <c r="B166" s="236"/>
+      <c r="B166" s="230"/>
       <c r="C166" s="96"/>
       <c r="D166" s="109"/>
-      <c r="E166" s="110"/>
+      <c r="E166" s="111"/>
       <c r="F166" s="83"/>
       <c r="G166" s="83"/>
       <c r="H166" s="83"/>
@@ -8620,7 +8621,7 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="106"/>
-      <c r="B167" s="236"/>
+      <c r="B167" s="230"/>
       <c r="C167" s="96"/>
       <c r="D167" s="109"/>
       <c r="E167" s="111"/>
@@ -8651,7 +8652,7 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="106"/>
-      <c r="B168" s="236"/>
+      <c r="B168" s="230"/>
       <c r="C168" s="96"/>
       <c r="D168" s="109"/>
       <c r="E168" s="111"/>
@@ -8682,10 +8683,10 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="106"/>
-      <c r="B169" s="236"/>
+      <c r="B169" s="230"/>
       <c r="C169" s="96"/>
       <c r="D169" s="109"/>
-      <c r="E169" s="111"/>
+      <c r="E169" s="93"/>
       <c r="F169" s="83"/>
       <c r="G169" s="83"/>
       <c r="H169" s="83"/>
@@ -8713,10 +8714,10 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="106"/>
-      <c r="B170" s="236"/>
+      <c r="B170" s="230"/>
       <c r="C170" s="96"/>
       <c r="D170" s="109"/>
-      <c r="E170" s="111"/>
+      <c r="E170" s="93"/>
       <c r="F170" s="83"/>
       <c r="G170" s="83"/>
       <c r="H170" s="83"/>
@@ -8744,7 +8745,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="106"/>
-      <c r="B171" s="236"/>
+      <c r="B171" s="230"/>
       <c r="C171" s="96"/>
       <c r="D171" s="109"/>
       <c r="E171" s="93"/>
@@ -8775,7 +8776,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="106"/>
-      <c r="B172" s="236"/>
+      <c r="B172" s="230"/>
       <c r="C172" s="96"/>
       <c r="D172" s="109"/>
       <c r="E172" s="93"/>
@@ -8806,10 +8807,10 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="106"/>
-      <c r="B173" s="236"/>
+      <c r="B173" s="230"/>
       <c r="C173" s="96"/>
       <c r="D173" s="109"/>
-      <c r="E173" s="93"/>
+      <c r="E173" s="108"/>
       <c r="F173" s="83"/>
       <c r="G173" s="83"/>
       <c r="H173" s="83"/>
@@ -8837,10 +8838,10 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="106"/>
-      <c r="B174" s="236"/>
+      <c r="B174" s="230"/>
       <c r="C174" s="96"/>
-      <c r="D174" s="109"/>
-      <c r="E174" s="93"/>
+      <c r="D174" s="112"/>
+      <c r="E174" s="113"/>
       <c r="F174" s="83"/>
       <c r="G174" s="83"/>
       <c r="H174" s="83"/>
@@ -8868,9 +8869,9 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="106"/>
-      <c r="B175" s="236"/>
+      <c r="B175" s="230"/>
       <c r="C175" s="96"/>
-      <c r="D175" s="109"/>
+      <c r="D175" s="114"/>
       <c r="E175" s="108"/>
       <c r="F175" s="83"/>
       <c r="G175" s="83"/>
@@ -8899,10 +8900,10 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="106"/>
-      <c r="B176" s="236"/>
+      <c r="B176" s="230"/>
       <c r="C176" s="96"/>
-      <c r="D176" s="112"/>
-      <c r="E176" s="113"/>
+      <c r="D176" s="245"/>
+      <c r="E176" s="93"/>
       <c r="F176" s="83"/>
       <c r="G176" s="83"/>
       <c r="H176" s="83"/>
@@ -8910,7 +8911,7 @@
       <c r="J176" s="83"/>
       <c r="K176" s="83"/>
       <c r="L176" s="74"/>
-      <c r="M176" s="74"/>
+      <c r="M176" s="246"/>
       <c r="N176" s="67"/>
       <c r="O176" s="67"/>
       <c r="P176" s="67"/>
@@ -8929,11 +8930,11 @@
       <c r="AC176" s="4"/>
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="106"/>
-      <c r="B177" s="236"/>
+      <c r="A177" s="68"/>
+      <c r="B177" s="230"/>
       <c r="C177" s="96"/>
-      <c r="D177" s="114"/>
-      <c r="E177" s="108"/>
+      <c r="D177" s="245"/>
+      <c r="E177" s="93"/>
       <c r="F177" s="83"/>
       <c r="G177" s="83"/>
       <c r="H177" s="83"/>
@@ -8941,7 +8942,7 @@
       <c r="J177" s="83"/>
       <c r="K177" s="83"/>
       <c r="L177" s="74"/>
-      <c r="M177" s="74"/>
+      <c r="M177" s="246"/>
       <c r="N177" s="67"/>
       <c r="O177" s="67"/>
       <c r="P177" s="67"/>
@@ -8960,11 +8961,11 @@
       <c r="AC177" s="4"/>
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="106"/>
-      <c r="B178" s="236"/>
+      <c r="A178" s="68"/>
+      <c r="B178" s="230"/>
       <c r="C178" s="96"/>
-      <c r="D178" s="230"/>
-      <c r="E178" s="93"/>
+      <c r="D178" s="245"/>
+      <c r="E178" s="110"/>
       <c r="F178" s="83"/>
       <c r="G178" s="83"/>
       <c r="H178" s="83"/>
@@ -8972,7 +8973,7 @@
       <c r="J178" s="83"/>
       <c r="K178" s="83"/>
       <c r="L178" s="74"/>
-      <c r="M178" s="231"/>
+      <c r="M178" s="246"/>
       <c r="N178" s="67"/>
       <c r="O178" s="67"/>
       <c r="P178" s="67"/>
@@ -8992,10 +8993,10 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="68"/>
-      <c r="B179" s="236"/>
+      <c r="B179" s="230"/>
       <c r="C179" s="96"/>
-      <c r="D179" s="230"/>
-      <c r="E179" s="93"/>
+      <c r="D179" s="245"/>
+      <c r="E179" s="111"/>
       <c r="F179" s="83"/>
       <c r="G179" s="83"/>
       <c r="H179" s="83"/>
@@ -9003,7 +9004,7 @@
       <c r="J179" s="83"/>
       <c r="K179" s="83"/>
       <c r="L179" s="74"/>
-      <c r="M179" s="231"/>
+      <c r="M179" s="246"/>
       <c r="N179" s="67"/>
       <c r="O179" s="67"/>
       <c r="P179" s="67"/>
@@ -9023,10 +9024,10 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="68"/>
-      <c r="B180" s="236"/>
+      <c r="B180" s="230"/>
       <c r="C180" s="96"/>
-      <c r="D180" s="230"/>
-      <c r="E180" s="110"/>
+      <c r="D180" s="245"/>
+      <c r="E180" s="111"/>
       <c r="F180" s="83"/>
       <c r="G180" s="83"/>
       <c r="H180" s="83"/>
@@ -9034,7 +9035,7 @@
       <c r="J180" s="83"/>
       <c r="K180" s="83"/>
       <c r="L180" s="74"/>
-      <c r="M180" s="231"/>
+      <c r="M180" s="246"/>
       <c r="N180" s="67"/>
       <c r="O180" s="67"/>
       <c r="P180" s="67"/>
@@ -9054,9 +9055,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="68"/>
-      <c r="B181" s="236"/>
+      <c r="B181" s="230"/>
       <c r="C181" s="96"/>
-      <c r="D181" s="230"/>
+      <c r="D181" s="245"/>
       <c r="E181" s="111"/>
       <c r="F181" s="83"/>
       <c r="G181" s="83"/>
@@ -9065,7 +9066,7 @@
       <c r="J181" s="83"/>
       <c r="K181" s="83"/>
       <c r="L181" s="74"/>
-      <c r="M181" s="231"/>
+      <c r="M181" s="246"/>
       <c r="N181" s="67"/>
       <c r="O181" s="67"/>
       <c r="P181" s="67"/>
@@ -9085,9 +9086,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="68"/>
-      <c r="B182" s="236"/>
+      <c r="B182" s="230"/>
       <c r="C182" s="96"/>
-      <c r="D182" s="230"/>
+      <c r="D182" s="245"/>
       <c r="E182" s="111"/>
       <c r="F182" s="83"/>
       <c r="G182" s="83"/>
@@ -9096,7 +9097,7 @@
       <c r="J182" s="83"/>
       <c r="K182" s="83"/>
       <c r="L182" s="74"/>
-      <c r="M182" s="231"/>
+      <c r="M182" s="246"/>
       <c r="N182" s="67"/>
       <c r="O182" s="67"/>
       <c r="P182" s="67"/>
@@ -9116,10 +9117,10 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="68"/>
-      <c r="B183" s="236"/>
+      <c r="B183" s="230"/>
       <c r="C183" s="96"/>
-      <c r="D183" s="230"/>
-      <c r="E183" s="111"/>
+      <c r="D183" s="245"/>
+      <c r="E183" s="93"/>
       <c r="F183" s="83"/>
       <c r="G183" s="83"/>
       <c r="H183" s="83"/>
@@ -9127,7 +9128,7 @@
       <c r="J183" s="83"/>
       <c r="K183" s="83"/>
       <c r="L183" s="74"/>
-      <c r="M183" s="231"/>
+      <c r="M183" s="246"/>
       <c r="N183" s="67"/>
       <c r="O183" s="67"/>
       <c r="P183" s="67"/>
@@ -9147,10 +9148,10 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="68"/>
-      <c r="B184" s="236"/>
+      <c r="B184" s="230"/>
       <c r="C184" s="96"/>
-      <c r="D184" s="230"/>
-      <c r="E184" s="111"/>
+      <c r="D184" s="245"/>
+      <c r="E184" s="93"/>
       <c r="F184" s="83"/>
       <c r="G184" s="83"/>
       <c r="H184" s="83"/>
@@ -9158,7 +9159,7 @@
       <c r="J184" s="83"/>
       <c r="K184" s="83"/>
       <c r="L184" s="74"/>
-      <c r="M184" s="231"/>
+      <c r="M184" s="74"/>
       <c r="N184" s="67"/>
       <c r="O184" s="67"/>
       <c r="P184" s="67"/>
@@ -9178,9 +9179,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="68"/>
-      <c r="B185" s="236"/>
+      <c r="B185" s="230"/>
       <c r="C185" s="96"/>
-      <c r="D185" s="230"/>
+      <c r="D185" s="245"/>
       <c r="E185" s="93"/>
       <c r="F185" s="83"/>
       <c r="G185" s="83"/>
@@ -9189,7 +9190,7 @@
       <c r="J185" s="83"/>
       <c r="K185" s="83"/>
       <c r="L185" s="74"/>
-      <c r="M185" s="231"/>
+      <c r="M185" s="74"/>
       <c r="N185" s="67"/>
       <c r="O185" s="67"/>
       <c r="P185" s="67"/>
@@ -9209,9 +9210,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="68"/>
-      <c r="B186" s="236"/>
+      <c r="B186" s="230"/>
       <c r="C186" s="96"/>
-      <c r="D186" s="230"/>
+      <c r="D186" s="245"/>
       <c r="E186" s="93"/>
       <c r="F186" s="83"/>
       <c r="G186" s="83"/>
@@ -9238,12 +9239,12 @@
       <c r="AB186" s="4"/>
       <c r="AC186" s="4"/>
     </row>
-    <row r="187" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="68"/>
-      <c r="B187" s="236"/>
-      <c r="C187" s="96"/>
-      <c r="D187" s="230"/>
-      <c r="E187" s="93"/>
+    <row r="187" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="115"/>
+      <c r="B187" s="116"/>
+      <c r="C187" s="117"/>
+      <c r="D187" s="109"/>
+      <c r="E187" s="108"/>
       <c r="F187" s="83"/>
       <c r="G187" s="83"/>
       <c r="H187" s="83"/>
@@ -9269,17 +9270,17 @@
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
     </row>
-    <row r="188" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="68"/>
-      <c r="B188" s="236"/>
-      <c r="C188" s="96"/>
-      <c r="D188" s="230"/>
+    <row r="188" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="115"/>
+      <c r="B188" s="118"/>
+      <c r="C188" s="117"/>
+      <c r="D188" s="247"/>
       <c r="E188" s="93"/>
       <c r="F188" s="83"/>
-      <c r="G188" s="83"/>
-      <c r="H188" s="83"/>
-      <c r="I188" s="83"/>
-      <c r="J188" s="83"/>
+      <c r="G188" s="105"/>
+      <c r="H188" s="105"/>
+      <c r="I188" s="105"/>
+      <c r="J188" s="105"/>
       <c r="K188" s="83"/>
       <c r="L188" s="74"/>
       <c r="M188" s="74"/>
@@ -9302,15 +9303,15 @@
     </row>
     <row r="189" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="115"/>
-      <c r="B189" s="116"/>
-      <c r="C189" s="117"/>
-      <c r="D189" s="109"/>
-      <c r="E189" s="108"/>
+      <c r="B189" s="114"/>
+      <c r="C189" s="119"/>
+      <c r="D189" s="247"/>
+      <c r="E189" s="93"/>
       <c r="F189" s="83"/>
-      <c r="G189" s="83"/>
-      <c r="H189" s="83"/>
-      <c r="I189" s="83"/>
-      <c r="J189" s="83"/>
+      <c r="G189" s="105"/>
+      <c r="H189" s="105"/>
+      <c r="I189" s="105"/>
+      <c r="J189" s="105"/>
       <c r="K189" s="83"/>
       <c r="L189" s="74"/>
       <c r="M189" s="74"/>
@@ -9333,11 +9334,9 @@
     </row>
     <row r="190" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="115"/>
-      <c r="B190" s="118"/>
-      <c r="C190" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="D190" s="232"/>
+      <c r="B190" s="114"/>
+      <c r="C190" s="119"/>
+      <c r="D190" s="247"/>
       <c r="E190" s="93"/>
       <c r="F190" s="83"/>
       <c r="G190" s="105"/>
@@ -9367,9 +9366,9 @@
     <row r="191" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="115"/>
       <c r="B191" s="114"/>
-      <c r="C191" s="119"/>
-      <c r="D191" s="232"/>
-      <c r="E191" s="93"/>
+      <c r="C191" s="114"/>
+      <c r="D191" s="247"/>
+      <c r="E191" s="101"/>
       <c r="F191" s="83"/>
       <c r="G191" s="105"/>
       <c r="H191" s="105"/>
@@ -9397,10 +9396,10 @@
     </row>
     <row r="192" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="115"/>
-      <c r="B192" s="114"/>
-      <c r="C192" s="119"/>
-      <c r="D192" s="232"/>
-      <c r="E192" s="93"/>
+      <c r="B192" s="118"/>
+      <c r="C192" s="114"/>
+      <c r="D192" s="247"/>
+      <c r="E192" s="101"/>
       <c r="F192" s="83"/>
       <c r="G192" s="105"/>
       <c r="H192" s="105"/>
@@ -9428,9 +9427,9 @@
     </row>
     <row r="193" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="115"/>
-      <c r="B193" s="114"/>
+      <c r="B193" s="118"/>
       <c r="C193" s="114"/>
-      <c r="D193" s="232"/>
+      <c r="D193" s="247"/>
       <c r="E193" s="101"/>
       <c r="F193" s="83"/>
       <c r="G193" s="105"/>
@@ -9461,8 +9460,8 @@
       <c r="A194" s="115"/>
       <c r="B194" s="118"/>
       <c r="C194" s="114"/>
-      <c r="D194" s="232"/>
-      <c r="E194" s="101"/>
+      <c r="D194" s="247"/>
+      <c r="E194" s="93"/>
       <c r="F194" s="83"/>
       <c r="G194" s="105"/>
       <c r="H194" s="105"/>
@@ -9492,8 +9491,8 @@
       <c r="A195" s="115"/>
       <c r="B195" s="118"/>
       <c r="C195" s="114"/>
-      <c r="D195" s="232"/>
-      <c r="E195" s="101"/>
+      <c r="D195" s="247"/>
+      <c r="E195" s="93"/>
       <c r="F195" s="83"/>
       <c r="G195" s="105"/>
       <c r="H195" s="105"/>
@@ -9522,8 +9521,8 @@
     <row r="196" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="115"/>
       <c r="B196" s="118"/>
-      <c r="C196" s="114"/>
-      <c r="D196" s="232"/>
+      <c r="C196" s="118"/>
+      <c r="D196" s="247"/>
       <c r="E196" s="93"/>
       <c r="F196" s="83"/>
       <c r="G196" s="105"/>
@@ -9553,8 +9552,8 @@
     <row r="197" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="115"/>
       <c r="B197" s="118"/>
-      <c r="C197" s="114"/>
-      <c r="D197" s="232"/>
+      <c r="C197" s="118"/>
+      <c r="D197" s="120"/>
       <c r="E197" s="93"/>
       <c r="F197" s="83"/>
       <c r="G197" s="105"/>
@@ -9563,7 +9562,7 @@
       <c r="J197" s="105"/>
       <c r="K197" s="83"/>
       <c r="L197" s="74"/>
-      <c r="M197" s="74"/>
+      <c r="M197" s="83"/>
       <c r="N197" s="67"/>
       <c r="O197" s="67"/>
       <c r="P197" s="67"/>
@@ -9585,7 +9584,7 @@
       <c r="A198" s="115"/>
       <c r="B198" s="118"/>
       <c r="C198" s="118"/>
-      <c r="D198" s="232"/>
+      <c r="D198" s="120"/>
       <c r="E198" s="93"/>
       <c r="F198" s="83"/>
       <c r="G198" s="105"/>
@@ -9625,7 +9624,7 @@
       <c r="J199" s="105"/>
       <c r="K199" s="83"/>
       <c r="L199" s="74"/>
-      <c r="M199" s="83"/>
+      <c r="M199" s="74"/>
       <c r="N199" s="67"/>
       <c r="O199" s="67"/>
       <c r="P199" s="67"/>
@@ -9648,7 +9647,7 @@
       <c r="B200" s="118"/>
       <c r="C200" s="118"/>
       <c r="D200" s="120"/>
-      <c r="E200" s="93"/>
+      <c r="E200" s="115"/>
       <c r="F200" s="83"/>
       <c r="G200" s="105"/>
       <c r="H200" s="105"/>
@@ -9679,7 +9678,7 @@
       <c r="B201" s="118"/>
       <c r="C201" s="118"/>
       <c r="D201" s="120"/>
-      <c r="E201" s="93"/>
+      <c r="E201" s="121"/>
       <c r="F201" s="83"/>
       <c r="G201" s="105"/>
       <c r="H201" s="105"/>
@@ -9710,7 +9709,7 @@
       <c r="B202" s="118"/>
       <c r="C202" s="118"/>
       <c r="D202" s="120"/>
-      <c r="E202" s="115"/>
+      <c r="E202" s="121"/>
       <c r="F202" s="83"/>
       <c r="G202" s="105"/>
       <c r="H202" s="105"/>
@@ -9749,7 +9748,7 @@
       <c r="J203" s="105"/>
       <c r="K203" s="83"/>
       <c r="L203" s="74"/>
-      <c r="M203" s="74"/>
+      <c r="M203" s="83"/>
       <c r="N203" s="67"/>
       <c r="O203" s="67"/>
       <c r="P203" s="67"/>
@@ -9780,7 +9779,7 @@
       <c r="J204" s="105"/>
       <c r="K204" s="83"/>
       <c r="L204" s="74"/>
-      <c r="M204" s="74"/>
+      <c r="M204" s="83"/>
       <c r="N204" s="67"/>
       <c r="O204" s="67"/>
       <c r="P204" s="67"/>
@@ -9803,7 +9802,7 @@
       <c r="B205" s="118"/>
       <c r="C205" s="118"/>
       <c r="D205" s="120"/>
-      <c r="E205" s="121"/>
+      <c r="E205" s="122"/>
       <c r="F205" s="83"/>
       <c r="G205" s="105"/>
       <c r="H205" s="105"/>
@@ -9834,7 +9833,7 @@
       <c r="B206" s="118"/>
       <c r="C206" s="118"/>
       <c r="D206" s="120"/>
-      <c r="E206" s="121"/>
+      <c r="E206" s="122"/>
       <c r="F206" s="83"/>
       <c r="G206" s="105"/>
       <c r="H206" s="105"/>
@@ -9896,7 +9895,7 @@
       <c r="B208" s="118"/>
       <c r="C208" s="118"/>
       <c r="D208" s="120"/>
-      <c r="E208" s="122"/>
+      <c r="E208" s="121"/>
       <c r="F208" s="83"/>
       <c r="G208" s="105"/>
       <c r="H208" s="105"/>
@@ -9904,7 +9903,7 @@
       <c r="J208" s="105"/>
       <c r="K208" s="83"/>
       <c r="L208" s="74"/>
-      <c r="M208" s="83"/>
+      <c r="M208" s="74"/>
       <c r="N208" s="67"/>
       <c r="O208" s="67"/>
       <c r="P208" s="67"/>
@@ -9927,7 +9926,7 @@
       <c r="B209" s="118"/>
       <c r="C209" s="118"/>
       <c r="D209" s="120"/>
-      <c r="E209" s="122"/>
+      <c r="E209" s="121"/>
       <c r="F209" s="83"/>
       <c r="G209" s="105"/>
       <c r="H209" s="105"/>
@@ -9935,7 +9934,7 @@
       <c r="J209" s="105"/>
       <c r="K209" s="83"/>
       <c r="L209" s="74"/>
-      <c r="M209" s="83"/>
+      <c r="M209" s="74"/>
       <c r="N209" s="67"/>
       <c r="O209" s="67"/>
       <c r="P209" s="67"/>
@@ -9997,7 +9996,7 @@
       <c r="J211" s="105"/>
       <c r="K211" s="83"/>
       <c r="L211" s="74"/>
-      <c r="M211" s="74"/>
+      <c r="M211" s="83"/>
       <c r="N211" s="67"/>
       <c r="O211" s="67"/>
       <c r="P211" s="67"/>
@@ -10017,10 +10016,10 @@
     </row>
     <row r="212" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="115"/>
-      <c r="B212" s="118"/>
-      <c r="C212" s="118"/>
-      <c r="D212" s="120"/>
-      <c r="E212" s="121"/>
+      <c r="B212" s="123"/>
+      <c r="C212" s="124"/>
+      <c r="D212" s="125"/>
+      <c r="E212" s="122"/>
       <c r="F212" s="83"/>
       <c r="G212" s="105"/>
       <c r="H212" s="105"/>
@@ -10028,7 +10027,7 @@
       <c r="J212" s="105"/>
       <c r="K212" s="83"/>
       <c r="L212" s="74"/>
-      <c r="M212" s="74"/>
+      <c r="M212" s="83"/>
       <c r="N212" s="67"/>
       <c r="O212" s="67"/>
       <c r="P212" s="67"/>
@@ -10049,9 +10048,9 @@
     <row r="213" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="115"/>
       <c r="B213" s="118"/>
-      <c r="C213" s="118"/>
-      <c r="D213" s="120"/>
-      <c r="E213" s="121"/>
+      <c r="C213" s="126"/>
+      <c r="D213" s="101"/>
+      <c r="E213" s="127"/>
       <c r="F213" s="83"/>
       <c r="G213" s="105"/>
       <c r="H213" s="105"/>
@@ -10059,7 +10058,7 @@
       <c r="J213" s="105"/>
       <c r="K213" s="83"/>
       <c r="L213" s="74"/>
-      <c r="M213" s="83"/>
+      <c r="M213" s="74"/>
       <c r="N213" s="67"/>
       <c r="O213" s="67"/>
       <c r="P213" s="67"/>
@@ -10079,10 +10078,10 @@
     </row>
     <row r="214" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="115"/>
-      <c r="B214" s="123"/>
-      <c r="C214" s="124"/>
-      <c r="D214" s="125"/>
-      <c r="E214" s="122"/>
+      <c r="B214" s="118"/>
+      <c r="C214" s="126"/>
+      <c r="D214" s="101"/>
+      <c r="E214" s="113"/>
       <c r="F214" s="83"/>
       <c r="G214" s="105"/>
       <c r="H214" s="105"/>
@@ -10090,7 +10089,7 @@
       <c r="J214" s="105"/>
       <c r="K214" s="83"/>
       <c r="L214" s="74"/>
-      <c r="M214" s="83"/>
+      <c r="M214" s="74"/>
       <c r="N214" s="67"/>
       <c r="O214" s="67"/>
       <c r="P214" s="67"/>
@@ -10113,7 +10112,7 @@
       <c r="B215" s="118"/>
       <c r="C215" s="126"/>
       <c r="D215" s="101"/>
-      <c r="E215" s="127"/>
+      <c r="E215" s="93"/>
       <c r="F215" s="83"/>
       <c r="G215" s="105"/>
       <c r="H215" s="105"/>
@@ -10142,7 +10141,7 @@
     <row r="216" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="115"/>
       <c r="B216" s="118"/>
-      <c r="C216" s="126"/>
+      <c r="C216" s="101"/>
       <c r="D216" s="101"/>
       <c r="E216" s="113"/>
       <c r="F216" s="83"/>
@@ -10150,7 +10149,7 @@
       <c r="H216" s="105"/>
       <c r="I216" s="105"/>
       <c r="J216" s="105"/>
-      <c r="K216" s="83"/>
+      <c r="K216" s="105"/>
       <c r="L216" s="74"/>
       <c r="M216" s="74"/>
       <c r="N216" s="67"/>
@@ -10174,14 +10173,14 @@
       <c r="A217" s="115"/>
       <c r="B217" s="118"/>
       <c r="C217" s="126"/>
-      <c r="D217" s="101"/>
+      <c r="D217" s="128"/>
       <c r="E217" s="93"/>
       <c r="F217" s="83"/>
       <c r="G217" s="105"/>
       <c r="H217" s="105"/>
       <c r="I217" s="105"/>
       <c r="J217" s="105"/>
-      <c r="K217" s="83"/>
+      <c r="K217" s="105"/>
       <c r="L217" s="74"/>
       <c r="M217" s="74"/>
       <c r="N217" s="67"/>
@@ -10204,9 +10203,9 @@
     <row r="218" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="115"/>
       <c r="B218" s="118"/>
-      <c r="C218" s="101"/>
-      <c r="D218" s="101"/>
-      <c r="E218" s="113"/>
+      <c r="C218" s="126"/>
+      <c r="D218" s="129"/>
+      <c r="E218" s="127"/>
       <c r="F218" s="83"/>
       <c r="G218" s="105"/>
       <c r="H218" s="105"/>
@@ -10236,7 +10235,7 @@
       <c r="A219" s="115"/>
       <c r="B219" s="118"/>
       <c r="C219" s="126"/>
-      <c r="D219" s="128"/>
+      <c r="D219" s="129"/>
       <c r="E219" s="93"/>
       <c r="F219" s="83"/>
       <c r="G219" s="105"/>
@@ -10263,12 +10262,12 @@
       <c r="AB219" s="4"/>
       <c r="AC219" s="4"/>
     </row>
-    <row r="220" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="115"/>
       <c r="B220" s="118"/>
       <c r="C220" s="126"/>
-      <c r="D220" s="129"/>
-      <c r="E220" s="127"/>
+      <c r="D220" s="130"/>
+      <c r="E220" s="93"/>
       <c r="F220" s="83"/>
       <c r="G220" s="105"/>
       <c r="H220" s="105"/>
@@ -10297,8 +10296,8 @@
     <row r="221" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="115"/>
       <c r="B221" s="118"/>
-      <c r="C221" s="126"/>
-      <c r="D221" s="129"/>
+      <c r="C221" s="101"/>
+      <c r="D221" s="101"/>
       <c r="E221" s="93"/>
       <c r="F221" s="83"/>
       <c r="G221" s="105"/>
@@ -10325,18 +10324,18 @@
       <c r="AB221" s="4"/>
       <c r="AC221" s="4"/>
     </row>
-    <row r="222" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="115"/>
       <c r="B222" s="118"/>
-      <c r="C222" s="126"/>
-      <c r="D222" s="130"/>
-      <c r="E222" s="93"/>
+      <c r="C222" s="118"/>
+      <c r="D222" s="114"/>
+      <c r="E222" s="131"/>
       <c r="F222" s="83"/>
-      <c r="G222" s="105"/>
-      <c r="H222" s="105"/>
-      <c r="I222" s="105"/>
-      <c r="J222" s="105"/>
-      <c r="K222" s="105"/>
+      <c r="G222" s="83"/>
+      <c r="H222" s="83"/>
+      <c r="I222" s="83"/>
+      <c r="J222" s="83"/>
+      <c r="K222" s="83"/>
       <c r="L222" s="74"/>
       <c r="M222" s="74"/>
       <c r="N222" s="67"/>
@@ -10359,15 +10358,15 @@
     <row r="223" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="115"/>
       <c r="B223" s="118"/>
-      <c r="C223" s="101"/>
-      <c r="D223" s="101"/>
-      <c r="E223" s="93"/>
-      <c r="F223" s="83"/>
-      <c r="G223" s="105"/>
-      <c r="H223" s="105"/>
-      <c r="I223" s="105"/>
-      <c r="J223" s="105"/>
-      <c r="K223" s="105"/>
+      <c r="C223" s="118"/>
+      <c r="D223" s="114"/>
+      <c r="E223" s="132"/>
+      <c r="F223" s="133"/>
+      <c r="G223" s="133"/>
+      <c r="H223" s="133"/>
+      <c r="I223" s="133"/>
+      <c r="J223" s="133"/>
+      <c r="K223" s="83"/>
       <c r="L223" s="74"/>
       <c r="M223" s="74"/>
       <c r="N223" s="67"/>
@@ -10392,15 +10391,15 @@
       <c r="B224" s="118"/>
       <c r="C224" s="118"/>
       <c r="D224" s="114"/>
-      <c r="E224" s="131"/>
-      <c r="F224" s="83"/>
-      <c r="G224" s="83"/>
-      <c r="H224" s="83"/>
-      <c r="I224" s="83"/>
-      <c r="J224" s="83"/>
+      <c r="E224" s="132"/>
+      <c r="F224" s="133"/>
+      <c r="G224" s="133"/>
+      <c r="H224" s="133"/>
+      <c r="I224" s="133"/>
+      <c r="J224" s="133"/>
       <c r="K224" s="83"/>
       <c r="L224" s="74"/>
-      <c r="M224" s="74"/>
+      <c r="M224" s="134"/>
       <c r="N224" s="67"/>
       <c r="O224" s="67"/>
       <c r="P224" s="67"/>
@@ -10431,7 +10430,7 @@
       <c r="J225" s="133"/>
       <c r="K225" s="83"/>
       <c r="L225" s="74"/>
-      <c r="M225" s="74"/>
+      <c r="M225" s="134"/>
       <c r="N225" s="67"/>
       <c r="O225" s="67"/>
       <c r="P225" s="67"/>
@@ -10518,11 +10517,11 @@
       <c r="D228" s="114"/>
       <c r="E228" s="132"/>
       <c r="F228" s="133"/>
-      <c r="G228" s="133"/>
-      <c r="H228" s="133"/>
-      <c r="I228" s="133"/>
-      <c r="J228" s="133"/>
-      <c r="K228" s="83"/>
+      <c r="G228" s="135"/>
+      <c r="H228" s="135"/>
+      <c r="I228" s="135"/>
+      <c r="J228" s="135"/>
+      <c r="K228" s="136"/>
       <c r="L228" s="74"/>
       <c r="M228" s="134"/>
       <c r="N228" s="67"/>
@@ -10548,11 +10547,11 @@
       <c r="C229" s="118"/>
       <c r="D229" s="114"/>
       <c r="E229" s="132"/>
-      <c r="F229" s="133"/>
-      <c r="G229" s="133"/>
-      <c r="H229" s="133"/>
-      <c r="I229" s="133"/>
-      <c r="J229" s="133"/>
+      <c r="F229" s="137"/>
+      <c r="G229" s="137"/>
+      <c r="H229" s="137"/>
+      <c r="I229" s="137"/>
+      <c r="J229" s="137"/>
       <c r="K229" s="83"/>
       <c r="L229" s="74"/>
       <c r="M229" s="134"/>
@@ -10576,15 +10575,15 @@
     <row r="230" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="115"/>
       <c r="B230" s="118"/>
-      <c r="C230" s="118"/>
-      <c r="D230" s="114"/>
+      <c r="C230" s="114"/>
+      <c r="D230" s="138"/>
       <c r="E230" s="132"/>
-      <c r="F230" s="133"/>
-      <c r="G230" s="135"/>
-      <c r="H230" s="135"/>
-      <c r="I230" s="135"/>
-      <c r="J230" s="135"/>
-      <c r="K230" s="136"/>
+      <c r="F230" s="137"/>
+      <c r="G230" s="137"/>
+      <c r="H230" s="137"/>
+      <c r="I230" s="137"/>
+      <c r="J230" s="137"/>
+      <c r="K230" s="83"/>
       <c r="L230" s="74"/>
       <c r="M230" s="134"/>
       <c r="N230" s="67"/>
@@ -10604,12 +10603,12 @@
       <c r="AB230" s="4"/>
       <c r="AC230" s="4"/>
     </row>
-    <row r="231" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="115"/>
-      <c r="B231" s="118"/>
+      <c r="B231" s="126"/>
       <c r="C231" s="118"/>
-      <c r="D231" s="114"/>
-      <c r="E231" s="132"/>
+      <c r="D231" s="138"/>
+      <c r="E231" s="84"/>
       <c r="F231" s="137"/>
       <c r="G231" s="137"/>
       <c r="H231" s="137"/>
@@ -10637,15 +10636,15 @@
     </row>
     <row r="232" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="115"/>
-      <c r="B232" s="118"/>
-      <c r="C232" s="114"/>
-      <c r="D232" s="138"/>
-      <c r="E232" s="132"/>
-      <c r="F232" s="137"/>
-      <c r="G232" s="137"/>
-      <c r="H232" s="137"/>
-      <c r="I232" s="137"/>
-      <c r="J232" s="137"/>
+      <c r="B232" s="126"/>
+      <c r="C232" s="118"/>
+      <c r="D232" s="114"/>
+      <c r="E232" s="84"/>
+      <c r="F232" s="76"/>
+      <c r="G232" s="76"/>
+      <c r="H232" s="76"/>
+      <c r="I232" s="76"/>
+      <c r="J232" s="76"/>
       <c r="K232" s="83"/>
       <c r="L232" s="74"/>
       <c r="M232" s="134"/>
@@ -10666,17 +10665,17 @@
       <c r="AB232" s="4"/>
       <c r="AC232" s="4"/>
     </row>
-    <row r="233" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="115"/>
       <c r="B233" s="126"/>
       <c r="C233" s="118"/>
-      <c r="D233" s="138"/>
+      <c r="D233" s="114"/>
       <c r="E233" s="84"/>
-      <c r="F233" s="137"/>
-      <c r="G233" s="137"/>
-      <c r="H233" s="137"/>
-      <c r="I233" s="137"/>
-      <c r="J233" s="137"/>
+      <c r="F233" s="76"/>
+      <c r="G233" s="76"/>
+      <c r="H233" s="76"/>
+      <c r="I233" s="76"/>
+      <c r="J233" s="76"/>
       <c r="K233" s="83"/>
       <c r="L233" s="74"/>
       <c r="M233" s="134"/>
@@ -10734,12 +10733,12 @@
       <c r="C235" s="118"/>
       <c r="D235" s="114"/>
       <c r="E235" s="84"/>
-      <c r="F235" s="76"/>
-      <c r="G235" s="76"/>
-      <c r="H235" s="76"/>
-      <c r="I235" s="76"/>
-      <c r="J235" s="76"/>
-      <c r="K235" s="83"/>
+      <c r="F235" s="137"/>
+      <c r="G235" s="137"/>
+      <c r="H235" s="137"/>
+      <c r="I235" s="137"/>
+      <c r="J235" s="137"/>
+      <c r="K235" s="104"/>
       <c r="L235" s="74"/>
       <c r="M235" s="134"/>
       <c r="N235" s="67"/>
@@ -10765,12 +10764,12 @@
       <c r="C236" s="118"/>
       <c r="D236" s="114"/>
       <c r="E236" s="84"/>
-      <c r="F236" s="76"/>
-      <c r="G236" s="76"/>
-      <c r="H236" s="76"/>
-      <c r="I236" s="76"/>
-      <c r="J236" s="76"/>
-      <c r="K236" s="83"/>
+      <c r="F236" s="137"/>
+      <c r="G236" s="137"/>
+      <c r="H236" s="137"/>
+      <c r="I236" s="137"/>
+      <c r="J236" s="137"/>
+      <c r="K236" s="104"/>
       <c r="L236" s="74"/>
       <c r="M236" s="134"/>
       <c r="N236" s="67"/>
@@ -10858,13 +10857,13 @@
       <c r="C239" s="118"/>
       <c r="D239" s="114"/>
       <c r="E239" s="84"/>
-      <c r="F239" s="137"/>
-      <c r="G239" s="137"/>
-      <c r="H239" s="137"/>
-      <c r="I239" s="137"/>
-      <c r="J239" s="137"/>
-      <c r="K239" s="104"/>
-      <c r="L239" s="74"/>
+      <c r="F239" s="76"/>
+      <c r="G239" s="139"/>
+      <c r="H239" s="139"/>
+      <c r="I239" s="139"/>
+      <c r="J239" s="139"/>
+      <c r="K239" s="243"/>
+      <c r="L239" s="246"/>
       <c r="M239" s="134"/>
       <c r="N239" s="67"/>
       <c r="O239" s="67"/>
@@ -10889,13 +10888,13 @@
       <c r="C240" s="118"/>
       <c r="D240" s="114"/>
       <c r="E240" s="84"/>
-      <c r="F240" s="137"/>
-      <c r="G240" s="137"/>
-      <c r="H240" s="137"/>
-      <c r="I240" s="137"/>
-      <c r="J240" s="137"/>
-      <c r="K240" s="104"/>
-      <c r="L240" s="74"/>
+      <c r="F240" s="76"/>
+      <c r="G240" s="140"/>
+      <c r="H240" s="140"/>
+      <c r="I240" s="140"/>
+      <c r="J240" s="140"/>
+      <c r="K240" s="243"/>
+      <c r="L240" s="246"/>
       <c r="M240" s="134"/>
       <c r="N240" s="67"/>
       <c r="O240" s="67"/>
@@ -10921,12 +10920,12 @@
       <c r="D241" s="114"/>
       <c r="E241" s="84"/>
       <c r="F241" s="76"/>
-      <c r="G241" s="139"/>
-      <c r="H241" s="139"/>
-      <c r="I241" s="139"/>
-      <c r="J241" s="139"/>
-      <c r="K241" s="228"/>
-      <c r="L241" s="231"/>
+      <c r="G241" s="65"/>
+      <c r="H241" s="65"/>
+      <c r="I241" s="65"/>
+      <c r="J241" s="65"/>
+      <c r="K241" s="243"/>
+      <c r="L241" s="246"/>
       <c r="M241" s="134"/>
       <c r="N241" s="67"/>
       <c r="O241" s="67"/>
@@ -10948,16 +10947,16 @@
     <row r="242" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="115"/>
       <c r="B242" s="126"/>
-      <c r="C242" s="118"/>
-      <c r="D242" s="114"/>
+      <c r="C242" s="141"/>
+      <c r="D242" s="141"/>
       <c r="E242" s="84"/>
-      <c r="F242" s="76"/>
-      <c r="G242" s="140"/>
-      <c r="H242" s="140"/>
-      <c r="I242" s="140"/>
-      <c r="J242" s="140"/>
-      <c r="K242" s="228"/>
-      <c r="L242" s="231"/>
+      <c r="F242" s="142"/>
+      <c r="G242" s="142"/>
+      <c r="H242" s="142"/>
+      <c r="I242" s="142"/>
+      <c r="J242" s="142"/>
+      <c r="K242" s="133"/>
+      <c r="L242" s="143"/>
       <c r="M242" s="134"/>
       <c r="N242" s="67"/>
       <c r="O242" s="67"/>
@@ -10979,16 +10978,16 @@
     <row r="243" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="115"/>
       <c r="B243" s="126"/>
-      <c r="C243" s="118"/>
-      <c r="D243" s="114"/>
+      <c r="C243" s="141"/>
+      <c r="D243" s="141"/>
       <c r="E243" s="84"/>
-      <c r="F243" s="76"/>
+      <c r="F243" s="65"/>
       <c r="G243" s="65"/>
       <c r="H243" s="65"/>
       <c r="I243" s="65"/>
       <c r="J243" s="65"/>
-      <c r="K243" s="228"/>
-      <c r="L243" s="231"/>
+      <c r="K243" s="144"/>
+      <c r="L243" s="73"/>
       <c r="M243" s="134"/>
       <c r="N243" s="67"/>
       <c r="O243" s="67"/>
@@ -11013,13 +11012,13 @@
       <c r="C244" s="141"/>
       <c r="D244" s="141"/>
       <c r="E244" s="84"/>
-      <c r="F244" s="142"/>
-      <c r="G244" s="142"/>
-      <c r="H244" s="142"/>
-      <c r="I244" s="142"/>
-      <c r="J244" s="142"/>
-      <c r="K244" s="133"/>
-      <c r="L244" s="143"/>
+      <c r="F244" s="65"/>
+      <c r="G244" s="65"/>
+      <c r="H244" s="65"/>
+      <c r="I244" s="65"/>
+      <c r="J244" s="65"/>
+      <c r="K244" s="144"/>
+      <c r="L244" s="73"/>
       <c r="M244" s="134"/>
       <c r="N244" s="67"/>
       <c r="O244" s="67"/>
@@ -11044,13 +11043,13 @@
       <c r="C245" s="141"/>
       <c r="D245" s="141"/>
       <c r="E245" s="84"/>
-      <c r="F245" s="65"/>
-      <c r="G245" s="65"/>
-      <c r="H245" s="65"/>
-      <c r="I245" s="65"/>
-      <c r="J245" s="65"/>
-      <c r="K245" s="144"/>
-      <c r="L245" s="73"/>
+      <c r="F245" s="76"/>
+      <c r="G245" s="76"/>
+      <c r="H245" s="76"/>
+      <c r="I245" s="76"/>
+      <c r="J245" s="76"/>
+      <c r="K245" s="83"/>
+      <c r="L245" s="74"/>
       <c r="M245" s="134"/>
       <c r="N245" s="67"/>
       <c r="O245" s="67"/>
@@ -11075,13 +11074,13 @@
       <c r="C246" s="141"/>
       <c r="D246" s="141"/>
       <c r="E246" s="84"/>
-      <c r="F246" s="65"/>
-      <c r="G246" s="65"/>
-      <c r="H246" s="65"/>
-      <c r="I246" s="65"/>
-      <c r="J246" s="65"/>
-      <c r="K246" s="144"/>
-      <c r="L246" s="73"/>
+      <c r="F246" s="76"/>
+      <c r="G246" s="76"/>
+      <c r="H246" s="76"/>
+      <c r="I246" s="76"/>
+      <c r="J246" s="76"/>
+      <c r="K246" s="83"/>
+      <c r="L246" s="74"/>
       <c r="M246" s="134"/>
       <c r="N246" s="67"/>
       <c r="O246" s="67"/>
@@ -11134,9 +11133,9 @@
     <row r="248" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="115"/>
       <c r="B248" s="126"/>
-      <c r="C248" s="141"/>
-      <c r="D248" s="141"/>
-      <c r="E248" s="84"/>
+      <c r="C248" s="248"/>
+      <c r="D248" s="114"/>
+      <c r="E248" s="249"/>
       <c r="F248" s="76"/>
       <c r="G248" s="76"/>
       <c r="H248" s="76"/>
@@ -11165,9 +11164,9 @@
     <row r="249" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="115"/>
       <c r="B249" s="126"/>
-      <c r="C249" s="141"/>
-      <c r="D249" s="141"/>
-      <c r="E249" s="84"/>
+      <c r="C249" s="248"/>
+      <c r="D249" s="114"/>
+      <c r="E249" s="249"/>
       <c r="F249" s="76"/>
       <c r="G249" s="76"/>
       <c r="H249" s="76"/>
@@ -11196,9 +11195,9 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="115"/>
       <c r="B250" s="126"/>
-      <c r="C250" s="224"/>
+      <c r="C250" s="248"/>
       <c r="D250" s="114"/>
-      <c r="E250" s="233"/>
+      <c r="E250" s="249"/>
       <c r="F250" s="76"/>
       <c r="G250" s="76"/>
       <c r="H250" s="76"/>
@@ -11227,9 +11226,9 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="115"/>
       <c r="B251" s="126"/>
-      <c r="C251" s="224"/>
+      <c r="C251" s="248"/>
       <c r="D251" s="114"/>
-      <c r="E251" s="233"/>
+      <c r="E251" s="84"/>
       <c r="F251" s="76"/>
       <c r="G251" s="76"/>
       <c r="H251" s="76"/>
@@ -11258,9 +11257,9 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="115"/>
       <c r="B252" s="126"/>
-      <c r="C252" s="224"/>
+      <c r="C252" s="248"/>
       <c r="D252" s="114"/>
-      <c r="E252" s="233"/>
+      <c r="E252" s="84"/>
       <c r="F252" s="76"/>
       <c r="G252" s="76"/>
       <c r="H252" s="76"/>
@@ -11289,15 +11288,15 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="115"/>
       <c r="B253" s="126"/>
-      <c r="C253" s="224"/>
+      <c r="C253" s="248"/>
       <c r="D253" s="114"/>
       <c r="E253" s="84"/>
-      <c r="F253" s="76"/>
-      <c r="G253" s="76"/>
-      <c r="H253" s="76"/>
-      <c r="I253" s="76"/>
-      <c r="J253" s="76"/>
-      <c r="K253" s="83"/>
+      <c r="F253" s="137"/>
+      <c r="G253" s="137"/>
+      <c r="H253" s="137"/>
+      <c r="I253" s="137"/>
+      <c r="J253" s="137"/>
+      <c r="K253" s="104"/>
       <c r="L253" s="74"/>
       <c r="M253" s="134"/>
       <c r="N253" s="67"/>
@@ -11320,7 +11319,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="115"/>
       <c r="B254" s="126"/>
-      <c r="C254" s="224"/>
+      <c r="C254" s="248"/>
       <c r="D254" s="114"/>
       <c r="E254" s="84"/>
       <c r="F254" s="76"/>
@@ -11351,8 +11350,8 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="115"/>
       <c r="B255" s="126"/>
-      <c r="C255" s="224"/>
-      <c r="D255" s="114"/>
+      <c r="C255" s="242"/>
+      <c r="D255" s="124"/>
       <c r="E255" s="84"/>
       <c r="F255" s="137"/>
       <c r="G255" s="137"/>
@@ -11382,15 +11381,15 @@
     <row r="256" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="115"/>
       <c r="B256" s="126"/>
-      <c r="C256" s="224"/>
-      <c r="D256" s="114"/>
+      <c r="C256" s="242"/>
+      <c r="D256" s="145"/>
       <c r="E256" s="84"/>
-      <c r="F256" s="76"/>
-      <c r="G256" s="76"/>
-      <c r="H256" s="76"/>
-      <c r="I256" s="76"/>
-      <c r="J256" s="76"/>
-      <c r="K256" s="83"/>
+      <c r="F256" s="137"/>
+      <c r="G256" s="137"/>
+      <c r="H256" s="137"/>
+      <c r="I256" s="137"/>
+      <c r="J256" s="137"/>
+      <c r="K256" s="104"/>
       <c r="L256" s="74"/>
       <c r="M256" s="134"/>
       <c r="N256" s="67"/>
@@ -11413,17 +11412,17 @@
     <row r="257" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="115"/>
       <c r="B257" s="126"/>
-      <c r="C257" s="225"/>
-      <c r="D257" s="124"/>
+      <c r="C257" s="114"/>
+      <c r="D257" s="114"/>
       <c r="E257" s="84"/>
-      <c r="F257" s="137"/>
-      <c r="G257" s="137"/>
-      <c r="H257" s="137"/>
-      <c r="I257" s="137"/>
-      <c r="J257" s="137"/>
-      <c r="K257" s="104"/>
-      <c r="L257" s="74"/>
-      <c r="M257" s="134"/>
+      <c r="F257" s="146"/>
+      <c r="G257" s="146"/>
+      <c r="H257" s="146"/>
+      <c r="I257" s="146"/>
+      <c r="J257" s="146"/>
+      <c r="K257" s="144"/>
+      <c r="L257" s="73"/>
+      <c r="M257" s="103"/>
       <c r="N257" s="67"/>
       <c r="O257" s="67"/>
       <c r="P257" s="67"/>
@@ -11441,20 +11440,20 @@
       <c r="AB257" s="4"/>
       <c r="AC257" s="4"/>
     </row>
-    <row r="258" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="115"/>
       <c r="B258" s="126"/>
-      <c r="C258" s="225"/>
-      <c r="D258" s="145"/>
+      <c r="C258" s="242"/>
+      <c r="D258" s="124"/>
       <c r="E258" s="84"/>
-      <c r="F258" s="137"/>
-      <c r="G258" s="137"/>
-      <c r="H258" s="137"/>
-      <c r="I258" s="137"/>
-      <c r="J258" s="137"/>
-      <c r="K258" s="104"/>
+      <c r="F258" s="76"/>
+      <c r="G258" s="76"/>
+      <c r="H258" s="76"/>
+      <c r="I258" s="76"/>
+      <c r="J258" s="76"/>
+      <c r="K258" s="83"/>
       <c r="L258" s="74"/>
-      <c r="M258" s="134"/>
+      <c r="M258" s="103"/>
       <c r="N258" s="67"/>
       <c r="O258" s="67"/>
       <c r="P258" s="67"/>
@@ -11475,16 +11474,16 @@
     <row r="259" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="115"/>
       <c r="B259" s="126"/>
-      <c r="C259" s="114"/>
-      <c r="D259" s="114"/>
+      <c r="C259" s="242"/>
+      <c r="D259" s="125"/>
       <c r="E259" s="84"/>
-      <c r="F259" s="146"/>
-      <c r="G259" s="146"/>
-      <c r="H259" s="146"/>
-      <c r="I259" s="146"/>
-      <c r="J259" s="146"/>
-      <c r="K259" s="144"/>
-      <c r="L259" s="73"/>
+      <c r="F259" s="76"/>
+      <c r="G259" s="76"/>
+      <c r="H259" s="76"/>
+      <c r="I259" s="76"/>
+      <c r="J259" s="76"/>
+      <c r="K259" s="83"/>
+      <c r="L259" s="74"/>
       <c r="M259" s="103"/>
       <c r="N259" s="67"/>
       <c r="O259" s="67"/>
@@ -11503,11 +11502,11 @@
       <c r="AB259" s="4"/>
       <c r="AC259" s="4"/>
     </row>
-    <row r="260" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="115"/>
       <c r="B260" s="126"/>
-      <c r="C260" s="225"/>
-      <c r="D260" s="124"/>
+      <c r="C260" s="242"/>
+      <c r="D260" s="125"/>
       <c r="E260" s="84"/>
       <c r="F260" s="76"/>
       <c r="G260" s="76"/>
@@ -11537,15 +11536,15 @@
     <row r="261" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="115"/>
       <c r="B261" s="126"/>
-      <c r="C261" s="225"/>
+      <c r="C261" s="242"/>
       <c r="D261" s="125"/>
       <c r="E261" s="84"/>
-      <c r="F261" s="76"/>
-      <c r="G261" s="76"/>
-      <c r="H261" s="76"/>
-      <c r="I261" s="76"/>
-      <c r="J261" s="76"/>
-      <c r="K261" s="83"/>
+      <c r="F261" s="137"/>
+      <c r="G261" s="137"/>
+      <c r="H261" s="137"/>
+      <c r="I261" s="137"/>
+      <c r="J261" s="137"/>
+      <c r="K261" s="104"/>
       <c r="L261" s="74"/>
       <c r="M261" s="103"/>
       <c r="N261" s="67"/>
@@ -11568,9 +11567,9 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="115"/>
       <c r="B262" s="126"/>
-      <c r="C262" s="225"/>
+      <c r="C262" s="242"/>
       <c r="D262" s="125"/>
-      <c r="E262" s="84"/>
+      <c r="E262" s="147"/>
       <c r="F262" s="76"/>
       <c r="G262" s="76"/>
       <c r="H262" s="76"/>
@@ -11599,15 +11598,15 @@
     <row r="263" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="115"/>
       <c r="B263" s="126"/>
-      <c r="C263" s="225"/>
-      <c r="D263" s="125"/>
+      <c r="C263" s="145"/>
+      <c r="D263" s="145"/>
       <c r="E263" s="84"/>
-      <c r="F263" s="137"/>
-      <c r="G263" s="137"/>
-      <c r="H263" s="137"/>
-      <c r="I263" s="137"/>
-      <c r="J263" s="137"/>
-      <c r="K263" s="104"/>
+      <c r="F263" s="76"/>
+      <c r="G263" s="76"/>
+      <c r="H263" s="76"/>
+      <c r="I263" s="76"/>
+      <c r="J263" s="76"/>
+      <c r="K263" s="83"/>
       <c r="L263" s="74"/>
       <c r="M263" s="103"/>
       <c r="N263" s="67"/>
@@ -11630,9 +11629,9 @@
     <row r="264" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="115"/>
       <c r="B264" s="126"/>
-      <c r="C264" s="225"/>
-      <c r="D264" s="125"/>
-      <c r="E264" s="147"/>
+      <c r="C264" s="118"/>
+      <c r="D264" s="118"/>
+      <c r="E264" s="84"/>
       <c r="F264" s="76"/>
       <c r="G264" s="76"/>
       <c r="H264" s="76"/>
@@ -11661,8 +11660,8 @@
     <row r="265" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="115"/>
       <c r="B265" s="126"/>
-      <c r="C265" s="145"/>
-      <c r="D265" s="145"/>
+      <c r="C265" s="118"/>
+      <c r="D265" s="118"/>
       <c r="E265" s="84"/>
       <c r="F265" s="76"/>
       <c r="G265" s="76"/>
@@ -11695,12 +11694,12 @@
       <c r="C266" s="118"/>
       <c r="D266" s="118"/>
       <c r="E266" s="84"/>
-      <c r="F266" s="76"/>
-      <c r="G266" s="76"/>
-      <c r="H266" s="76"/>
-      <c r="I266" s="76"/>
-      <c r="J266" s="76"/>
-      <c r="K266" s="83"/>
+      <c r="F266" s="137"/>
+      <c r="G266" s="137"/>
+      <c r="H266" s="137"/>
+      <c r="I266" s="137"/>
+      <c r="J266" s="137"/>
+      <c r="K266" s="104"/>
       <c r="L266" s="74"/>
       <c r="M266" s="103"/>
       <c r="N266" s="67"/>
@@ -11726,11 +11725,11 @@
       <c r="C267" s="118"/>
       <c r="D267" s="118"/>
       <c r="E267" s="84"/>
-      <c r="F267" s="76"/>
-      <c r="G267" s="76"/>
-      <c r="H267" s="76"/>
-      <c r="I267" s="76"/>
-      <c r="J267" s="76"/>
+      <c r="F267" s="137"/>
+      <c r="G267" s="137"/>
+      <c r="H267" s="137"/>
+      <c r="I267" s="137"/>
+      <c r="J267" s="137"/>
       <c r="K267" s="83"/>
       <c r="L267" s="74"/>
       <c r="M267" s="103"/>
@@ -11793,7 +11792,7 @@
       <c r="H269" s="137"/>
       <c r="I269" s="137"/>
       <c r="J269" s="137"/>
-      <c r="K269" s="83"/>
+      <c r="K269" s="104"/>
       <c r="L269" s="74"/>
       <c r="M269" s="103"/>
       <c r="N269" s="67"/>
@@ -11850,13 +11849,13 @@
       <c r="C271" s="118"/>
       <c r="D271" s="118"/>
       <c r="E271" s="84"/>
-      <c r="F271" s="137"/>
-      <c r="G271" s="137"/>
-      <c r="H271" s="137"/>
-      <c r="I271" s="137"/>
-      <c r="J271" s="137"/>
-      <c r="K271" s="104"/>
-      <c r="L271" s="74"/>
+      <c r="F271" s="140"/>
+      <c r="G271" s="140"/>
+      <c r="H271" s="140"/>
+      <c r="I271" s="140"/>
+      <c r="J271" s="140"/>
+      <c r="K271" s="148"/>
+      <c r="L271" s="149"/>
       <c r="M271" s="103"/>
       <c r="N271" s="67"/>
       <c r="O271" s="67"/>
@@ -11881,13 +11880,13 @@
       <c r="C272" s="118"/>
       <c r="D272" s="118"/>
       <c r="E272" s="84"/>
-      <c r="F272" s="137"/>
-      <c r="G272" s="137"/>
-      <c r="H272" s="137"/>
-      <c r="I272" s="137"/>
-      <c r="J272" s="137"/>
-      <c r="K272" s="104"/>
-      <c r="L272" s="74"/>
+      <c r="F272" s="65"/>
+      <c r="G272" s="65"/>
+      <c r="H272" s="65"/>
+      <c r="I272" s="65"/>
+      <c r="J272" s="65"/>
+      <c r="K272" s="144"/>
+      <c r="L272" s="73"/>
       <c r="M272" s="103"/>
       <c r="N272" s="67"/>
       <c r="O272" s="67"/>
@@ -11912,13 +11911,13 @@
       <c r="C273" s="118"/>
       <c r="D273" s="118"/>
       <c r="E273" s="84"/>
-      <c r="F273" s="140"/>
-      <c r="G273" s="140"/>
-      <c r="H273" s="140"/>
-      <c r="I273" s="140"/>
-      <c r="J273" s="140"/>
-      <c r="K273" s="148"/>
-      <c r="L273" s="149"/>
+      <c r="F273" s="137"/>
+      <c r="G273" s="137"/>
+      <c r="H273" s="137"/>
+      <c r="I273" s="137"/>
+      <c r="J273" s="137"/>
+      <c r="K273" s="104"/>
+      <c r="L273" s="74"/>
       <c r="M273" s="103"/>
       <c r="N273" s="67"/>
       <c r="O273" s="67"/>
@@ -11940,16 +11939,16 @@
     <row r="274" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="115"/>
       <c r="B274" s="126"/>
-      <c r="C274" s="118"/>
-      <c r="D274" s="118"/>
+      <c r="C274" s="126"/>
+      <c r="D274" s="126"/>
       <c r="E274" s="84"/>
-      <c r="F274" s="65"/>
-      <c r="G274" s="65"/>
-      <c r="H274" s="65"/>
-      <c r="I274" s="65"/>
-      <c r="J274" s="65"/>
-      <c r="K274" s="144"/>
-      <c r="L274" s="73"/>
+      <c r="F274" s="137"/>
+      <c r="G274" s="137"/>
+      <c r="H274" s="137"/>
+      <c r="I274" s="137"/>
+      <c r="J274" s="137"/>
+      <c r="K274" s="250"/>
+      <c r="L274" s="74"/>
       <c r="M274" s="103"/>
       <c r="N274" s="67"/>
       <c r="O274" s="67"/>
@@ -11979,7 +11978,7 @@
       <c r="H275" s="137"/>
       <c r="I275" s="137"/>
       <c r="J275" s="137"/>
-      <c r="K275" s="104"/>
+      <c r="K275" s="250"/>
       <c r="L275" s="74"/>
       <c r="M275" s="103"/>
       <c r="N275" s="67"/>
@@ -12002,15 +12001,15 @@
     <row r="276" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="115"/>
       <c r="B276" s="126"/>
-      <c r="C276" s="126"/>
-      <c r="D276" s="126"/>
+      <c r="C276" s="118"/>
+      <c r="D276" s="118"/>
       <c r="E276" s="84"/>
       <c r="F276" s="137"/>
       <c r="G276" s="137"/>
       <c r="H276" s="137"/>
       <c r="I276" s="137"/>
       <c r="J276" s="137"/>
-      <c r="K276" s="234"/>
+      <c r="K276" s="104"/>
       <c r="L276" s="74"/>
       <c r="M276" s="103"/>
       <c r="N276" s="67"/>
@@ -12036,13 +12035,13 @@
       <c r="C277" s="118"/>
       <c r="D277" s="118"/>
       <c r="E277" s="84"/>
-      <c r="F277" s="137"/>
-      <c r="G277" s="137"/>
-      <c r="H277" s="137"/>
-      <c r="I277" s="137"/>
-      <c r="J277" s="137"/>
-      <c r="K277" s="234"/>
-      <c r="L277" s="74"/>
+      <c r="F277" s="146"/>
+      <c r="G277" s="146"/>
+      <c r="H277" s="146"/>
+      <c r="I277" s="146"/>
+      <c r="J277" s="146"/>
+      <c r="K277" s="144"/>
+      <c r="L277" s="73"/>
       <c r="M277" s="103"/>
       <c r="N277" s="67"/>
       <c r="O277" s="67"/>
@@ -12064,15 +12063,15 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="115"/>
       <c r="B278" s="126"/>
-      <c r="C278" s="118"/>
-      <c r="D278" s="118"/>
+      <c r="C278" s="242"/>
+      <c r="D278" s="124"/>
       <c r="E278" s="84"/>
       <c r="F278" s="137"/>
       <c r="G278" s="137"/>
       <c r="H278" s="137"/>
       <c r="I278" s="137"/>
       <c r="J278" s="137"/>
-      <c r="K278" s="104"/>
+      <c r="K278" s="243"/>
       <c r="L278" s="74"/>
       <c r="M278" s="103"/>
       <c r="N278" s="67"/>
@@ -12095,16 +12094,16 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="115"/>
       <c r="B279" s="126"/>
-      <c r="C279" s="118"/>
-      <c r="D279" s="118"/>
+      <c r="C279" s="242"/>
+      <c r="D279" s="145"/>
       <c r="E279" s="84"/>
-      <c r="F279" s="146"/>
-      <c r="G279" s="146"/>
-      <c r="H279" s="146"/>
-      <c r="I279" s="146"/>
-      <c r="J279" s="146"/>
-      <c r="K279" s="144"/>
-      <c r="L279" s="73"/>
+      <c r="F279" s="137"/>
+      <c r="G279" s="137"/>
+      <c r="H279" s="137"/>
+      <c r="I279" s="137"/>
+      <c r="J279" s="137"/>
+      <c r="K279" s="243"/>
+      <c r="L279" s="74"/>
       <c r="M279" s="103"/>
       <c r="N279" s="67"/>
       <c r="O279" s="67"/>
@@ -12126,15 +12125,15 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="115"/>
       <c r="B280" s="126"/>
-      <c r="C280" s="225"/>
-      <c r="D280" s="124"/>
-      <c r="E280" s="84"/>
-      <c r="F280" s="137"/>
-      <c r="G280" s="137"/>
-      <c r="H280" s="137"/>
-      <c r="I280" s="137"/>
-      <c r="J280" s="137"/>
-      <c r="K280" s="228"/>
+      <c r="C280" s="248"/>
+      <c r="D280" s="138"/>
+      <c r="E280" s="101"/>
+      <c r="F280" s="83"/>
+      <c r="G280" s="83"/>
+      <c r="H280" s="83"/>
+      <c r="I280" s="83"/>
+      <c r="J280" s="83"/>
+      <c r="K280" s="83"/>
       <c r="L280" s="74"/>
       <c r="M280" s="103"/>
       <c r="N280" s="67"/>
@@ -12157,15 +12156,15 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="115"/>
       <c r="B281" s="126"/>
-      <c r="C281" s="225"/>
-      <c r="D281" s="145"/>
-      <c r="E281" s="84"/>
-      <c r="F281" s="137"/>
-      <c r="G281" s="137"/>
-      <c r="H281" s="137"/>
-      <c r="I281" s="137"/>
-      <c r="J281" s="137"/>
-      <c r="K281" s="228"/>
+      <c r="C281" s="248"/>
+      <c r="D281" s="99"/>
+      <c r="E281" s="101"/>
+      <c r="F281" s="83"/>
+      <c r="G281" s="83"/>
+      <c r="H281" s="83"/>
+      <c r="I281" s="83"/>
+      <c r="J281" s="83"/>
+      <c r="K281" s="83"/>
       <c r="L281" s="74"/>
       <c r="M281" s="103"/>
       <c r="N281" s="67"/>
@@ -12188,8 +12187,8 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="115"/>
       <c r="B282" s="126"/>
-      <c r="C282" s="224"/>
-      <c r="D282" s="138"/>
+      <c r="C282" s="118"/>
+      <c r="D282" s="118"/>
       <c r="E282" s="101"/>
       <c r="F282" s="83"/>
       <c r="G282" s="83"/>
@@ -12219,8 +12218,8 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="115"/>
       <c r="B283" s="126"/>
-      <c r="C283" s="224"/>
-      <c r="D283" s="99"/>
+      <c r="C283" s="242"/>
+      <c r="D283" s="124"/>
       <c r="E283" s="101"/>
       <c r="F283" s="83"/>
       <c r="G283" s="83"/>
@@ -12250,8 +12249,8 @@
     <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="115"/>
       <c r="B284" s="126"/>
-      <c r="C284" s="118"/>
-      <c r="D284" s="118"/>
+      <c r="C284" s="242"/>
+      <c r="D284" s="125"/>
       <c r="E284" s="101"/>
       <c r="F284" s="83"/>
       <c r="G284" s="83"/>
@@ -12281,8 +12280,8 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="115"/>
       <c r="B285" s="126"/>
-      <c r="C285" s="225"/>
-      <c r="D285" s="124"/>
+      <c r="C285" s="242"/>
+      <c r="D285" s="145"/>
       <c r="E285" s="101"/>
       <c r="F285" s="83"/>
       <c r="G285" s="83"/>
@@ -12309,42 +12308,42 @@
       <c r="AB285" s="4"/>
       <c r="AC285" s="4"/>
     </row>
-    <row r="286" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="115"/>
-      <c r="B286" s="126"/>
-      <c r="C286" s="225"/>
-      <c r="D286" s="125"/>
-      <c r="E286" s="101"/>
-      <c r="F286" s="83"/>
-      <c r="G286" s="83"/>
-      <c r="H286" s="83"/>
-      <c r="I286" s="83"/>
-      <c r="J286" s="83"/>
-      <c r="K286" s="83"/>
-      <c r="L286" s="74"/>
-      <c r="M286" s="103"/>
-      <c r="N286" s="67"/>
-      <c r="O286" s="67"/>
-      <c r="P286" s="67"/>
-      <c r="Q286" s="67"/>
-      <c r="R286" s="67"/>
-      <c r="S286" s="67"/>
-      <c r="T286" s="67"/>
-      <c r="U286" s="4"/>
-      <c r="V286" s="4"/>
-      <c r="W286" s="4"/>
-      <c r="X286" s="4"/>
-      <c r="Y286" s="4"/>
-      <c r="Z286" s="4"/>
-      <c r="AA286" s="4"/>
-      <c r="AB286" s="4"/>
-      <c r="AC286" s="4"/>
+    <row r="286" spans="1:29" s="157" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="150"/>
+      <c r="B286" s="151"/>
+      <c r="C286" s="152"/>
+      <c r="D286" s="152"/>
+      <c r="E286" s="132"/>
+      <c r="F286" s="153"/>
+      <c r="G286" s="153"/>
+      <c r="H286" s="153"/>
+      <c r="I286" s="153"/>
+      <c r="J286" s="153"/>
+      <c r="K286" s="154"/>
+      <c r="L286" s="155"/>
+      <c r="M286" s="156"/>
+      <c r="N286" s="70"/>
+      <c r="O286" s="70"/>
+      <c r="P286" s="70"/>
+      <c r="Q286" s="70"/>
+      <c r="R286" s="70"/>
+      <c r="S286" s="70"/>
+      <c r="T286" s="70"/>
+      <c r="U286" s="82"/>
+      <c r="V286" s="82"/>
+      <c r="W286" s="82"/>
+      <c r="X286" s="82"/>
+      <c r="Y286" s="82"/>
+      <c r="Z286" s="82"/>
+      <c r="AA286" s="82"/>
+      <c r="AB286" s="82"/>
+      <c r="AC286" s="82"/>
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="115"/>
-      <c r="B287" s="126"/>
-      <c r="C287" s="225"/>
-      <c r="D287" s="145"/>
+      <c r="A287" s="121"/>
+      <c r="B287" s="141"/>
+      <c r="C287" s="141"/>
+      <c r="D287" s="141"/>
       <c r="E287" s="101"/>
       <c r="F287" s="83"/>
       <c r="G287" s="83"/>
@@ -12353,54 +12352,54 @@
       <c r="J287" s="83"/>
       <c r="K287" s="83"/>
       <c r="L287" s="74"/>
-      <c r="M287" s="103"/>
-      <c r="N287" s="67"/>
-      <c r="O287" s="67"/>
-      <c r="P287" s="67"/>
-      <c r="Q287" s="67"/>
-      <c r="R287" s="67"/>
-      <c r="S287" s="67"/>
-      <c r="T287" s="67"/>
-      <c r="U287" s="4"/>
-      <c r="V287" s="4"/>
-      <c r="W287" s="4"/>
-      <c r="X287" s="4"/>
-      <c r="Y287" s="4"/>
-      <c r="Z287" s="4"/>
-      <c r="AA287" s="4"/>
-      <c r="AB287" s="4"/>
-      <c r="AC287" s="4"/>
-    </row>
-    <row r="288" spans="1:29" s="157" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="150"/>
-      <c r="B288" s="151"/>
-      <c r="C288" s="152"/>
-      <c r="D288" s="152"/>
-      <c r="E288" s="132"/>
-      <c r="F288" s="153"/>
-      <c r="G288" s="153"/>
-      <c r="H288" s="153"/>
-      <c r="I288" s="153"/>
-      <c r="J288" s="153"/>
-      <c r="K288" s="154"/>
-      <c r="L288" s="155"/>
-      <c r="M288" s="156"/>
-      <c r="N288" s="70"/>
-      <c r="O288" s="70"/>
-      <c r="P288" s="70"/>
-      <c r="Q288" s="70"/>
-      <c r="R288" s="70"/>
-      <c r="S288" s="70"/>
-      <c r="T288" s="70"/>
-      <c r="U288" s="82"/>
-      <c r="V288" s="82"/>
-      <c r="W288" s="82"/>
-      <c r="X288" s="82"/>
-      <c r="Y288" s="82"/>
-      <c r="Z288" s="82"/>
-      <c r="AA288" s="82"/>
-      <c r="AB288" s="82"/>
-      <c r="AC288" s="82"/>
+      <c r="M287" s="74"/>
+      <c r="N287" s="74"/>
+      <c r="O287" s="74"/>
+      <c r="P287" s="74"/>
+      <c r="Q287" s="74"/>
+      <c r="R287" s="74"/>
+      <c r="S287" s="74"/>
+      <c r="T287" s="74"/>
+      <c r="U287" s="121"/>
+      <c r="V287" s="121"/>
+      <c r="W287" s="121"/>
+      <c r="X287" s="121"/>
+      <c r="Y287" s="121"/>
+      <c r="Z287" s="121"/>
+      <c r="AA287" s="121"/>
+      <c r="AB287" s="121"/>
+      <c r="AC287" s="121"/>
+    </row>
+    <row r="288" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="121"/>
+      <c r="B288" s="141"/>
+      <c r="C288" s="141"/>
+      <c r="D288" s="141"/>
+      <c r="E288" s="101"/>
+      <c r="F288" s="83"/>
+      <c r="G288" s="83"/>
+      <c r="H288" s="83"/>
+      <c r="I288" s="83"/>
+      <c r="J288" s="83"/>
+      <c r="K288" s="83"/>
+      <c r="L288" s="74"/>
+      <c r="M288" s="74"/>
+      <c r="N288" s="74"/>
+      <c r="O288" s="74"/>
+      <c r="P288" s="74"/>
+      <c r="Q288" s="74"/>
+      <c r="R288" s="74"/>
+      <c r="S288" s="74"/>
+      <c r="T288" s="74"/>
+      <c r="U288" s="121"/>
+      <c r="V288" s="121"/>
+      <c r="W288" s="121"/>
+      <c r="X288" s="121"/>
+      <c r="Y288" s="121"/>
+      <c r="Z288" s="121"/>
+      <c r="AA288" s="121"/>
+      <c r="AB288" s="121"/>
+      <c r="AC288" s="121"/>
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="121"/>
@@ -12439,13 +12438,13 @@
       <c r="C290" s="141"/>
       <c r="D290" s="141"/>
       <c r="E290" s="101"/>
-      <c r="F290" s="83"/>
-      <c r="G290" s="83"/>
-      <c r="H290" s="83"/>
-      <c r="I290" s="83"/>
-      <c r="J290" s="83"/>
-      <c r="K290" s="83"/>
-      <c r="L290" s="74"/>
+      <c r="F290" s="158"/>
+      <c r="G290" s="158"/>
+      <c r="H290" s="158"/>
+      <c r="I290" s="158"/>
+      <c r="J290" s="158"/>
+      <c r="K290" s="158"/>
+      <c r="L290" s="143"/>
       <c r="M290" s="74"/>
       <c r="N290" s="74"/>
       <c r="O290" s="74"/>
@@ -12466,18 +12465,18 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="121"/>
-      <c r="B291" s="141"/>
-      <c r="C291" s="141"/>
-      <c r="D291" s="141"/>
-      <c r="E291" s="101"/>
-      <c r="F291" s="83"/>
-      <c r="G291" s="83"/>
-      <c r="H291" s="83"/>
-      <c r="I291" s="83"/>
-      <c r="J291" s="83"/>
-      <c r="K291" s="83"/>
+      <c r="B291" s="251"/>
+      <c r="C291" s="248"/>
+      <c r="D291" s="114"/>
+      <c r="E291" s="248"/>
+      <c r="F291" s="76"/>
+      <c r="G291" s="76"/>
+      <c r="H291" s="76"/>
+      <c r="I291" s="76"/>
+      <c r="J291" s="76"/>
+      <c r="K291" s="76"/>
       <c r="L291" s="74"/>
-      <c r="M291" s="74"/>
+      <c r="M291" s="134"/>
       <c r="N291" s="74"/>
       <c r="O291" s="74"/>
       <c r="P291" s="74"/>
@@ -12497,18 +12496,18 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="121"/>
-      <c r="B292" s="141"/>
-      <c r="C292" s="141"/>
-      <c r="D292" s="141"/>
-      <c r="E292" s="101"/>
-      <c r="F292" s="158"/>
-      <c r="G292" s="158"/>
-      <c r="H292" s="158"/>
-      <c r="I292" s="158"/>
-      <c r="J292" s="158"/>
-      <c r="K292" s="158"/>
-      <c r="L292" s="143"/>
-      <c r="M292" s="74"/>
+      <c r="B292" s="251"/>
+      <c r="C292" s="251"/>
+      <c r="D292" s="114"/>
+      <c r="E292" s="248"/>
+      <c r="F292" s="76"/>
+      <c r="G292" s="76"/>
+      <c r="H292" s="76"/>
+      <c r="I292" s="76"/>
+      <c r="J292" s="76"/>
+      <c r="K292" s="76"/>
+      <c r="L292" s="74"/>
+      <c r="M292" s="134"/>
       <c r="N292" s="74"/>
       <c r="O292" s="74"/>
       <c r="P292" s="74"/>
@@ -12528,10 +12527,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="121"/>
-      <c r="B293" s="226"/>
-      <c r="C293" s="224"/>
+      <c r="B293" s="251"/>
+      <c r="C293" s="251"/>
       <c r="D293" s="114"/>
-      <c r="E293" s="224"/>
+      <c r="E293" s="248"/>
       <c r="F293" s="76"/>
       <c r="G293" s="76"/>
       <c r="H293" s="76"/>
@@ -12559,10 +12558,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="121"/>
-      <c r="B294" s="226"/>
-      <c r="C294" s="226"/>
+      <c r="B294" s="251"/>
+      <c r="C294" s="251"/>
       <c r="D294" s="114"/>
-      <c r="E294" s="224"/>
+      <c r="E294" s="248"/>
       <c r="F294" s="76"/>
       <c r="G294" s="76"/>
       <c r="H294" s="76"/>
@@ -12590,10 +12589,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="121"/>
-      <c r="B295" s="226"/>
-      <c r="C295" s="226"/>
+      <c r="B295" s="251"/>
+      <c r="C295" s="251"/>
       <c r="D295" s="114"/>
-      <c r="E295" s="224"/>
+      <c r="E295" s="248"/>
       <c r="F295" s="76"/>
       <c r="G295" s="76"/>
       <c r="H295" s="76"/>
@@ -12621,15 +12620,15 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="121"/>
-      <c r="B296" s="226"/>
-      <c r="C296" s="226"/>
+      <c r="B296" s="251"/>
+      <c r="C296" s="251"/>
       <c r="D296" s="114"/>
-      <c r="E296" s="224"/>
-      <c r="F296" s="76"/>
-      <c r="G296" s="76"/>
-      <c r="H296" s="76"/>
-      <c r="I296" s="76"/>
-      <c r="J296" s="76"/>
+      <c r="E296" s="248"/>
+      <c r="F296" s="137"/>
+      <c r="G296" s="137"/>
+      <c r="H296" s="137"/>
+      <c r="I296" s="137"/>
+      <c r="J296" s="137"/>
       <c r="K296" s="76"/>
       <c r="L296" s="74"/>
       <c r="M296" s="134"/>
@@ -12652,10 +12651,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="121"/>
-      <c r="B297" s="226"/>
-      <c r="C297" s="226"/>
+      <c r="B297" s="251"/>
+      <c r="C297" s="251"/>
       <c r="D297" s="114"/>
-      <c r="E297" s="224"/>
+      <c r="E297" s="248"/>
       <c r="F297" s="76"/>
       <c r="G297" s="76"/>
       <c r="H297" s="76"/>
@@ -12683,15 +12682,15 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="121"/>
-      <c r="B298" s="226"/>
-      <c r="C298" s="226"/>
+      <c r="B298" s="251"/>
+      <c r="C298" s="251"/>
       <c r="D298" s="114"/>
-      <c r="E298" s="224"/>
-      <c r="F298" s="137"/>
-      <c r="G298" s="137"/>
-      <c r="H298" s="137"/>
-      <c r="I298" s="137"/>
-      <c r="J298" s="137"/>
+      <c r="E298" s="248"/>
+      <c r="F298" s="76"/>
+      <c r="G298" s="76"/>
+      <c r="H298" s="76"/>
+      <c r="I298" s="76"/>
+      <c r="J298" s="76"/>
       <c r="K298" s="76"/>
       <c r="L298" s="74"/>
       <c r="M298" s="134"/>
@@ -12714,18 +12713,18 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="121"/>
-      <c r="B299" s="226"/>
-      <c r="C299" s="226"/>
+      <c r="B299" s="251"/>
+      <c r="C299" s="251"/>
       <c r="D299" s="114"/>
-      <c r="E299" s="224"/>
-      <c r="F299" s="76"/>
-      <c r="G299" s="76"/>
-      <c r="H299" s="76"/>
-      <c r="I299" s="76"/>
-      <c r="J299" s="76"/>
-      <c r="K299" s="76"/>
-      <c r="L299" s="74"/>
-      <c r="M299" s="134"/>
+      <c r="E299" s="118"/>
+      <c r="F299" s="73"/>
+      <c r="G299" s="73"/>
+      <c r="H299" s="73"/>
+      <c r="I299" s="73"/>
+      <c r="J299" s="73"/>
+      <c r="K299" s="144"/>
+      <c r="L299" s="73"/>
+      <c r="M299" s="74"/>
       <c r="N299" s="74"/>
       <c r="O299" s="74"/>
       <c r="P299" s="74"/>
@@ -12745,18 +12744,18 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="121"/>
-      <c r="B300" s="226"/>
-      <c r="C300" s="226"/>
+      <c r="B300" s="251"/>
+      <c r="C300" s="251"/>
       <c r="D300" s="114"/>
-      <c r="E300" s="224"/>
-      <c r="F300" s="76"/>
-      <c r="G300" s="76"/>
-      <c r="H300" s="76"/>
-      <c r="I300" s="76"/>
-      <c r="J300" s="76"/>
-      <c r="K300" s="76"/>
+      <c r="E300" s="118"/>
+      <c r="F300" s="74"/>
+      <c r="G300" s="74"/>
+      <c r="H300" s="74"/>
+      <c r="I300" s="74"/>
+      <c r="J300" s="74"/>
+      <c r="K300" s="83"/>
       <c r="L300" s="74"/>
-      <c r="M300" s="134"/>
+      <c r="M300" s="74"/>
       <c r="N300" s="74"/>
       <c r="O300" s="74"/>
       <c r="P300" s="74"/>
@@ -12776,17 +12775,17 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="121"/>
-      <c r="B301" s="226"/>
-      <c r="C301" s="226"/>
-      <c r="D301" s="114"/>
-      <c r="E301" s="118"/>
-      <c r="F301" s="73"/>
-      <c r="G301" s="73"/>
-      <c r="H301" s="73"/>
-      <c r="I301" s="73"/>
-      <c r="J301" s="73"/>
-      <c r="K301" s="144"/>
-      <c r="L301" s="73"/>
+      <c r="B301" s="251"/>
+      <c r="C301" s="251"/>
+      <c r="D301" s="138"/>
+      <c r="E301" s="248"/>
+      <c r="F301" s="83"/>
+      <c r="G301" s="83"/>
+      <c r="H301" s="83"/>
+      <c r="I301" s="83"/>
+      <c r="J301" s="83"/>
+      <c r="K301" s="83"/>
+      <c r="L301" s="74"/>
       <c r="M301" s="74"/>
       <c r="N301" s="74"/>
       <c r="O301" s="74"/>
@@ -12807,10 +12806,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="121"/>
-      <c r="B302" s="226"/>
-      <c r="C302" s="226"/>
-      <c r="D302" s="114"/>
-      <c r="E302" s="118"/>
+      <c r="B302" s="251"/>
+      <c r="C302" s="251"/>
+      <c r="D302" s="159"/>
+      <c r="E302" s="248"/>
       <c r="F302" s="74"/>
       <c r="G302" s="74"/>
       <c r="H302" s="74"/>
@@ -12838,15 +12837,15 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="121"/>
-      <c r="B303" s="226"/>
-      <c r="C303" s="226"/>
-      <c r="D303" s="138"/>
-      <c r="E303" s="224"/>
-      <c r="F303" s="83"/>
-      <c r="G303" s="83"/>
-      <c r="H303" s="83"/>
-      <c r="I303" s="83"/>
-      <c r="J303" s="83"/>
+      <c r="B303" s="251"/>
+      <c r="C303" s="251"/>
+      <c r="D303" s="159"/>
+      <c r="E303" s="248"/>
+      <c r="F303" s="74"/>
+      <c r="G303" s="74"/>
+      <c r="H303" s="74"/>
+      <c r="I303" s="74"/>
+      <c r="J303" s="74"/>
       <c r="K303" s="83"/>
       <c r="L303" s="74"/>
       <c r="M303" s="74"/>
@@ -12869,10 +12868,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="121"/>
-      <c r="B304" s="226"/>
-      <c r="C304" s="226"/>
-      <c r="D304" s="159"/>
-      <c r="E304" s="224"/>
+      <c r="B304" s="251"/>
+      <c r="C304" s="248"/>
+      <c r="D304" s="99"/>
+      <c r="E304" s="248"/>
       <c r="F304" s="74"/>
       <c r="G304" s="74"/>
       <c r="H304" s="74"/>
@@ -12900,10 +12899,10 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="121"/>
-      <c r="B305" s="226"/>
-      <c r="C305" s="226"/>
+      <c r="B305" s="251"/>
+      <c r="C305" s="114"/>
       <c r="D305" s="159"/>
-      <c r="E305" s="224"/>
+      <c r="E305" s="159"/>
       <c r="F305" s="74"/>
       <c r="G305" s="74"/>
       <c r="H305" s="74"/>
@@ -12931,15 +12930,15 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="121"/>
-      <c r="B306" s="226"/>
-      <c r="C306" s="224"/>
-      <c r="D306" s="99"/>
-      <c r="E306" s="224"/>
-      <c r="F306" s="74"/>
-      <c r="G306" s="74"/>
-      <c r="H306" s="74"/>
-      <c r="I306" s="74"/>
-      <c r="J306" s="74"/>
+      <c r="B306" s="251"/>
+      <c r="C306" s="248"/>
+      <c r="D306" s="138"/>
+      <c r="E306" s="252"/>
+      <c r="F306" s="83"/>
+      <c r="G306" s="83"/>
+      <c r="H306" s="83"/>
+      <c r="I306" s="83"/>
+      <c r="J306" s="83"/>
       <c r="K306" s="83"/>
       <c r="L306" s="74"/>
       <c r="M306" s="74"/>
@@ -12962,15 +12961,15 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="121"/>
-      <c r="B307" s="226"/>
-      <c r="C307" s="114"/>
-      <c r="D307" s="159"/>
-      <c r="E307" s="159"/>
-      <c r="F307" s="74"/>
-      <c r="G307" s="74"/>
-      <c r="H307" s="74"/>
-      <c r="I307" s="74"/>
-      <c r="J307" s="74"/>
+      <c r="B307" s="251"/>
+      <c r="C307" s="251"/>
+      <c r="D307" s="99"/>
+      <c r="E307" s="252"/>
+      <c r="F307" s="83"/>
+      <c r="G307" s="83"/>
+      <c r="H307" s="83"/>
+      <c r="I307" s="83"/>
+      <c r="J307" s="83"/>
       <c r="K307" s="83"/>
       <c r="L307" s="74"/>
       <c r="M307" s="74"/>
@@ -12993,10 +12992,10 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="121"/>
-      <c r="B308" s="226"/>
-      <c r="C308" s="224"/>
-      <c r="D308" s="138"/>
-      <c r="E308" s="227"/>
+      <c r="B308" s="251"/>
+      <c r="C308" s="251"/>
+      <c r="D308" s="114"/>
+      <c r="E308" s="252"/>
       <c r="F308" s="83"/>
       <c r="G308" s="83"/>
       <c r="H308" s="83"/>
@@ -13024,10 +13023,10 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="121"/>
-      <c r="B309" s="226"/>
-      <c r="C309" s="226"/>
-      <c r="D309" s="99"/>
-      <c r="E309" s="227"/>
+      <c r="B309" s="251"/>
+      <c r="C309" s="248"/>
+      <c r="D309" s="114"/>
+      <c r="E309" s="252"/>
       <c r="F309" s="83"/>
       <c r="G309" s="83"/>
       <c r="H309" s="83"/>
@@ -13055,15 +13054,15 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="121"/>
-      <c r="B310" s="226"/>
-      <c r="C310" s="226"/>
-      <c r="D310" s="114"/>
-      <c r="E310" s="227"/>
-      <c r="F310" s="83"/>
-      <c r="G310" s="83"/>
-      <c r="H310" s="83"/>
-      <c r="I310" s="83"/>
-      <c r="J310" s="83"/>
+      <c r="B310" s="251"/>
+      <c r="C310" s="118"/>
+      <c r="D310" s="118"/>
+      <c r="E310" s="121"/>
+      <c r="F310" s="74"/>
+      <c r="G310" s="74"/>
+      <c r="H310" s="74"/>
+      <c r="I310" s="74"/>
+      <c r="J310" s="74"/>
       <c r="K310" s="83"/>
       <c r="L310" s="74"/>
       <c r="M310" s="74"/>
@@ -13086,10 +13085,10 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="121"/>
-      <c r="B311" s="226"/>
-      <c r="C311" s="224"/>
-      <c r="D311" s="114"/>
-      <c r="E311" s="227"/>
+      <c r="B311" s="251"/>
+      <c r="C311" s="248"/>
+      <c r="D311" s="138"/>
+      <c r="E311" s="248"/>
       <c r="F311" s="83"/>
       <c r="G311" s="83"/>
       <c r="H311" s="83"/>
@@ -13117,15 +13116,15 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="121"/>
-      <c r="B312" s="226"/>
-      <c r="C312" s="118"/>
-      <c r="D312" s="118"/>
-      <c r="E312" s="121"/>
-      <c r="F312" s="74"/>
-      <c r="G312" s="74"/>
-      <c r="H312" s="74"/>
-      <c r="I312" s="74"/>
-      <c r="J312" s="74"/>
+      <c r="B312" s="251"/>
+      <c r="C312" s="251"/>
+      <c r="D312" s="159"/>
+      <c r="E312" s="248"/>
+      <c r="F312" s="83"/>
+      <c r="G312" s="83"/>
+      <c r="H312" s="83"/>
+      <c r="I312" s="83"/>
+      <c r="J312" s="83"/>
       <c r="K312" s="83"/>
       <c r="L312" s="74"/>
       <c r="M312" s="74"/>
@@ -13148,10 +13147,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="121"/>
-      <c r="B313" s="226"/>
-      <c r="C313" s="224"/>
-      <c r="D313" s="138"/>
-      <c r="E313" s="224"/>
+      <c r="B313" s="251"/>
+      <c r="C313" s="251"/>
+      <c r="D313" s="159"/>
+      <c r="E313" s="248"/>
       <c r="F313" s="83"/>
       <c r="G313" s="83"/>
       <c r="H313" s="83"/>
@@ -13179,10 +13178,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="121"/>
-      <c r="B314" s="226"/>
-      <c r="C314" s="226"/>
+      <c r="B314" s="251"/>
+      <c r="C314" s="251"/>
       <c r="D314" s="159"/>
-      <c r="E314" s="224"/>
+      <c r="E314" s="248"/>
       <c r="F314" s="83"/>
       <c r="G314" s="83"/>
       <c r="H314" s="83"/>
@@ -13210,15 +13209,15 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="121"/>
-      <c r="B315" s="226"/>
-      <c r="C315" s="226"/>
+      <c r="B315" s="251"/>
+      <c r="C315" s="251"/>
       <c r="D315" s="159"/>
-      <c r="E315" s="224"/>
-      <c r="F315" s="83"/>
-      <c r="G315" s="83"/>
-      <c r="H315" s="83"/>
-      <c r="I315" s="83"/>
-      <c r="J315" s="83"/>
+      <c r="E315" s="248"/>
+      <c r="F315" s="76"/>
+      <c r="G315" s="76"/>
+      <c r="H315" s="76"/>
+      <c r="I315" s="76"/>
+      <c r="J315" s="76"/>
       <c r="K315" s="83"/>
       <c r="L315" s="74"/>
       <c r="M315" s="74"/>
@@ -13241,15 +13240,15 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="121"/>
-      <c r="B316" s="226"/>
-      <c r="C316" s="226"/>
-      <c r="D316" s="159"/>
-      <c r="E316" s="224"/>
-      <c r="F316" s="83"/>
-      <c r="G316" s="83"/>
-      <c r="H316" s="83"/>
-      <c r="I316" s="83"/>
-      <c r="J316" s="83"/>
+      <c r="B316" s="251"/>
+      <c r="C316" s="251"/>
+      <c r="D316" s="99"/>
+      <c r="E316" s="248"/>
+      <c r="F316" s="76"/>
+      <c r="G316" s="76"/>
+      <c r="H316" s="76"/>
+      <c r="I316" s="76"/>
+      <c r="J316" s="76"/>
       <c r="K316" s="83"/>
       <c r="L316" s="74"/>
       <c r="M316" s="74"/>
@@ -13272,15 +13271,15 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="121"/>
-      <c r="B317" s="226"/>
-      <c r="C317" s="226"/>
-      <c r="D317" s="159"/>
-      <c r="E317" s="224"/>
-      <c r="F317" s="76"/>
-      <c r="G317" s="76"/>
-      <c r="H317" s="76"/>
-      <c r="I317" s="76"/>
-      <c r="J317" s="76"/>
+      <c r="B317" s="251"/>
+      <c r="C317" s="251"/>
+      <c r="D317" s="138"/>
+      <c r="E317" s="248"/>
+      <c r="F317" s="83"/>
+      <c r="G317" s="83"/>
+      <c r="H317" s="83"/>
+      <c r="I317" s="83"/>
+      <c r="J317" s="83"/>
       <c r="K317" s="83"/>
       <c r="L317" s="74"/>
       <c r="M317" s="74"/>
@@ -13303,15 +13302,15 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="121"/>
-      <c r="B318" s="226"/>
-      <c r="C318" s="226"/>
-      <c r="D318" s="99"/>
-      <c r="E318" s="224"/>
-      <c r="F318" s="76"/>
-      <c r="G318" s="76"/>
-      <c r="H318" s="76"/>
-      <c r="I318" s="76"/>
-      <c r="J318" s="76"/>
+      <c r="B318" s="251"/>
+      <c r="C318" s="251"/>
+      <c r="D318" s="159"/>
+      <c r="E318" s="248"/>
+      <c r="F318" s="74"/>
+      <c r="G318" s="74"/>
+      <c r="H318" s="74"/>
+      <c r="I318" s="74"/>
+      <c r="J318" s="74"/>
       <c r="K318" s="83"/>
       <c r="L318" s="74"/>
       <c r="M318" s="74"/>
@@ -13334,15 +13333,15 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="121"/>
-      <c r="B319" s="226"/>
-      <c r="C319" s="226"/>
-      <c r="D319" s="138"/>
-      <c r="E319" s="224"/>
-      <c r="F319" s="83"/>
-      <c r="G319" s="83"/>
-      <c r="H319" s="83"/>
-      <c r="I319" s="83"/>
-      <c r="J319" s="83"/>
+      <c r="B319" s="251"/>
+      <c r="C319" s="251"/>
+      <c r="D319" s="159"/>
+      <c r="E319" s="248"/>
+      <c r="F319" s="74"/>
+      <c r="G319" s="74"/>
+      <c r="H319" s="74"/>
+      <c r="I319" s="74"/>
+      <c r="J319" s="74"/>
       <c r="K319" s="83"/>
       <c r="L319" s="74"/>
       <c r="M319" s="74"/>
@@ -13365,10 +13364,10 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="121"/>
-      <c r="B320" s="226"/>
-      <c r="C320" s="226"/>
-      <c r="D320" s="159"/>
-      <c r="E320" s="224"/>
+      <c r="B320" s="251"/>
+      <c r="C320" s="251"/>
+      <c r="D320" s="99"/>
+      <c r="E320" s="248"/>
       <c r="F320" s="74"/>
       <c r="G320" s="74"/>
       <c r="H320" s="74"/>
@@ -13396,10 +13395,10 @@
     </row>
     <row r="321" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="121"/>
-      <c r="B321" s="226"/>
-      <c r="C321" s="226"/>
-      <c r="D321" s="159"/>
-      <c r="E321" s="224"/>
+      <c r="B321" s="121"/>
+      <c r="C321" s="121"/>
+      <c r="D321" s="121"/>
+      <c r="E321" s="121"/>
       <c r="F321" s="74"/>
       <c r="G321" s="74"/>
       <c r="H321" s="74"/>
@@ -13427,10 +13426,10 @@
     </row>
     <row r="322" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="121"/>
-      <c r="B322" s="226"/>
-      <c r="C322" s="226"/>
-      <c r="D322" s="99"/>
-      <c r="E322" s="224"/>
+      <c r="B322" s="121"/>
+      <c r="C322" s="121"/>
+      <c r="D322" s="121"/>
+      <c r="E322" s="121"/>
       <c r="F322" s="74"/>
       <c r="G322" s="74"/>
       <c r="H322" s="74"/>
@@ -13488,10 +13487,10 @@
       <c r="AC323" s="121"/>
     </row>
     <row r="324" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="121"/>
-      <c r="B324" s="121"/>
-      <c r="C324" s="121"/>
-      <c r="D324" s="121"/>
+      <c r="A324" s="115"/>
+      <c r="B324" s="118"/>
+      <c r="C324" s="101"/>
+      <c r="D324" s="101"/>
       <c r="E324" s="121"/>
       <c r="F324" s="74"/>
       <c r="G324" s="74"/>
@@ -13500,29 +13499,29 @@
       <c r="J324" s="74"/>
       <c r="K324" s="83"/>
       <c r="L324" s="74"/>
-      <c r="M324" s="74"/>
-      <c r="N324" s="74"/>
-      <c r="O324" s="74"/>
-      <c r="P324" s="74"/>
-      <c r="Q324" s="74"/>
-      <c r="R324" s="74"/>
-      <c r="S324" s="74"/>
-      <c r="T324" s="74"/>
-      <c r="U324" s="121"/>
-      <c r="V324" s="121"/>
-      <c r="W324" s="121"/>
-      <c r="X324" s="121"/>
-      <c r="Y324" s="121"/>
-      <c r="Z324" s="121"/>
-      <c r="AA324" s="121"/>
-      <c r="AB324" s="121"/>
-      <c r="AC324" s="121"/>
+      <c r="M324" s="103"/>
+      <c r="N324" s="67"/>
+      <c r="O324" s="67"/>
+      <c r="P324" s="67"/>
+      <c r="Q324" s="67"/>
+      <c r="R324" s="67"/>
+      <c r="S324" s="67"/>
+      <c r="T324" s="67"/>
+      <c r="U324" s="4"/>
+      <c r="V324" s="4"/>
+      <c r="W324" s="4"/>
+      <c r="X324" s="4"/>
+      <c r="Y324" s="4"/>
+      <c r="Z324" s="4"/>
+      <c r="AA324" s="4"/>
+      <c r="AB324" s="4"/>
+      <c r="AC324" s="4"/>
     </row>
     <row r="325" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="121"/>
-      <c r="B325" s="121"/>
-      <c r="C325" s="121"/>
-      <c r="D325" s="121"/>
+      <c r="A325" s="115"/>
+      <c r="B325" s="118"/>
+      <c r="C325" s="101"/>
+      <c r="D325" s="101"/>
       <c r="E325" s="121"/>
       <c r="F325" s="74"/>
       <c r="G325" s="74"/>
@@ -13531,23 +13530,23 @@
       <c r="J325" s="74"/>
       <c r="K325" s="83"/>
       <c r="L325" s="74"/>
-      <c r="M325" s="74"/>
-      <c r="N325" s="74"/>
-      <c r="O325" s="74"/>
-      <c r="P325" s="74"/>
-      <c r="Q325" s="74"/>
-      <c r="R325" s="74"/>
-      <c r="S325" s="74"/>
-      <c r="T325" s="74"/>
-      <c r="U325" s="121"/>
-      <c r="V325" s="121"/>
-      <c r="W325" s="121"/>
-      <c r="X325" s="121"/>
-      <c r="Y325" s="121"/>
-      <c r="Z325" s="121"/>
-      <c r="AA325" s="121"/>
-      <c r="AB325" s="121"/>
-      <c r="AC325" s="121"/>
+      <c r="M325" s="103"/>
+      <c r="N325" s="67"/>
+      <c r="O325" s="67"/>
+      <c r="P325" s="67"/>
+      <c r="Q325" s="67"/>
+      <c r="R325" s="67"/>
+      <c r="S325" s="67"/>
+      <c r="T325" s="67"/>
+      <c r="U325" s="4"/>
+      <c r="V325" s="4"/>
+      <c r="W325" s="4"/>
+      <c r="X325" s="4"/>
+      <c r="Y325" s="4"/>
+      <c r="Z325" s="4"/>
+      <c r="AA325" s="4"/>
+      <c r="AB325" s="4"/>
+      <c r="AC325" s="4"/>
     </row>
     <row r="326" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="115"/>
@@ -13614,8 +13613,8 @@
     <row r="328" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="115"/>
       <c r="B328" s="118"/>
-      <c r="C328" s="101"/>
-      <c r="D328" s="101"/>
+      <c r="C328" s="118"/>
+      <c r="D328" s="118"/>
       <c r="E328" s="121"/>
       <c r="F328" s="74"/>
       <c r="G328" s="74"/>
@@ -13645,8 +13644,8 @@
     <row r="329" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="115"/>
       <c r="B329" s="118"/>
-      <c r="C329" s="101"/>
-      <c r="D329" s="101"/>
+      <c r="C329" s="118"/>
+      <c r="D329" s="118"/>
       <c r="E329" s="121"/>
       <c r="F329" s="74"/>
       <c r="G329" s="74"/>
@@ -13767,18 +13766,18 @@
       <c r="AC332" s="4"/>
     </row>
     <row r="333" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="115"/>
-      <c r="B333" s="118"/>
-      <c r="C333" s="118"/>
-      <c r="D333" s="118"/>
-      <c r="E333" s="121"/>
-      <c r="F333" s="74"/>
-      <c r="G333" s="74"/>
-      <c r="H333" s="74"/>
-      <c r="I333" s="74"/>
-      <c r="J333" s="74"/>
-      <c r="K333" s="83"/>
-      <c r="L333" s="74"/>
+      <c r="A333" s="160"/>
+      <c r="B333" s="161"/>
+      <c r="C333" s="161"/>
+      <c r="D333" s="161"/>
+      <c r="E333" s="162"/>
+      <c r="F333" s="163"/>
+      <c r="G333" s="163"/>
+      <c r="H333" s="163"/>
+      <c r="I333" s="163"/>
+      <c r="J333" s="163"/>
+      <c r="K333" s="163"/>
+      <c r="L333" s="103"/>
       <c r="M333" s="103"/>
       <c r="N333" s="67"/>
       <c r="O333" s="67"/>
@@ -13798,18 +13797,18 @@
       <c r="AC333" s="4"/>
     </row>
     <row r="334" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="115"/>
-      <c r="B334" s="118"/>
-      <c r="C334" s="118"/>
-      <c r="D334" s="118"/>
-      <c r="E334" s="121"/>
-      <c r="F334" s="74"/>
-      <c r="G334" s="74"/>
-      <c r="H334" s="74"/>
-      <c r="I334" s="74"/>
-      <c r="J334" s="74"/>
-      <c r="K334" s="83"/>
-      <c r="L334" s="74"/>
+      <c r="A334" s="160"/>
+      <c r="B334" s="161"/>
+      <c r="C334" s="161"/>
+      <c r="D334" s="161"/>
+      <c r="E334" s="162"/>
+      <c r="F334" s="163"/>
+      <c r="G334" s="163"/>
+      <c r="H334" s="163"/>
+      <c r="I334" s="163"/>
+      <c r="J334" s="163"/>
+      <c r="K334" s="163"/>
+      <c r="L334" s="103"/>
       <c r="M334" s="103"/>
       <c r="N334" s="67"/>
       <c r="O334" s="67"/>
@@ -13895,12 +13894,12 @@
       <c r="B337" s="161"/>
       <c r="C337" s="161"/>
       <c r="D337" s="161"/>
-      <c r="E337" s="162"/>
-      <c r="F337" s="163"/>
-      <c r="G337" s="163"/>
-      <c r="H337" s="163"/>
-      <c r="I337" s="163"/>
-      <c r="J337" s="163"/>
+      <c r="E337" s="161"/>
+      <c r="F337" s="103"/>
+      <c r="G337" s="103"/>
+      <c r="H337" s="103"/>
+      <c r="I337" s="103"/>
+      <c r="J337" s="103"/>
       <c r="K337" s="163"/>
       <c r="L337" s="103"/>
       <c r="M337" s="103"/>
@@ -13926,12 +13925,12 @@
       <c r="B338" s="161"/>
       <c r="C338" s="161"/>
       <c r="D338" s="161"/>
-      <c r="E338" s="162"/>
-      <c r="F338" s="163"/>
-      <c r="G338" s="163"/>
-      <c r="H338" s="163"/>
-      <c r="I338" s="163"/>
-      <c r="J338" s="163"/>
+      <c r="E338" s="161"/>
+      <c r="F338" s="103"/>
+      <c r="G338" s="103"/>
+      <c r="H338" s="103"/>
+      <c r="I338" s="103"/>
+      <c r="J338" s="103"/>
       <c r="K338" s="163"/>
       <c r="L338" s="103"/>
       <c r="M338" s="103"/>
@@ -13984,66 +13983,66 @@
       <c r="AC339" s="4"/>
     </row>
     <row r="340" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="160"/>
-      <c r="B340" s="161"/>
-      <c r="C340" s="161"/>
-      <c r="D340" s="161"/>
-      <c r="E340" s="161"/>
+      <c r="A340" s="164"/>
+      <c r="B340" s="164"/>
+      <c r="C340" s="164"/>
+      <c r="D340" s="164"/>
+      <c r="E340" s="164"/>
       <c r="F340" s="103"/>
       <c r="G340" s="103"/>
       <c r="H340" s="103"/>
       <c r="I340" s="103"/>
       <c r="J340" s="103"/>
-      <c r="K340" s="163"/>
+      <c r="K340" s="103"/>
       <c r="L340" s="103"/>
       <c r="M340" s="103"/>
-      <c r="N340" s="67"/>
-      <c r="O340" s="67"/>
-      <c r="P340" s="67"/>
-      <c r="Q340" s="67"/>
-      <c r="R340" s="67"/>
-      <c r="S340" s="67"/>
-      <c r="T340" s="67"/>
-      <c r="U340" s="4"/>
-      <c r="V340" s="4"/>
-      <c r="W340" s="4"/>
-      <c r="X340" s="4"/>
-      <c r="Y340" s="4"/>
-      <c r="Z340" s="4"/>
-      <c r="AA340" s="4"/>
-      <c r="AB340" s="4"/>
-      <c r="AC340" s="4"/>
+      <c r="N340" s="103"/>
+      <c r="O340" s="103"/>
+      <c r="P340" s="103"/>
+      <c r="Q340" s="103"/>
+      <c r="R340" s="103"/>
+      <c r="S340" s="103"/>
+      <c r="T340" s="103"/>
+      <c r="U340" s="164"/>
+      <c r="V340" s="164"/>
+      <c r="W340" s="164"/>
+      <c r="X340" s="164"/>
+      <c r="Y340" s="164"/>
+      <c r="Z340" s="164"/>
+      <c r="AA340" s="164"/>
+      <c r="AB340" s="164"/>
+      <c r="AC340" s="164"/>
     </row>
     <row r="341" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="160"/>
-      <c r="B341" s="161"/>
-      <c r="C341" s="161"/>
-      <c r="D341" s="161"/>
-      <c r="E341" s="161"/>
+      <c r="A341" s="164"/>
+      <c r="B341" s="164"/>
+      <c r="C341" s="164"/>
+      <c r="D341" s="164"/>
+      <c r="E341" s="164"/>
       <c r="F341" s="103"/>
       <c r="G341" s="103"/>
       <c r="H341" s="103"/>
       <c r="I341" s="103"/>
       <c r="J341" s="103"/>
-      <c r="K341" s="163"/>
+      <c r="K341" s="103"/>
       <c r="L341" s="103"/>
       <c r="M341" s="103"/>
-      <c r="N341" s="67"/>
-      <c r="O341" s="67"/>
-      <c r="P341" s="67"/>
-      <c r="Q341" s="67"/>
-      <c r="R341" s="67"/>
-      <c r="S341" s="67"/>
-      <c r="T341" s="67"/>
-      <c r="U341" s="4"/>
-      <c r="V341" s="4"/>
-      <c r="W341" s="4"/>
-      <c r="X341" s="4"/>
-      <c r="Y341" s="4"/>
-      <c r="Z341" s="4"/>
-      <c r="AA341" s="4"/>
-      <c r="AB341" s="4"/>
-      <c r="AC341" s="4"/>
+      <c r="N341" s="103"/>
+      <c r="O341" s="103"/>
+      <c r="P341" s="103"/>
+      <c r="Q341" s="103"/>
+      <c r="R341" s="103"/>
+      <c r="S341" s="103"/>
+      <c r="T341" s="103"/>
+      <c r="U341" s="164"/>
+      <c r="V341" s="164"/>
+      <c r="W341" s="164"/>
+      <c r="X341" s="164"/>
+      <c r="Y341" s="164"/>
+      <c r="Z341" s="164"/>
+      <c r="AA341" s="164"/>
+      <c r="AB341" s="164"/>
+      <c r="AC341" s="164"/>
     </row>
     <row r="342" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="164"/>
@@ -15260,21 +15259,21 @@
       <c r="C381" s="164"/>
       <c r="D381" s="164"/>
       <c r="E381" s="164"/>
-      <c r="F381" s="103"/>
-      <c r="G381" s="103"/>
-      <c r="H381" s="103"/>
-      <c r="I381" s="103"/>
-      <c r="J381" s="103"/>
-      <c r="K381" s="103"/>
-      <c r="L381" s="103"/>
-      <c r="M381" s="103"/>
-      <c r="N381" s="103"/>
-      <c r="O381" s="103"/>
-      <c r="P381" s="103"/>
-      <c r="Q381" s="103"/>
-      <c r="R381" s="103"/>
-      <c r="S381" s="103"/>
-      <c r="T381" s="103"/>
+      <c r="F381" s="164"/>
+      <c r="G381" s="164"/>
+      <c r="H381" s="164"/>
+      <c r="I381" s="164"/>
+      <c r="J381" s="164"/>
+      <c r="K381" s="164"/>
+      <c r="L381" s="164"/>
+      <c r="M381" s="164"/>
+      <c r="N381" s="164"/>
+      <c r="O381" s="164"/>
+      <c r="P381" s="164"/>
+      <c r="Q381" s="164"/>
+      <c r="R381" s="164"/>
+      <c r="S381" s="164"/>
+      <c r="T381" s="164"/>
       <c r="U381" s="164"/>
       <c r="V381" s="164"/>
       <c r="W381" s="164"/>
@@ -15291,21 +15290,21 @@
       <c r="C382" s="164"/>
       <c r="D382" s="164"/>
       <c r="E382" s="164"/>
-      <c r="F382" s="103"/>
-      <c r="G382" s="103"/>
-      <c r="H382" s="103"/>
-      <c r="I382" s="103"/>
-      <c r="J382" s="103"/>
-      <c r="K382" s="103"/>
-      <c r="L382" s="103"/>
-      <c r="M382" s="103"/>
-      <c r="N382" s="103"/>
-      <c r="O382" s="103"/>
-      <c r="P382" s="103"/>
-      <c r="Q382" s="103"/>
-      <c r="R382" s="103"/>
-      <c r="S382" s="103"/>
-      <c r="T382" s="103"/>
+      <c r="F382" s="164"/>
+      <c r="G382" s="164"/>
+      <c r="H382" s="164"/>
+      <c r="I382" s="164"/>
+      <c r="J382" s="164"/>
+      <c r="K382" s="164"/>
+      <c r="L382" s="164"/>
+      <c r="M382" s="164"/>
+      <c r="N382" s="164"/>
+      <c r="O382" s="164"/>
+      <c r="P382" s="164"/>
+      <c r="Q382" s="164"/>
+      <c r="R382" s="164"/>
+      <c r="S382" s="164"/>
+      <c r="T382" s="164"/>
       <c r="U382" s="164"/>
       <c r="V382" s="164"/>
       <c r="W382" s="164"/>
@@ -15502,70 +15501,49 @@
       <c r="AB388" s="164"/>
       <c r="AC388" s="164"/>
     </row>
-    <row r="389" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="164"/>
-      <c r="B389" s="164"/>
-      <c r="C389" s="164"/>
-      <c r="D389" s="164"/>
-      <c r="E389" s="164"/>
-      <c r="F389" s="164"/>
-      <c r="G389" s="164"/>
-      <c r="H389" s="164"/>
-      <c r="I389" s="164"/>
-      <c r="J389" s="164"/>
-      <c r="K389" s="164"/>
-      <c r="L389" s="164"/>
-      <c r="M389" s="164"/>
-      <c r="N389" s="164"/>
-      <c r="O389" s="164"/>
-      <c r="P389" s="164"/>
-      <c r="Q389" s="164"/>
-      <c r="R389" s="164"/>
-      <c r="S389" s="164"/>
-      <c r="T389" s="164"/>
-      <c r="U389" s="164"/>
-      <c r="V389" s="164"/>
-      <c r="W389" s="164"/>
-      <c r="X389" s="164"/>
-      <c r="Y389" s="164"/>
-      <c r="Z389" s="164"/>
-      <c r="AA389" s="164"/>
-      <c r="AB389" s="164"/>
-      <c r="AC389" s="164"/>
-    </row>
-    <row r="390" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="164"/>
-      <c r="B390" s="164"/>
-      <c r="C390" s="164"/>
-      <c r="D390" s="164"/>
-      <c r="E390" s="164"/>
-      <c r="F390" s="164"/>
-      <c r="G390" s="164"/>
-      <c r="H390" s="164"/>
-      <c r="I390" s="164"/>
-      <c r="J390" s="164"/>
-      <c r="K390" s="164"/>
-      <c r="L390" s="164"/>
-      <c r="M390" s="164"/>
-      <c r="N390" s="164"/>
-      <c r="O390" s="164"/>
-      <c r="P390" s="164"/>
-      <c r="Q390" s="164"/>
-      <c r="R390" s="164"/>
-      <c r="S390" s="164"/>
-      <c r="T390" s="164"/>
-      <c r="U390" s="164"/>
-      <c r="V390" s="164"/>
-      <c r="W390" s="164"/>
-      <c r="X390" s="164"/>
-      <c r="Y390" s="164"/>
-      <c r="Z390" s="164"/>
-      <c r="AA390" s="164"/>
-      <c r="AB390" s="164"/>
-      <c r="AC390" s="164"/>
-    </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="E311:E316"/>
+    <mergeCell ref="E317:E320"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="B291:B320"/>
+    <mergeCell ref="C291:C304"/>
+    <mergeCell ref="E291:E298"/>
+    <mergeCell ref="E301:E304"/>
+    <mergeCell ref="C306:C309"/>
+    <mergeCell ref="E306:E307"/>
+    <mergeCell ref="E308:E309"/>
+    <mergeCell ref="C311:C320"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D176:D186"/>
+    <mergeCell ref="M176:M183"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="K239:K241"/>
+    <mergeCell ref="L239:L241"/>
+    <mergeCell ref="C248:C254"/>
+    <mergeCell ref="E248:E250"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="C258:C262"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="D131:D139"/>
+    <mergeCell ref="B10:B186"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D10:D48"/>
+    <mergeCell ref="C22:C44"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C50:C75"/>
+    <mergeCell ref="D50:D75"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D97:D107"/>
+    <mergeCell ref="D109:D118"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D123:D129"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="A1:B1"/>
@@ -15573,49 +15551,8 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D133:D141"/>
-    <mergeCell ref="B10:B188"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D10:D48"/>
-    <mergeCell ref="C22:C44"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C50:C77"/>
-    <mergeCell ref="D50:D77"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D99:D109"/>
-    <mergeCell ref="D111:D120"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="D125:D131"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="K280:K281"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D178:D188"/>
-    <mergeCell ref="M178:M185"/>
-    <mergeCell ref="D190:D198"/>
-    <mergeCell ref="K241:K243"/>
-    <mergeCell ref="L241:L243"/>
-    <mergeCell ref="C250:C256"/>
-    <mergeCell ref="E250:E252"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="C260:C264"/>
-    <mergeCell ref="K276:K277"/>
-    <mergeCell ref="E313:E318"/>
-    <mergeCell ref="E319:E322"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="B293:B322"/>
-    <mergeCell ref="C293:C306"/>
-    <mergeCell ref="E293:E300"/>
-    <mergeCell ref="E303:E306"/>
-    <mergeCell ref="C308:C311"/>
-    <mergeCell ref="E308:E309"/>
-    <mergeCell ref="E310:E311"/>
-    <mergeCell ref="C313:C322"/>
   </mergeCells>
-  <conditionalFormatting sqref="L8 L10:L48">
+  <conditionalFormatting sqref="L8 L10:L48 L50:L95">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -15629,7 +15566,7 @@
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50:L97 L99:L109 L111:L114 L116:L120 L122:L123 L125:L131 L133:L390 K224:K229 K231:K232 K269 K283:K292">
+  <conditionalFormatting sqref="L97:L107 L109:L112 L114:L118 L120:L121 L123:L129 L131:L388 K222:K227 K229:K230 K267 K281:K290">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -15644,7 +15581,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="L8 L10:L48 L99:L109 L111:L114 L116:L120 L122:L123 L125:L131 K224:K229 K231:K232 L133:L237 L240:L241 L244 L247:L258 K269 L260:L272 L275:L276 L278 K283:K292 L280:L322 L335:L338 L358:L390 L50:L97" xr:uid="{0B9E4292-F911-4EDA-ADF8-F97B5473E471}">
+    <dataValidation type="list" allowBlank="1" sqref="L8 L10:L48 L97:L107 L109:L112 L114:L118 L120:L121 L123:L129 K222:K227 K229:K230 L131:L235 L238:L239 L242 L245:L256 K267 L258:L270 L273:L274 L276 K281:K290 L278:L320 L333:L336 L356:L388 L50:L95" xr:uid="{0B9E4292-F911-4EDA-ADF8-F97B5473E471}">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15669,7 +15606,7 @@
     <hyperlink ref="J53" r:id="rId17" xr:uid="{501A5747-9144-4DD4-9592-3D3CE7317CE7}"/>
     <hyperlink ref="J54" r:id="rId18" xr:uid="{05502546-9F3C-474A-B29F-6C3F1AE8F7B0}"/>
     <hyperlink ref="J64" r:id="rId19" xr:uid="{1534BA68-7FBE-4FCA-A6D0-51608D1996AC}"/>
-    <hyperlink ref="J69" r:id="rId20" xr:uid="{BA9A5DA9-D155-400C-B03D-BA7BE725D596}"/>
+    <hyperlink ref="J67" r:id="rId20" xr:uid="{BA9A5DA9-D155-400C-B03D-BA7BE725D596}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>

--- a/Daraz sign up and login test cases.xlsx
+++ b/Daraz sign up and login test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D8D50-D35C-4974-B1CD-2BD5522E56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E1EDB-8159-4E69-A742-36F0303B2026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="232">
   <si>
     <t>PASS</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>Keeping mandatory fields blank</t>
   </si>
   <si>
     <t>Checking copy paste functionality in every field</t>
@@ -272,18 +269,6 @@
     <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button.</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. Check gender option</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. Check for confirm password field</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. Check for gender option</t>
-  </si>
-  <si>
     <t>Mandatory required fields will be mark with red asterisk</t>
   </si>
   <si>
@@ -296,9 +281,6 @@
     <t>Should change color</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. click sign up button</t>
-  </si>
-  <si>
     <t>Checking invalid phone number</t>
   </si>
   <si>
@@ -332,12 +314,6 @@
     <t>e or E</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. Check field button</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. Verification field</t>
-  </si>
-  <si>
     <t>Verification Field</t>
   </si>
   <si>
@@ -419,9 +395,6 @@
     <t>Check full stop after every sentences</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. Check verification field</t>
-  </si>
-  <si>
     <t>Full stop</t>
   </si>
   <si>
@@ -473,9 +446,6 @@
     <t>It will work</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. click on Checkbox</t>
-  </si>
-  <si>
     <t>Verify sign up using facebook</t>
   </si>
   <si>
@@ -488,9 +458,6 @@
     <t>Verify sign up using google account</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. click on Google.</t>
-  </si>
-  <si>
     <t>It should work fine</t>
   </si>
   <si>
@@ -500,9 +467,6 @@
     <t>dfd455</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. copy &amp; paste on different fields.</t>
-  </si>
-  <si>
     <t>Verify keyboard tab button functionality</t>
   </si>
   <si>
@@ -512,9 +476,6 @@
     <t>Click tab key on keyboard</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. click tab button on keyboard.</t>
-  </si>
-  <si>
     <t>It will switch to another fields</t>
   </si>
   <si>
@@ -524,13 +485,7 @@
     <t>click enter key on keyboard</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. click Enter button on keyboard.</t>
-  </si>
-  <si>
     <t>Not switching</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Keep fields blank. 4. click login.</t>
   </si>
   <si>
     <t>LOGIN</t>
@@ -602,9 +557,6 @@
 pass:123654789</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. give input in the number and password field.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify with right data in phone number or email and password field </t>
   </si>
   <si>
@@ -635,27 +587,18 @@
     <t>It should give alert message</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Input invalid phone number or email. 4.  Slide the slide button".</t>
-  </si>
-  <si>
     <t>Check ""Go back" button</t>
   </si>
   <si>
     <t>It should go back to previous page</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Click on go back button.</t>
-  </si>
-  <si>
     <t>Check slide button fuctionality</t>
   </si>
   <si>
     <t>It should apper security verification page</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Input valid phone number or email. 4.  Slide the slide button".</t>
-  </si>
-  <si>
     <t>Check ways to verify</t>
   </si>
   <si>
@@ -671,30 +614,18 @@
     <t>It will apper another security verification page where phone number will be set as given output before</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Input valid phone number or email. 4.  Slide the slide button". 5. Click Mobile Verification button.</t>
-  </si>
-  <si>
     <t>Verify send button is working</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Input valid phone number or email. 4.  Slide the slide button". 5. Click Mobile Verification button. 6. Click on send button</t>
-  </si>
-  <si>
     <t>There should be available option</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Input valid phone number or email. 4.  Slide the slide button". 5. Click Mobile Verification button. 6. Click on use other ways to  verify</t>
-  </si>
-  <si>
     <t>Options</t>
   </si>
   <si>
     <t>Verify "use other ways to verify"</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Click facebook to login</t>
-  </si>
-  <si>
     <t>Verify login with Google account</t>
   </si>
   <si>
@@ -704,9 +635,6 @@
     <t>It will allow user to login</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Click google to login</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sign Up &amp;  Login </t>
   </si>
   <si>
@@ -720,6 +648,163 @@
   </si>
   <si>
     <t>Starting name with numeric</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button
+3. Check gender option</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. Check for confirm password field</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. Check verification field</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. Check for gender option</t>
+  </si>
+  <si>
+    <t>Functionality Testing+22:39</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button
+3. click sign up button</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. phone number field</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd
+ 2. Click Sign Up button
+3. phone number field</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. Check field button</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. Verification field</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. password field</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. Name field</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. click on Checkbox</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. click on Google.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. copy &amp; paste on different fields.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. click tab button on keyboard.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. click Enter button on keyboard.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Keep fields blank. 4. click login.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. give input in the first field.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. give input in the password field.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. give input in the number and password field.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Input invalid phone number or email.
+4.  Slide the slide button".</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Click on go back button.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Input valid phone number or email.
+4.  Slide the slide button".</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Input valid phone number or email. 4.  Slide the slide button".</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Input valid phone number or email. 4.  Slide the slide button".
+5. Click Mobile Verification button.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Input valid phone number or email. 4.  Slide the slide button".
+5. Click Mobile Verification button.
+6. Click on send button</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Input valid phone number or email. 4.  Slide the slide button".
+5. Click Mobile Verification button.
+6. Click on use other ways to  verify</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Click facebook to login</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Click google to login</t>
   </si>
 </sst>
 </file>
@@ -1989,6 +2074,15 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2073,15 +2167,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2523,11 +2608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
-  <dimension ref="A1:AC388"/>
+  <dimension ref="A1:AC387"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C44"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2540,7 +2625,7 @@
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
     <col min="7" max="7" width="31.140625" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
@@ -2549,12 +2634,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="226"/>
+      <c r="B1" s="229"/>
       <c r="C1" s="168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="169" t="s">
         <v>6</v>
@@ -2567,13 +2652,11 @@
       </c>
       <c r="G1" s="172"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="230" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="231"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="227" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="228"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2592,12 +2675,12 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="226"/>
+      <c r="B2" s="229"/>
       <c r="C2" s="173" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D2" s="174" t="s">
         <v>10</v>
@@ -2608,16 +2691,14 @@
       </c>
       <c r="G2" s="173"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="211" t="s">
+      <c r="I2" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="212">
+      <c r="J2" s="212">
         <f>COUNTIF(L8:L76, "Passed")</f>
         <v>41</v>
       </c>
+      <c r="K2" s="3"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -2636,32 +2717,30 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="226"/>
+      <c r="B3" s="229"/>
       <c r="C3" s="173"/>
       <c r="D3" s="174" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="176" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="173"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="214">
+        <f>COUNTIF(L8:L501, "Failed")</f>
+        <v>17</v>
+      </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="213" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="214">
-        <f>COUNTIF(L8:L502, "Failed")</f>
-        <v>17</v>
-      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2680,10 +2759,10 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="226"/>
+      <c r="B4" s="229"/>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
         <v>16</v>
@@ -2694,16 +2773,14 @@
       </c>
       <c r="G4" s="173"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="215" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="216">
+        <f>COUNTIF(L7:L501, "Not Executed")</f>
+        <v>0</v>
+      </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="215" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="216">
-        <f>COUNTIF(L7:L502, "Not Executed")</f>
-        <v>0</v>
-      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -2722,26 +2799,24 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="217" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="218">
+        <f>COUNTIF(L7:L501, "Out of Scope")</f>
+        <v>0</v>
+      </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="217" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="218">
-        <f>COUNTIF(L7:L502, "Out of Scope")</f>
-        <v>0</v>
-      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -2768,16 +2843,14 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="219" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="220">
+        <f>SUM(J2:J5)</f>
+        <v>58</v>
+      </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="219" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="220">
-        <f>SUM(M2:M5)</f>
-        <v>58</v>
-      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -2836,7 +2909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="15" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2855,10 +2928,10 @@
         <v>36</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -2914,31 +2987,31 @@
       <c r="AB9" s="185"/>
       <c r="AC9" s="185"/>
     </row>
-    <row r="10" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="231" t="s">
+      <c r="C10" s="234" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="230"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -2963,27 +3036,27 @@
       <c r="AB10" s="22"/>
       <c r="AC10" s="22"/>
     </row>
-    <row r="11" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="230"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="230"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -3008,27 +3081,27 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
     </row>
-    <row r="12" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="230"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="230"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="233"/>
       <c r="E12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -3053,18 +3126,18 @@
       <c r="AB12" s="22"/>
       <c r="AC12" s="22"/>
     </row>
-    <row r="13" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="230"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="230"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>42</v>
@@ -3073,10 +3146,10 @@
         <v>40</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="J13" s="166" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="20" t="s">
@@ -3100,18 +3173,18 @@
       <c r="AB13" s="22"/>
       <c r="AC13" s="22"/>
     </row>
-    <row r="14" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="230"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="230"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="233"/>
       <c r="E14" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>42</v>
@@ -3120,10 +3193,10 @@
         <v>40</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="J14" s="166" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="20" t="s">
@@ -3147,30 +3220,30 @@
       <c r="AB14" s="22"/>
       <c r="AC14" s="22"/>
     </row>
-    <row r="15" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="230"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="230"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="233"/>
       <c r="E15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="J15" s="166" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="20" t="s">
@@ -3194,30 +3267,30 @@
       <c r="AB15" s="22"/>
       <c r="AC15" s="22"/>
     </row>
-    <row r="16" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="230"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="230"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="233"/>
       <c r="E16" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="J16" s="166" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="20" t="s">
@@ -3241,18 +3314,18 @@
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
     </row>
-    <row r="17" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="230"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="230"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="233"/>
       <c r="E17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>42</v>
@@ -3261,10 +3334,10 @@
         <v>40</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="J17" s="166" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="20" t="s">
@@ -3288,18 +3361,18 @@
       <c r="AB17" s="22"/>
       <c r="AC17" s="22"/>
     </row>
-    <row r="18" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="230"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="230"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="233"/>
       <c r="E18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>36</v>
@@ -3308,7 +3381,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -3333,18 +3406,18 @@
       <c r="AB18" s="22"/>
       <c r="AC18" s="22"/>
     </row>
-    <row r="19" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="230"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="234"/>
+      <c r="D19" s="233"/>
       <c r="E19" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>36</v>
@@ -3353,7 +3426,7 @@
         <v>40</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -3378,18 +3451,18 @@
       <c r="AB19" s="22"/>
       <c r="AC19" s="22"/>
     </row>
-    <row r="20" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="23" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="230"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="230"/>
+      <c r="B20" s="233"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="233"/>
       <c r="E20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>36</v>
@@ -3398,7 +3471,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -3425,9 +3498,9 @@
     </row>
     <row r="21" spans="1:29" s="194" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
-      <c r="B21" s="230"/>
+      <c r="B21" s="233"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="230"/>
+      <c r="D21" s="233"/>
       <c r="E21" s="188"/>
       <c r="F21" s="188"/>
       <c r="G21" s="188"/>
@@ -3454,20 +3527,20 @@
       <c r="AB21" s="193"/>
       <c r="AC21" s="193"/>
     </row>
-    <row r="22" spans="1:29" s="34" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>13</v>
       </c>
-      <c r="B22" s="230"/>
-      <c r="C22" s="230" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="230"/>
+      <c r="B22" s="233"/>
+      <c r="C22" s="233" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="233"/>
       <c r="E22" s="28" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>36</v>
@@ -3476,10 +3549,10 @@
         <v>40</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="12" t="s">
@@ -3503,27 +3576,27 @@
       <c r="AB22" s="33"/>
       <c r="AC22" s="33"/>
     </row>
-    <row r="23" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>14</v>
       </c>
-      <c r="B23" s="230"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="230"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
       <c r="E23" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="31"/>
@@ -3548,18 +3621,18 @@
       <c r="AB23" s="33"/>
       <c r="AC23" s="33"/>
     </row>
-    <row r="24" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>15</v>
       </c>
-      <c r="B24" s="230"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
       <c r="E24" s="28" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>42</v>
@@ -3568,10 +3641,10 @@
         <v>17</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J24" s="166" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="12" t="s">
@@ -3595,18 +3668,18 @@
       <c r="AB24" s="33"/>
       <c r="AC24" s="33"/>
     </row>
-    <row r="25" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>16</v>
       </c>
-      <c r="B25" s="230"/>
-      <c r="C25" s="230"/>
-      <c r="D25" s="230"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
       <c r="E25" s="36" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>42</v>
@@ -3615,10 +3688,10 @@
         <v>1784813242456</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="J25" s="167" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="12" t="s">
@@ -3642,18 +3715,18 @@
       <c r="AB25" s="33"/>
       <c r="AC25" s="33"/>
     </row>
-    <row r="26" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>17</v>
       </c>
-      <c r="B26" s="230"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
+      <c r="B26" s="233"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
       <c r="E26" s="36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>42</v>
@@ -3662,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="J26" s="167" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K26" s="38"/>
       <c r="L26" s="12" t="s">
@@ -3689,30 +3762,30 @@
       <c r="AB26" s="33"/>
       <c r="AC26" s="33"/>
     </row>
-    <row r="27" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>18</v>
       </c>
-      <c r="B27" s="230"/>
-      <c r="C27" s="230"/>
-      <c r="D27" s="230"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
       <c r="E27" s="36" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="255" t="s">
-        <v>98</v>
+        <v>211</v>
+      </c>
+      <c r="J27" s="226" t="s">
+        <v>90</v>
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="12" t="s">
@@ -3736,18 +3809,18 @@
       <c r="AB27" s="33"/>
       <c r="AC27" s="33"/>
     </row>
-    <row r="28" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>19</v>
       </c>
-      <c r="B28" s="230"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
       <c r="E28" s="28" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>36</v>
@@ -3755,10 +3828,10 @@
       <c r="H28" s="29">
         <v>555555</v>
       </c>
-      <c r="I28" s="253" t="s">
-        <v>97</v>
-      </c>
-      <c r="K28" s="254"/>
+      <c r="I28" s="224" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="225"/>
       <c r="L28" s="12" t="s">
         <v>37</v>
       </c>
@@ -3780,18 +3853,18 @@
       <c r="AB28" s="33"/>
       <c r="AC28" s="33"/>
     </row>
-    <row r="29" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>20</v>
       </c>
-      <c r="B29" s="230"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
       <c r="E29" s="28" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>36</v>
@@ -3800,7 +3873,7 @@
         <v>66666666</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="J29"/>
       <c r="K29" s="31"/>
@@ -3825,27 +3898,27 @@
       <c r="AB29" s="33"/>
       <c r="AC29" s="33"/>
     </row>
-    <row r="30" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>21</v>
       </c>
-      <c r="B30" s="230"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="230"/>
+      <c r="B30" s="233"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
       <c r="E30" s="28" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="31"/>
@@ -3870,27 +3943,27 @@
       <c r="AB30" s="33"/>
       <c r="AC30" s="33"/>
     </row>
-    <row r="31" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="230"/>
-      <c r="C31" s="230"/>
-      <c r="D31" s="230"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
       <c r="E31" s="28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="31"/>
@@ -3915,27 +3988,27 @@
       <c r="AB31" s="33"/>
       <c r="AC31" s="33"/>
     </row>
-    <row r="32" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>23</v>
       </c>
-      <c r="B32" s="230"/>
-      <c r="C32" s="230"/>
-      <c r="D32" s="230"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="233"/>
       <c r="E32" s="28" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="31"/>
@@ -3960,27 +4033,27 @@
       <c r="AB32" s="33"/>
       <c r="AC32" s="33"/>
     </row>
-    <row r="33" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>24</v>
       </c>
-      <c r="B33" s="230"/>
-      <c r="C33" s="230"/>
-      <c r="D33" s="230"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
       <c r="E33" s="28" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="31"/>
@@ -4005,18 +4078,18 @@
       <c r="AB33" s="33"/>
       <c r="AC33" s="33"/>
     </row>
-    <row r="34" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>25</v>
       </c>
-      <c r="B34" s="230"/>
-      <c r="C34" s="230"/>
-      <c r="D34" s="230"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="233"/>
+      <c r="D34" s="233"/>
       <c r="E34" s="28" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>36</v>
@@ -4025,7 +4098,7 @@
         <v>222222</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="31"/>
@@ -4050,27 +4123,27 @@
       <c r="AB34" s="33"/>
       <c r="AC34" s="33"/>
     </row>
-    <row r="35" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>26</v>
       </c>
-      <c r="B35" s="230"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="230"/>
+      <c r="B35" s="233"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="233"/>
       <c r="E35" s="28" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F35" s="221" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="165" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
@@ -4095,27 +4168,27 @@
       <c r="AB35" s="33"/>
       <c r="AC35" s="33"/>
     </row>
-    <row r="36" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>27</v>
       </c>
-      <c r="B36" s="230"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="230"/>
+      <c r="B36" s="233"/>
+      <c r="C36" s="233"/>
+      <c r="D36" s="233"/>
       <c r="E36" s="28" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="31"/>
@@ -4140,18 +4213,18 @@
       <c r="AB36" s="33"/>
       <c r="AC36" s="33"/>
     </row>
-    <row r="37" spans="1:29" s="34" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27">
         <v>28</v>
       </c>
-      <c r="B37" s="230"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="230"/>
+      <c r="B37" s="233"/>
+      <c r="C37" s="233"/>
+      <c r="D37" s="233"/>
       <c r="E37" s="28" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>42</v>
@@ -4160,10 +4233,10 @@
         <v>123</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="J37" s="166" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="12" t="s">
@@ -4187,27 +4260,27 @@
       <c r="AB37" s="33"/>
       <c r="AC37" s="33"/>
     </row>
-    <row r="38" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
         <v>29</v>
       </c>
-      <c r="B38" s="230"/>
-      <c r="C38" s="230"/>
-      <c r="D38" s="230"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="233"/>
+      <c r="D38" s="233"/>
       <c r="E38" s="36" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -4232,30 +4305,30 @@
       <c r="AB38" s="33"/>
       <c r="AC38" s="33"/>
     </row>
-    <row r="39" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>30</v>
       </c>
-      <c r="B39" s="230"/>
-      <c r="C39" s="230"/>
-      <c r="D39" s="230"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="233"/>
       <c r="E39" s="36" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="J39" s="166" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="12" t="s">
@@ -4279,27 +4352,27 @@
       <c r="AB39" s="33"/>
       <c r="AC39" s="33"/>
     </row>
-    <row r="40" spans="1:29" s="34" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27">
         <v>31</v>
       </c>
-      <c r="B40" s="230"/>
-      <c r="C40" s="230"/>
-      <c r="D40" s="230"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="233"/>
+      <c r="D40" s="233"/>
       <c r="E40" s="9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="165" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -4324,27 +4397,27 @@
       <c r="AB40" s="33"/>
       <c r="AC40" s="33"/>
     </row>
-    <row r="41" spans="1:29" s="34" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <v>32</v>
       </c>
-      <c r="B41" s="230"/>
-      <c r="C41" s="230"/>
-      <c r="D41" s="230"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="233"/>
       <c r="E41" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
@@ -4369,18 +4442,18 @@
       <c r="AB41" s="33"/>
       <c r="AC41" s="33"/>
     </row>
-    <row r="42" spans="1:29" s="34" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>33</v>
       </c>
-      <c r="B42" s="230"/>
-      <c r="C42" s="230"/>
-      <c r="D42" s="230"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="233"/>
       <c r="E42" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>36</v>
@@ -4389,7 +4462,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -4414,18 +4487,18 @@
       <c r="AB42" s="33"/>
       <c r="AC42" s="33"/>
     </row>
-    <row r="43" spans="1:29" s="34" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <v>34</v>
       </c>
-      <c r="B43" s="230"/>
-      <c r="C43" s="230"/>
-      <c r="D43" s="230"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="233"/>
       <c r="E43" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>36</v>
@@ -4434,7 +4507,7 @@
         <v>40</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -4459,18 +4532,18 @@
       <c r="AB43" s="33"/>
       <c r="AC43" s="33"/>
     </row>
-    <row r="44" spans="1:29" s="34" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>35</v>
       </c>
-      <c r="B44" s="230"/>
-      <c r="C44" s="230"/>
-      <c r="D44" s="230"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="233"/>
+      <c r="D44" s="233"/>
       <c r="E44" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>36</v>
@@ -4479,7 +4552,7 @@
         <v>40</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -4506,9 +4579,9 @@
     </row>
     <row r="45" spans="1:29" s="199" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="195"/>
-      <c r="B45" s="230"/>
+      <c r="B45" s="233"/>
       <c r="C45" s="196"/>
-      <c r="D45" s="230"/>
+      <c r="D45" s="233"/>
       <c r="E45" s="197"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188"/>
@@ -4535,29 +4608,29 @@
       <c r="AB45" s="185"/>
       <c r="AC45" s="185"/>
     </row>
-    <row r="46" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27">
         <v>36</v>
       </c>
-      <c r="B46" s="230"/>
-      <c r="C46" s="230" t="s">
+      <c r="B46" s="233"/>
+      <c r="C46" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="230"/>
+      <c r="D46" s="233"/>
       <c r="E46" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -4582,27 +4655,27 @@
       <c r="AB46" s="33"/>
       <c r="AC46" s="33"/>
     </row>
-    <row r="47" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27">
         <v>37</v>
       </c>
-      <c r="B47" s="230"/>
-      <c r="C47" s="230"/>
-      <c r="D47" s="230"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
       <c r="E47" s="43" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -4627,30 +4700,30 @@
       <c r="AB47" s="33"/>
       <c r="AC47" s="33"/>
     </row>
-    <row r="48" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27">
         <v>38</v>
       </c>
-      <c r="B48" s="230"/>
-      <c r="C48" s="230"/>
-      <c r="D48" s="230"/>
+      <c r="B48" s="233"/>
+      <c r="C48" s="233"/>
+      <c r="D48" s="233"/>
       <c r="E48" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="J48" s="166" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="12" t="s">
@@ -4676,7 +4749,7 @@
     </row>
     <row r="49" spans="1:29" s="208" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="200"/>
-      <c r="B49" s="230"/>
+      <c r="B49" s="233"/>
       <c r="C49" s="201"/>
       <c r="D49" s="202"/>
       <c r="E49" s="203"/>
@@ -4705,22 +4778,22 @@
       <c r="AB49" s="207"/>
       <c r="AC49" s="207"/>
     </row>
-    <row r="50" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27">
         <v>39</v>
       </c>
-      <c r="B50" s="230"/>
-      <c r="C50" s="232" t="s">
+      <c r="B50" s="233"/>
+      <c r="C50" s="235" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="235" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="232" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="F50" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="G50" s="29" t="s">
         <v>36</v>
@@ -4729,7 +4802,7 @@
         <v>40</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -4754,27 +4827,27 @@
       <c r="AB50" s="33"/>
       <c r="AC50" s="33"/>
     </row>
-    <row r="51" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>40</v>
       </c>
-      <c r="B51" s="230"/>
-      <c r="C51" s="233"/>
-      <c r="D51" s="233"/>
+      <c r="B51" s="233"/>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236"/>
       <c r="E51" s="36" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="31"/>
@@ -4799,18 +4872,18 @@
       <c r="AB51" s="33"/>
       <c r="AC51" s="33"/>
     </row>
-    <row r="52" spans="1:29" s="44" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" s="44" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27">
         <v>41</v>
       </c>
-      <c r="B52" s="230"/>
-      <c r="C52" s="233"/>
-      <c r="D52" s="233"/>
+      <c r="B52" s="233"/>
+      <c r="C52" s="236"/>
+      <c r="D52" s="236"/>
       <c r="E52" s="36" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>42</v>
@@ -4819,10 +4892,10 @@
         <v>1.23451234567897E+77</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="12" t="s">
@@ -4837,30 +4910,30 @@
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
     </row>
-    <row r="53" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <v>42</v>
       </c>
-      <c r="B53" s="230"/>
-      <c r="C53" s="233"/>
-      <c r="D53" s="233"/>
+      <c r="B53" s="233"/>
+      <c r="C53" s="236"/>
+      <c r="D53" s="236"/>
       <c r="E53" s="36" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="J53" s="166" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="12" t="s">
@@ -4884,30 +4957,30 @@
       <c r="AB53" s="33"/>
       <c r="AC53" s="33"/>
     </row>
-    <row r="54" spans="1:29" s="34" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27">
         <v>43</v>
       </c>
-      <c r="B54" s="230"/>
-      <c r="C54" s="233"/>
-      <c r="D54" s="233"/>
+      <c r="B54" s="233"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="236"/>
       <c r="E54" s="36" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="J54" s="166" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="12" t="s">
@@ -4931,27 +5004,27 @@
       <c r="AB54" s="33"/>
       <c r="AC54" s="33"/>
     </row>
-    <row r="55" spans="1:29" s="34" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27">
         <v>44</v>
       </c>
-      <c r="B55" s="230"/>
-      <c r="C55" s="233"/>
-      <c r="D55" s="233"/>
+      <c r="B55" s="233"/>
+      <c r="C55" s="236"/>
+      <c r="D55" s="236"/>
       <c r="E55" s="20" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
@@ -4976,27 +5049,27 @@
       <c r="AB55" s="33"/>
       <c r="AC55" s="33"/>
     </row>
-    <row r="56" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27">
         <v>45</v>
       </c>
-      <c r="B56" s="230"/>
-      <c r="C56" s="233"/>
-      <c r="D56" s="233"/>
+      <c r="B56" s="233"/>
+      <c r="C56" s="236"/>
+      <c r="D56" s="236"/>
       <c r="E56" s="36" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -5021,27 +5094,27 @@
       <c r="AB56" s="33"/>
       <c r="AC56" s="33"/>
     </row>
-    <row r="57" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27">
         <v>46</v>
       </c>
-      <c r="B57" s="230"/>
-      <c r="C57" s="233"/>
-      <c r="D57" s="233"/>
+      <c r="B57" s="233"/>
+      <c r="C57" s="236"/>
+      <c r="D57" s="236"/>
       <c r="E57" s="36" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="222"/>
@@ -5066,25 +5139,25 @@
       <c r="AB57" s="33"/>
       <c r="AC57" s="33"/>
     </row>
-    <row r="58" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27">
         <v>47</v>
       </c>
-      <c r="B58" s="230"/>
-      <c r="C58" s="233"/>
-      <c r="D58" s="233"/>
+      <c r="B58" s="233"/>
+      <c r="C58" s="236"/>
+      <c r="D58" s="236"/>
       <c r="E58" s="36" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H58" s="165"/>
       <c r="I58" s="10" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -5109,18 +5182,18 @@
       <c r="AB58" s="33"/>
       <c r="AC58" s="33"/>
     </row>
-    <row r="59" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27">
         <v>48</v>
       </c>
-      <c r="B59" s="230"/>
-      <c r="C59" s="233"/>
-      <c r="D59" s="233"/>
+      <c r="B59" s="233"/>
+      <c r="C59" s="236"/>
+      <c r="D59" s="236"/>
       <c r="E59" s="36" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>36</v>
@@ -5129,7 +5202,7 @@
         <v>40</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -5154,18 +5227,18 @@
       <c r="AB59" s="33"/>
       <c r="AC59" s="33"/>
     </row>
-    <row r="60" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="27">
         <v>49</v>
       </c>
-      <c r="B60" s="230"/>
-      <c r="C60" s="233"/>
-      <c r="D60" s="233"/>
+      <c r="B60" s="233"/>
+      <c r="C60" s="236"/>
+      <c r="D60" s="236"/>
       <c r="E60" s="28" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>36</v>
@@ -5174,7 +5247,7 @@
         <v>40</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -5199,18 +5272,18 @@
       <c r="AB60" s="33"/>
       <c r="AC60" s="33"/>
     </row>
-    <row r="61" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" s="34" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27">
         <v>50</v>
       </c>
-      <c r="B61" s="230"/>
-      <c r="C61" s="233"/>
-      <c r="D61" s="233"/>
+      <c r="B61" s="233"/>
+      <c r="C61" s="236"/>
+      <c r="D61" s="236"/>
       <c r="E61" s="36" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>36</v>
@@ -5219,7 +5292,7 @@
         <v>40</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -5244,18 +5317,18 @@
       <c r="AB61" s="33"/>
       <c r="AC61" s="33"/>
     </row>
-    <row r="62" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="27">
         <v>51</v>
       </c>
-      <c r="B62" s="230"/>
-      <c r="C62" s="233"/>
-      <c r="D62" s="233"/>
+      <c r="B62" s="233"/>
+      <c r="C62" s="236"/>
+      <c r="D62" s="236"/>
       <c r="E62" s="36" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>36</v>
@@ -5264,7 +5337,7 @@
         <v>40</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
@@ -5289,18 +5362,18 @@
       <c r="AB62" s="33"/>
       <c r="AC62" s="33"/>
     </row>
-    <row r="63" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" s="34" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27">
         <v>52</v>
       </c>
-      <c r="B63" s="230"/>
-      <c r="C63" s="233"/>
-      <c r="D63" s="233"/>
+      <c r="B63" s="233"/>
+      <c r="C63" s="236"/>
+      <c r="D63" s="236"/>
       <c r="E63" s="36" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>36</v>
@@ -5309,7 +5382,7 @@
         <v>40</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
@@ -5334,18 +5407,18 @@
       <c r="AB63" s="33"/>
       <c r="AC63" s="33"/>
     </row>
-    <row r="64" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27">
         <v>53</v>
       </c>
-      <c r="B64" s="230"/>
-      <c r="C64" s="233"/>
-      <c r="D64" s="233"/>
+      <c r="B64" s="233"/>
+      <c r="C64" s="236"/>
+      <c r="D64" s="236"/>
       <c r="E64" s="36" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>42</v>
@@ -5354,10 +5427,10 @@
         <v>40</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J64" s="166" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="12" t="s">
@@ -5381,18 +5454,18 @@
       <c r="AB64" s="33"/>
       <c r="AC64" s="33"/>
     </row>
-    <row r="65" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" s="34" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27">
         <v>54</v>
       </c>
-      <c r="B65" s="230"/>
-      <c r="C65" s="233"/>
-      <c r="D65" s="233"/>
+      <c r="B65" s="233"/>
+      <c r="C65" s="236"/>
+      <c r="D65" s="236"/>
       <c r="E65" s="36" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>36</v>
@@ -5401,7 +5474,7 @@
         <v>40</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
@@ -5426,18 +5499,18 @@
       <c r="AB65" s="33"/>
       <c r="AC65" s="33"/>
     </row>
-    <row r="66" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" s="34" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27">
         <v>55</v>
       </c>
-      <c r="B66" s="230"/>
-      <c r="C66" s="233"/>
-      <c r="D66" s="233"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="236"/>
+      <c r="D66" s="236"/>
       <c r="E66" s="36" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>36</v>
@@ -5446,7 +5519,7 @@
         <v>40</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -5471,18 +5544,18 @@
       <c r="AB66" s="33"/>
       <c r="AC66" s="33"/>
     </row>
-    <row r="67" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" s="34" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27">
         <v>56</v>
       </c>
-      <c r="B67" s="230"/>
-      <c r="C67" s="233"/>
-      <c r="D67" s="233"/>
+      <c r="B67" s="233"/>
+      <c r="C67" s="236"/>
+      <c r="D67" s="236"/>
       <c r="E67" s="36" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>42</v>
@@ -5491,10 +5564,10 @@
         <v>40</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="J67" s="166" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="K67" s="29"/>
       <c r="L67" s="12" t="s">
@@ -5518,18 +5591,18 @@
       <c r="AB67" s="33"/>
       <c r="AC67" s="33"/>
     </row>
-    <row r="68" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27">
         <v>57</v>
       </c>
-      <c r="B68" s="230"/>
-      <c r="C68" s="233"/>
-      <c r="D68" s="233"/>
+      <c r="B68" s="233"/>
+      <c r="C68" s="236"/>
+      <c r="D68" s="236"/>
       <c r="E68" s="36" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>36</v>
@@ -5538,7 +5611,7 @@
         <v>40</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
@@ -5563,18 +5636,18 @@
       <c r="AB68" s="33"/>
       <c r="AC68" s="33"/>
     </row>
-    <row r="69" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" s="34" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27">
         <v>58</v>
       </c>
-      <c r="B69" s="230"/>
-      <c r="C69" s="233"/>
-      <c r="D69" s="233"/>
+      <c r="B69" s="233"/>
+      <c r="C69" s="236"/>
+      <c r="D69" s="236"/>
       <c r="E69" s="36" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>36</v>
@@ -5583,7 +5656,7 @@
         <v>40</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
@@ -5610,9 +5683,9 @@
     </row>
     <row r="70" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
-      <c r="B70" s="230"/>
-      <c r="C70" s="233"/>
-      <c r="D70" s="233"/>
+      <c r="B70" s="233"/>
+      <c r="C70" s="236"/>
+      <c r="D70" s="236"/>
       <c r="E70" s="36"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
@@ -5641,9 +5714,9 @@
     </row>
     <row r="71" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27"/>
-      <c r="B71" s="230"/>
-      <c r="C71" s="233"/>
-      <c r="D71" s="233"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="236"/>
+      <c r="D71" s="236"/>
       <c r="E71" s="36"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -5672,9 +5745,9 @@
     </row>
     <row r="72" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
-      <c r="B72" s="230"/>
-      <c r="C72" s="233"/>
-      <c r="D72" s="233"/>
+      <c r="B72" s="233"/>
+      <c r="C72" s="236"/>
+      <c r="D72" s="236"/>
       <c r="E72" s="36"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -5703,9 +5776,9 @@
     </row>
     <row r="73" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
-      <c r="B73" s="230"/>
-      <c r="C73" s="233"/>
-      <c r="D73" s="233"/>
+      <c r="B73" s="233"/>
+      <c r="C73" s="236"/>
+      <c r="D73" s="236"/>
       <c r="E73" s="36"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -5733,12 +5806,10 @@
       <c r="AC73" s="33"/>
     </row>
     <row r="74" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="27">
-        <v>57</v>
-      </c>
-      <c r="B74" s="230"/>
-      <c r="C74" s="233"/>
-      <c r="D74" s="233"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="233"/>
+      <c r="C74" s="236"/>
+      <c r="D74" s="236"/>
       <c r="E74" s="36"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -5766,12 +5837,10 @@
       <c r="AC74" s="33"/>
     </row>
     <row r="75" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27">
-        <v>58</v>
-      </c>
-      <c r="B75" s="230"/>
-      <c r="C75" s="234"/>
-      <c r="D75" s="234"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="233"/>
+      <c r="C75" s="237"/>
+      <c r="D75" s="237"/>
       <c r="E75" s="36"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
@@ -5800,7 +5869,7 @@
     </row>
     <row r="76" spans="1:29" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
-      <c r="B76" s="230"/>
+      <c r="B76" s="233"/>
       <c r="C76" s="47"/>
       <c r="D76" s="48"/>
       <c r="E76" s="49"/>
@@ -5831,9 +5900,9 @@
     </row>
     <row r="77" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
-      <c r="B77" s="230"/>
-      <c r="C77" s="235"/>
-      <c r="D77" s="236"/>
+      <c r="B77" s="233"/>
+      <c r="C77" s="238"/>
+      <c r="D77" s="239"/>
       <c r="E77" s="36"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
@@ -5862,9 +5931,9 @@
     </row>
     <row r="78" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
-      <c r="B78" s="230"/>
-      <c r="C78" s="235"/>
-      <c r="D78" s="236"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="238"/>
+      <c r="D78" s="239"/>
       <c r="E78" s="36"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
@@ -5893,9 +5962,9 @@
     </row>
     <row r="79" spans="1:29" s="34" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
-      <c r="B79" s="230"/>
-      <c r="C79" s="235"/>
-      <c r="D79" s="236"/>
+      <c r="B79" s="233"/>
+      <c r="C79" s="238"/>
+      <c r="D79" s="239"/>
       <c r="E79" s="29"/>
       <c r="F79" s="18"/>
       <c r="G79" s="29"/>
@@ -5924,9 +5993,9 @@
     </row>
     <row r="80" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
-      <c r="B80" s="230"/>
-      <c r="C80" s="235"/>
-      <c r="D80" s="236"/>
+      <c r="B80" s="233"/>
+      <c r="C80" s="238"/>
+      <c r="D80" s="239"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
@@ -5955,8 +6024,8 @@
     </row>
     <row r="81" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
-      <c r="B81" s="230"/>
-      <c r="C81" s="235"/>
+      <c r="B81" s="233"/>
+      <c r="C81" s="238"/>
       <c r="D81" s="52"/>
       <c r="E81" s="53"/>
       <c r="F81" s="29"/>
@@ -5986,7 +6055,7 @@
     </row>
     <row r="82" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="54"/>
-      <c r="B82" s="230"/>
+      <c r="B82" s="233"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
       <c r="E82" s="53"/>
@@ -6017,7 +6086,7 @@
     </row>
     <row r="83" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="54"/>
-      <c r="B83" s="230"/>
+      <c r="B83" s="233"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
       <c r="E83" s="55"/>
@@ -6048,7 +6117,7 @@
     </row>
     <row r="84" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
-      <c r="B84" s="230"/>
+      <c r="B84" s="233"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
       <c r="E84" s="55"/>
@@ -6079,7 +6148,7 @@
     </row>
     <row r="85" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
-      <c r="B85" s="230"/>
+      <c r="B85" s="233"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
       <c r="E85" s="55"/>
@@ -6110,7 +6179,7 @@
     </row>
     <row r="86" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
-      <c r="B86" s="230"/>
+      <c r="B86" s="233"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
       <c r="E86" s="55"/>
@@ -6141,7 +6210,7 @@
     </row>
     <row r="87" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
-      <c r="B87" s="230"/>
+      <c r="B87" s="233"/>
       <c r="C87" s="51"/>
       <c r="D87" s="56"/>
       <c r="E87" s="55"/>
@@ -6172,9 +6241,9 @@
     </row>
     <row r="88" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
-      <c r="B88" s="230"/>
+      <c r="B88" s="233"/>
       <c r="C88" s="51"/>
-      <c r="D88" s="237"/>
+      <c r="D88" s="240"/>
       <c r="E88" s="55"/>
       <c r="F88" s="18"/>
       <c r="G88" s="29"/>
@@ -6203,9 +6272,9 @@
     </row>
     <row r="89" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="54"/>
-      <c r="B89" s="230"/>
+      <c r="B89" s="233"/>
       <c r="C89" s="51"/>
-      <c r="D89" s="237"/>
+      <c r="D89" s="240"/>
       <c r="E89" s="55"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -6234,9 +6303,9 @@
     </row>
     <row r="90" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54"/>
-      <c r="B90" s="230"/>
+      <c r="B90" s="233"/>
       <c r="C90" s="51"/>
-      <c r="D90" s="237"/>
+      <c r="D90" s="240"/>
       <c r="E90" s="57"/>
       <c r="F90" s="9"/>
       <c r="G90" s="29"/>
@@ -6265,9 +6334,9 @@
     </row>
     <row r="91" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="54"/>
-      <c r="B91" s="230"/>
+      <c r="B91" s="233"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="237"/>
+      <c r="D91" s="240"/>
       <c r="E91" s="57"/>
       <c r="F91" s="9"/>
       <c r="G91" s="29"/>
@@ -6296,9 +6365,9 @@
     </row>
     <row r="92" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
-      <c r="B92" s="230"/>
+      <c r="B92" s="233"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="237"/>
+      <c r="D92" s="240"/>
       <c r="E92" s="57"/>
       <c r="F92" s="9"/>
       <c r="G92" s="29"/>
@@ -6327,7 +6396,7 @@
     </row>
     <row r="93" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
-      <c r="B93" s="230"/>
+      <c r="B93" s="233"/>
       <c r="C93" s="51"/>
       <c r="D93" s="58"/>
       <c r="E93" s="59"/>
@@ -6358,9 +6427,9 @@
     </row>
     <row r="94" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54"/>
-      <c r="B94" s="230"/>
+      <c r="B94" s="233"/>
       <c r="C94" s="51"/>
-      <c r="D94" s="237"/>
+      <c r="D94" s="240"/>
       <c r="E94" s="53"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -6389,9 +6458,9 @@
     </row>
     <row r="95" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
-      <c r="B95" s="230"/>
+      <c r="B95" s="233"/>
       <c r="C95" s="51"/>
-      <c r="D95" s="237"/>
+      <c r="D95" s="240"/>
       <c r="E95" s="53"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -6420,7 +6489,7 @@
     </row>
     <row r="96" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="54"/>
-      <c r="B96" s="230"/>
+      <c r="B96" s="233"/>
       <c r="C96" s="51"/>
       <c r="D96" s="60"/>
       <c r="E96" s="55"/>
@@ -6451,9 +6520,9 @@
     </row>
     <row r="97" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="54"/>
-      <c r="B97" s="230"/>
+      <c r="B97" s="233"/>
       <c r="C97" s="51"/>
-      <c r="D97" s="238"/>
+      <c r="D97" s="241"/>
       <c r="E97" s="55"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -6482,9 +6551,9 @@
     </row>
     <row r="98" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="54"/>
-      <c r="B98" s="230"/>
+      <c r="B98" s="233"/>
       <c r="C98" s="51"/>
-      <c r="D98" s="238"/>
+      <c r="D98" s="241"/>
       <c r="E98" s="55"/>
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
@@ -6513,9 +6582,9 @@
     </row>
     <row r="99" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54"/>
-      <c r="B99" s="230"/>
+      <c r="B99" s="233"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="238"/>
+      <c r="D99" s="241"/>
       <c r="E99" s="57"/>
       <c r="F99" s="9"/>
       <c r="G99" s="29"/>
@@ -6544,9 +6613,9 @@
     </row>
     <row r="100" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="54"/>
-      <c r="B100" s="230"/>
+      <c r="B100" s="233"/>
       <c r="C100" s="51"/>
-      <c r="D100" s="238"/>
+      <c r="D100" s="241"/>
       <c r="E100" s="53"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -6575,9 +6644,9 @@
     </row>
     <row r="101" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54"/>
-      <c r="B101" s="230"/>
+      <c r="B101" s="233"/>
       <c r="C101" s="51"/>
-      <c r="D101" s="238"/>
+      <c r="D101" s="241"/>
       <c r="E101" s="53"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -6606,9 +6675,9 @@
     </row>
     <row r="102" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="54"/>
-      <c r="B102" s="230"/>
+      <c r="B102" s="233"/>
       <c r="C102" s="51"/>
-      <c r="D102" s="238"/>
+      <c r="D102" s="241"/>
       <c r="E102" s="55"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -6637,9 +6706,9 @@
     </row>
     <row r="103" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="54"/>
-      <c r="B103" s="230"/>
+      <c r="B103" s="233"/>
       <c r="C103" s="51"/>
-      <c r="D103" s="238"/>
+      <c r="D103" s="241"/>
       <c r="E103" s="55"/>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
@@ -6668,9 +6737,9 @@
     </row>
     <row r="104" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="54"/>
-      <c r="B104" s="230"/>
+      <c r="B104" s="233"/>
       <c r="C104" s="51"/>
-      <c r="D104" s="238"/>
+      <c r="D104" s="241"/>
       <c r="E104" s="55"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
@@ -6699,9 +6768,9 @@
     </row>
     <row r="105" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="54"/>
-      <c r="B105" s="230"/>
+      <c r="B105" s="233"/>
       <c r="C105" s="51"/>
-      <c r="D105" s="238"/>
+      <c r="D105" s="241"/>
       <c r="E105" s="57"/>
       <c r="F105" s="9"/>
       <c r="G105" s="29"/>
@@ -6730,9 +6799,9 @@
     </row>
     <row r="106" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="54"/>
-      <c r="B106" s="230"/>
+      <c r="B106" s="233"/>
       <c r="C106" s="51"/>
-      <c r="D106" s="238"/>
+      <c r="D106" s="241"/>
       <c r="E106" s="59"/>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -6761,9 +6830,9 @@
     </row>
     <row r="107" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="54"/>
-      <c r="B107" s="230"/>
+      <c r="B107" s="233"/>
       <c r="C107" s="51"/>
-      <c r="D107" s="238"/>
+      <c r="D107" s="241"/>
       <c r="E107" s="53"/>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -6792,7 +6861,7 @@
     </row>
     <row r="108" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="54"/>
-      <c r="B108" s="230"/>
+      <c r="B108" s="233"/>
       <c r="C108" s="51"/>
       <c r="D108" s="60"/>
       <c r="E108" s="53"/>
@@ -6823,9 +6892,9 @@
     </row>
     <row r="109" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
-      <c r="B109" s="230"/>
+      <c r="B109" s="233"/>
       <c r="C109" s="51"/>
-      <c r="D109" s="239"/>
+      <c r="D109" s="242"/>
       <c r="E109" s="55"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
@@ -6854,9 +6923,9 @@
     </row>
     <row r="110" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="54"/>
-      <c r="B110" s="230"/>
+      <c r="B110" s="233"/>
       <c r="C110" s="51"/>
-      <c r="D110" s="239"/>
+      <c r="D110" s="242"/>
       <c r="E110" s="55"/>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
@@ -6885,9 +6954,9 @@
     </row>
     <row r="111" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="54"/>
-      <c r="B111" s="230"/>
+      <c r="B111" s="233"/>
       <c r="C111" s="51"/>
-      <c r="D111" s="239"/>
+      <c r="D111" s="242"/>
       <c r="E111" s="55"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -6916,9 +6985,9 @@
     </row>
     <row r="112" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="54"/>
-      <c r="B112" s="230"/>
+      <c r="B112" s="233"/>
       <c r="C112" s="51"/>
-      <c r="D112" s="239"/>
+      <c r="D112" s="242"/>
       <c r="E112" s="57"/>
       <c r="F112" s="9"/>
       <c r="G112" s="29"/>
@@ -6947,9 +7016,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="62"/>
-      <c r="B113" s="230"/>
+      <c r="B113" s="233"/>
       <c r="C113" s="63"/>
-      <c r="D113" s="239"/>
+      <c r="D113" s="242"/>
       <c r="E113" s="64"/>
       <c r="F113" s="65"/>
       <c r="G113" s="65"/>
@@ -6978,9 +7047,9 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="68"/>
-      <c r="B114" s="230"/>
+      <c r="B114" s="233"/>
       <c r="C114" s="63"/>
-      <c r="D114" s="239"/>
+      <c r="D114" s="242"/>
       <c r="E114" s="69"/>
       <c r="F114" s="70"/>
       <c r="G114" s="71"/>
@@ -7009,9 +7078,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="68"/>
-      <c r="B115" s="230"/>
+      <c r="B115" s="233"/>
       <c r="C115" s="63"/>
-      <c r="D115" s="239"/>
+      <c r="D115" s="242"/>
       <c r="E115" s="75"/>
       <c r="F115" s="76"/>
       <c r="G115" s="76"/>
@@ -7040,9 +7109,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="68"/>
-      <c r="B116" s="230"/>
+      <c r="B116" s="233"/>
       <c r="C116" s="63"/>
-      <c r="D116" s="239"/>
+      <c r="D116" s="242"/>
       <c r="E116" s="75"/>
       <c r="F116" s="76"/>
       <c r="G116" s="76"/>
@@ -7071,9 +7140,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
-      <c r="B117" s="230"/>
+      <c r="B117" s="233"/>
       <c r="C117" s="63"/>
-      <c r="D117" s="239"/>
+      <c r="D117" s="242"/>
       <c r="E117" s="79"/>
       <c r="F117" s="76"/>
       <c r="G117" s="76"/>
@@ -7102,9 +7171,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="68"/>
-      <c r="B118" s="230"/>
+      <c r="B118" s="233"/>
       <c r="C118" s="63"/>
-      <c r="D118" s="239"/>
+      <c r="D118" s="242"/>
       <c r="E118" s="80"/>
       <c r="F118" s="70"/>
       <c r="G118" s="71"/>
@@ -7133,7 +7202,7 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="68"/>
-      <c r="B119" s="230"/>
+      <c r="B119" s="233"/>
       <c r="C119" s="63"/>
       <c r="D119" s="81"/>
       <c r="E119" s="69"/>
@@ -7164,9 +7233,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
-      <c r="B120" s="230"/>
+      <c r="B120" s="233"/>
       <c r="C120" s="63"/>
-      <c r="D120" s="240"/>
+      <c r="D120" s="243"/>
       <c r="E120" s="82"/>
       <c r="F120" s="70"/>
       <c r="G120" s="71"/>
@@ -7195,9 +7264,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="68"/>
-      <c r="B121" s="230"/>
+      <c r="B121" s="233"/>
       <c r="C121" s="63"/>
-      <c r="D121" s="240"/>
+      <c r="D121" s="243"/>
       <c r="E121" s="84"/>
       <c r="F121" s="76"/>
       <c r="G121" s="76"/>
@@ -7226,7 +7295,7 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
-      <c r="B122" s="230"/>
+      <c r="B122" s="233"/>
       <c r="C122" s="63"/>
       <c r="D122" s="1"/>
       <c r="E122" s="85"/>
@@ -7257,9 +7326,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
-      <c r="B123" s="230"/>
+      <c r="B123" s="233"/>
       <c r="C123" s="63"/>
-      <c r="D123" s="241"/>
+      <c r="D123" s="244"/>
       <c r="E123" s="84"/>
       <c r="F123" s="76"/>
       <c r="G123" s="76"/>
@@ -7288,9 +7357,9 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
-      <c r="B124" s="230"/>
+      <c r="B124" s="233"/>
       <c r="C124" s="63"/>
-      <c r="D124" s="241"/>
+      <c r="D124" s="244"/>
       <c r="E124" s="82"/>
       <c r="F124" s="76"/>
       <c r="G124" s="76"/>
@@ -7319,9 +7388,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="68"/>
-      <c r="B125" s="230"/>
+      <c r="B125" s="233"/>
       <c r="C125" s="63"/>
-      <c r="D125" s="241"/>
+      <c r="D125" s="244"/>
       <c r="E125" s="84"/>
       <c r="F125" s="76"/>
       <c r="G125" s="76"/>
@@ -7350,9 +7419,9 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="68"/>
-      <c r="B126" s="230"/>
+      <c r="B126" s="233"/>
       <c r="C126" s="63"/>
-      <c r="D126" s="241"/>
+      <c r="D126" s="244"/>
       <c r="E126" s="82"/>
       <c r="F126" s="70"/>
       <c r="G126" s="71"/>
@@ -7381,9 +7450,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="68"/>
-      <c r="B127" s="230"/>
+      <c r="B127" s="233"/>
       <c r="C127" s="63"/>
-      <c r="D127" s="241"/>
+      <c r="D127" s="244"/>
       <c r="E127" s="86"/>
       <c r="F127" s="87"/>
       <c r="G127" s="78"/>
@@ -7412,9 +7481,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="68"/>
-      <c r="B128" s="230"/>
+      <c r="B128" s="233"/>
       <c r="C128" s="63"/>
-      <c r="D128" s="241"/>
+      <c r="D128" s="244"/>
       <c r="E128" s="82"/>
       <c r="F128" s="88"/>
       <c r="G128" s="71"/>
@@ -7443,9 +7512,9 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="68"/>
-      <c r="B129" s="230"/>
+      <c r="B129" s="233"/>
       <c r="C129" s="63"/>
-      <c r="D129" s="241"/>
+      <c r="D129" s="244"/>
       <c r="E129" s="86"/>
       <c r="F129" s="89"/>
       <c r="G129" s="78"/>
@@ -7474,7 +7543,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
-      <c r="B130" s="230"/>
+      <c r="B130" s="233"/>
       <c r="C130" s="63"/>
       <c r="D130" s="90"/>
       <c r="E130" s="86"/>
@@ -7505,9 +7574,9 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68"/>
-      <c r="B131" s="230"/>
+      <c r="B131" s="233"/>
       <c r="C131" s="63"/>
-      <c r="D131" s="229"/>
+      <c r="D131" s="232"/>
       <c r="E131" s="91"/>
       <c r="F131" s="92"/>
       <c r="G131" s="78"/>
@@ -7536,9 +7605,9 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68"/>
-      <c r="B132" s="230"/>
+      <c r="B132" s="233"/>
       <c r="C132" s="63"/>
-      <c r="D132" s="229"/>
+      <c r="D132" s="232"/>
       <c r="E132" s="86"/>
       <c r="F132" s="92"/>
       <c r="G132" s="78"/>
@@ -7567,9 +7636,9 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68"/>
-      <c r="B133" s="230"/>
+      <c r="B133" s="233"/>
       <c r="C133" s="63"/>
-      <c r="D133" s="229"/>
+      <c r="D133" s="232"/>
       <c r="E133" s="93"/>
       <c r="F133" s="83"/>
       <c r="G133" s="83"/>
@@ -7598,9 +7667,9 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68"/>
-      <c r="B134" s="230"/>
+      <c r="B134" s="233"/>
       <c r="C134" s="63"/>
-      <c r="D134" s="229"/>
+      <c r="D134" s="232"/>
       <c r="E134" s="93"/>
       <c r="F134" s="83"/>
       <c r="G134" s="83"/>
@@ -7629,9 +7698,9 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
-      <c r="B135" s="230"/>
+      <c r="B135" s="233"/>
       <c r="C135" s="63"/>
-      <c r="D135" s="229"/>
+      <c r="D135" s="232"/>
       <c r="E135" s="93"/>
       <c r="F135" s="83"/>
       <c r="G135" s="83"/>
@@ -7660,9 +7729,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68"/>
-      <c r="B136" s="230"/>
+      <c r="B136" s="233"/>
       <c r="C136" s="63"/>
-      <c r="D136" s="229"/>
+      <c r="D136" s="232"/>
       <c r="E136" s="93"/>
       <c r="F136" s="83"/>
       <c r="G136" s="83"/>
@@ -7691,9 +7760,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68"/>
-      <c r="B137" s="230"/>
+      <c r="B137" s="233"/>
       <c r="C137" s="63"/>
-      <c r="D137" s="229"/>
+      <c r="D137" s="232"/>
       <c r="E137" s="93"/>
       <c r="F137" s="83"/>
       <c r="G137" s="83"/>
@@ -7722,9 +7791,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68"/>
-      <c r="B138" s="230"/>
+      <c r="B138" s="233"/>
       <c r="C138" s="63"/>
-      <c r="D138" s="229"/>
+      <c r="D138" s="232"/>
       <c r="E138" s="93"/>
       <c r="F138" s="83"/>
       <c r="G138" s="83"/>
@@ -7753,9 +7822,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68"/>
-      <c r="B139" s="230"/>
+      <c r="B139" s="233"/>
       <c r="C139" s="63"/>
-      <c r="D139" s="229"/>
+      <c r="D139" s="232"/>
       <c r="E139" s="93"/>
       <c r="F139" s="83"/>
       <c r="G139" s="83"/>
@@ -7784,7 +7853,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68"/>
-      <c r="B140" s="230"/>
+      <c r="B140" s="233"/>
       <c r="C140" s="94"/>
       <c r="D140" s="95"/>
       <c r="E140" s="93"/>
@@ -7815,7 +7884,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68"/>
-      <c r="B141" s="230"/>
+      <c r="B141" s="233"/>
       <c r="C141" s="96"/>
       <c r="D141" s="95"/>
       <c r="E141" s="93"/>
@@ -7846,7 +7915,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68"/>
-      <c r="B142" s="230"/>
+      <c r="B142" s="233"/>
       <c r="C142" s="96"/>
       <c r="D142" s="97"/>
       <c r="E142" s="93"/>
@@ -7877,9 +7946,9 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68"/>
-      <c r="B143" s="230"/>
+      <c r="B143" s="233"/>
       <c r="C143" s="96"/>
-      <c r="D143" s="244"/>
+      <c r="D143" s="247"/>
       <c r="E143" s="98"/>
       <c r="F143" s="83"/>
       <c r="G143" s="83"/>
@@ -7908,9 +7977,9 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68"/>
-      <c r="B144" s="230"/>
+      <c r="B144" s="233"/>
       <c r="C144" s="96"/>
-      <c r="D144" s="244"/>
+      <c r="D144" s="247"/>
       <c r="E144" s="98"/>
       <c r="F144" s="83"/>
       <c r="G144" s="83"/>
@@ -7939,7 +8008,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68"/>
-      <c r="B145" s="230"/>
+      <c r="B145" s="233"/>
       <c r="C145" s="96"/>
       <c r="D145" s="99"/>
       <c r="E145" s="93"/>
@@ -7970,7 +8039,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68"/>
-      <c r="B146" s="230"/>
+      <c r="B146" s="233"/>
       <c r="C146" s="96"/>
       <c r="D146" s="100"/>
       <c r="E146" s="93"/>
@@ -8001,7 +8070,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68"/>
-      <c r="B147" s="230"/>
+      <c r="B147" s="233"/>
       <c r="C147" s="96"/>
       <c r="D147" s="100"/>
       <c r="E147" s="101"/>
@@ -8032,7 +8101,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68"/>
-      <c r="B148" s="230"/>
+      <c r="B148" s="233"/>
       <c r="C148" s="96"/>
       <c r="D148" s="100"/>
       <c r="E148" s="93"/>
@@ -8063,7 +8132,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68"/>
-      <c r="B149" s="230"/>
+      <c r="B149" s="233"/>
       <c r="C149" s="96"/>
       <c r="D149" s="100"/>
       <c r="E149" s="93"/>
@@ -8094,7 +8163,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68"/>
-      <c r="B150" s="230"/>
+      <c r="B150" s="233"/>
       <c r="C150" s="96"/>
       <c r="D150" s="100"/>
       <c r="E150" s="93"/>
@@ -8125,7 +8194,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68"/>
-      <c r="B151" s="230"/>
+      <c r="B151" s="233"/>
       <c r="C151" s="96"/>
       <c r="D151" s="100"/>
       <c r="E151" s="93"/>
@@ -8156,7 +8225,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68"/>
-      <c r="B152" s="230"/>
+      <c r="B152" s="233"/>
       <c r="C152" s="96"/>
       <c r="D152" s="100"/>
       <c r="E152" s="101"/>
@@ -8187,7 +8256,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68"/>
-      <c r="B153" s="230"/>
+      <c r="B153" s="233"/>
       <c r="C153" s="96"/>
       <c r="D153" s="100"/>
       <c r="E153" s="101"/>
@@ -8218,7 +8287,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68"/>
-      <c r="B154" s="230"/>
+      <c r="B154" s="233"/>
       <c r="C154" s="96"/>
       <c r="D154" s="100"/>
       <c r="E154" s="101"/>
@@ -8249,7 +8318,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68"/>
-      <c r="B155" s="230"/>
+      <c r="B155" s="233"/>
       <c r="C155" s="96"/>
       <c r="D155" s="100"/>
       <c r="E155" s="93"/>
@@ -8280,7 +8349,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="68"/>
-      <c r="B156" s="230"/>
+      <c r="B156" s="233"/>
       <c r="C156" s="96"/>
       <c r="D156" s="100"/>
       <c r="E156" s="93"/>
@@ -8311,7 +8380,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68"/>
-      <c r="B157" s="230"/>
+      <c r="B157" s="233"/>
       <c r="C157" s="96"/>
       <c r="D157" s="100"/>
       <c r="E157" s="93"/>
@@ -8342,7 +8411,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="68"/>
-      <c r="B158" s="230"/>
+      <c r="B158" s="233"/>
       <c r="C158" s="96"/>
       <c r="D158" s="100"/>
       <c r="E158" s="93"/>
@@ -8373,7 +8442,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68"/>
-      <c r="B159" s="230"/>
+      <c r="B159" s="233"/>
       <c r="C159" s="96"/>
       <c r="D159" s="100"/>
       <c r="E159" s="93"/>
@@ -8404,7 +8473,7 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68"/>
-      <c r="B160" s="230"/>
+      <c r="B160" s="233"/>
       <c r="C160" s="96"/>
       <c r="D160" s="100"/>
       <c r="E160" s="93"/>
@@ -8435,7 +8504,7 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="106"/>
-      <c r="B161" s="230"/>
+      <c r="B161" s="233"/>
       <c r="C161" s="96"/>
       <c r="D161" s="107"/>
       <c r="E161" s="108"/>
@@ -8466,7 +8535,7 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="106"/>
-      <c r="B162" s="230"/>
+      <c r="B162" s="233"/>
       <c r="C162" s="96"/>
       <c r="D162" s="109"/>
       <c r="E162" s="93"/>
@@ -8497,7 +8566,7 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="106"/>
-      <c r="B163" s="230"/>
+      <c r="B163" s="233"/>
       <c r="C163" s="96"/>
       <c r="D163" s="109"/>
       <c r="E163" s="93"/>
@@ -8528,7 +8597,7 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="106"/>
-      <c r="B164" s="230"/>
+      <c r="B164" s="233"/>
       <c r="C164" s="96"/>
       <c r="D164" s="109"/>
       <c r="E164" s="110"/>
@@ -8559,7 +8628,7 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="106"/>
-      <c r="B165" s="230"/>
+      <c r="B165" s="233"/>
       <c r="C165" s="96"/>
       <c r="D165" s="109"/>
       <c r="E165" s="111"/>
@@ -8590,7 +8659,7 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="106"/>
-      <c r="B166" s="230"/>
+      <c r="B166" s="233"/>
       <c r="C166" s="96"/>
       <c r="D166" s="109"/>
       <c r="E166" s="111"/>
@@ -8621,7 +8690,7 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="106"/>
-      <c r="B167" s="230"/>
+      <c r="B167" s="233"/>
       <c r="C167" s="96"/>
       <c r="D167" s="109"/>
       <c r="E167" s="111"/>
@@ -8652,7 +8721,7 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="106"/>
-      <c r="B168" s="230"/>
+      <c r="B168" s="233"/>
       <c r="C168" s="96"/>
       <c r="D168" s="109"/>
       <c r="E168" s="111"/>
@@ -8683,7 +8752,7 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="106"/>
-      <c r="B169" s="230"/>
+      <c r="B169" s="233"/>
       <c r="C169" s="96"/>
       <c r="D169" s="109"/>
       <c r="E169" s="93"/>
@@ -8714,7 +8783,7 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="106"/>
-      <c r="B170" s="230"/>
+      <c r="B170" s="233"/>
       <c r="C170" s="96"/>
       <c r="D170" s="109"/>
       <c r="E170" s="93"/>
@@ -8745,7 +8814,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="106"/>
-      <c r="B171" s="230"/>
+      <c r="B171" s="233"/>
       <c r="C171" s="96"/>
       <c r="D171" s="109"/>
       <c r="E171" s="93"/>
@@ -8776,7 +8845,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="106"/>
-      <c r="B172" s="230"/>
+      <c r="B172" s="233"/>
       <c r="C172" s="96"/>
       <c r="D172" s="109"/>
       <c r="E172" s="93"/>
@@ -8807,7 +8876,7 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="106"/>
-      <c r="B173" s="230"/>
+      <c r="B173" s="233"/>
       <c r="C173" s="96"/>
       <c r="D173" s="109"/>
       <c r="E173" s="108"/>
@@ -8838,7 +8907,7 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="106"/>
-      <c r="B174" s="230"/>
+      <c r="B174" s="233"/>
       <c r="C174" s="96"/>
       <c r="D174" s="112"/>
       <c r="E174" s="113"/>
@@ -8869,7 +8938,7 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="106"/>
-      <c r="B175" s="230"/>
+      <c r="B175" s="233"/>
       <c r="C175" s="96"/>
       <c r="D175" s="114"/>
       <c r="E175" s="108"/>
@@ -8900,9 +8969,9 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="106"/>
-      <c r="B176" s="230"/>
+      <c r="B176" s="233"/>
       <c r="C176" s="96"/>
-      <c r="D176" s="245"/>
+      <c r="D176" s="248"/>
       <c r="E176" s="93"/>
       <c r="F176" s="83"/>
       <c r="G176" s="83"/>
@@ -8911,7 +8980,7 @@
       <c r="J176" s="83"/>
       <c r="K176" s="83"/>
       <c r="L176" s="74"/>
-      <c r="M176" s="246"/>
+      <c r="M176" s="249"/>
       <c r="N176" s="67"/>
       <c r="O176" s="67"/>
       <c r="P176" s="67"/>
@@ -8931,9 +9000,9 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="68"/>
-      <c r="B177" s="230"/>
+      <c r="B177" s="233"/>
       <c r="C177" s="96"/>
-      <c r="D177" s="245"/>
+      <c r="D177" s="248"/>
       <c r="E177" s="93"/>
       <c r="F177" s="83"/>
       <c r="G177" s="83"/>
@@ -8942,7 +9011,7 @@
       <c r="J177" s="83"/>
       <c r="K177" s="83"/>
       <c r="L177" s="74"/>
-      <c r="M177" s="246"/>
+      <c r="M177" s="249"/>
       <c r="N177" s="67"/>
       <c r="O177" s="67"/>
       <c r="P177" s="67"/>
@@ -8962,9 +9031,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="68"/>
-      <c r="B178" s="230"/>
+      <c r="B178" s="233"/>
       <c r="C178" s="96"/>
-      <c r="D178" s="245"/>
+      <c r="D178" s="248"/>
       <c r="E178" s="110"/>
       <c r="F178" s="83"/>
       <c r="G178" s="83"/>
@@ -8973,7 +9042,7 @@
       <c r="J178" s="83"/>
       <c r="K178" s="83"/>
       <c r="L178" s="74"/>
-      <c r="M178" s="246"/>
+      <c r="M178" s="249"/>
       <c r="N178" s="67"/>
       <c r="O178" s="67"/>
       <c r="P178" s="67"/>
@@ -8993,9 +9062,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="68"/>
-      <c r="B179" s="230"/>
+      <c r="B179" s="233"/>
       <c r="C179" s="96"/>
-      <c r="D179" s="245"/>
+      <c r="D179" s="248"/>
       <c r="E179" s="111"/>
       <c r="F179" s="83"/>
       <c r="G179" s="83"/>
@@ -9004,7 +9073,7 @@
       <c r="J179" s="83"/>
       <c r="K179" s="83"/>
       <c r="L179" s="74"/>
-      <c r="M179" s="246"/>
+      <c r="M179" s="249"/>
       <c r="N179" s="67"/>
       <c r="O179" s="67"/>
       <c r="P179" s="67"/>
@@ -9024,9 +9093,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="68"/>
-      <c r="B180" s="230"/>
+      <c r="B180" s="233"/>
       <c r="C180" s="96"/>
-      <c r="D180" s="245"/>
+      <c r="D180" s="248"/>
       <c r="E180" s="111"/>
       <c r="F180" s="83"/>
       <c r="G180" s="83"/>
@@ -9035,7 +9104,7 @@
       <c r="J180" s="83"/>
       <c r="K180" s="83"/>
       <c r="L180" s="74"/>
-      <c r="M180" s="246"/>
+      <c r="M180" s="249"/>
       <c r="N180" s="67"/>
       <c r="O180" s="67"/>
       <c r="P180" s="67"/>
@@ -9055,9 +9124,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="68"/>
-      <c r="B181" s="230"/>
+      <c r="B181" s="233"/>
       <c r="C181" s="96"/>
-      <c r="D181" s="245"/>
+      <c r="D181" s="248"/>
       <c r="E181" s="111"/>
       <c r="F181" s="83"/>
       <c r="G181" s="83"/>
@@ -9066,7 +9135,7 @@
       <c r="J181" s="83"/>
       <c r="K181" s="83"/>
       <c r="L181" s="74"/>
-      <c r="M181" s="246"/>
+      <c r="M181" s="249"/>
       <c r="N181" s="67"/>
       <c r="O181" s="67"/>
       <c r="P181" s="67"/>
@@ -9086,9 +9155,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="68"/>
-      <c r="B182" s="230"/>
+      <c r="B182" s="233"/>
       <c r="C182" s="96"/>
-      <c r="D182" s="245"/>
+      <c r="D182" s="248"/>
       <c r="E182" s="111"/>
       <c r="F182" s="83"/>
       <c r="G182" s="83"/>
@@ -9097,7 +9166,7 @@
       <c r="J182" s="83"/>
       <c r="K182" s="83"/>
       <c r="L182" s="74"/>
-      <c r="M182" s="246"/>
+      <c r="M182" s="249"/>
       <c r="N182" s="67"/>
       <c r="O182" s="67"/>
       <c r="P182" s="67"/>
@@ -9117,9 +9186,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="68"/>
-      <c r="B183" s="230"/>
+      <c r="B183" s="233"/>
       <c r="C183" s="96"/>
-      <c r="D183" s="245"/>
+      <c r="D183" s="248"/>
       <c r="E183" s="93"/>
       <c r="F183" s="83"/>
       <c r="G183" s="83"/>
@@ -9128,7 +9197,7 @@
       <c r="J183" s="83"/>
       <c r="K183" s="83"/>
       <c r="L183" s="74"/>
-      <c r="M183" s="246"/>
+      <c r="M183" s="249"/>
       <c r="N183" s="67"/>
       <c r="O183" s="67"/>
       <c r="P183" s="67"/>
@@ -9148,9 +9217,9 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="68"/>
-      <c r="B184" s="230"/>
+      <c r="B184" s="233"/>
       <c r="C184" s="96"/>
-      <c r="D184" s="245"/>
+      <c r="D184" s="248"/>
       <c r="E184" s="93"/>
       <c r="F184" s="83"/>
       <c r="G184" s="83"/>
@@ -9179,9 +9248,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="68"/>
-      <c r="B185" s="230"/>
+      <c r="B185" s="233"/>
       <c r="C185" s="96"/>
-      <c r="D185" s="245"/>
+      <c r="D185" s="248"/>
       <c r="E185" s="93"/>
       <c r="F185" s="83"/>
       <c r="G185" s="83"/>
@@ -9210,9 +9279,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="68"/>
-      <c r="B186" s="230"/>
+      <c r="B186" s="233"/>
       <c r="C186" s="96"/>
-      <c r="D186" s="245"/>
+      <c r="D186" s="248"/>
       <c r="E186" s="93"/>
       <c r="F186" s="83"/>
       <c r="G186" s="83"/>
@@ -9274,7 +9343,7 @@
       <c r="A188" s="115"/>
       <c r="B188" s="118"/>
       <c r="C188" s="117"/>
-      <c r="D188" s="247"/>
+      <c r="D188" s="250"/>
       <c r="E188" s="93"/>
       <c r="F188" s="83"/>
       <c r="G188" s="105"/>
@@ -9305,7 +9374,7 @@
       <c r="A189" s="115"/>
       <c r="B189" s="114"/>
       <c r="C189" s="119"/>
-      <c r="D189" s="247"/>
+      <c r="D189" s="250"/>
       <c r="E189" s="93"/>
       <c r="F189" s="83"/>
       <c r="G189" s="105"/>
@@ -9336,7 +9405,7 @@
       <c r="A190" s="115"/>
       <c r="B190" s="114"/>
       <c r="C190" s="119"/>
-      <c r="D190" s="247"/>
+      <c r="D190" s="250"/>
       <c r="E190" s="93"/>
       <c r="F190" s="83"/>
       <c r="G190" s="105"/>
@@ -9367,7 +9436,7 @@
       <c r="A191" s="115"/>
       <c r="B191" s="114"/>
       <c r="C191" s="114"/>
-      <c r="D191" s="247"/>
+      <c r="D191" s="250"/>
       <c r="E191" s="101"/>
       <c r="F191" s="83"/>
       <c r="G191" s="105"/>
@@ -9398,7 +9467,7 @@
       <c r="A192" s="115"/>
       <c r="B192" s="118"/>
       <c r="C192" s="114"/>
-      <c r="D192" s="247"/>
+      <c r="D192" s="250"/>
       <c r="E192" s="101"/>
       <c r="F192" s="83"/>
       <c r="G192" s="105"/>
@@ -9429,7 +9498,7 @@
       <c r="A193" s="115"/>
       <c r="B193" s="118"/>
       <c r="C193" s="114"/>
-      <c r="D193" s="247"/>
+      <c r="D193" s="250"/>
       <c r="E193" s="101"/>
       <c r="F193" s="83"/>
       <c r="G193" s="105"/>
@@ -9460,7 +9529,7 @@
       <c r="A194" s="115"/>
       <c r="B194" s="118"/>
       <c r="C194" s="114"/>
-      <c r="D194" s="247"/>
+      <c r="D194" s="250"/>
       <c r="E194" s="93"/>
       <c r="F194" s="83"/>
       <c r="G194" s="105"/>
@@ -9491,7 +9560,7 @@
       <c r="A195" s="115"/>
       <c r="B195" s="118"/>
       <c r="C195" s="114"/>
-      <c r="D195" s="247"/>
+      <c r="D195" s="250"/>
       <c r="E195" s="93"/>
       <c r="F195" s="83"/>
       <c r="G195" s="105"/>
@@ -9522,7 +9591,7 @@
       <c r="A196" s="115"/>
       <c r="B196" s="118"/>
       <c r="C196" s="118"/>
-      <c r="D196" s="247"/>
+      <c r="D196" s="250"/>
       <c r="E196" s="93"/>
       <c r="F196" s="83"/>
       <c r="G196" s="105"/>
@@ -10862,8 +10931,8 @@
       <c r="H239" s="139"/>
       <c r="I239" s="139"/>
       <c r="J239" s="139"/>
-      <c r="K239" s="243"/>
-      <c r="L239" s="246"/>
+      <c r="K239" s="246"/>
+      <c r="L239" s="249"/>
       <c r="M239" s="134"/>
       <c r="N239" s="67"/>
       <c r="O239" s="67"/>
@@ -10893,8 +10962,8 @@
       <c r="H240" s="140"/>
       <c r="I240" s="140"/>
       <c r="J240" s="140"/>
-      <c r="K240" s="243"/>
-      <c r="L240" s="246"/>
+      <c r="K240" s="246"/>
+      <c r="L240" s="249"/>
       <c r="M240" s="134"/>
       <c r="N240" s="67"/>
       <c r="O240" s="67"/>
@@ -10924,8 +10993,8 @@
       <c r="H241" s="65"/>
       <c r="I241" s="65"/>
       <c r="J241" s="65"/>
-      <c r="K241" s="243"/>
-      <c r="L241" s="246"/>
+      <c r="K241" s="246"/>
+      <c r="L241" s="249"/>
       <c r="M241" s="134"/>
       <c r="N241" s="67"/>
       <c r="O241" s="67"/>
@@ -11133,9 +11202,9 @@
     <row r="248" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="115"/>
       <c r="B248" s="126"/>
-      <c r="C248" s="248"/>
+      <c r="C248" s="251"/>
       <c r="D248" s="114"/>
-      <c r="E248" s="249"/>
+      <c r="E248" s="252"/>
       <c r="F248" s="76"/>
       <c r="G248" s="76"/>
       <c r="H248" s="76"/>
@@ -11164,9 +11233,9 @@
     <row r="249" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="115"/>
       <c r="B249" s="126"/>
-      <c r="C249" s="248"/>
+      <c r="C249" s="251"/>
       <c r="D249" s="114"/>
-      <c r="E249" s="249"/>
+      <c r="E249" s="252"/>
       <c r="F249" s="76"/>
       <c r="G249" s="76"/>
       <c r="H249" s="76"/>
@@ -11195,9 +11264,9 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="115"/>
       <c r="B250" s="126"/>
-      <c r="C250" s="248"/>
+      <c r="C250" s="251"/>
       <c r="D250" s="114"/>
-      <c r="E250" s="249"/>
+      <c r="E250" s="252"/>
       <c r="F250" s="76"/>
       <c r="G250" s="76"/>
       <c r="H250" s="76"/>
@@ -11226,7 +11295,7 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="115"/>
       <c r="B251" s="126"/>
-      <c r="C251" s="248"/>
+      <c r="C251" s="251"/>
       <c r="D251" s="114"/>
       <c r="E251" s="84"/>
       <c r="F251" s="76"/>
@@ -11257,7 +11326,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="115"/>
       <c r="B252" s="126"/>
-      <c r="C252" s="248"/>
+      <c r="C252" s="251"/>
       <c r="D252" s="114"/>
       <c r="E252" s="84"/>
       <c r="F252" s="76"/>
@@ -11288,7 +11357,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="115"/>
       <c r="B253" s="126"/>
-      <c r="C253" s="248"/>
+      <c r="C253" s="251"/>
       <c r="D253" s="114"/>
       <c r="E253" s="84"/>
       <c r="F253" s="137"/>
@@ -11319,7 +11388,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="115"/>
       <c r="B254" s="126"/>
-      <c r="C254" s="248"/>
+      <c r="C254" s="251"/>
       <c r="D254" s="114"/>
       <c r="E254" s="84"/>
       <c r="F254" s="76"/>
@@ -11350,7 +11419,7 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="115"/>
       <c r="B255" s="126"/>
-      <c r="C255" s="242"/>
+      <c r="C255" s="245"/>
       <c r="D255" s="124"/>
       <c r="E255" s="84"/>
       <c r="F255" s="137"/>
@@ -11381,7 +11450,7 @@
     <row r="256" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="115"/>
       <c r="B256" s="126"/>
-      <c r="C256" s="242"/>
+      <c r="C256" s="245"/>
       <c r="D256" s="145"/>
       <c r="E256" s="84"/>
       <c r="F256" s="137"/>
@@ -11443,7 +11512,7 @@
     <row r="258" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="115"/>
       <c r="B258" s="126"/>
-      <c r="C258" s="242"/>
+      <c r="C258" s="245"/>
       <c r="D258" s="124"/>
       <c r="E258" s="84"/>
       <c r="F258" s="76"/>
@@ -11474,7 +11543,7 @@
     <row r="259" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="115"/>
       <c r="B259" s="126"/>
-      <c r="C259" s="242"/>
+      <c r="C259" s="245"/>
       <c r="D259" s="125"/>
       <c r="E259" s="84"/>
       <c r="F259" s="76"/>
@@ -11505,7 +11574,7 @@
     <row r="260" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="115"/>
       <c r="B260" s="126"/>
-      <c r="C260" s="242"/>
+      <c r="C260" s="245"/>
       <c r="D260" s="125"/>
       <c r="E260" s="84"/>
       <c r="F260" s="76"/>
@@ -11536,7 +11605,7 @@
     <row r="261" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="115"/>
       <c r="B261" s="126"/>
-      <c r="C261" s="242"/>
+      <c r="C261" s="245"/>
       <c r="D261" s="125"/>
       <c r="E261" s="84"/>
       <c r="F261" s="137"/>
@@ -11567,7 +11636,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="115"/>
       <c r="B262" s="126"/>
-      <c r="C262" s="242"/>
+      <c r="C262" s="245"/>
       <c r="D262" s="125"/>
       <c r="E262" s="147"/>
       <c r="F262" s="76"/>
@@ -11947,7 +12016,7 @@
       <c r="H274" s="137"/>
       <c r="I274" s="137"/>
       <c r="J274" s="137"/>
-      <c r="K274" s="250"/>
+      <c r="K274" s="253"/>
       <c r="L274" s="74"/>
       <c r="M274" s="103"/>
       <c r="N274" s="67"/>
@@ -11978,7 +12047,7 @@
       <c r="H275" s="137"/>
       <c r="I275" s="137"/>
       <c r="J275" s="137"/>
-      <c r="K275" s="250"/>
+      <c r="K275" s="253"/>
       <c r="L275" s="74"/>
       <c r="M275" s="103"/>
       <c r="N275" s="67"/>
@@ -12063,7 +12132,7 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="115"/>
       <c r="B278" s="126"/>
-      <c r="C278" s="242"/>
+      <c r="C278" s="245"/>
       <c r="D278" s="124"/>
       <c r="E278" s="84"/>
       <c r="F278" s="137"/>
@@ -12071,7 +12140,7 @@
       <c r="H278" s="137"/>
       <c r="I278" s="137"/>
       <c r="J278" s="137"/>
-      <c r="K278" s="243"/>
+      <c r="K278" s="246"/>
       <c r="L278" s="74"/>
       <c r="M278" s="103"/>
       <c r="N278" s="67"/>
@@ -12094,7 +12163,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="115"/>
       <c r="B279" s="126"/>
-      <c r="C279" s="242"/>
+      <c r="C279" s="245"/>
       <c r="D279" s="145"/>
       <c r="E279" s="84"/>
       <c r="F279" s="137"/>
@@ -12102,7 +12171,7 @@
       <c r="H279" s="137"/>
       <c r="I279" s="137"/>
       <c r="J279" s="137"/>
-      <c r="K279" s="243"/>
+      <c r="K279" s="246"/>
       <c r="L279" s="74"/>
       <c r="M279" s="103"/>
       <c r="N279" s="67"/>
@@ -12125,7 +12194,7 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="115"/>
       <c r="B280" s="126"/>
-      <c r="C280" s="248"/>
+      <c r="C280" s="251"/>
       <c r="D280" s="138"/>
       <c r="E280" s="101"/>
       <c r="F280" s="83"/>
@@ -12156,7 +12225,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="115"/>
       <c r="B281" s="126"/>
-      <c r="C281" s="248"/>
+      <c r="C281" s="251"/>
       <c r="D281" s="99"/>
       <c r="E281" s="101"/>
       <c r="F281" s="83"/>
@@ -12218,7 +12287,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="115"/>
       <c r="B283" s="126"/>
-      <c r="C283" s="242"/>
+      <c r="C283" s="245"/>
       <c r="D283" s="124"/>
       <c r="E283" s="101"/>
       <c r="F283" s="83"/>
@@ -12249,7 +12318,7 @@
     <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="115"/>
       <c r="B284" s="126"/>
-      <c r="C284" s="242"/>
+      <c r="C284" s="245"/>
       <c r="D284" s="125"/>
       <c r="E284" s="101"/>
       <c r="F284" s="83"/>
@@ -12280,7 +12349,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="115"/>
       <c r="B285" s="126"/>
-      <c r="C285" s="242"/>
+      <c r="C285" s="245"/>
       <c r="D285" s="145"/>
       <c r="E285" s="101"/>
       <c r="F285" s="83"/>
@@ -12465,10 +12534,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="121"/>
-      <c r="B291" s="251"/>
-      <c r="C291" s="248"/>
+      <c r="B291" s="254"/>
+      <c r="C291" s="251"/>
       <c r="D291" s="114"/>
-      <c r="E291" s="248"/>
+      <c r="E291" s="251"/>
       <c r="F291" s="76"/>
       <c r="G291" s="76"/>
       <c r="H291" s="76"/>
@@ -12496,10 +12565,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="121"/>
-      <c r="B292" s="251"/>
-      <c r="C292" s="251"/>
+      <c r="B292" s="254"/>
+      <c r="C292" s="254"/>
       <c r="D292" s="114"/>
-      <c r="E292" s="248"/>
+      <c r="E292" s="251"/>
       <c r="F292" s="76"/>
       <c r="G292" s="76"/>
       <c r="H292" s="76"/>
@@ -12527,10 +12596,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="121"/>
-      <c r="B293" s="251"/>
-      <c r="C293" s="251"/>
+      <c r="B293" s="254"/>
+      <c r="C293" s="254"/>
       <c r="D293" s="114"/>
-      <c r="E293" s="248"/>
+      <c r="E293" s="251"/>
       <c r="F293" s="76"/>
       <c r="G293" s="76"/>
       <c r="H293" s="76"/>
@@ -12558,10 +12627,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="121"/>
-      <c r="B294" s="251"/>
-      <c r="C294" s="251"/>
+      <c r="B294" s="254"/>
+      <c r="C294" s="254"/>
       <c r="D294" s="114"/>
-      <c r="E294" s="248"/>
+      <c r="E294" s="251"/>
       <c r="F294" s="76"/>
       <c r="G294" s="76"/>
       <c r="H294" s="76"/>
@@ -12589,10 +12658,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="121"/>
-      <c r="B295" s="251"/>
-      <c r="C295" s="251"/>
+      <c r="B295" s="254"/>
+      <c r="C295" s="254"/>
       <c r="D295" s="114"/>
-      <c r="E295" s="248"/>
+      <c r="E295" s="251"/>
       <c r="F295" s="76"/>
       <c r="G295" s="76"/>
       <c r="H295" s="76"/>
@@ -12620,10 +12689,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="121"/>
-      <c r="B296" s="251"/>
-      <c r="C296" s="251"/>
+      <c r="B296" s="254"/>
+      <c r="C296" s="254"/>
       <c r="D296" s="114"/>
-      <c r="E296" s="248"/>
+      <c r="E296" s="251"/>
       <c r="F296" s="137"/>
       <c r="G296" s="137"/>
       <c r="H296" s="137"/>
@@ -12651,10 +12720,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="121"/>
-      <c r="B297" s="251"/>
-      <c r="C297" s="251"/>
+      <c r="B297" s="254"/>
+      <c r="C297" s="254"/>
       <c r="D297" s="114"/>
-      <c r="E297" s="248"/>
+      <c r="E297" s="251"/>
       <c r="F297" s="76"/>
       <c r="G297" s="76"/>
       <c r="H297" s="76"/>
@@ -12682,10 +12751,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="121"/>
-      <c r="B298" s="251"/>
-      <c r="C298" s="251"/>
+      <c r="B298" s="254"/>
+      <c r="C298" s="254"/>
       <c r="D298" s="114"/>
-      <c r="E298" s="248"/>
+      <c r="E298" s="251"/>
       <c r="F298" s="76"/>
       <c r="G298" s="76"/>
       <c r="H298" s="76"/>
@@ -12713,8 +12782,8 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="121"/>
-      <c r="B299" s="251"/>
-      <c r="C299" s="251"/>
+      <c r="B299" s="254"/>
+      <c r="C299" s="254"/>
       <c r="D299" s="114"/>
       <c r="E299" s="118"/>
       <c r="F299" s="73"/>
@@ -12744,8 +12813,8 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="121"/>
-      <c r="B300" s="251"/>
-      <c r="C300" s="251"/>
+      <c r="B300" s="254"/>
+      <c r="C300" s="254"/>
       <c r="D300" s="114"/>
       <c r="E300" s="118"/>
       <c r="F300" s="74"/>
@@ -12775,10 +12844,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="121"/>
-      <c r="B301" s="251"/>
-      <c r="C301" s="251"/>
+      <c r="B301" s="254"/>
+      <c r="C301" s="254"/>
       <c r="D301" s="138"/>
-      <c r="E301" s="248"/>
+      <c r="E301" s="251"/>
       <c r="F301" s="83"/>
       <c r="G301" s="83"/>
       <c r="H301" s="83"/>
@@ -12806,10 +12875,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="121"/>
-      <c r="B302" s="251"/>
-      <c r="C302" s="251"/>
+      <c r="B302" s="254"/>
+      <c r="C302" s="254"/>
       <c r="D302" s="159"/>
-      <c r="E302" s="248"/>
+      <c r="E302" s="251"/>
       <c r="F302" s="74"/>
       <c r="G302" s="74"/>
       <c r="H302" s="74"/>
@@ -12837,10 +12906,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="121"/>
-      <c r="B303" s="251"/>
-      <c r="C303" s="251"/>
+      <c r="B303" s="254"/>
+      <c r="C303" s="254"/>
       <c r="D303" s="159"/>
-      <c r="E303" s="248"/>
+      <c r="E303" s="251"/>
       <c r="F303" s="74"/>
       <c r="G303" s="74"/>
       <c r="H303" s="74"/>
@@ -12868,10 +12937,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="121"/>
-      <c r="B304" s="251"/>
-      <c r="C304" s="248"/>
+      <c r="B304" s="254"/>
+      <c r="C304" s="251"/>
       <c r="D304" s="99"/>
-      <c r="E304" s="248"/>
+      <c r="E304" s="251"/>
       <c r="F304" s="74"/>
       <c r="G304" s="74"/>
       <c r="H304" s="74"/>
@@ -12899,7 +12968,7 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="121"/>
-      <c r="B305" s="251"/>
+      <c r="B305" s="254"/>
       <c r="C305" s="114"/>
       <c r="D305" s="159"/>
       <c r="E305" s="159"/>
@@ -12930,10 +12999,10 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="121"/>
-      <c r="B306" s="251"/>
-      <c r="C306" s="248"/>
+      <c r="B306" s="254"/>
+      <c r="C306" s="251"/>
       <c r="D306" s="138"/>
-      <c r="E306" s="252"/>
+      <c r="E306" s="255"/>
       <c r="F306" s="83"/>
       <c r="G306" s="83"/>
       <c r="H306" s="83"/>
@@ -12961,10 +13030,10 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="121"/>
-      <c r="B307" s="251"/>
-      <c r="C307" s="251"/>
+      <c r="B307" s="254"/>
+      <c r="C307" s="254"/>
       <c r="D307" s="99"/>
-      <c r="E307" s="252"/>
+      <c r="E307" s="255"/>
       <c r="F307" s="83"/>
       <c r="G307" s="83"/>
       <c r="H307" s="83"/>
@@ -12992,10 +13061,10 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="121"/>
-      <c r="B308" s="251"/>
+      <c r="B308" s="254"/>
       <c r="C308" s="251"/>
       <c r="D308" s="114"/>
-      <c r="E308" s="252"/>
+      <c r="E308" s="115"/>
       <c r="F308" s="83"/>
       <c r="G308" s="83"/>
       <c r="H308" s="83"/>
@@ -13023,15 +13092,15 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="121"/>
-      <c r="B309" s="251"/>
-      <c r="C309" s="248"/>
-      <c r="D309" s="114"/>
-      <c r="E309" s="252"/>
-      <c r="F309" s="83"/>
-      <c r="G309" s="83"/>
-      <c r="H309" s="83"/>
-      <c r="I309" s="83"/>
-      <c r="J309" s="83"/>
+      <c r="B309" s="254"/>
+      <c r="C309" s="118"/>
+      <c r="D309" s="118"/>
+      <c r="E309" s="121"/>
+      <c r="F309" s="74"/>
+      <c r="G309" s="74"/>
+      <c r="H309" s="74"/>
+      <c r="I309" s="74"/>
+      <c r="J309" s="74"/>
       <c r="K309" s="83"/>
       <c r="L309" s="74"/>
       <c r="M309" s="74"/>
@@ -13054,15 +13123,15 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="121"/>
-      <c r="B310" s="251"/>
-      <c r="C310" s="118"/>
-      <c r="D310" s="118"/>
-      <c r="E310" s="121"/>
-      <c r="F310" s="74"/>
-      <c r="G310" s="74"/>
-      <c r="H310" s="74"/>
-      <c r="I310" s="74"/>
-      <c r="J310" s="74"/>
+      <c r="B310" s="254"/>
+      <c r="C310" s="251"/>
+      <c r="D310" s="138"/>
+      <c r="E310" s="251"/>
+      <c r="F310" s="83"/>
+      <c r="G310" s="83"/>
+      <c r="H310" s="83"/>
+      <c r="I310" s="83"/>
+      <c r="J310" s="83"/>
       <c r="K310" s="83"/>
       <c r="L310" s="74"/>
       <c r="M310" s="74"/>
@@ -13085,10 +13154,10 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="121"/>
-      <c r="B311" s="251"/>
-      <c r="C311" s="248"/>
-      <c r="D311" s="138"/>
-      <c r="E311" s="248"/>
+      <c r="B311" s="254"/>
+      <c r="C311" s="254"/>
+      <c r="D311" s="159"/>
+      <c r="E311" s="251"/>
       <c r="F311" s="83"/>
       <c r="G311" s="83"/>
       <c r="H311" s="83"/>
@@ -13116,10 +13185,10 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="121"/>
-      <c r="B312" s="251"/>
-      <c r="C312" s="251"/>
+      <c r="B312" s="254"/>
+      <c r="C312" s="254"/>
       <c r="D312" s="159"/>
-      <c r="E312" s="248"/>
+      <c r="E312" s="251"/>
       <c r="F312" s="83"/>
       <c r="G312" s="83"/>
       <c r="H312" s="83"/>
@@ -13147,10 +13216,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="121"/>
-      <c r="B313" s="251"/>
-      <c r="C313" s="251"/>
+      <c r="B313" s="254"/>
+      <c r="C313" s="254"/>
       <c r="D313" s="159"/>
-      <c r="E313" s="248"/>
+      <c r="E313" s="251"/>
       <c r="F313" s="83"/>
       <c r="G313" s="83"/>
       <c r="H313" s="83"/>
@@ -13178,15 +13247,15 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="121"/>
-      <c r="B314" s="251"/>
-      <c r="C314" s="251"/>
+      <c r="B314" s="254"/>
+      <c r="C314" s="254"/>
       <c r="D314" s="159"/>
-      <c r="E314" s="248"/>
-      <c r="F314" s="83"/>
-      <c r="G314" s="83"/>
-      <c r="H314" s="83"/>
-      <c r="I314" s="83"/>
-      <c r="J314" s="83"/>
+      <c r="E314" s="251"/>
+      <c r="F314" s="76"/>
+      <c r="G314" s="76"/>
+      <c r="H314" s="76"/>
+      <c r="I314" s="76"/>
+      <c r="J314" s="76"/>
       <c r="K314" s="83"/>
       <c r="L314" s="74"/>
       <c r="M314" s="74"/>
@@ -13209,10 +13278,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="121"/>
-      <c r="B315" s="251"/>
-      <c r="C315" s="251"/>
-      <c r="D315" s="159"/>
-      <c r="E315" s="248"/>
+      <c r="B315" s="254"/>
+      <c r="C315" s="254"/>
+      <c r="D315" s="99"/>
+      <c r="E315" s="251"/>
       <c r="F315" s="76"/>
       <c r="G315" s="76"/>
       <c r="H315" s="76"/>
@@ -13240,15 +13309,15 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="121"/>
-      <c r="B316" s="251"/>
-      <c r="C316" s="251"/>
-      <c r="D316" s="99"/>
-      <c r="E316" s="248"/>
-      <c r="F316" s="76"/>
-      <c r="G316" s="76"/>
-      <c r="H316" s="76"/>
-      <c r="I316" s="76"/>
-      <c r="J316" s="76"/>
+      <c r="B316" s="254"/>
+      <c r="C316" s="254"/>
+      <c r="D316" s="138"/>
+      <c r="E316" s="251"/>
+      <c r="F316" s="83"/>
+      <c r="G316" s="83"/>
+      <c r="H316" s="83"/>
+      <c r="I316" s="83"/>
+      <c r="J316" s="83"/>
       <c r="K316" s="83"/>
       <c r="L316" s="74"/>
       <c r="M316" s="74"/>
@@ -13271,15 +13340,15 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="121"/>
-      <c r="B317" s="251"/>
-      <c r="C317" s="251"/>
-      <c r="D317" s="138"/>
-      <c r="E317" s="248"/>
-      <c r="F317" s="83"/>
-      <c r="G317" s="83"/>
-      <c r="H317" s="83"/>
-      <c r="I317" s="83"/>
-      <c r="J317" s="83"/>
+      <c r="B317" s="254"/>
+      <c r="C317" s="254"/>
+      <c r="D317" s="159"/>
+      <c r="E317" s="251"/>
+      <c r="F317" s="74"/>
+      <c r="G317" s="74"/>
+      <c r="H317" s="74"/>
+      <c r="I317" s="74"/>
+      <c r="J317" s="74"/>
       <c r="K317" s="83"/>
       <c r="L317" s="74"/>
       <c r="M317" s="74"/>
@@ -13302,10 +13371,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="121"/>
-      <c r="B318" s="251"/>
-      <c r="C318" s="251"/>
+      <c r="B318" s="254"/>
+      <c r="C318" s="254"/>
       <c r="D318" s="159"/>
-      <c r="E318" s="248"/>
+      <c r="E318" s="251"/>
       <c r="F318" s="74"/>
       <c r="G318" s="74"/>
       <c r="H318" s="74"/>
@@ -13333,10 +13402,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="121"/>
-      <c r="B319" s="251"/>
-      <c r="C319" s="251"/>
-      <c r="D319" s="159"/>
-      <c r="E319" s="248"/>
+      <c r="B319" s="254"/>
+      <c r="C319" s="254"/>
+      <c r="D319" s="99"/>
+      <c r="E319" s="251"/>
       <c r="F319" s="74"/>
       <c r="G319" s="74"/>
       <c r="H319" s="74"/>
@@ -13364,10 +13433,10 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="121"/>
-      <c r="B320" s="251"/>
-      <c r="C320" s="251"/>
-      <c r="D320" s="99"/>
-      <c r="E320" s="248"/>
+      <c r="B320" s="121"/>
+      <c r="C320" s="121"/>
+      <c r="D320" s="121"/>
+      <c r="E320" s="121"/>
       <c r="F320" s="74"/>
       <c r="G320" s="74"/>
       <c r="H320" s="74"/>
@@ -13456,10 +13525,10 @@
       <c r="AC322" s="121"/>
     </row>
     <row r="323" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="121"/>
-      <c r="B323" s="121"/>
-      <c r="C323" s="121"/>
-      <c r="D323" s="121"/>
+      <c r="A323" s="115"/>
+      <c r="B323" s="118"/>
+      <c r="C323" s="101"/>
+      <c r="D323" s="101"/>
       <c r="E323" s="121"/>
       <c r="F323" s="74"/>
       <c r="G323" s="74"/>
@@ -13468,23 +13537,23 @@
       <c r="J323" s="74"/>
       <c r="K323" s="83"/>
       <c r="L323" s="74"/>
-      <c r="M323" s="74"/>
-      <c r="N323" s="74"/>
-      <c r="O323" s="74"/>
-      <c r="P323" s="74"/>
-      <c r="Q323" s="74"/>
-      <c r="R323" s="74"/>
-      <c r="S323" s="74"/>
-      <c r="T323" s="74"/>
-      <c r="U323" s="121"/>
-      <c r="V323" s="121"/>
-      <c r="W323" s="121"/>
-      <c r="X323" s="121"/>
-      <c r="Y323" s="121"/>
-      <c r="Z323" s="121"/>
-      <c r="AA323" s="121"/>
-      <c r="AB323" s="121"/>
-      <c r="AC323" s="121"/>
+      <c r="M323" s="103"/>
+      <c r="N323" s="67"/>
+      <c r="O323" s="67"/>
+      <c r="P323" s="67"/>
+      <c r="Q323" s="67"/>
+      <c r="R323" s="67"/>
+      <c r="S323" s="67"/>
+      <c r="T323" s="67"/>
+      <c r="U323" s="4"/>
+      <c r="V323" s="4"/>
+      <c r="W323" s="4"/>
+      <c r="X323" s="4"/>
+      <c r="Y323" s="4"/>
+      <c r="Z323" s="4"/>
+      <c r="AA323" s="4"/>
+      <c r="AB323" s="4"/>
+      <c r="AC323" s="4"/>
     </row>
     <row r="324" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="115"/>
@@ -13582,8 +13651,8 @@
     <row r="327" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="115"/>
       <c r="B327" s="118"/>
-      <c r="C327" s="101"/>
-      <c r="D327" s="101"/>
+      <c r="C327" s="118"/>
+      <c r="D327" s="118"/>
       <c r="E327" s="121"/>
       <c r="F327" s="74"/>
       <c r="G327" s="74"/>
@@ -13735,18 +13804,18 @@
       <c r="AC331" s="4"/>
     </row>
     <row r="332" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="115"/>
-      <c r="B332" s="118"/>
-      <c r="C332" s="118"/>
-      <c r="D332" s="118"/>
-      <c r="E332" s="121"/>
-      <c r="F332" s="74"/>
-      <c r="G332" s="74"/>
-      <c r="H332" s="74"/>
-      <c r="I332" s="74"/>
-      <c r="J332" s="74"/>
-      <c r="K332" s="83"/>
-      <c r="L332" s="74"/>
+      <c r="A332" s="160"/>
+      <c r="B332" s="161"/>
+      <c r="C332" s="161"/>
+      <c r="D332" s="161"/>
+      <c r="E332" s="162"/>
+      <c r="F332" s="163"/>
+      <c r="G332" s="163"/>
+      <c r="H332" s="163"/>
+      <c r="I332" s="163"/>
+      <c r="J332" s="163"/>
+      <c r="K332" s="163"/>
+      <c r="L332" s="103"/>
       <c r="M332" s="103"/>
       <c r="N332" s="67"/>
       <c r="O332" s="67"/>
@@ -13863,12 +13932,12 @@
       <c r="B336" s="161"/>
       <c r="C336" s="161"/>
       <c r="D336" s="161"/>
-      <c r="E336" s="162"/>
-      <c r="F336" s="163"/>
-      <c r="G336" s="163"/>
-      <c r="H336" s="163"/>
-      <c r="I336" s="163"/>
-      <c r="J336" s="163"/>
+      <c r="E336" s="161"/>
+      <c r="F336" s="103"/>
+      <c r="G336" s="103"/>
+      <c r="H336" s="103"/>
+      <c r="I336" s="103"/>
+      <c r="J336" s="103"/>
       <c r="K336" s="163"/>
       <c r="L336" s="103"/>
       <c r="M336" s="103"/>
@@ -13952,35 +14021,35 @@
       <c r="AC338" s="4"/>
     </row>
     <row r="339" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="160"/>
-      <c r="B339" s="161"/>
-      <c r="C339" s="161"/>
-      <c r="D339" s="161"/>
-      <c r="E339" s="161"/>
+      <c r="A339" s="164"/>
+      <c r="B339" s="164"/>
+      <c r="C339" s="164"/>
+      <c r="D339" s="164"/>
+      <c r="E339" s="164"/>
       <c r="F339" s="103"/>
       <c r="G339" s="103"/>
       <c r="H339" s="103"/>
       <c r="I339" s="103"/>
       <c r="J339" s="103"/>
-      <c r="K339" s="163"/>
+      <c r="K339" s="103"/>
       <c r="L339" s="103"/>
       <c r="M339" s="103"/>
-      <c r="N339" s="67"/>
-      <c r="O339" s="67"/>
-      <c r="P339" s="67"/>
-      <c r="Q339" s="67"/>
-      <c r="R339" s="67"/>
-      <c r="S339" s="67"/>
-      <c r="T339" s="67"/>
-      <c r="U339" s="4"/>
-      <c r="V339" s="4"/>
-      <c r="W339" s="4"/>
-      <c r="X339" s="4"/>
-      <c r="Y339" s="4"/>
-      <c r="Z339" s="4"/>
-      <c r="AA339" s="4"/>
-      <c r="AB339" s="4"/>
-      <c r="AC339" s="4"/>
+      <c r="N339" s="103"/>
+      <c r="O339" s="103"/>
+      <c r="P339" s="103"/>
+      <c r="Q339" s="103"/>
+      <c r="R339" s="103"/>
+      <c r="S339" s="103"/>
+      <c r="T339" s="103"/>
+      <c r="U339" s="164"/>
+      <c r="V339" s="164"/>
+      <c r="W339" s="164"/>
+      <c r="X339" s="164"/>
+      <c r="Y339" s="164"/>
+      <c r="Z339" s="164"/>
+      <c r="AA339" s="164"/>
+      <c r="AB339" s="164"/>
+      <c r="AC339" s="164"/>
     </row>
     <row r="340" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="164"/>
@@ -15228,21 +15297,21 @@
       <c r="C380" s="164"/>
       <c r="D380" s="164"/>
       <c r="E380" s="164"/>
-      <c r="F380" s="103"/>
-      <c r="G380" s="103"/>
-      <c r="H380" s="103"/>
-      <c r="I380" s="103"/>
-      <c r="J380" s="103"/>
-      <c r="K380" s="103"/>
-      <c r="L380" s="103"/>
-      <c r="M380" s="103"/>
-      <c r="N380" s="103"/>
-      <c r="O380" s="103"/>
-      <c r="P380" s="103"/>
-      <c r="Q380" s="103"/>
-      <c r="R380" s="103"/>
-      <c r="S380" s="103"/>
-      <c r="T380" s="103"/>
+      <c r="F380" s="164"/>
+      <c r="G380" s="164"/>
+      <c r="H380" s="164"/>
+      <c r="I380" s="164"/>
+      <c r="J380" s="164"/>
+      <c r="K380" s="164"/>
+      <c r="L380" s="164"/>
+      <c r="M380" s="164"/>
+      <c r="N380" s="164"/>
+      <c r="O380" s="164"/>
+      <c r="P380" s="164"/>
+      <c r="Q380" s="164"/>
+      <c r="R380" s="164"/>
+      <c r="S380" s="164"/>
+      <c r="T380" s="164"/>
       <c r="U380" s="164"/>
       <c r="V380" s="164"/>
       <c r="W380" s="164"/>
@@ -15470,51 +15539,19 @@
       <c r="AB387" s="164"/>
       <c r="AC387" s="164"/>
     </row>
-    <row r="388" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="164"/>
-      <c r="B388" s="164"/>
-      <c r="C388" s="164"/>
-      <c r="D388" s="164"/>
-      <c r="E388" s="164"/>
-      <c r="F388" s="164"/>
-      <c r="G388" s="164"/>
-      <c r="H388" s="164"/>
-      <c r="I388" s="164"/>
-      <c r="J388" s="164"/>
-      <c r="K388" s="164"/>
-      <c r="L388" s="164"/>
-      <c r="M388" s="164"/>
-      <c r="N388" s="164"/>
-      <c r="O388" s="164"/>
-      <c r="P388" s="164"/>
-      <c r="Q388" s="164"/>
-      <c r="R388" s="164"/>
-      <c r="S388" s="164"/>
-      <c r="T388" s="164"/>
-      <c r="U388" s="164"/>
-      <c r="V388" s="164"/>
-      <c r="W388" s="164"/>
-      <c r="X388" s="164"/>
-      <c r="Y388" s="164"/>
-      <c r="Z388" s="164"/>
-      <c r="AA388" s="164"/>
-      <c r="AB388" s="164"/>
-      <c r="AC388" s="164"/>
-    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="E311:E316"/>
-    <mergeCell ref="E317:E320"/>
+  <mergeCells count="47">
+    <mergeCell ref="E310:E315"/>
+    <mergeCell ref="E316:E319"/>
     <mergeCell ref="C280:C281"/>
     <mergeCell ref="C283:C285"/>
-    <mergeCell ref="B291:B320"/>
+    <mergeCell ref="B291:B319"/>
     <mergeCell ref="C291:C304"/>
     <mergeCell ref="E291:E298"/>
     <mergeCell ref="E301:E304"/>
-    <mergeCell ref="C306:C309"/>
+    <mergeCell ref="C306:C308"/>
     <mergeCell ref="E306:E307"/>
-    <mergeCell ref="E308:E309"/>
-    <mergeCell ref="C311:C320"/>
+    <mergeCell ref="C310:C319"/>
     <mergeCell ref="C278:C279"/>
     <mergeCell ref="K278:K279"/>
     <mergeCell ref="D143:D144"/>
@@ -15547,12 +15584,12 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="L8 L10:L48 L50:L95">
+  <conditionalFormatting sqref="L8 L10:L48 L50:L95 L131:L387">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -15566,7 +15603,7 @@
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L97:L107 L109:L112 L114:L118 L120:L121 L123:L129 L131:L388 K222:K227 K229:K230 K267 K281:K290">
+  <conditionalFormatting sqref="L97:L107 L109:L112 L114:L118 L120:L121 L123:L129 K222:K227 K229:K230 K267 K281:K290">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -15581,7 +15618,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="L8 L10:L48 L97:L107 L109:L112 L114:L118 L120:L121 L123:L129 K222:K227 K229:K230 L131:L235 L238:L239 L242 L245:L256 K267 L258:L270 L273:L274 L276 K281:K290 L278:L320 L333:L336 L356:L388 L50:L95" xr:uid="{0B9E4292-F911-4EDA-ADF8-F97B5473E471}">
+    <dataValidation type="list" allowBlank="1" sqref="L8 L10:L48 L97:L107 L109:L112 L114:L118 L120:L121 L123:L129 K222:K227 K229:K230 L131:L235 L238:L239 L242 L245:L256 K267 L258:L270 L273:L274 L276 K281:K290 L332:L335 L355:L387 L50:L95 L278:L319" xr:uid="{0B9E4292-F911-4EDA-ADF8-F97B5473E471}">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Daraz sign up and login test cases.xlsx
+++ b/Daraz sign up and login test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E1EDB-8159-4E69-A742-36F0303B2026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168EB53-1BFE-4DB0-984D-C942BA51DADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="232">
   <si>
     <t>PASS</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>df sfsf</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. phone number field</t>
   </si>
   <si>
     <t>As per the requirement</t>
@@ -673,20 +670,8 @@
 3. Check for gender option</t>
   </si>
   <si>
-    <t>Functionality Testing+22:39</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button
-3. click sign up button</t>
-  </si>
-  <si>
     <t>1. Go to url: www.daraz.com.bd.
 2. Click Sign Up button
-3. phone number field</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd
- 2. Click Sign Up button
 3. phone number field</t>
   </si>
   <si>
@@ -805,6 +790,23 @@
     <t>1. Go to url: www.daraz.com.bd.
 2. Click LOGIN button
 3. Click google to login</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. click sign up button</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd
+2. Click Sign Up button
+3. phone number field</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
   </si>
 </sst>
 </file>
@@ -2083,20 +2085,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2135,38 +2155,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2610,9 +2612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
   <dimension ref="A1:AC387"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2634,10 +2636,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="253"/>
       <c r="C1" s="168" t="s">
         <v>49</v>
       </c>
@@ -2652,10 +2654,10 @@
       </c>
       <c r="G1" s="172"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="230" t="s">
+      <c r="I1" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="231"/>
+      <c r="J1" s="255"/>
       <c r="K1" s="3"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -2675,12 +2677,12 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="229"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="173" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="174" t="s">
         <v>10</v>
@@ -2717,10 +2719,10 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="229"/>
+      <c r="B3" s="253"/>
       <c r="C3" s="173"/>
       <c r="D3" s="174" t="s">
         <v>13</v>
@@ -2759,10 +2761,10 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="229"/>
+      <c r="B4" s="253"/>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
         <v>16</v>
@@ -2799,15 +2801,15 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="2"/>
       <c r="I5" s="217" t="s">
         <v>3</v>
@@ -2991,13 +2993,15 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="C10" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="233"/>
+      <c r="D10" s="239" t="s">
+        <v>231</v>
+      </c>
       <c r="E10" s="9" t="s">
         <v>52</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -3040,9 +3044,9 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="233"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="233"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="9" t="s">
         <v>56</v>
       </c>
@@ -3085,9 +3089,9 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="233"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="239"/>
       <c r="E12" s="9" t="s">
         <v>65</v>
       </c>
@@ -3130,9 +3134,9 @@
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="233"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="233"/>
+      <c r="B13" s="239"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="239"/>
       <c r="E13" s="9" t="s">
         <v>58</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J13" s="166" t="s">
         <v>63</v>
@@ -3177,14 +3181,14 @@
       <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="233"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="233"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="239"/>
       <c r="E14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>42</v>
@@ -3193,10 +3197,10 @@
         <v>40</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J14" s="166" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="20" t="s">
@@ -3224,9 +3228,9 @@
       <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="233"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="233"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="239"/>
       <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J15" s="166" t="s">
         <v>64</v>
@@ -3271,9 +3275,9 @@
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="233"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="233"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="239"/>
       <c r="E16" s="9" t="s">
         <v>75</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>40</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J16" s="166" t="s">
         <v>77</v>
@@ -3318,9 +3322,9 @@
       <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="233"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="233"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="239"/>
       <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J17" s="166" t="s">
         <v>68</v>
@@ -3365,9 +3369,9 @@
       <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="233"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="233"/>
+      <c r="B18" s="239"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="9" t="s">
         <v>69</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -3410,9 +3414,9 @@
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="233"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="233"/>
+      <c r="B19" s="239"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="239"/>
       <c r="E19" s="9" t="s">
         <v>71</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>40</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -3455,9 +3459,9 @@
       <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="9" t="s">
         <v>72</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -3498,9 +3502,9 @@
     </row>
     <row r="21" spans="1:29" s="194" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
-      <c r="B21" s="233"/>
+      <c r="B21" s="239"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="233"/>
+      <c r="D21" s="239"/>
       <c r="E21" s="188"/>
       <c r="F21" s="188"/>
       <c r="G21" s="188"/>
@@ -3531,16 +3535,16 @@
       <c r="A22" s="27">
         <v>13</v>
       </c>
-      <c r="B22" s="233"/>
-      <c r="C22" s="233" t="s">
+      <c r="B22" s="239"/>
+      <c r="C22" s="239" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="233"/>
+      <c r="D22" s="239"/>
       <c r="E22" s="28" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>36</v>
@@ -3549,10 +3553,10 @@
         <v>40</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="12" t="s">
@@ -3580,9 +3584,9 @@
       <c r="A23" s="27">
         <v>14</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
       <c r="E23" s="28" t="s">
         <v>79</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>81</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="31"/>
@@ -3625,14 +3629,14 @@
       <c r="A24" s="27">
         <v>15</v>
       </c>
-      <c r="B24" s="233"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="233"/>
+      <c r="B24" s="239"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="239"/>
       <c r="E24" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>42</v>
@@ -3641,10 +3645,10 @@
         <v>17</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="J24" s="166" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="12" t="s">
@@ -3672,14 +3676,14 @@
       <c r="A25" s="27">
         <v>16</v>
       </c>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
+      <c r="B25" s="239"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
       <c r="E25" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>42</v>
@@ -3688,10 +3692,10 @@
         <v>1784813242456</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="J25" s="167" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="12" t="s">
@@ -3719,14 +3723,14 @@
       <c r="A26" s="27">
         <v>17</v>
       </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="239"/>
       <c r="E26" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>42</v>
@@ -3735,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J26" s="167" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" s="38"/>
       <c r="L26" s="12" t="s">
@@ -3766,26 +3770,26 @@
       <c r="A27" s="27">
         <v>18</v>
       </c>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
       <c r="E27" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="H27" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="I27" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" s="226" t="s">
         <v>89</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27" s="226" t="s">
-        <v>90</v>
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="12" t="s">
@@ -3813,14 +3817,14 @@
       <c r="A28" s="27">
         <v>19</v>
       </c>
-      <c r="B28" s="233"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
       <c r="E28" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>36</v>
@@ -3829,7 +3833,7 @@
         <v>555555</v>
       </c>
       <c r="I28" s="224" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K28" s="225"/>
       <c r="L28" s="12" t="s">
@@ -3857,14 +3861,14 @@
       <c r="A29" s="27">
         <v>20</v>
       </c>
-      <c r="B29" s="233"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
       <c r="E29" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>36</v>
@@ -3873,7 +3877,7 @@
         <v>66666666</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J29"/>
       <c r="K29" s="31"/>
@@ -3902,23 +3906,23 @@
       <c r="A30" s="27">
         <v>21</v>
       </c>
-      <c r="B30" s="233"/>
-      <c r="C30" s="233"/>
-      <c r="D30" s="233"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
       <c r="E30" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="31"/>
@@ -3947,23 +3951,23 @@
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="233"/>
-      <c r="C31" s="233"/>
-      <c r="D31" s="233"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
       <c r="E31" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="31"/>
@@ -3992,23 +3996,23 @@
       <c r="A32" s="27">
         <v>23</v>
       </c>
-      <c r="B32" s="233"/>
-      <c r="C32" s="233"/>
-      <c r="D32" s="233"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="239"/>
       <c r="E32" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="31"/>
@@ -4037,23 +4041,23 @@
       <c r="A33" s="27">
         <v>24</v>
       </c>
-      <c r="B33" s="233"/>
-      <c r="C33" s="233"/>
-      <c r="D33" s="233"/>
+      <c r="B33" s="239"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="239"/>
       <c r="E33" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="31"/>
@@ -4082,14 +4086,14 @@
       <c r="A34" s="27">
         <v>25</v>
       </c>
-      <c r="B34" s="233"/>
-      <c r="C34" s="233"/>
-      <c r="D34" s="233"/>
+      <c r="B34" s="239"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="239"/>
       <c r="E34" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>36</v>
@@ -4098,7 +4102,7 @@
         <v>222222</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="31"/>
@@ -4127,23 +4131,23 @@
       <c r="A35" s="27">
         <v>26</v>
       </c>
-      <c r="B35" s="233"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="233"/>
+      <c r="B35" s="239"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="239"/>
       <c r="E35" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="221" t="s">
         <v>113</v>
-      </c>
-      <c r="F35" s="221" t="s">
-        <v>114</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="165" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
@@ -4172,23 +4176,23 @@
       <c r="A36" s="27">
         <v>27</v>
       </c>
-      <c r="B36" s="233"/>
-      <c r="C36" s="233"/>
-      <c r="D36" s="233"/>
+      <c r="B36" s="239"/>
+      <c r="C36" s="239"/>
+      <c r="D36" s="239"/>
       <c r="E36" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="31"/>
@@ -4217,14 +4221,14 @@
       <c r="A37" s="27">
         <v>28</v>
       </c>
-      <c r="B37" s="233"/>
-      <c r="C37" s="233"/>
-      <c r="D37" s="233"/>
+      <c r="B37" s="239"/>
+      <c r="C37" s="239"/>
+      <c r="D37" s="239"/>
       <c r="E37" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>42</v>
@@ -4233,10 +4237,10 @@
         <v>123</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J37" s="166" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="12" t="s">
@@ -4264,23 +4268,23 @@
       <c r="A38" s="27">
         <v>29</v>
       </c>
-      <c r="B38" s="233"/>
-      <c r="C38" s="233"/>
-      <c r="D38" s="233"/>
+      <c r="B38" s="239"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="239"/>
       <c r="E38" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -4309,26 +4313,26 @@
       <c r="A39" s="27">
         <v>30</v>
       </c>
-      <c r="B39" s="233"/>
-      <c r="C39" s="233"/>
-      <c r="D39" s="233"/>
+      <c r="B39" s="239"/>
+      <c r="C39" s="239"/>
+      <c r="D39" s="239"/>
       <c r="E39" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H39" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J39" s="166" t="s">
         <v>126</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="J39" s="166" t="s">
-        <v>127</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="12" t="s">
@@ -4356,23 +4360,23 @@
       <c r="A40" s="27">
         <v>31</v>
       </c>
-      <c r="B40" s="233"/>
-      <c r="C40" s="233"/>
-      <c r="D40" s="233"/>
+      <c r="B40" s="239"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="239"/>
       <c r="E40" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -4401,23 +4405,23 @@
       <c r="A41" s="27">
         <v>32</v>
       </c>
-      <c r="B41" s="233"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="233"/>
+      <c r="B41" s="239"/>
+      <c r="C41" s="239"/>
+      <c r="D41" s="239"/>
       <c r="E41" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
@@ -4446,14 +4450,14 @@
       <c r="A42" s="27">
         <v>33</v>
       </c>
-      <c r="B42" s="233"/>
-      <c r="C42" s="233"/>
-      <c r="D42" s="233"/>
+      <c r="B42" s="239"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="239"/>
       <c r="E42" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>36</v>
@@ -4462,7 +4466,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -4491,14 +4495,14 @@
       <c r="A43" s="27">
         <v>34</v>
       </c>
-      <c r="B43" s="233"/>
-      <c r="C43" s="233"/>
-      <c r="D43" s="233"/>
+      <c r="B43" s="239"/>
+      <c r="C43" s="239"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>36</v>
@@ -4507,7 +4511,7 @@
         <v>40</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -4536,14 +4540,14 @@
       <c r="A44" s="27">
         <v>35</v>
       </c>
-      <c r="B44" s="233"/>
-      <c r="C44" s="233"/>
-      <c r="D44" s="233"/>
+      <c r="B44" s="239"/>
+      <c r="C44" s="239"/>
+      <c r="D44" s="239"/>
       <c r="E44" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>36</v>
@@ -4552,7 +4556,7 @@
         <v>40</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -4579,9 +4583,9 @@
     </row>
     <row r="45" spans="1:29" s="199" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="195"/>
-      <c r="B45" s="233"/>
+      <c r="B45" s="239"/>
       <c r="C45" s="196"/>
-      <c r="D45" s="233"/>
+      <c r="D45" s="239"/>
       <c r="E45" s="197"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188"/>
@@ -4612,25 +4616,25 @@
       <c r="A46" s="27">
         <v>36</v>
       </c>
-      <c r="B46" s="233"/>
-      <c r="C46" s="233" t="s">
+      <c r="B46" s="239"/>
+      <c r="C46" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="233"/>
+      <c r="D46" s="239"/>
       <c r="E46" s="36" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="H46" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>140</v>
-      </c>
       <c r="I46" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -4659,23 +4663,23 @@
       <c r="A47" s="27">
         <v>37</v>
       </c>
-      <c r="B47" s="233"/>
-      <c r="C47" s="233"/>
-      <c r="D47" s="233"/>
+      <c r="B47" s="239"/>
+      <c r="C47" s="239"/>
+      <c r="D47" s="239"/>
       <c r="E47" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="G47" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>143</v>
-      </c>
       <c r="I47" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -4704,26 +4708,26 @@
       <c r="A48" s="27">
         <v>38</v>
       </c>
-      <c r="B48" s="233"/>
-      <c r="C48" s="233"/>
-      <c r="D48" s="233"/>
+      <c r="B48" s="239"/>
+      <c r="C48" s="239"/>
+      <c r="D48" s="239"/>
       <c r="E48" s="43" t="s">
         <v>45</v>
       </c>
       <c r="F48" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="H48" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="I48" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J48" s="166" t="s">
         <v>146</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="J48" s="166" t="s">
-        <v>147</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="12" t="s">
@@ -4749,7 +4753,7 @@
     </row>
     <row r="49" spans="1:29" s="208" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="200"/>
-      <c r="B49" s="233"/>
+      <c r="B49" s="239"/>
       <c r="C49" s="201"/>
       <c r="D49" s="202"/>
       <c r="E49" s="203"/>
@@ -4782,12 +4786,12 @@
       <c r="A50" s="27">
         <v>39</v>
       </c>
-      <c r="B50" s="233"/>
-      <c r="C50" s="235" t="s">
+      <c r="B50" s="239"/>
+      <c r="C50" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="235" t="s">
-        <v>148</v>
+      <c r="D50" s="241" t="s">
+        <v>147</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>47</v>
@@ -4802,7 +4806,7 @@
         <v>40</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -4831,23 +4835,23 @@
       <c r="A51" s="27">
         <v>40</v>
       </c>
-      <c r="B51" s="233"/>
-      <c r="C51" s="236"/>
-      <c r="D51" s="236"/>
+      <c r="B51" s="239"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="242"/>
       <c r="E51" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>150</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H51" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="31"/>
@@ -4876,14 +4880,14 @@
       <c r="A52" s="27">
         <v>41</v>
       </c>
-      <c r="B52" s="233"/>
-      <c r="C52" s="236"/>
-      <c r="D52" s="236"/>
+      <c r="B52" s="239"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="242"/>
       <c r="E52" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>42</v>
@@ -4892,10 +4896,10 @@
         <v>1.23451234567897E+77</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="12" t="s">
@@ -4914,26 +4918,26 @@
       <c r="A53" s="27">
         <v>42</v>
       </c>
-      <c r="B53" s="233"/>
-      <c r="C53" s="236"/>
-      <c r="D53" s="236"/>
+      <c r="B53" s="239"/>
+      <c r="C53" s="242"/>
+      <c r="D53" s="242"/>
       <c r="E53" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H53" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J53" s="166" t="s">
         <v>156</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J53" s="166" t="s">
-        <v>157</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="12" t="s">
@@ -4961,26 +4965,26 @@
       <c r="A54" s="27">
         <v>43</v>
       </c>
-      <c r="B54" s="233"/>
-      <c r="C54" s="236"/>
-      <c r="D54" s="236"/>
+      <c r="B54" s="239"/>
+      <c r="C54" s="242"/>
+      <c r="D54" s="242"/>
       <c r="E54" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="29" t="s">
         <v>158</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>159</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J54" s="166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="12" t="s">
@@ -5008,23 +5012,23 @@
       <c r="A55" s="27">
         <v>44</v>
       </c>
-      <c r="B55" s="233"/>
-      <c r="C55" s="236"/>
-      <c r="D55" s="236"/>
+      <c r="B55" s="239"/>
+      <c r="C55" s="242"/>
+      <c r="D55" s="242"/>
       <c r="E55" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="29" t="s">
         <v>162</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>163</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
@@ -5053,23 +5057,23 @@
       <c r="A56" s="27">
         <v>45</v>
       </c>
-      <c r="B56" s="233"/>
-      <c r="C56" s="236"/>
-      <c r="D56" s="236"/>
+      <c r="B56" s="239"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="242"/>
       <c r="E56" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="29" t="s">
         <v>165</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -5098,23 +5102,23 @@
       <c r="A57" s="27">
         <v>46</v>
       </c>
-      <c r="B57" s="233"/>
-      <c r="C57" s="236"/>
-      <c r="D57" s="236"/>
+      <c r="B57" s="239"/>
+      <c r="C57" s="242"/>
+      <c r="D57" s="242"/>
       <c r="E57" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="29" t="s">
         <v>167</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>168</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="222"/>
@@ -5143,21 +5147,21 @@
       <c r="A58" s="27">
         <v>47</v>
       </c>
-      <c r="B58" s="233"/>
-      <c r="C58" s="236"/>
-      <c r="D58" s="236"/>
+      <c r="B58" s="239"/>
+      <c r="C58" s="242"/>
+      <c r="D58" s="242"/>
       <c r="E58" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="29" t="s">
         <v>170</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>171</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H58" s="165"/>
       <c r="I58" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -5186,14 +5190,14 @@
       <c r="A59" s="27">
         <v>48</v>
       </c>
-      <c r="B59" s="233"/>
-      <c r="C59" s="236"/>
-      <c r="D59" s="236"/>
+      <c r="B59" s="239"/>
+      <c r="C59" s="242"/>
+      <c r="D59" s="242"/>
       <c r="E59" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="29" t="s">
         <v>172</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>173</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>36</v>
@@ -5202,7 +5206,7 @@
         <v>40</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -5231,14 +5235,14 @@
       <c r="A60" s="27">
         <v>49</v>
       </c>
-      <c r="B60" s="233"/>
-      <c r="C60" s="236"/>
-      <c r="D60" s="236"/>
+      <c r="B60" s="239"/>
+      <c r="C60" s="242"/>
+      <c r="D60" s="242"/>
       <c r="E60" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>36</v>
@@ -5247,7 +5251,7 @@
         <v>40</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -5276,14 +5280,14 @@
       <c r="A61" s="27">
         <v>50</v>
       </c>
-      <c r="B61" s="233"/>
-      <c r="C61" s="236"/>
-      <c r="D61" s="236"/>
+      <c r="B61" s="239"/>
+      <c r="C61" s="242"/>
+      <c r="D61" s="242"/>
       <c r="E61" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>36</v>
@@ -5292,7 +5296,7 @@
         <v>40</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -5321,14 +5325,14 @@
       <c r="A62" s="27">
         <v>51</v>
       </c>
-      <c r="B62" s="233"/>
-      <c r="C62" s="236"/>
-      <c r="D62" s="236"/>
+      <c r="B62" s="239"/>
+      <c r="C62" s="242"/>
+      <c r="D62" s="242"/>
       <c r="E62" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F62" s="29" t="s">
         <v>180</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>181</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>36</v>
@@ -5337,7 +5341,7 @@
         <v>40</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
@@ -5366,14 +5370,14 @@
       <c r="A63" s="27">
         <v>52</v>
       </c>
-      <c r="B63" s="233"/>
-      <c r="C63" s="236"/>
-      <c r="D63" s="236"/>
+      <c r="B63" s="239"/>
+      <c r="C63" s="242"/>
+      <c r="D63" s="242"/>
       <c r="E63" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="29" t="s">
         <v>182</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>183</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>36</v>
@@ -5382,7 +5386,7 @@
         <v>40</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
@@ -5411,14 +5415,14 @@
       <c r="A64" s="27">
         <v>53</v>
       </c>
-      <c r="B64" s="233"/>
-      <c r="C64" s="236"/>
-      <c r="D64" s="236"/>
+      <c r="B64" s="239"/>
+      <c r="C64" s="242"/>
+      <c r="D64" s="242"/>
       <c r="E64" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>185</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>42</v>
@@ -5427,10 +5431,10 @@
         <v>40</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J64" s="166" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="12" t="s">
@@ -5458,14 +5462,14 @@
       <c r="A65" s="27">
         <v>54</v>
       </c>
-      <c r="B65" s="233"/>
-      <c r="C65" s="236"/>
-      <c r="D65" s="236"/>
+      <c r="B65" s="239"/>
+      <c r="C65" s="242"/>
+      <c r="D65" s="242"/>
       <c r="E65" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>188</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>36</v>
@@ -5474,7 +5478,7 @@
         <v>40</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
@@ -5503,14 +5507,14 @@
       <c r="A66" s="27">
         <v>55</v>
       </c>
-      <c r="B66" s="233"/>
-      <c r="C66" s="236"/>
-      <c r="D66" s="236"/>
+      <c r="B66" s="239"/>
+      <c r="C66" s="242"/>
+      <c r="D66" s="242"/>
       <c r="E66" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>36</v>
@@ -5519,7 +5523,7 @@
         <v>40</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -5548,14 +5552,14 @@
       <c r="A67" s="27">
         <v>56</v>
       </c>
-      <c r="B67" s="233"/>
-      <c r="C67" s="236"/>
-      <c r="D67" s="236"/>
+      <c r="B67" s="239"/>
+      <c r="C67" s="242"/>
+      <c r="D67" s="242"/>
       <c r="E67" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>42</v>
@@ -5564,10 +5568,10 @@
         <v>40</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J67" s="166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K67" s="29"/>
       <c r="L67" s="12" t="s">
@@ -5595,14 +5599,14 @@
       <c r="A68" s="27">
         <v>57</v>
       </c>
-      <c r="B68" s="233"/>
-      <c r="C68" s="236"/>
-      <c r="D68" s="236"/>
+      <c r="B68" s="239"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="242"/>
       <c r="E68" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="29" t="s">
         <v>194</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>195</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>36</v>
@@ -5611,7 +5615,7 @@
         <v>40</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
@@ -5640,14 +5644,14 @@
       <c r="A69" s="27">
         <v>58</v>
       </c>
-      <c r="B69" s="233"/>
-      <c r="C69" s="236"/>
-      <c r="D69" s="236"/>
+      <c r="B69" s="239"/>
+      <c r="C69" s="242"/>
+      <c r="D69" s="242"/>
       <c r="E69" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>36</v>
@@ -5656,7 +5660,7 @@
         <v>40</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
@@ -5683,9 +5687,9 @@
     </row>
     <row r="70" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
-      <c r="B70" s="233"/>
-      <c r="C70" s="236"/>
-      <c r="D70" s="236"/>
+      <c r="B70" s="239"/>
+      <c r="C70" s="242"/>
+      <c r="D70" s="242"/>
       <c r="E70" s="36"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
@@ -5714,9 +5718,9 @@
     </row>
     <row r="71" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27"/>
-      <c r="B71" s="233"/>
-      <c r="C71" s="236"/>
-      <c r="D71" s="236"/>
+      <c r="B71" s="239"/>
+      <c r="C71" s="242"/>
+      <c r="D71" s="242"/>
       <c r="E71" s="36"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -5745,9 +5749,9 @@
     </row>
     <row r="72" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
-      <c r="B72" s="233"/>
-      <c r="C72" s="236"/>
-      <c r="D72" s="236"/>
+      <c r="B72" s="239"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="242"/>
       <c r="E72" s="36"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -5776,9 +5780,9 @@
     </row>
     <row r="73" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
-      <c r="B73" s="233"/>
-      <c r="C73" s="236"/>
-      <c r="D73" s="236"/>
+      <c r="B73" s="239"/>
+      <c r="C73" s="242"/>
+      <c r="D73" s="242"/>
       <c r="E73" s="36"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -5807,9 +5811,9 @@
     </row>
     <row r="74" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
-      <c r="B74" s="233"/>
-      <c r="C74" s="236"/>
-      <c r="D74" s="236"/>
+      <c r="B74" s="239"/>
+      <c r="C74" s="242"/>
+      <c r="D74" s="242"/>
       <c r="E74" s="36"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -5838,9 +5842,9 @@
     </row>
     <row r="75" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
-      <c r="B75" s="233"/>
-      <c r="C75" s="237"/>
-      <c r="D75" s="237"/>
+      <c r="B75" s="239"/>
+      <c r="C75" s="243"/>
+      <c r="D75" s="243"/>
       <c r="E75" s="36"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
@@ -5869,7 +5873,7 @@
     </row>
     <row r="76" spans="1:29" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
-      <c r="B76" s="233"/>
+      <c r="B76" s="239"/>
       <c r="C76" s="47"/>
       <c r="D76" s="48"/>
       <c r="E76" s="49"/>
@@ -5900,9 +5904,9 @@
     </row>
     <row r="77" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
-      <c r="B77" s="233"/>
-      <c r="C77" s="238"/>
-      <c r="D77" s="239"/>
+      <c r="B77" s="239"/>
+      <c r="C77" s="244"/>
+      <c r="D77" s="245"/>
       <c r="E77" s="36"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
@@ -5931,9 +5935,9 @@
     </row>
     <row r="78" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
-      <c r="B78" s="233"/>
-      <c r="C78" s="238"/>
-      <c r="D78" s="239"/>
+      <c r="B78" s="239"/>
+      <c r="C78" s="244"/>
+      <c r="D78" s="245"/>
       <c r="E78" s="36"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
@@ -5962,9 +5966,9 @@
     </row>
     <row r="79" spans="1:29" s="34" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
-      <c r="B79" s="233"/>
-      <c r="C79" s="238"/>
-      <c r="D79" s="239"/>
+      <c r="B79" s="239"/>
+      <c r="C79" s="244"/>
+      <c r="D79" s="245"/>
       <c r="E79" s="29"/>
       <c r="F79" s="18"/>
       <c r="G79" s="29"/>
@@ -5993,9 +5997,9 @@
     </row>
     <row r="80" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
-      <c r="B80" s="233"/>
-      <c r="C80" s="238"/>
-      <c r="D80" s="239"/>
+      <c r="B80" s="239"/>
+      <c r="C80" s="244"/>
+      <c r="D80" s="245"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
@@ -6024,8 +6028,8 @@
     </row>
     <row r="81" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
-      <c r="B81" s="233"/>
-      <c r="C81" s="238"/>
+      <c r="B81" s="239"/>
+      <c r="C81" s="244"/>
       <c r="D81" s="52"/>
       <c r="E81" s="53"/>
       <c r="F81" s="29"/>
@@ -6055,7 +6059,7 @@
     </row>
     <row r="82" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="54"/>
-      <c r="B82" s="233"/>
+      <c r="B82" s="239"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
       <c r="E82" s="53"/>
@@ -6086,7 +6090,7 @@
     </row>
     <row r="83" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="54"/>
-      <c r="B83" s="233"/>
+      <c r="B83" s="239"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
       <c r="E83" s="55"/>
@@ -6117,7 +6121,7 @@
     </row>
     <row r="84" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
-      <c r="B84" s="233"/>
+      <c r="B84" s="239"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
       <c r="E84" s="55"/>
@@ -6148,7 +6152,7 @@
     </row>
     <row r="85" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
-      <c r="B85" s="233"/>
+      <c r="B85" s="239"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
       <c r="E85" s="55"/>
@@ -6179,7 +6183,7 @@
     </row>
     <row r="86" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
-      <c r="B86" s="233"/>
+      <c r="B86" s="239"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
       <c r="E86" s="55"/>
@@ -6210,7 +6214,7 @@
     </row>
     <row r="87" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
-      <c r="B87" s="233"/>
+      <c r="B87" s="239"/>
       <c r="C87" s="51"/>
       <c r="D87" s="56"/>
       <c r="E87" s="55"/>
@@ -6241,9 +6245,9 @@
     </row>
     <row r="88" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
-      <c r="B88" s="233"/>
+      <c r="B88" s="239"/>
       <c r="C88" s="51"/>
-      <c r="D88" s="240"/>
+      <c r="D88" s="246"/>
       <c r="E88" s="55"/>
       <c r="F88" s="18"/>
       <c r="G88" s="29"/>
@@ -6272,9 +6276,9 @@
     </row>
     <row r="89" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="54"/>
-      <c r="B89" s="233"/>
+      <c r="B89" s="239"/>
       <c r="C89" s="51"/>
-      <c r="D89" s="240"/>
+      <c r="D89" s="246"/>
       <c r="E89" s="55"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -6303,9 +6307,9 @@
     </row>
     <row r="90" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54"/>
-      <c r="B90" s="233"/>
+      <c r="B90" s="239"/>
       <c r="C90" s="51"/>
-      <c r="D90" s="240"/>
+      <c r="D90" s="246"/>
       <c r="E90" s="57"/>
       <c r="F90" s="9"/>
       <c r="G90" s="29"/>
@@ -6334,9 +6338,9 @@
     </row>
     <row r="91" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="54"/>
-      <c r="B91" s="233"/>
+      <c r="B91" s="239"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="240"/>
+      <c r="D91" s="246"/>
       <c r="E91" s="57"/>
       <c r="F91" s="9"/>
       <c r="G91" s="29"/>
@@ -6365,9 +6369,9 @@
     </row>
     <row r="92" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
-      <c r="B92" s="233"/>
+      <c r="B92" s="239"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="240"/>
+      <c r="D92" s="246"/>
       <c r="E92" s="57"/>
       <c r="F92" s="9"/>
       <c r="G92" s="29"/>
@@ -6396,7 +6400,7 @@
     </row>
     <row r="93" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
-      <c r="B93" s="233"/>
+      <c r="B93" s="239"/>
       <c r="C93" s="51"/>
       <c r="D93" s="58"/>
       <c r="E93" s="59"/>
@@ -6427,9 +6431,9 @@
     </row>
     <row r="94" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54"/>
-      <c r="B94" s="233"/>
+      <c r="B94" s="239"/>
       <c r="C94" s="51"/>
-      <c r="D94" s="240"/>
+      <c r="D94" s="246"/>
       <c r="E94" s="53"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -6458,9 +6462,9 @@
     </row>
     <row r="95" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
-      <c r="B95" s="233"/>
+      <c r="B95" s="239"/>
       <c r="C95" s="51"/>
-      <c r="D95" s="240"/>
+      <c r="D95" s="246"/>
       <c r="E95" s="53"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -6489,7 +6493,7 @@
     </row>
     <row r="96" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="54"/>
-      <c r="B96" s="233"/>
+      <c r="B96" s="239"/>
       <c r="C96" s="51"/>
       <c r="D96" s="60"/>
       <c r="E96" s="55"/>
@@ -6520,9 +6524,9 @@
     </row>
     <row r="97" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="54"/>
-      <c r="B97" s="233"/>
+      <c r="B97" s="239"/>
       <c r="C97" s="51"/>
-      <c r="D97" s="241"/>
+      <c r="D97" s="247"/>
       <c r="E97" s="55"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -6551,9 +6555,9 @@
     </row>
     <row r="98" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="54"/>
-      <c r="B98" s="233"/>
+      <c r="B98" s="239"/>
       <c r="C98" s="51"/>
-      <c r="D98" s="241"/>
+      <c r="D98" s="247"/>
       <c r="E98" s="55"/>
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
@@ -6582,9 +6586,9 @@
     </row>
     <row r="99" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54"/>
-      <c r="B99" s="233"/>
+      <c r="B99" s="239"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="241"/>
+      <c r="D99" s="247"/>
       <c r="E99" s="57"/>
       <c r="F99" s="9"/>
       <c r="G99" s="29"/>
@@ -6613,9 +6617,9 @@
     </row>
     <row r="100" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="54"/>
-      <c r="B100" s="233"/>
+      <c r="B100" s="239"/>
       <c r="C100" s="51"/>
-      <c r="D100" s="241"/>
+      <c r="D100" s="247"/>
       <c r="E100" s="53"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -6644,9 +6648,9 @@
     </row>
     <row r="101" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54"/>
-      <c r="B101" s="233"/>
+      <c r="B101" s="239"/>
       <c r="C101" s="51"/>
-      <c r="D101" s="241"/>
+      <c r="D101" s="247"/>
       <c r="E101" s="53"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -6675,9 +6679,9 @@
     </row>
     <row r="102" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="54"/>
-      <c r="B102" s="233"/>
+      <c r="B102" s="239"/>
       <c r="C102" s="51"/>
-      <c r="D102" s="241"/>
+      <c r="D102" s="247"/>
       <c r="E102" s="55"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -6706,9 +6710,9 @@
     </row>
     <row r="103" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="54"/>
-      <c r="B103" s="233"/>
+      <c r="B103" s="239"/>
       <c r="C103" s="51"/>
-      <c r="D103" s="241"/>
+      <c r="D103" s="247"/>
       <c r="E103" s="55"/>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
@@ -6737,9 +6741,9 @@
     </row>
     <row r="104" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="54"/>
-      <c r="B104" s="233"/>
+      <c r="B104" s="239"/>
       <c r="C104" s="51"/>
-      <c r="D104" s="241"/>
+      <c r="D104" s="247"/>
       <c r="E104" s="55"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
@@ -6768,9 +6772,9 @@
     </row>
     <row r="105" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="54"/>
-      <c r="B105" s="233"/>
+      <c r="B105" s="239"/>
       <c r="C105" s="51"/>
-      <c r="D105" s="241"/>
+      <c r="D105" s="247"/>
       <c r="E105" s="57"/>
       <c r="F105" s="9"/>
       <c r="G105" s="29"/>
@@ -6799,9 +6803,9 @@
     </row>
     <row r="106" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="54"/>
-      <c r="B106" s="233"/>
+      <c r="B106" s="239"/>
       <c r="C106" s="51"/>
-      <c r="D106" s="241"/>
+      <c r="D106" s="247"/>
       <c r="E106" s="59"/>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -6830,9 +6834,9 @@
     </row>
     <row r="107" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="54"/>
-      <c r="B107" s="233"/>
+      <c r="B107" s="239"/>
       <c r="C107" s="51"/>
-      <c r="D107" s="241"/>
+      <c r="D107" s="247"/>
       <c r="E107" s="53"/>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -6861,7 +6865,7 @@
     </row>
     <row r="108" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="54"/>
-      <c r="B108" s="233"/>
+      <c r="B108" s="239"/>
       <c r="C108" s="51"/>
       <c r="D108" s="60"/>
       <c r="E108" s="53"/>
@@ -6892,9 +6896,9 @@
     </row>
     <row r="109" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
-      <c r="B109" s="233"/>
+      <c r="B109" s="239"/>
       <c r="C109" s="51"/>
-      <c r="D109" s="242"/>
+      <c r="D109" s="248"/>
       <c r="E109" s="55"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
@@ -6923,9 +6927,9 @@
     </row>
     <row r="110" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="54"/>
-      <c r="B110" s="233"/>
+      <c r="B110" s="239"/>
       <c r="C110" s="51"/>
-      <c r="D110" s="242"/>
+      <c r="D110" s="248"/>
       <c r="E110" s="55"/>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
@@ -6954,9 +6958,9 @@
     </row>
     <row r="111" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="54"/>
-      <c r="B111" s="233"/>
+      <c r="B111" s="239"/>
       <c r="C111" s="51"/>
-      <c r="D111" s="242"/>
+      <c r="D111" s="248"/>
       <c r="E111" s="55"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -6985,9 +6989,9 @@
     </row>
     <row r="112" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="54"/>
-      <c r="B112" s="233"/>
+      <c r="B112" s="239"/>
       <c r="C112" s="51"/>
-      <c r="D112" s="242"/>
+      <c r="D112" s="248"/>
       <c r="E112" s="57"/>
       <c r="F112" s="9"/>
       <c r="G112" s="29"/>
@@ -7016,9 +7020,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="62"/>
-      <c r="B113" s="233"/>
+      <c r="B113" s="239"/>
       <c r="C113" s="63"/>
-      <c r="D113" s="242"/>
+      <c r="D113" s="248"/>
       <c r="E113" s="64"/>
       <c r="F113" s="65"/>
       <c r="G113" s="65"/>
@@ -7047,9 +7051,9 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="68"/>
-      <c r="B114" s="233"/>
+      <c r="B114" s="239"/>
       <c r="C114" s="63"/>
-      <c r="D114" s="242"/>
+      <c r="D114" s="248"/>
       <c r="E114" s="69"/>
       <c r="F114" s="70"/>
       <c r="G114" s="71"/>
@@ -7078,9 +7082,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="68"/>
-      <c r="B115" s="233"/>
+      <c r="B115" s="239"/>
       <c r="C115" s="63"/>
-      <c r="D115" s="242"/>
+      <c r="D115" s="248"/>
       <c r="E115" s="75"/>
       <c r="F115" s="76"/>
       <c r="G115" s="76"/>
@@ -7109,9 +7113,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="68"/>
-      <c r="B116" s="233"/>
+      <c r="B116" s="239"/>
       <c r="C116" s="63"/>
-      <c r="D116" s="242"/>
+      <c r="D116" s="248"/>
       <c r="E116" s="75"/>
       <c r="F116" s="76"/>
       <c r="G116" s="76"/>
@@ -7140,9 +7144,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
-      <c r="B117" s="233"/>
+      <c r="B117" s="239"/>
       <c r="C117" s="63"/>
-      <c r="D117" s="242"/>
+      <c r="D117" s="248"/>
       <c r="E117" s="79"/>
       <c r="F117" s="76"/>
       <c r="G117" s="76"/>
@@ -7171,9 +7175,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="68"/>
-      <c r="B118" s="233"/>
+      <c r="B118" s="239"/>
       <c r="C118" s="63"/>
-      <c r="D118" s="242"/>
+      <c r="D118" s="248"/>
       <c r="E118" s="80"/>
       <c r="F118" s="70"/>
       <c r="G118" s="71"/>
@@ -7202,7 +7206,7 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="68"/>
-      <c r="B119" s="233"/>
+      <c r="B119" s="239"/>
       <c r="C119" s="63"/>
       <c r="D119" s="81"/>
       <c r="E119" s="69"/>
@@ -7233,9 +7237,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
-      <c r="B120" s="233"/>
+      <c r="B120" s="239"/>
       <c r="C120" s="63"/>
-      <c r="D120" s="243"/>
+      <c r="D120" s="249"/>
       <c r="E120" s="82"/>
       <c r="F120" s="70"/>
       <c r="G120" s="71"/>
@@ -7264,9 +7268,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="68"/>
-      <c r="B121" s="233"/>
+      <c r="B121" s="239"/>
       <c r="C121" s="63"/>
-      <c r="D121" s="243"/>
+      <c r="D121" s="249"/>
       <c r="E121" s="84"/>
       <c r="F121" s="76"/>
       <c r="G121" s="76"/>
@@ -7295,7 +7299,7 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
-      <c r="B122" s="233"/>
+      <c r="B122" s="239"/>
       <c r="C122" s="63"/>
       <c r="D122" s="1"/>
       <c r="E122" s="85"/>
@@ -7326,9 +7330,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
-      <c r="B123" s="233"/>
+      <c r="B123" s="239"/>
       <c r="C123" s="63"/>
-      <c r="D123" s="244"/>
+      <c r="D123" s="250"/>
       <c r="E123" s="84"/>
       <c r="F123" s="76"/>
       <c r="G123" s="76"/>
@@ -7357,9 +7361,9 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
-      <c r="B124" s="233"/>
+      <c r="B124" s="239"/>
       <c r="C124" s="63"/>
-      <c r="D124" s="244"/>
+      <c r="D124" s="250"/>
       <c r="E124" s="82"/>
       <c r="F124" s="76"/>
       <c r="G124" s="76"/>
@@ -7388,9 +7392,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="68"/>
-      <c r="B125" s="233"/>
+      <c r="B125" s="239"/>
       <c r="C125" s="63"/>
-      <c r="D125" s="244"/>
+      <c r="D125" s="250"/>
       <c r="E125" s="84"/>
       <c r="F125" s="76"/>
       <c r="G125" s="76"/>
@@ -7419,9 +7423,9 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="68"/>
-      <c r="B126" s="233"/>
+      <c r="B126" s="239"/>
       <c r="C126" s="63"/>
-      <c r="D126" s="244"/>
+      <c r="D126" s="250"/>
       <c r="E126" s="82"/>
       <c r="F126" s="70"/>
       <c r="G126" s="71"/>
@@ -7450,9 +7454,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="68"/>
-      <c r="B127" s="233"/>
+      <c r="B127" s="239"/>
       <c r="C127" s="63"/>
-      <c r="D127" s="244"/>
+      <c r="D127" s="250"/>
       <c r="E127" s="86"/>
       <c r="F127" s="87"/>
       <c r="G127" s="78"/>
@@ -7481,9 +7485,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="68"/>
-      <c r="B128" s="233"/>
+      <c r="B128" s="239"/>
       <c r="C128" s="63"/>
-      <c r="D128" s="244"/>
+      <c r="D128" s="250"/>
       <c r="E128" s="82"/>
       <c r="F128" s="88"/>
       <c r="G128" s="71"/>
@@ -7512,9 +7516,9 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="68"/>
-      <c r="B129" s="233"/>
+      <c r="B129" s="239"/>
       <c r="C129" s="63"/>
-      <c r="D129" s="244"/>
+      <c r="D129" s="250"/>
       <c r="E129" s="86"/>
       <c r="F129" s="89"/>
       <c r="G129" s="78"/>
@@ -7543,7 +7547,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
-      <c r="B130" s="233"/>
+      <c r="B130" s="239"/>
       <c r="C130" s="63"/>
       <c r="D130" s="90"/>
       <c r="E130" s="86"/>
@@ -7574,9 +7578,9 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68"/>
-      <c r="B131" s="233"/>
+      <c r="B131" s="239"/>
       <c r="C131" s="63"/>
-      <c r="D131" s="232"/>
+      <c r="D131" s="238"/>
       <c r="E131" s="91"/>
       <c r="F131" s="92"/>
       <c r="G131" s="78"/>
@@ -7605,9 +7609,9 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68"/>
-      <c r="B132" s="233"/>
+      <c r="B132" s="239"/>
       <c r="C132" s="63"/>
-      <c r="D132" s="232"/>
+      <c r="D132" s="238"/>
       <c r="E132" s="86"/>
       <c r="F132" s="92"/>
       <c r="G132" s="78"/>
@@ -7636,9 +7640,9 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68"/>
-      <c r="B133" s="233"/>
+      <c r="B133" s="239"/>
       <c r="C133" s="63"/>
-      <c r="D133" s="232"/>
+      <c r="D133" s="238"/>
       <c r="E133" s="93"/>
       <c r="F133" s="83"/>
       <c r="G133" s="83"/>
@@ -7667,9 +7671,9 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68"/>
-      <c r="B134" s="233"/>
+      <c r="B134" s="239"/>
       <c r="C134" s="63"/>
-      <c r="D134" s="232"/>
+      <c r="D134" s="238"/>
       <c r="E134" s="93"/>
       <c r="F134" s="83"/>
       <c r="G134" s="83"/>
@@ -7698,9 +7702,9 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
-      <c r="B135" s="233"/>
+      <c r="B135" s="239"/>
       <c r="C135" s="63"/>
-      <c r="D135" s="232"/>
+      <c r="D135" s="238"/>
       <c r="E135" s="93"/>
       <c r="F135" s="83"/>
       <c r="G135" s="83"/>
@@ -7729,9 +7733,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68"/>
-      <c r="B136" s="233"/>
+      <c r="B136" s="239"/>
       <c r="C136" s="63"/>
-      <c r="D136" s="232"/>
+      <c r="D136" s="238"/>
       <c r="E136" s="93"/>
       <c r="F136" s="83"/>
       <c r="G136" s="83"/>
@@ -7760,9 +7764,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68"/>
-      <c r="B137" s="233"/>
+      <c r="B137" s="239"/>
       <c r="C137" s="63"/>
-      <c r="D137" s="232"/>
+      <c r="D137" s="238"/>
       <c r="E137" s="93"/>
       <c r="F137" s="83"/>
       <c r="G137" s="83"/>
@@ -7791,9 +7795,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68"/>
-      <c r="B138" s="233"/>
+      <c r="B138" s="239"/>
       <c r="C138" s="63"/>
-      <c r="D138" s="232"/>
+      <c r="D138" s="238"/>
       <c r="E138" s="93"/>
       <c r="F138" s="83"/>
       <c r="G138" s="83"/>
@@ -7822,9 +7826,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68"/>
-      <c r="B139" s="233"/>
+      <c r="B139" s="239"/>
       <c r="C139" s="63"/>
-      <c r="D139" s="232"/>
+      <c r="D139" s="238"/>
       <c r="E139" s="93"/>
       <c r="F139" s="83"/>
       <c r="G139" s="83"/>
@@ -7853,7 +7857,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68"/>
-      <c r="B140" s="233"/>
+      <c r="B140" s="239"/>
       <c r="C140" s="94"/>
       <c r="D140" s="95"/>
       <c r="E140" s="93"/>
@@ -7884,7 +7888,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68"/>
-      <c r="B141" s="233"/>
+      <c r="B141" s="239"/>
       <c r="C141" s="96"/>
       <c r="D141" s="95"/>
       <c r="E141" s="93"/>
@@ -7915,7 +7919,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68"/>
-      <c r="B142" s="233"/>
+      <c r="B142" s="239"/>
       <c r="C142" s="96"/>
       <c r="D142" s="97"/>
       <c r="E142" s="93"/>
@@ -7946,9 +7950,9 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68"/>
-      <c r="B143" s="233"/>
+      <c r="B143" s="239"/>
       <c r="C143" s="96"/>
-      <c r="D143" s="247"/>
+      <c r="D143" s="232"/>
       <c r="E143" s="98"/>
       <c r="F143" s="83"/>
       <c r="G143" s="83"/>
@@ -7977,9 +7981,9 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68"/>
-      <c r="B144" s="233"/>
+      <c r="B144" s="239"/>
       <c r="C144" s="96"/>
-      <c r="D144" s="247"/>
+      <c r="D144" s="232"/>
       <c r="E144" s="98"/>
       <c r="F144" s="83"/>
       <c r="G144" s="83"/>
@@ -8008,7 +8012,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68"/>
-      <c r="B145" s="233"/>
+      <c r="B145" s="239"/>
       <c r="C145" s="96"/>
       <c r="D145" s="99"/>
       <c r="E145" s="93"/>
@@ -8039,7 +8043,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68"/>
-      <c r="B146" s="233"/>
+      <c r="B146" s="239"/>
       <c r="C146" s="96"/>
       <c r="D146" s="100"/>
       <c r="E146" s="93"/>
@@ -8070,7 +8074,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68"/>
-      <c r="B147" s="233"/>
+      <c r="B147" s="239"/>
       <c r="C147" s="96"/>
       <c r="D147" s="100"/>
       <c r="E147" s="101"/>
@@ -8101,7 +8105,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68"/>
-      <c r="B148" s="233"/>
+      <c r="B148" s="239"/>
       <c r="C148" s="96"/>
       <c r="D148" s="100"/>
       <c r="E148" s="93"/>
@@ -8132,7 +8136,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68"/>
-      <c r="B149" s="233"/>
+      <c r="B149" s="239"/>
       <c r="C149" s="96"/>
       <c r="D149" s="100"/>
       <c r="E149" s="93"/>
@@ -8163,7 +8167,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68"/>
-      <c r="B150" s="233"/>
+      <c r="B150" s="239"/>
       <c r="C150" s="96"/>
       <c r="D150" s="100"/>
       <c r="E150" s="93"/>
@@ -8194,7 +8198,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68"/>
-      <c r="B151" s="233"/>
+      <c r="B151" s="239"/>
       <c r="C151" s="96"/>
       <c r="D151" s="100"/>
       <c r="E151" s="93"/>
@@ -8225,7 +8229,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68"/>
-      <c r="B152" s="233"/>
+      <c r="B152" s="239"/>
       <c r="C152" s="96"/>
       <c r="D152" s="100"/>
       <c r="E152" s="101"/>
@@ -8256,7 +8260,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68"/>
-      <c r="B153" s="233"/>
+      <c r="B153" s="239"/>
       <c r="C153" s="96"/>
       <c r="D153" s="100"/>
       <c r="E153" s="101"/>
@@ -8287,7 +8291,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68"/>
-      <c r="B154" s="233"/>
+      <c r="B154" s="239"/>
       <c r="C154" s="96"/>
       <c r="D154" s="100"/>
       <c r="E154" s="101"/>
@@ -8318,7 +8322,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68"/>
-      <c r="B155" s="233"/>
+      <c r="B155" s="239"/>
       <c r="C155" s="96"/>
       <c r="D155" s="100"/>
       <c r="E155" s="93"/>
@@ -8349,7 +8353,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="68"/>
-      <c r="B156" s="233"/>
+      <c r="B156" s="239"/>
       <c r="C156" s="96"/>
       <c r="D156" s="100"/>
       <c r="E156" s="93"/>
@@ -8380,7 +8384,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68"/>
-      <c r="B157" s="233"/>
+      <c r="B157" s="239"/>
       <c r="C157" s="96"/>
       <c r="D157" s="100"/>
       <c r="E157" s="93"/>
@@ -8411,7 +8415,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="68"/>
-      <c r="B158" s="233"/>
+      <c r="B158" s="239"/>
       <c r="C158" s="96"/>
       <c r="D158" s="100"/>
       <c r="E158" s="93"/>
@@ -8442,7 +8446,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68"/>
-      <c r="B159" s="233"/>
+      <c r="B159" s="239"/>
       <c r="C159" s="96"/>
       <c r="D159" s="100"/>
       <c r="E159" s="93"/>
@@ -8473,7 +8477,7 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68"/>
-      <c r="B160" s="233"/>
+      <c r="B160" s="239"/>
       <c r="C160" s="96"/>
       <c r="D160" s="100"/>
       <c r="E160" s="93"/>
@@ -8504,7 +8508,7 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="106"/>
-      <c r="B161" s="233"/>
+      <c r="B161" s="239"/>
       <c r="C161" s="96"/>
       <c r="D161" s="107"/>
       <c r="E161" s="108"/>
@@ -8535,7 +8539,7 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="106"/>
-      <c r="B162" s="233"/>
+      <c r="B162" s="239"/>
       <c r="C162" s="96"/>
       <c r="D162" s="109"/>
       <c r="E162" s="93"/>
@@ -8566,7 +8570,7 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="106"/>
-      <c r="B163" s="233"/>
+      <c r="B163" s="239"/>
       <c r="C163" s="96"/>
       <c r="D163" s="109"/>
       <c r="E163" s="93"/>
@@ -8597,7 +8601,7 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="106"/>
-      <c r="B164" s="233"/>
+      <c r="B164" s="239"/>
       <c r="C164" s="96"/>
       <c r="D164" s="109"/>
       <c r="E164" s="110"/>
@@ -8628,7 +8632,7 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="106"/>
-      <c r="B165" s="233"/>
+      <c r="B165" s="239"/>
       <c r="C165" s="96"/>
       <c r="D165" s="109"/>
       <c r="E165" s="111"/>
@@ -8659,7 +8663,7 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="106"/>
-      <c r="B166" s="233"/>
+      <c r="B166" s="239"/>
       <c r="C166" s="96"/>
       <c r="D166" s="109"/>
       <c r="E166" s="111"/>
@@ -8690,7 +8694,7 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="106"/>
-      <c r="B167" s="233"/>
+      <c r="B167" s="239"/>
       <c r="C167" s="96"/>
       <c r="D167" s="109"/>
       <c r="E167" s="111"/>
@@ -8721,7 +8725,7 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="106"/>
-      <c r="B168" s="233"/>
+      <c r="B168" s="239"/>
       <c r="C168" s="96"/>
       <c r="D168" s="109"/>
       <c r="E168" s="111"/>
@@ -8752,7 +8756,7 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="106"/>
-      <c r="B169" s="233"/>
+      <c r="B169" s="239"/>
       <c r="C169" s="96"/>
       <c r="D169" s="109"/>
       <c r="E169" s="93"/>
@@ -8783,7 +8787,7 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="106"/>
-      <c r="B170" s="233"/>
+      <c r="B170" s="239"/>
       <c r="C170" s="96"/>
       <c r="D170" s="109"/>
       <c r="E170" s="93"/>
@@ -8814,7 +8818,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="106"/>
-      <c r="B171" s="233"/>
+      <c r="B171" s="239"/>
       <c r="C171" s="96"/>
       <c r="D171" s="109"/>
       <c r="E171" s="93"/>
@@ -8845,7 +8849,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="106"/>
-      <c r="B172" s="233"/>
+      <c r="B172" s="239"/>
       <c r="C172" s="96"/>
       <c r="D172" s="109"/>
       <c r="E172" s="93"/>
@@ -8876,7 +8880,7 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="106"/>
-      <c r="B173" s="233"/>
+      <c r="B173" s="239"/>
       <c r="C173" s="96"/>
       <c r="D173" s="109"/>
       <c r="E173" s="108"/>
@@ -8907,7 +8911,7 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="106"/>
-      <c r="B174" s="233"/>
+      <c r="B174" s="239"/>
       <c r="C174" s="96"/>
       <c r="D174" s="112"/>
       <c r="E174" s="113"/>
@@ -8938,7 +8942,7 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="106"/>
-      <c r="B175" s="233"/>
+      <c r="B175" s="239"/>
       <c r="C175" s="96"/>
       <c r="D175" s="114"/>
       <c r="E175" s="108"/>
@@ -8969,9 +8973,9 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="106"/>
-      <c r="B176" s="233"/>
+      <c r="B176" s="239"/>
       <c r="C176" s="96"/>
-      <c r="D176" s="248"/>
+      <c r="D176" s="233"/>
       <c r="E176" s="93"/>
       <c r="F176" s="83"/>
       <c r="G176" s="83"/>
@@ -8980,7 +8984,7 @@
       <c r="J176" s="83"/>
       <c r="K176" s="83"/>
       <c r="L176" s="74"/>
-      <c r="M176" s="249"/>
+      <c r="M176" s="234"/>
       <c r="N176" s="67"/>
       <c r="O176" s="67"/>
       <c r="P176" s="67"/>
@@ -9000,9 +9004,9 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="68"/>
-      <c r="B177" s="233"/>
+      <c r="B177" s="239"/>
       <c r="C177" s="96"/>
-      <c r="D177" s="248"/>
+      <c r="D177" s="233"/>
       <c r="E177" s="93"/>
       <c r="F177" s="83"/>
       <c r="G177" s="83"/>
@@ -9011,7 +9015,7 @@
       <c r="J177" s="83"/>
       <c r="K177" s="83"/>
       <c r="L177" s="74"/>
-      <c r="M177" s="249"/>
+      <c r="M177" s="234"/>
       <c r="N177" s="67"/>
       <c r="O177" s="67"/>
       <c r="P177" s="67"/>
@@ -9031,9 +9035,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="68"/>
-      <c r="B178" s="233"/>
+      <c r="B178" s="239"/>
       <c r="C178" s="96"/>
-      <c r="D178" s="248"/>
+      <c r="D178" s="233"/>
       <c r="E178" s="110"/>
       <c r="F178" s="83"/>
       <c r="G178" s="83"/>
@@ -9042,7 +9046,7 @@
       <c r="J178" s="83"/>
       <c r="K178" s="83"/>
       <c r="L178" s="74"/>
-      <c r="M178" s="249"/>
+      <c r="M178" s="234"/>
       <c r="N178" s="67"/>
       <c r="O178" s="67"/>
       <c r="P178" s="67"/>
@@ -9062,9 +9066,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="68"/>
-      <c r="B179" s="233"/>
+      <c r="B179" s="239"/>
       <c r="C179" s="96"/>
-      <c r="D179" s="248"/>
+      <c r="D179" s="233"/>
       <c r="E179" s="111"/>
       <c r="F179" s="83"/>
       <c r="G179" s="83"/>
@@ -9073,7 +9077,7 @@
       <c r="J179" s="83"/>
       <c r="K179" s="83"/>
       <c r="L179" s="74"/>
-      <c r="M179" s="249"/>
+      <c r="M179" s="234"/>
       <c r="N179" s="67"/>
       <c r="O179" s="67"/>
       <c r="P179" s="67"/>
@@ -9093,9 +9097,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="68"/>
-      <c r="B180" s="233"/>
+      <c r="B180" s="239"/>
       <c r="C180" s="96"/>
-      <c r="D180" s="248"/>
+      <c r="D180" s="233"/>
       <c r="E180" s="111"/>
       <c r="F180" s="83"/>
       <c r="G180" s="83"/>
@@ -9104,7 +9108,7 @@
       <c r="J180" s="83"/>
       <c r="K180" s="83"/>
       <c r="L180" s="74"/>
-      <c r="M180" s="249"/>
+      <c r="M180" s="234"/>
       <c r="N180" s="67"/>
       <c r="O180" s="67"/>
       <c r="P180" s="67"/>
@@ -9124,9 +9128,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="68"/>
-      <c r="B181" s="233"/>
+      <c r="B181" s="239"/>
       <c r="C181" s="96"/>
-      <c r="D181" s="248"/>
+      <c r="D181" s="233"/>
       <c r="E181" s="111"/>
       <c r="F181" s="83"/>
       <c r="G181" s="83"/>
@@ -9135,7 +9139,7 @@
       <c r="J181" s="83"/>
       <c r="K181" s="83"/>
       <c r="L181" s="74"/>
-      <c r="M181" s="249"/>
+      <c r="M181" s="234"/>
       <c r="N181" s="67"/>
       <c r="O181" s="67"/>
       <c r="P181" s="67"/>
@@ -9155,9 +9159,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="68"/>
-      <c r="B182" s="233"/>
+      <c r="B182" s="239"/>
       <c r="C182" s="96"/>
-      <c r="D182" s="248"/>
+      <c r="D182" s="233"/>
       <c r="E182" s="111"/>
       <c r="F182" s="83"/>
       <c r="G182" s="83"/>
@@ -9166,7 +9170,7 @@
       <c r="J182" s="83"/>
       <c r="K182" s="83"/>
       <c r="L182" s="74"/>
-      <c r="M182" s="249"/>
+      <c r="M182" s="234"/>
       <c r="N182" s="67"/>
       <c r="O182" s="67"/>
       <c r="P182" s="67"/>
@@ -9186,9 +9190,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="68"/>
-      <c r="B183" s="233"/>
+      <c r="B183" s="239"/>
       <c r="C183" s="96"/>
-      <c r="D183" s="248"/>
+      <c r="D183" s="233"/>
       <c r="E183" s="93"/>
       <c r="F183" s="83"/>
       <c r="G183" s="83"/>
@@ -9197,7 +9201,7 @@
       <c r="J183" s="83"/>
       <c r="K183" s="83"/>
       <c r="L183" s="74"/>
-      <c r="M183" s="249"/>
+      <c r="M183" s="234"/>
       <c r="N183" s="67"/>
       <c r="O183" s="67"/>
       <c r="P183" s="67"/>
@@ -9217,9 +9221,9 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="68"/>
-      <c r="B184" s="233"/>
+      <c r="B184" s="239"/>
       <c r="C184" s="96"/>
-      <c r="D184" s="248"/>
+      <c r="D184" s="233"/>
       <c r="E184" s="93"/>
       <c r="F184" s="83"/>
       <c r="G184" s="83"/>
@@ -9248,9 +9252,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="68"/>
-      <c r="B185" s="233"/>
+      <c r="B185" s="239"/>
       <c r="C185" s="96"/>
-      <c r="D185" s="248"/>
+      <c r="D185" s="233"/>
       <c r="E185" s="93"/>
       <c r="F185" s="83"/>
       <c r="G185" s="83"/>
@@ -9279,9 +9283,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="68"/>
-      <c r="B186" s="233"/>
+      <c r="B186" s="239"/>
       <c r="C186" s="96"/>
-      <c r="D186" s="248"/>
+      <c r="D186" s="233"/>
       <c r="E186" s="93"/>
       <c r="F186" s="83"/>
       <c r="G186" s="83"/>
@@ -9343,7 +9347,7 @@
       <c r="A188" s="115"/>
       <c r="B188" s="118"/>
       <c r="C188" s="117"/>
-      <c r="D188" s="250"/>
+      <c r="D188" s="235"/>
       <c r="E188" s="93"/>
       <c r="F188" s="83"/>
       <c r="G188" s="105"/>
@@ -9374,7 +9378,7 @@
       <c r="A189" s="115"/>
       <c r="B189" s="114"/>
       <c r="C189" s="119"/>
-      <c r="D189" s="250"/>
+      <c r="D189" s="235"/>
       <c r="E189" s="93"/>
       <c r="F189" s="83"/>
       <c r="G189" s="105"/>
@@ -9405,7 +9409,7 @@
       <c r="A190" s="115"/>
       <c r="B190" s="114"/>
       <c r="C190" s="119"/>
-      <c r="D190" s="250"/>
+      <c r="D190" s="235"/>
       <c r="E190" s="93"/>
       <c r="F190" s="83"/>
       <c r="G190" s="105"/>
@@ -9436,7 +9440,7 @@
       <c r="A191" s="115"/>
       <c r="B191" s="114"/>
       <c r="C191" s="114"/>
-      <c r="D191" s="250"/>
+      <c r="D191" s="235"/>
       <c r="E191" s="101"/>
       <c r="F191" s="83"/>
       <c r="G191" s="105"/>
@@ -9467,7 +9471,7 @@
       <c r="A192" s="115"/>
       <c r="B192" s="118"/>
       <c r="C192" s="114"/>
-      <c r="D192" s="250"/>
+      <c r="D192" s="235"/>
       <c r="E192" s="101"/>
       <c r="F192" s="83"/>
       <c r="G192" s="105"/>
@@ -9498,7 +9502,7 @@
       <c r="A193" s="115"/>
       <c r="B193" s="118"/>
       <c r="C193" s="114"/>
-      <c r="D193" s="250"/>
+      <c r="D193" s="235"/>
       <c r="E193" s="101"/>
       <c r="F193" s="83"/>
       <c r="G193" s="105"/>
@@ -9529,7 +9533,7 @@
       <c r="A194" s="115"/>
       <c r="B194" s="118"/>
       <c r="C194" s="114"/>
-      <c r="D194" s="250"/>
+      <c r="D194" s="235"/>
       <c r="E194" s="93"/>
       <c r="F194" s="83"/>
       <c r="G194" s="105"/>
@@ -9560,7 +9564,7 @@
       <c r="A195" s="115"/>
       <c r="B195" s="118"/>
       <c r="C195" s="114"/>
-      <c r="D195" s="250"/>
+      <c r="D195" s="235"/>
       <c r="E195" s="93"/>
       <c r="F195" s="83"/>
       <c r="G195" s="105"/>
@@ -9591,7 +9595,7 @@
       <c r="A196" s="115"/>
       <c r="B196" s="118"/>
       <c r="C196" s="118"/>
-      <c r="D196" s="250"/>
+      <c r="D196" s="235"/>
       <c r="E196" s="93"/>
       <c r="F196" s="83"/>
       <c r="G196" s="105"/>
@@ -10931,8 +10935,8 @@
       <c r="H239" s="139"/>
       <c r="I239" s="139"/>
       <c r="J239" s="139"/>
-      <c r="K239" s="246"/>
-      <c r="L239" s="249"/>
+      <c r="K239" s="231"/>
+      <c r="L239" s="234"/>
       <c r="M239" s="134"/>
       <c r="N239" s="67"/>
       <c r="O239" s="67"/>
@@ -10962,8 +10966,8 @@
       <c r="H240" s="140"/>
       <c r="I240" s="140"/>
       <c r="J240" s="140"/>
-      <c r="K240" s="246"/>
-      <c r="L240" s="249"/>
+      <c r="K240" s="231"/>
+      <c r="L240" s="234"/>
       <c r="M240" s="134"/>
       <c r="N240" s="67"/>
       <c r="O240" s="67"/>
@@ -10993,8 +10997,8 @@
       <c r="H241" s="65"/>
       <c r="I241" s="65"/>
       <c r="J241" s="65"/>
-      <c r="K241" s="246"/>
-      <c r="L241" s="249"/>
+      <c r="K241" s="231"/>
+      <c r="L241" s="234"/>
       <c r="M241" s="134"/>
       <c r="N241" s="67"/>
       <c r="O241" s="67"/>
@@ -11202,9 +11206,9 @@
     <row r="248" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="115"/>
       <c r="B248" s="126"/>
-      <c r="C248" s="251"/>
+      <c r="C248" s="227"/>
       <c r="D248" s="114"/>
-      <c r="E248" s="252"/>
+      <c r="E248" s="236"/>
       <c r="F248" s="76"/>
       <c r="G248" s="76"/>
       <c r="H248" s="76"/>
@@ -11233,9 +11237,9 @@
     <row r="249" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="115"/>
       <c r="B249" s="126"/>
-      <c r="C249" s="251"/>
+      <c r="C249" s="227"/>
       <c r="D249" s="114"/>
-      <c r="E249" s="252"/>
+      <c r="E249" s="236"/>
       <c r="F249" s="76"/>
       <c r="G249" s="76"/>
       <c r="H249" s="76"/>
@@ -11264,9 +11268,9 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="115"/>
       <c r="B250" s="126"/>
-      <c r="C250" s="251"/>
+      <c r="C250" s="227"/>
       <c r="D250" s="114"/>
-      <c r="E250" s="252"/>
+      <c r="E250" s="236"/>
       <c r="F250" s="76"/>
       <c r="G250" s="76"/>
       <c r="H250" s="76"/>
@@ -11295,7 +11299,7 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="115"/>
       <c r="B251" s="126"/>
-      <c r="C251" s="251"/>
+      <c r="C251" s="227"/>
       <c r="D251" s="114"/>
       <c r="E251" s="84"/>
       <c r="F251" s="76"/>
@@ -11326,7 +11330,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="115"/>
       <c r="B252" s="126"/>
-      <c r="C252" s="251"/>
+      <c r="C252" s="227"/>
       <c r="D252" s="114"/>
       <c r="E252" s="84"/>
       <c r="F252" s="76"/>
@@ -11357,7 +11361,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="115"/>
       <c r="B253" s="126"/>
-      <c r="C253" s="251"/>
+      <c r="C253" s="227"/>
       <c r="D253" s="114"/>
       <c r="E253" s="84"/>
       <c r="F253" s="137"/>
@@ -11388,7 +11392,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="115"/>
       <c r="B254" s="126"/>
-      <c r="C254" s="251"/>
+      <c r="C254" s="227"/>
       <c r="D254" s="114"/>
       <c r="E254" s="84"/>
       <c r="F254" s="76"/>
@@ -11419,7 +11423,7 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="115"/>
       <c r="B255" s="126"/>
-      <c r="C255" s="245"/>
+      <c r="C255" s="228"/>
       <c r="D255" s="124"/>
       <c r="E255" s="84"/>
       <c r="F255" s="137"/>
@@ -11450,7 +11454,7 @@
     <row r="256" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="115"/>
       <c r="B256" s="126"/>
-      <c r="C256" s="245"/>
+      <c r="C256" s="228"/>
       <c r="D256" s="145"/>
       <c r="E256" s="84"/>
       <c r="F256" s="137"/>
@@ -11512,7 +11516,7 @@
     <row r="258" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="115"/>
       <c r="B258" s="126"/>
-      <c r="C258" s="245"/>
+      <c r="C258" s="228"/>
       <c r="D258" s="124"/>
       <c r="E258" s="84"/>
       <c r="F258" s="76"/>
@@ -11543,7 +11547,7 @@
     <row r="259" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="115"/>
       <c r="B259" s="126"/>
-      <c r="C259" s="245"/>
+      <c r="C259" s="228"/>
       <c r="D259" s="125"/>
       <c r="E259" s="84"/>
       <c r="F259" s="76"/>
@@ -11574,7 +11578,7 @@
     <row r="260" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="115"/>
       <c r="B260" s="126"/>
-      <c r="C260" s="245"/>
+      <c r="C260" s="228"/>
       <c r="D260" s="125"/>
       <c r="E260" s="84"/>
       <c r="F260" s="76"/>
@@ -11605,7 +11609,7 @@
     <row r="261" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="115"/>
       <c r="B261" s="126"/>
-      <c r="C261" s="245"/>
+      <c r="C261" s="228"/>
       <c r="D261" s="125"/>
       <c r="E261" s="84"/>
       <c r="F261" s="137"/>
@@ -11636,7 +11640,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="115"/>
       <c r="B262" s="126"/>
-      <c r="C262" s="245"/>
+      <c r="C262" s="228"/>
       <c r="D262" s="125"/>
       <c r="E262" s="147"/>
       <c r="F262" s="76"/>
@@ -12016,7 +12020,7 @@
       <c r="H274" s="137"/>
       <c r="I274" s="137"/>
       <c r="J274" s="137"/>
-      <c r="K274" s="253"/>
+      <c r="K274" s="237"/>
       <c r="L274" s="74"/>
       <c r="M274" s="103"/>
       <c r="N274" s="67"/>
@@ -12047,7 +12051,7 @@
       <c r="H275" s="137"/>
       <c r="I275" s="137"/>
       <c r="J275" s="137"/>
-      <c r="K275" s="253"/>
+      <c r="K275" s="237"/>
       <c r="L275" s="74"/>
       <c r="M275" s="103"/>
       <c r="N275" s="67"/>
@@ -12132,7 +12136,7 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="115"/>
       <c r="B278" s="126"/>
-      <c r="C278" s="245"/>
+      <c r="C278" s="228"/>
       <c r="D278" s="124"/>
       <c r="E278" s="84"/>
       <c r="F278" s="137"/>
@@ -12140,7 +12144,7 @@
       <c r="H278" s="137"/>
       <c r="I278" s="137"/>
       <c r="J278" s="137"/>
-      <c r="K278" s="246"/>
+      <c r="K278" s="231"/>
       <c r="L278" s="74"/>
       <c r="M278" s="103"/>
       <c r="N278" s="67"/>
@@ -12163,7 +12167,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="115"/>
       <c r="B279" s="126"/>
-      <c r="C279" s="245"/>
+      <c r="C279" s="228"/>
       <c r="D279" s="145"/>
       <c r="E279" s="84"/>
       <c r="F279" s="137"/>
@@ -12171,7 +12175,7 @@
       <c r="H279" s="137"/>
       <c r="I279" s="137"/>
       <c r="J279" s="137"/>
-      <c r="K279" s="246"/>
+      <c r="K279" s="231"/>
       <c r="L279" s="74"/>
       <c r="M279" s="103"/>
       <c r="N279" s="67"/>
@@ -12194,7 +12198,7 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="115"/>
       <c r="B280" s="126"/>
-      <c r="C280" s="251"/>
+      <c r="C280" s="227"/>
       <c r="D280" s="138"/>
       <c r="E280" s="101"/>
       <c r="F280" s="83"/>
@@ -12225,7 +12229,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="115"/>
       <c r="B281" s="126"/>
-      <c r="C281" s="251"/>
+      <c r="C281" s="227"/>
       <c r="D281" s="99"/>
       <c r="E281" s="101"/>
       <c r="F281" s="83"/>
@@ -12287,7 +12291,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="115"/>
       <c r="B283" s="126"/>
-      <c r="C283" s="245"/>
+      <c r="C283" s="228"/>
       <c r="D283" s="124"/>
       <c r="E283" s="101"/>
       <c r="F283" s="83"/>
@@ -12318,7 +12322,7 @@
     <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="115"/>
       <c r="B284" s="126"/>
-      <c r="C284" s="245"/>
+      <c r="C284" s="228"/>
       <c r="D284" s="125"/>
       <c r="E284" s="101"/>
       <c r="F284" s="83"/>
@@ -12349,7 +12353,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="115"/>
       <c r="B285" s="126"/>
-      <c r="C285" s="245"/>
+      <c r="C285" s="228"/>
       <c r="D285" s="145"/>
       <c r="E285" s="101"/>
       <c r="F285" s="83"/>
@@ -12534,10 +12538,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="121"/>
-      <c r="B291" s="254"/>
-      <c r="C291" s="251"/>
+      <c r="B291" s="229"/>
+      <c r="C291" s="227"/>
       <c r="D291" s="114"/>
-      <c r="E291" s="251"/>
+      <c r="E291" s="227"/>
       <c r="F291" s="76"/>
       <c r="G291" s="76"/>
       <c r="H291" s="76"/>
@@ -12565,10 +12569,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="121"/>
-      <c r="B292" s="254"/>
-      <c r="C292" s="254"/>
+      <c r="B292" s="229"/>
+      <c r="C292" s="229"/>
       <c r="D292" s="114"/>
-      <c r="E292" s="251"/>
+      <c r="E292" s="227"/>
       <c r="F292" s="76"/>
       <c r="G292" s="76"/>
       <c r="H292" s="76"/>
@@ -12596,10 +12600,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="121"/>
-      <c r="B293" s="254"/>
-      <c r="C293" s="254"/>
+      <c r="B293" s="229"/>
+      <c r="C293" s="229"/>
       <c r="D293" s="114"/>
-      <c r="E293" s="251"/>
+      <c r="E293" s="227"/>
       <c r="F293" s="76"/>
       <c r="G293" s="76"/>
       <c r="H293" s="76"/>
@@ -12627,10 +12631,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="121"/>
-      <c r="B294" s="254"/>
-      <c r="C294" s="254"/>
+      <c r="B294" s="229"/>
+      <c r="C294" s="229"/>
       <c r="D294" s="114"/>
-      <c r="E294" s="251"/>
+      <c r="E294" s="227"/>
       <c r="F294" s="76"/>
       <c r="G294" s="76"/>
       <c r="H294" s="76"/>
@@ -12658,10 +12662,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="121"/>
-      <c r="B295" s="254"/>
-      <c r="C295" s="254"/>
+      <c r="B295" s="229"/>
+      <c r="C295" s="229"/>
       <c r="D295" s="114"/>
-      <c r="E295" s="251"/>
+      <c r="E295" s="227"/>
       <c r="F295" s="76"/>
       <c r="G295" s="76"/>
       <c r="H295" s="76"/>
@@ -12689,10 +12693,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="121"/>
-      <c r="B296" s="254"/>
-      <c r="C296" s="254"/>
+      <c r="B296" s="229"/>
+      <c r="C296" s="229"/>
       <c r="D296" s="114"/>
-      <c r="E296" s="251"/>
+      <c r="E296" s="227"/>
       <c r="F296" s="137"/>
       <c r="G296" s="137"/>
       <c r="H296" s="137"/>
@@ -12720,10 +12724,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="121"/>
-      <c r="B297" s="254"/>
-      <c r="C297" s="254"/>
+      <c r="B297" s="229"/>
+      <c r="C297" s="229"/>
       <c r="D297" s="114"/>
-      <c r="E297" s="251"/>
+      <c r="E297" s="227"/>
       <c r="F297" s="76"/>
       <c r="G297" s="76"/>
       <c r="H297" s="76"/>
@@ -12751,10 +12755,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="121"/>
-      <c r="B298" s="254"/>
-      <c r="C298" s="254"/>
+      <c r="B298" s="229"/>
+      <c r="C298" s="229"/>
       <c r="D298" s="114"/>
-      <c r="E298" s="251"/>
+      <c r="E298" s="227"/>
       <c r="F298" s="76"/>
       <c r="G298" s="76"/>
       <c r="H298" s="76"/>
@@ -12782,8 +12786,8 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="121"/>
-      <c r="B299" s="254"/>
-      <c r="C299" s="254"/>
+      <c r="B299" s="229"/>
+      <c r="C299" s="229"/>
       <c r="D299" s="114"/>
       <c r="E299" s="118"/>
       <c r="F299" s="73"/>
@@ -12813,8 +12817,8 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="121"/>
-      <c r="B300" s="254"/>
-      <c r="C300" s="254"/>
+      <c r="B300" s="229"/>
+      <c r="C300" s="229"/>
       <c r="D300" s="114"/>
       <c r="E300" s="118"/>
       <c r="F300" s="74"/>
@@ -12844,10 +12848,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="121"/>
-      <c r="B301" s="254"/>
-      <c r="C301" s="254"/>
+      <c r="B301" s="229"/>
+      <c r="C301" s="229"/>
       <c r="D301" s="138"/>
-      <c r="E301" s="251"/>
+      <c r="E301" s="227"/>
       <c r="F301" s="83"/>
       <c r="G301" s="83"/>
       <c r="H301" s="83"/>
@@ -12875,10 +12879,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="121"/>
-      <c r="B302" s="254"/>
-      <c r="C302" s="254"/>
+      <c r="B302" s="229"/>
+      <c r="C302" s="229"/>
       <c r="D302" s="159"/>
-      <c r="E302" s="251"/>
+      <c r="E302" s="227"/>
       <c r="F302" s="74"/>
       <c r="G302" s="74"/>
       <c r="H302" s="74"/>
@@ -12906,10 +12910,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="121"/>
-      <c r="B303" s="254"/>
-      <c r="C303" s="254"/>
+      <c r="B303" s="229"/>
+      <c r="C303" s="229"/>
       <c r="D303" s="159"/>
-      <c r="E303" s="251"/>
+      <c r="E303" s="227"/>
       <c r="F303" s="74"/>
       <c r="G303" s="74"/>
       <c r="H303" s="74"/>
@@ -12937,10 +12941,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="121"/>
-      <c r="B304" s="254"/>
-      <c r="C304" s="251"/>
+      <c r="B304" s="229"/>
+      <c r="C304" s="227"/>
       <c r="D304" s="99"/>
-      <c r="E304" s="251"/>
+      <c r="E304" s="227"/>
       <c r="F304" s="74"/>
       <c r="G304" s="74"/>
       <c r="H304" s="74"/>
@@ -12968,7 +12972,7 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="121"/>
-      <c r="B305" s="254"/>
+      <c r="B305" s="229"/>
       <c r="C305" s="114"/>
       <c r="D305" s="159"/>
       <c r="E305" s="159"/>
@@ -12999,10 +13003,10 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="121"/>
-      <c r="B306" s="254"/>
-      <c r="C306" s="251"/>
+      <c r="B306" s="229"/>
+      <c r="C306" s="227"/>
       <c r="D306" s="138"/>
-      <c r="E306" s="255"/>
+      <c r="E306" s="230"/>
       <c r="F306" s="83"/>
       <c r="G306" s="83"/>
       <c r="H306" s="83"/>
@@ -13030,10 +13034,10 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="121"/>
-      <c r="B307" s="254"/>
-      <c r="C307" s="254"/>
+      <c r="B307" s="229"/>
+      <c r="C307" s="229"/>
       <c r="D307" s="99"/>
-      <c r="E307" s="255"/>
+      <c r="E307" s="230"/>
       <c r="F307" s="83"/>
       <c r="G307" s="83"/>
       <c r="H307" s="83"/>
@@ -13061,8 +13065,8 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="121"/>
-      <c r="B308" s="254"/>
-      <c r="C308" s="251"/>
+      <c r="B308" s="229"/>
+      <c r="C308" s="227"/>
       <c r="D308" s="114"/>
       <c r="E308" s="115"/>
       <c r="F308" s="83"/>
@@ -13092,7 +13096,7 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="121"/>
-      <c r="B309" s="254"/>
+      <c r="B309" s="229"/>
       <c r="C309" s="118"/>
       <c r="D309" s="118"/>
       <c r="E309" s="121"/>
@@ -13123,10 +13127,10 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="121"/>
-      <c r="B310" s="254"/>
-      <c r="C310" s="251"/>
+      <c r="B310" s="229"/>
+      <c r="C310" s="227"/>
       <c r="D310" s="138"/>
-      <c r="E310" s="251"/>
+      <c r="E310" s="227"/>
       <c r="F310" s="83"/>
       <c r="G310" s="83"/>
       <c r="H310" s="83"/>
@@ -13154,10 +13158,10 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="121"/>
-      <c r="B311" s="254"/>
-      <c r="C311" s="254"/>
+      <c r="B311" s="229"/>
+      <c r="C311" s="229"/>
       <c r="D311" s="159"/>
-      <c r="E311" s="251"/>
+      <c r="E311" s="227"/>
       <c r="F311" s="83"/>
       <c r="G311" s="83"/>
       <c r="H311" s="83"/>
@@ -13185,10 +13189,10 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="121"/>
-      <c r="B312" s="254"/>
-      <c r="C312" s="254"/>
+      <c r="B312" s="229"/>
+      <c r="C312" s="229"/>
       <c r="D312" s="159"/>
-      <c r="E312" s="251"/>
+      <c r="E312" s="227"/>
       <c r="F312" s="83"/>
       <c r="G312" s="83"/>
       <c r="H312" s="83"/>
@@ -13216,10 +13220,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="121"/>
-      <c r="B313" s="254"/>
-      <c r="C313" s="254"/>
+      <c r="B313" s="229"/>
+      <c r="C313" s="229"/>
       <c r="D313" s="159"/>
-      <c r="E313" s="251"/>
+      <c r="E313" s="227"/>
       <c r="F313" s="83"/>
       <c r="G313" s="83"/>
       <c r="H313" s="83"/>
@@ -13247,10 +13251,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="121"/>
-      <c r="B314" s="254"/>
-      <c r="C314" s="254"/>
+      <c r="B314" s="229"/>
+      <c r="C314" s="229"/>
       <c r="D314" s="159"/>
-      <c r="E314" s="251"/>
+      <c r="E314" s="227"/>
       <c r="F314" s="76"/>
       <c r="G314" s="76"/>
       <c r="H314" s="76"/>
@@ -13278,10 +13282,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="121"/>
-      <c r="B315" s="254"/>
-      <c r="C315" s="254"/>
+      <c r="B315" s="229"/>
+      <c r="C315" s="229"/>
       <c r="D315" s="99"/>
-      <c r="E315" s="251"/>
+      <c r="E315" s="227"/>
       <c r="F315" s="76"/>
       <c r="G315" s="76"/>
       <c r="H315" s="76"/>
@@ -13309,10 +13313,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="121"/>
-      <c r="B316" s="254"/>
-      <c r="C316" s="254"/>
+      <c r="B316" s="229"/>
+      <c r="C316" s="229"/>
       <c r="D316" s="138"/>
-      <c r="E316" s="251"/>
+      <c r="E316" s="227"/>
       <c r="F316" s="83"/>
       <c r="G316" s="83"/>
       <c r="H316" s="83"/>
@@ -13340,10 +13344,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="121"/>
-      <c r="B317" s="254"/>
-      <c r="C317" s="254"/>
+      <c r="B317" s="229"/>
+      <c r="C317" s="229"/>
       <c r="D317" s="159"/>
-      <c r="E317" s="251"/>
+      <c r="E317" s="227"/>
       <c r="F317" s="74"/>
       <c r="G317" s="74"/>
       <c r="H317" s="74"/>
@@ -13371,10 +13375,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="121"/>
-      <c r="B318" s="254"/>
-      <c r="C318" s="254"/>
+      <c r="B318" s="229"/>
+      <c r="C318" s="229"/>
       <c r="D318" s="159"/>
-      <c r="E318" s="251"/>
+      <c r="E318" s="227"/>
       <c r="F318" s="74"/>
       <c r="G318" s="74"/>
       <c r="H318" s="74"/>
@@ -13402,10 +13406,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="121"/>
-      <c r="B319" s="254"/>
-      <c r="C319" s="254"/>
+      <c r="B319" s="229"/>
+      <c r="C319" s="229"/>
       <c r="D319" s="99"/>
-      <c r="E319" s="251"/>
+      <c r="E319" s="227"/>
       <c r="F319" s="74"/>
       <c r="G319" s="74"/>
       <c r="H319" s="74"/>
@@ -15541,30 +15545,13 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="E310:E315"/>
-    <mergeCell ref="E316:E319"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="B291:B319"/>
-    <mergeCell ref="C291:C304"/>
-    <mergeCell ref="E291:E298"/>
-    <mergeCell ref="E301:E304"/>
-    <mergeCell ref="C306:C308"/>
-    <mergeCell ref="E306:E307"/>
-    <mergeCell ref="C310:C319"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="K278:K279"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D176:D186"/>
-    <mergeCell ref="M176:M183"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="K239:K241"/>
-    <mergeCell ref="L239:L241"/>
-    <mergeCell ref="C248:C254"/>
-    <mergeCell ref="E248:E250"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="C258:C262"/>
-    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="D131:D139"/>
     <mergeCell ref="B10:B186"/>
     <mergeCell ref="C10:C20"/>
@@ -15581,13 +15568,30 @@
     <mergeCell ref="D109:D118"/>
     <mergeCell ref="D120:D121"/>
     <mergeCell ref="D123:D129"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D176:D186"/>
+    <mergeCell ref="M176:M183"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="K239:K241"/>
+    <mergeCell ref="L239:L241"/>
+    <mergeCell ref="C248:C254"/>
+    <mergeCell ref="E248:E250"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="C258:C262"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="E310:E315"/>
+    <mergeCell ref="E316:E319"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="B291:B319"/>
+    <mergeCell ref="C291:C304"/>
+    <mergeCell ref="E291:E298"/>
+    <mergeCell ref="E301:E304"/>
+    <mergeCell ref="C306:C308"/>
+    <mergeCell ref="E306:E307"/>
+    <mergeCell ref="C310:C319"/>
   </mergeCells>
   <conditionalFormatting sqref="L8 L10:L48 L50:L95 L131:L387">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">

--- a/Daraz sign up and login test cases.xlsx
+++ b/Daraz sign up and login test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168EB53-1BFE-4DB0-984D-C942BA51DADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81267D9-C943-42E5-8459-10A71CECA8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="227">
   <si>
     <t>PASS</t>
   </si>
@@ -266,9 +266,6 @@
     <t>unchecked by default</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button</t>
-  </si>
-  <si>
     <t>Mandatory required fields will be mark with red asterisk</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>df</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. password field</t>
-  </si>
-  <si>
     <t>Verify with more than maximum character for password</t>
   </si>
   <si>
@@ -401,9 +395,6 @@
     <t>Kamal Hasan</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. Name field</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify name with only alphabets </t>
   </si>
   <si>
@@ -449,9 +440,6 @@
     <t>It will sign up</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button 3. click on Facebook.</t>
-  </si>
-  <si>
     <t>Verify sign up using google account</t>
   </si>
   <si>
@@ -497,9 +485,6 @@
     <t>0174 or tawfi</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. give input in the first field.</t>
-  </si>
-  <si>
     <t>Maximum Problem</t>
   </si>
   <si>
@@ -519,9 +504,6 @@
   </si>
   <si>
     <t>It should give the alert message</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. give input in the password field.</t>
   </si>
   <si>
     <t>Alert Message</t>
@@ -566,16 +548,10 @@
     <t>It should open  forgot your password page</t>
   </si>
   <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. click on "Forgot Password".</t>
-  </si>
-  <si>
     <t>Verify slide button</t>
   </si>
   <si>
     <t>It should slide left to right side and show verification passed</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click LOGIN button 3. Slide the slide button".</t>
   </si>
   <si>
     <t>Check  with invalid phone number and email</t>
@@ -649,10 +625,6 @@
   <si>
     <t>1. Go to url: www.daraz.com.bd.
 2. Click Sign Up button.</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd. 2. Click Sign Up button
-3. Check gender option</t>
   </si>
   <si>
     <t>1. Go to url: www.daraz.com.bd.
@@ -718,11 +690,6 @@
     <t>1. Go to url: www.daraz.com.bd.
 2. Click Sign Up button
 3. click Enter button on keyboard.</t>
-  </si>
-  <si>
-    <t>1. Go to url: www.daraz.com.bd.
-2. Click LOGIN button
-3. Keep fields blank. 4. click login.</t>
   </si>
   <si>
     <t>1. Go to url: www.daraz.com.bd.
@@ -807,6 +774,32 @@
   </si>
   <si>
     <t>Sign Up</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. Check gender option</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. click on Facebook.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Keep fields blank.
+4. click login.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. click on "Forgot Password".</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Slide the slide button".</t>
   </si>
 </sst>
 </file>
@@ -2085,38 +2078,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2155,20 +2130,38 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2612,9 +2605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
   <dimension ref="A1:AC387"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2636,10 +2629,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="253"/>
+      <c r="B1" s="229"/>
       <c r="C1" s="168" t="s">
         <v>49</v>
       </c>
@@ -2654,10 +2647,10 @@
       </c>
       <c r="G1" s="172"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="254" t="s">
+      <c r="I1" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="255"/>
+      <c r="J1" s="231"/>
       <c r="K1" s="3"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -2677,12 +2670,12 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="253"/>
+      <c r="B2" s="229"/>
       <c r="C2" s="173" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D2" s="174" t="s">
         <v>10</v>
@@ -2719,10 +2712,10 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="253"/>
+      <c r="B3" s="229"/>
       <c r="C3" s="173"/>
       <c r="D3" s="174" t="s">
         <v>13</v>
@@ -2761,10 +2754,10 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="253"/>
+      <c r="B4" s="229"/>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
         <v>16</v>
@@ -2801,15 +2794,15 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
       <c r="H5" s="2"/>
       <c r="I5" s="217" t="s">
         <v>3</v>
@@ -2993,14 +2986,14 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="239" t="s">
+      <c r="B10" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="240" t="s">
+      <c r="C10" s="234" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="239" t="s">
-        <v>231</v>
+      <c r="D10" s="233" t="s">
+        <v>221</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>52</v>
@@ -3015,7 +3008,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -3044,9 +3037,9 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="239"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="9" t="s">
         <v>56</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>40</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -3089,9 +3082,9 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="239"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="233"/>
       <c r="E12" s="9" t="s">
         <v>65</v>
       </c>
@@ -3105,7 +3098,7 @@
         <v>40</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -3134,9 +3127,9 @@
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="239"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="239"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="9" t="s">
         <v>58</v>
       </c>
@@ -3150,7 +3143,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="J13" s="166" t="s">
         <v>63</v>
@@ -3181,14 +3174,14 @@
       <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="239"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="233"/>
       <c r="E14" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>42</v>
@@ -3197,10 +3190,10 @@
         <v>40</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="J14" s="166" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="20" t="s">
@@ -3228,9 +3221,9 @@
       <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="239"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="233"/>
       <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
@@ -3244,7 +3237,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J15" s="166" t="s">
         <v>64</v>
@@ -3275,26 +3268,26 @@
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="239"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="233"/>
       <c r="E16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>70</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J16" s="166" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="20" t="s">
@@ -3322,9 +3315,9 @@
       <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="239"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="233"/>
       <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
@@ -3338,7 +3331,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J17" s="166" t="s">
         <v>68</v>
@@ -3369,9 +3362,9 @@
       <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="239"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="233"/>
       <c r="E18" s="9" t="s">
         <v>69</v>
       </c>
@@ -3385,7 +3378,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -3414,14 +3407,14 @@
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="239"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="239"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="234"/>
+      <c r="D19" s="233"/>
       <c r="E19" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>36</v>
@@ -3430,7 +3423,7 @@
         <v>40</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -3459,9 +3452,9 @@
       <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="239"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="239"/>
+      <c r="B20" s="233"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="233"/>
       <c r="E20" s="9" t="s">
         <v>72</v>
       </c>
@@ -3475,7 +3468,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -3502,9 +3495,9 @@
     </row>
     <row r="21" spans="1:29" s="194" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
-      <c r="B21" s="239"/>
+      <c r="B21" s="233"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="239"/>
+      <c r="D21" s="233"/>
       <c r="E21" s="188"/>
       <c r="F21" s="188"/>
       <c r="G21" s="188"/>
@@ -3535,16 +3528,16 @@
       <c r="A22" s="27">
         <v>13</v>
       </c>
-      <c r="B22" s="239"/>
-      <c r="C22" s="239" t="s">
+      <c r="B22" s="233"/>
+      <c r="C22" s="233" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="239"/>
+      <c r="D22" s="233"/>
       <c r="E22" s="28" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>36</v>
@@ -3553,10 +3546,10 @@
         <v>40</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="12" t="s">
@@ -3584,23 +3577,23 @@
       <c r="A23" s="27">
         <v>14</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="239"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
       <c r="E23" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="31"/>
@@ -3629,14 +3622,14 @@
       <c r="A24" s="27">
         <v>15</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
       <c r="E24" s="28" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>42</v>
@@ -3645,10 +3638,10 @@
         <v>17</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J24" s="166" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="12" t="s">
@@ -3676,14 +3669,14 @@
       <c r="A25" s="27">
         <v>16</v>
       </c>
-      <c r="B25" s="239"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
       <c r="E25" s="36" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>42</v>
@@ -3692,10 +3685,10 @@
         <v>1784813242456</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J25" s="167" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="12" t="s">
@@ -3723,14 +3716,14 @@
       <c r="A26" s="27">
         <v>17</v>
       </c>
-      <c r="B26" s="239"/>
-      <c r="C26" s="239"/>
-      <c r="D26" s="239"/>
+      <c r="B26" s="233"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
       <c r="E26" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>42</v>
@@ -3739,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J26" s="167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" s="38"/>
       <c r="L26" s="12" t="s">
@@ -3770,26 +3763,26 @@
       <c r="A27" s="27">
         <v>18</v>
       </c>
-      <c r="B27" s="239"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="239"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
       <c r="E27" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="H27" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="I27" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" s="226" t="s">
         <v>88</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J27" s="226" t="s">
-        <v>89</v>
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="12" t="s">
@@ -3817,14 +3810,14 @@
       <c r="A28" s="27">
         <v>19</v>
       </c>
-      <c r="B28" s="239"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="239"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
       <c r="E28" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>36</v>
@@ -3833,7 +3826,7 @@
         <v>555555</v>
       </c>
       <c r="I28" s="224" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K28" s="225"/>
       <c r="L28" s="12" t="s">
@@ -3861,14 +3854,14 @@
       <c r="A29" s="27">
         <v>20</v>
       </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
       <c r="E29" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>36</v>
@@ -3877,7 +3870,7 @@
         <v>66666666</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J29"/>
       <c r="K29" s="31"/>
@@ -3906,23 +3899,23 @@
       <c r="A30" s="27">
         <v>21</v>
       </c>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
+      <c r="B30" s="233"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
       <c r="E30" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="31"/>
@@ -3951,23 +3944,23 @@
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="239"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
       <c r="E31" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="31"/>
@@ -3996,23 +3989,23 @@
       <c r="A32" s="27">
         <v>23</v>
       </c>
-      <c r="B32" s="239"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="239"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="233"/>
       <c r="E32" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="31"/>
@@ -4041,23 +4034,23 @@
       <c r="A33" s="27">
         <v>24</v>
       </c>
-      <c r="B33" s="239"/>
-      <c r="C33" s="239"/>
-      <c r="D33" s="239"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
       <c r="E33" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="31"/>
@@ -4086,14 +4079,14 @@
       <c r="A34" s="27">
         <v>25</v>
       </c>
-      <c r="B34" s="239"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="239"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="233"/>
+      <c r="D34" s="233"/>
       <c r="E34" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>36</v>
@@ -4102,7 +4095,7 @@
         <v>222222</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="31"/>
@@ -4131,23 +4124,23 @@
       <c r="A35" s="27">
         <v>26</v>
       </c>
-      <c r="B35" s="239"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="239"/>
+      <c r="B35" s="233"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="233"/>
       <c r="E35" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F35" s="221" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="165" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
@@ -4176,23 +4169,23 @@
       <c r="A36" s="27">
         <v>27</v>
       </c>
-      <c r="B36" s="239"/>
-      <c r="C36" s="239"/>
-      <c r="D36" s="239"/>
+      <c r="B36" s="233"/>
+      <c r="C36" s="233"/>
+      <c r="D36" s="233"/>
       <c r="E36" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="31"/>
@@ -4221,14 +4214,14 @@
       <c r="A37" s="27">
         <v>28</v>
       </c>
-      <c r="B37" s="239"/>
-      <c r="C37" s="239"/>
-      <c r="D37" s="239"/>
+      <c r="B37" s="233"/>
+      <c r="C37" s="233"/>
+      <c r="D37" s="233"/>
       <c r="E37" s="28" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>42</v>
@@ -4237,10 +4230,10 @@
         <v>123</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J37" s="166" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="12" t="s">
@@ -4268,23 +4261,23 @@
       <c r="A38" s="27">
         <v>29</v>
       </c>
-      <c r="B38" s="239"/>
-      <c r="C38" s="239"/>
-      <c r="D38" s="239"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="233"/>
+      <c r="D38" s="233"/>
       <c r="E38" s="36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -4313,26 +4306,26 @@
       <c r="A39" s="27">
         <v>30</v>
       </c>
-      <c r="B39" s="239"/>
-      <c r="C39" s="239"/>
-      <c r="D39" s="239"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="233"/>
       <c r="E39" s="36" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J39" s="166" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="12" t="s">
@@ -4360,23 +4353,23 @@
       <c r="A40" s="27">
         <v>31</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="239"/>
-      <c r="D40" s="239"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="233"/>
+      <c r="D40" s="233"/>
       <c r="E40" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="165" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -4405,23 +4398,23 @@
       <c r="A41" s="27">
         <v>32</v>
       </c>
-      <c r="B41" s="239"/>
-      <c r="C41" s="239"/>
-      <c r="D41" s="239"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="233"/>
       <c r="E41" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
@@ -4450,14 +4443,14 @@
       <c r="A42" s="27">
         <v>33</v>
       </c>
-      <c r="B42" s="239"/>
-      <c r="C42" s="239"/>
-      <c r="D42" s="239"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="233"/>
       <c r="E42" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>36</v>
@@ -4466,7 +4459,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -4495,14 +4488,14 @@
       <c r="A43" s="27">
         <v>34</v>
       </c>
-      <c r="B43" s="239"/>
-      <c r="C43" s="239"/>
-      <c r="D43" s="239"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="233"/>
       <c r="E43" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>36</v>
@@ -4511,7 +4504,7 @@
         <v>40</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -4540,14 +4533,14 @@
       <c r="A44" s="27">
         <v>35</v>
       </c>
-      <c r="B44" s="239"/>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="233"/>
+      <c r="D44" s="233"/>
       <c r="E44" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>36</v>
@@ -4556,7 +4549,7 @@
         <v>40</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -4583,9 +4576,9 @@
     </row>
     <row r="45" spans="1:29" s="199" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="195"/>
-      <c r="B45" s="239"/>
+      <c r="B45" s="233"/>
       <c r="C45" s="196"/>
-      <c r="D45" s="239"/>
+      <c r="D45" s="233"/>
       <c r="E45" s="197"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188"/>
@@ -4616,25 +4609,25 @@
       <c r="A46" s="27">
         <v>36</v>
       </c>
-      <c r="B46" s="239"/>
-      <c r="C46" s="239" t="s">
+      <c r="B46" s="233"/>
+      <c r="C46" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="239"/>
+      <c r="D46" s="233"/>
       <c r="E46" s="36" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -4663,23 +4656,23 @@
       <c r="A47" s="27">
         <v>37</v>
       </c>
-      <c r="B47" s="239"/>
-      <c r="C47" s="239"/>
-      <c r="D47" s="239"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
       <c r="E47" s="43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G47" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H47" s="29" t="s">
-        <v>142</v>
-      </c>
       <c r="I47" s="10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -4708,26 +4701,26 @@
       <c r="A48" s="27">
         <v>38</v>
       </c>
-      <c r="B48" s="239"/>
-      <c r="C48" s="239"/>
-      <c r="D48" s="239"/>
+      <c r="B48" s="233"/>
+      <c r="C48" s="233"/>
+      <c r="D48" s="233"/>
       <c r="E48" s="43" t="s">
         <v>45</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J48" s="166" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="12" t="s">
@@ -4753,7 +4746,7 @@
     </row>
     <row r="49" spans="1:29" s="208" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="200"/>
-      <c r="B49" s="239"/>
+      <c r="B49" s="233"/>
       <c r="C49" s="201"/>
       <c r="D49" s="202"/>
       <c r="E49" s="203"/>
@@ -4786,12 +4779,12 @@
       <c r="A50" s="27">
         <v>39</v>
       </c>
-      <c r="B50" s="239"/>
-      <c r="C50" s="241" t="s">
+      <c r="B50" s="233"/>
+      <c r="C50" s="235" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="241" t="s">
-        <v>147</v>
+      <c r="D50" s="235" t="s">
+        <v>143</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>47</v>
@@ -4806,7 +4799,7 @@
         <v>40</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -4835,23 +4828,23 @@
       <c r="A51" s="27">
         <v>40</v>
       </c>
-      <c r="B51" s="239"/>
-      <c r="C51" s="242"/>
-      <c r="D51" s="242"/>
+      <c r="B51" s="233"/>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236"/>
       <c r="E51" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="31"/>
@@ -4880,14 +4873,14 @@
       <c r="A52" s="27">
         <v>41</v>
       </c>
-      <c r="B52" s="239"/>
-      <c r="C52" s="242"/>
-      <c r="D52" s="242"/>
+      <c r="B52" s="233"/>
+      <c r="C52" s="236"/>
+      <c r="D52" s="236"/>
       <c r="E52" s="36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>42</v>
@@ -4896,10 +4889,10 @@
         <v>1.23451234567897E+77</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="12" t="s">
@@ -4918,26 +4911,26 @@
       <c r="A53" s="27">
         <v>42</v>
       </c>
-      <c r="B53" s="239"/>
-      <c r="C53" s="242"/>
-      <c r="D53" s="242"/>
+      <c r="B53" s="233"/>
+      <c r="C53" s="236"/>
+      <c r="D53" s="236"/>
       <c r="E53" s="36" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J53" s="166" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="12" t="s">
@@ -4965,26 +4958,26 @@
       <c r="A54" s="27">
         <v>43</v>
       </c>
-      <c r="B54" s="239"/>
-      <c r="C54" s="242"/>
-      <c r="D54" s="242"/>
+      <c r="B54" s="233"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="236"/>
       <c r="E54" s="36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J54" s="166" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="12" t="s">
@@ -5012,23 +5005,23 @@
       <c r="A55" s="27">
         <v>44</v>
       </c>
-      <c r="B55" s="239"/>
-      <c r="C55" s="242"/>
-      <c r="D55" s="242"/>
+      <c r="B55" s="233"/>
+      <c r="C55" s="236"/>
+      <c r="D55" s="236"/>
       <c r="E55" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
@@ -5057,23 +5050,23 @@
       <c r="A56" s="27">
         <v>45</v>
       </c>
-      <c r="B56" s="239"/>
-      <c r="C56" s="242"/>
-      <c r="D56" s="242"/>
+      <c r="B56" s="233"/>
+      <c r="C56" s="236"/>
+      <c r="D56" s="236"/>
       <c r="E56" s="36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -5102,23 +5095,23 @@
       <c r="A57" s="27">
         <v>46</v>
       </c>
-      <c r="B57" s="239"/>
-      <c r="C57" s="242"/>
-      <c r="D57" s="242"/>
+      <c r="B57" s="233"/>
+      <c r="C57" s="236"/>
+      <c r="D57" s="236"/>
       <c r="E57" s="36" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="222"/>
@@ -5147,21 +5140,21 @@
       <c r="A58" s="27">
         <v>47</v>
       </c>
-      <c r="B58" s="239"/>
-      <c r="C58" s="242"/>
-      <c r="D58" s="242"/>
+      <c r="B58" s="233"/>
+      <c r="C58" s="236"/>
+      <c r="D58" s="236"/>
       <c r="E58" s="36" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H58" s="165"/>
       <c r="I58" s="10" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -5190,14 +5183,14 @@
       <c r="A59" s="27">
         <v>48</v>
       </c>
-      <c r="B59" s="239"/>
-      <c r="C59" s="242"/>
-      <c r="D59" s="242"/>
+      <c r="B59" s="233"/>
+      <c r="C59" s="236"/>
+      <c r="D59" s="236"/>
       <c r="E59" s="36" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>36</v>
@@ -5206,7 +5199,7 @@
         <v>40</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -5235,14 +5228,14 @@
       <c r="A60" s="27">
         <v>49</v>
       </c>
-      <c r="B60" s="239"/>
-      <c r="C60" s="242"/>
-      <c r="D60" s="242"/>
+      <c r="B60" s="233"/>
+      <c r="C60" s="236"/>
+      <c r="D60" s="236"/>
       <c r="E60" s="28" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>36</v>
@@ -5251,7 +5244,7 @@
         <v>40</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -5280,14 +5273,14 @@
       <c r="A61" s="27">
         <v>50</v>
       </c>
-      <c r="B61" s="239"/>
-      <c r="C61" s="242"/>
-      <c r="D61" s="242"/>
+      <c r="B61" s="233"/>
+      <c r="C61" s="236"/>
+      <c r="D61" s="236"/>
       <c r="E61" s="36" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>36</v>
@@ -5296,7 +5289,7 @@
         <v>40</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -5325,14 +5318,14 @@
       <c r="A62" s="27">
         <v>51</v>
       </c>
-      <c r="B62" s="239"/>
-      <c r="C62" s="242"/>
-      <c r="D62" s="242"/>
+      <c r="B62" s="233"/>
+      <c r="C62" s="236"/>
+      <c r="D62" s="236"/>
       <c r="E62" s="36" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>36</v>
@@ -5341,7 +5334,7 @@
         <v>40</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
@@ -5370,14 +5363,14 @@
       <c r="A63" s="27">
         <v>52</v>
       </c>
-      <c r="B63" s="239"/>
-      <c r="C63" s="242"/>
-      <c r="D63" s="242"/>
+      <c r="B63" s="233"/>
+      <c r="C63" s="236"/>
+      <c r="D63" s="236"/>
       <c r="E63" s="36" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>36</v>
@@ -5386,7 +5379,7 @@
         <v>40</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
@@ -5415,14 +5408,14 @@
       <c r="A64" s="27">
         <v>53</v>
       </c>
-      <c r="B64" s="239"/>
-      <c r="C64" s="242"/>
-      <c r="D64" s="242"/>
+      <c r="B64" s="233"/>
+      <c r="C64" s="236"/>
+      <c r="D64" s="236"/>
       <c r="E64" s="36" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>42</v>
@@ -5431,10 +5424,10 @@
         <v>40</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J64" s="166" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="12" t="s">
@@ -5462,14 +5455,14 @@
       <c r="A65" s="27">
         <v>54</v>
       </c>
-      <c r="B65" s="239"/>
-      <c r="C65" s="242"/>
-      <c r="D65" s="242"/>
+      <c r="B65" s="233"/>
+      <c r="C65" s="236"/>
+      <c r="D65" s="236"/>
       <c r="E65" s="36" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>36</v>
@@ -5478,7 +5471,7 @@
         <v>40</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
@@ -5507,14 +5500,14 @@
       <c r="A66" s="27">
         <v>55</v>
       </c>
-      <c r="B66" s="239"/>
-      <c r="C66" s="242"/>
-      <c r="D66" s="242"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="236"/>
+      <c r="D66" s="236"/>
       <c r="E66" s="36" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>36</v>
@@ -5523,7 +5516,7 @@
         <v>40</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -5552,14 +5545,14 @@
       <c r="A67" s="27">
         <v>56</v>
       </c>
-      <c r="B67" s="239"/>
-      <c r="C67" s="242"/>
-      <c r="D67" s="242"/>
+      <c r="B67" s="233"/>
+      <c r="C67" s="236"/>
+      <c r="D67" s="236"/>
       <c r="E67" s="36" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>42</v>
@@ -5568,10 +5561,10 @@
         <v>40</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="J67" s="166" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K67" s="29"/>
       <c r="L67" s="12" t="s">
@@ -5599,14 +5592,14 @@
       <c r="A68" s="27">
         <v>57</v>
       </c>
-      <c r="B68" s="239"/>
-      <c r="C68" s="242"/>
-      <c r="D68" s="242"/>
+      <c r="B68" s="233"/>
+      <c r="C68" s="236"/>
+      <c r="D68" s="236"/>
       <c r="E68" s="36" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>36</v>
@@ -5615,7 +5608,7 @@
         <v>40</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
@@ -5644,14 +5637,14 @@
       <c r="A69" s="27">
         <v>58</v>
       </c>
-      <c r="B69" s="239"/>
-      <c r="C69" s="242"/>
-      <c r="D69" s="242"/>
+      <c r="B69" s="233"/>
+      <c r="C69" s="236"/>
+      <c r="D69" s="236"/>
       <c r="E69" s="36" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>36</v>
@@ -5660,7 +5653,7 @@
         <v>40</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
@@ -5687,9 +5680,9 @@
     </row>
     <row r="70" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
-      <c r="B70" s="239"/>
-      <c r="C70" s="242"/>
-      <c r="D70" s="242"/>
+      <c r="B70" s="233"/>
+      <c r="C70" s="236"/>
+      <c r="D70" s="236"/>
       <c r="E70" s="36"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
@@ -5718,9 +5711,9 @@
     </row>
     <row r="71" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27"/>
-      <c r="B71" s="239"/>
-      <c r="C71" s="242"/>
-      <c r="D71" s="242"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="236"/>
+      <c r="D71" s="236"/>
       <c r="E71" s="36"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -5749,9 +5742,9 @@
     </row>
     <row r="72" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
-      <c r="B72" s="239"/>
-      <c r="C72" s="242"/>
-      <c r="D72" s="242"/>
+      <c r="B72" s="233"/>
+      <c r="C72" s="236"/>
+      <c r="D72" s="236"/>
       <c r="E72" s="36"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -5780,9 +5773,9 @@
     </row>
     <row r="73" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
-      <c r="B73" s="239"/>
-      <c r="C73" s="242"/>
-      <c r="D73" s="242"/>
+      <c r="B73" s="233"/>
+      <c r="C73" s="236"/>
+      <c r="D73" s="236"/>
       <c r="E73" s="36"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -5811,9 +5804,9 @@
     </row>
     <row r="74" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
-      <c r="B74" s="239"/>
-      <c r="C74" s="242"/>
-      <c r="D74" s="242"/>
+      <c r="B74" s="233"/>
+      <c r="C74" s="236"/>
+      <c r="D74" s="236"/>
       <c r="E74" s="36"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -5842,9 +5835,9 @@
     </row>
     <row r="75" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
-      <c r="B75" s="239"/>
-      <c r="C75" s="243"/>
-      <c r="D75" s="243"/>
+      <c r="B75" s="233"/>
+      <c r="C75" s="237"/>
+      <c r="D75" s="237"/>
       <c r="E75" s="36"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
@@ -5873,7 +5866,7 @@
     </row>
     <row r="76" spans="1:29" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
-      <c r="B76" s="239"/>
+      <c r="B76" s="233"/>
       <c r="C76" s="47"/>
       <c r="D76" s="48"/>
       <c r="E76" s="49"/>
@@ -5904,9 +5897,9 @@
     </row>
     <row r="77" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
-      <c r="B77" s="239"/>
-      <c r="C77" s="244"/>
-      <c r="D77" s="245"/>
+      <c r="B77" s="233"/>
+      <c r="C77" s="238"/>
+      <c r="D77" s="239"/>
       <c r="E77" s="36"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
@@ -5935,9 +5928,9 @@
     </row>
     <row r="78" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
-      <c r="B78" s="239"/>
-      <c r="C78" s="244"/>
-      <c r="D78" s="245"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="238"/>
+      <c r="D78" s="239"/>
       <c r="E78" s="36"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
@@ -5966,9 +5959,9 @@
     </row>
     <row r="79" spans="1:29" s="34" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
-      <c r="B79" s="239"/>
-      <c r="C79" s="244"/>
-      <c r="D79" s="245"/>
+      <c r="B79" s="233"/>
+      <c r="C79" s="238"/>
+      <c r="D79" s="239"/>
       <c r="E79" s="29"/>
       <c r="F79" s="18"/>
       <c r="G79" s="29"/>
@@ -5997,9 +5990,9 @@
     </row>
     <row r="80" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
-      <c r="B80" s="239"/>
-      <c r="C80" s="244"/>
-      <c r="D80" s="245"/>
+      <c r="B80" s="233"/>
+      <c r="C80" s="238"/>
+      <c r="D80" s="239"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
@@ -6028,8 +6021,8 @@
     </row>
     <row r="81" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
-      <c r="B81" s="239"/>
-      <c r="C81" s="244"/>
+      <c r="B81" s="233"/>
+      <c r="C81" s="238"/>
       <c r="D81" s="52"/>
       <c r="E81" s="53"/>
       <c r="F81" s="29"/>
@@ -6059,7 +6052,7 @@
     </row>
     <row r="82" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="54"/>
-      <c r="B82" s="239"/>
+      <c r="B82" s="233"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
       <c r="E82" s="53"/>
@@ -6090,7 +6083,7 @@
     </row>
     <row r="83" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="54"/>
-      <c r="B83" s="239"/>
+      <c r="B83" s="233"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
       <c r="E83" s="55"/>
@@ -6121,7 +6114,7 @@
     </row>
     <row r="84" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
-      <c r="B84" s="239"/>
+      <c r="B84" s="233"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
       <c r="E84" s="55"/>
@@ -6152,7 +6145,7 @@
     </row>
     <row r="85" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
-      <c r="B85" s="239"/>
+      <c r="B85" s="233"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
       <c r="E85" s="55"/>
@@ -6183,7 +6176,7 @@
     </row>
     <row r="86" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
-      <c r="B86" s="239"/>
+      <c r="B86" s="233"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
       <c r="E86" s="55"/>
@@ -6214,7 +6207,7 @@
     </row>
     <row r="87" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
-      <c r="B87" s="239"/>
+      <c r="B87" s="233"/>
       <c r="C87" s="51"/>
       <c r="D87" s="56"/>
       <c r="E87" s="55"/>
@@ -6245,9 +6238,9 @@
     </row>
     <row r="88" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
-      <c r="B88" s="239"/>
+      <c r="B88" s="233"/>
       <c r="C88" s="51"/>
-      <c r="D88" s="246"/>
+      <c r="D88" s="240"/>
       <c r="E88" s="55"/>
       <c r="F88" s="18"/>
       <c r="G88" s="29"/>
@@ -6276,9 +6269,9 @@
     </row>
     <row r="89" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="54"/>
-      <c r="B89" s="239"/>
+      <c r="B89" s="233"/>
       <c r="C89" s="51"/>
-      <c r="D89" s="246"/>
+      <c r="D89" s="240"/>
       <c r="E89" s="55"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -6307,9 +6300,9 @@
     </row>
     <row r="90" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54"/>
-      <c r="B90" s="239"/>
+      <c r="B90" s="233"/>
       <c r="C90" s="51"/>
-      <c r="D90" s="246"/>
+      <c r="D90" s="240"/>
       <c r="E90" s="57"/>
       <c r="F90" s="9"/>
       <c r="G90" s="29"/>
@@ -6338,9 +6331,9 @@
     </row>
     <row r="91" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="54"/>
-      <c r="B91" s="239"/>
+      <c r="B91" s="233"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="246"/>
+      <c r="D91" s="240"/>
       <c r="E91" s="57"/>
       <c r="F91" s="9"/>
       <c r="G91" s="29"/>
@@ -6369,9 +6362,9 @@
     </row>
     <row r="92" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
-      <c r="B92" s="239"/>
+      <c r="B92" s="233"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="246"/>
+      <c r="D92" s="240"/>
       <c r="E92" s="57"/>
       <c r="F92" s="9"/>
       <c r="G92" s="29"/>
@@ -6400,7 +6393,7 @@
     </row>
     <row r="93" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
-      <c r="B93" s="239"/>
+      <c r="B93" s="233"/>
       <c r="C93" s="51"/>
       <c r="D93" s="58"/>
       <c r="E93" s="59"/>
@@ -6431,9 +6424,9 @@
     </row>
     <row r="94" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54"/>
-      <c r="B94" s="239"/>
+      <c r="B94" s="233"/>
       <c r="C94" s="51"/>
-      <c r="D94" s="246"/>
+      <c r="D94" s="240"/>
       <c r="E94" s="53"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -6462,9 +6455,9 @@
     </row>
     <row r="95" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
-      <c r="B95" s="239"/>
+      <c r="B95" s="233"/>
       <c r="C95" s="51"/>
-      <c r="D95" s="246"/>
+      <c r="D95" s="240"/>
       <c r="E95" s="53"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -6493,7 +6486,7 @@
     </row>
     <row r="96" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="54"/>
-      <c r="B96" s="239"/>
+      <c r="B96" s="233"/>
       <c r="C96" s="51"/>
       <c r="D96" s="60"/>
       <c r="E96" s="55"/>
@@ -6524,9 +6517,9 @@
     </row>
     <row r="97" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="54"/>
-      <c r="B97" s="239"/>
+      <c r="B97" s="233"/>
       <c r="C97" s="51"/>
-      <c r="D97" s="247"/>
+      <c r="D97" s="241"/>
       <c r="E97" s="55"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -6555,9 +6548,9 @@
     </row>
     <row r="98" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="54"/>
-      <c r="B98" s="239"/>
+      <c r="B98" s="233"/>
       <c r="C98" s="51"/>
-      <c r="D98" s="247"/>
+      <c r="D98" s="241"/>
       <c r="E98" s="55"/>
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
@@ -6586,9 +6579,9 @@
     </row>
     <row r="99" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54"/>
-      <c r="B99" s="239"/>
+      <c r="B99" s="233"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="247"/>
+      <c r="D99" s="241"/>
       <c r="E99" s="57"/>
       <c r="F99" s="9"/>
       <c r="G99" s="29"/>
@@ -6617,9 +6610,9 @@
     </row>
     <row r="100" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="54"/>
-      <c r="B100" s="239"/>
+      <c r="B100" s="233"/>
       <c r="C100" s="51"/>
-      <c r="D100" s="247"/>
+      <c r="D100" s="241"/>
       <c r="E100" s="53"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -6648,9 +6641,9 @@
     </row>
     <row r="101" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54"/>
-      <c r="B101" s="239"/>
+      <c r="B101" s="233"/>
       <c r="C101" s="51"/>
-      <c r="D101" s="247"/>
+      <c r="D101" s="241"/>
       <c r="E101" s="53"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -6679,9 +6672,9 @@
     </row>
     <row r="102" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="54"/>
-      <c r="B102" s="239"/>
+      <c r="B102" s="233"/>
       <c r="C102" s="51"/>
-      <c r="D102" s="247"/>
+      <c r="D102" s="241"/>
       <c r="E102" s="55"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -6710,9 +6703,9 @@
     </row>
     <row r="103" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="54"/>
-      <c r="B103" s="239"/>
+      <c r="B103" s="233"/>
       <c r="C103" s="51"/>
-      <c r="D103" s="247"/>
+      <c r="D103" s="241"/>
       <c r="E103" s="55"/>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
@@ -6741,9 +6734,9 @@
     </row>
     <row r="104" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="54"/>
-      <c r="B104" s="239"/>
+      <c r="B104" s="233"/>
       <c r="C104" s="51"/>
-      <c r="D104" s="247"/>
+      <c r="D104" s="241"/>
       <c r="E104" s="55"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
@@ -6772,9 +6765,9 @@
     </row>
     <row r="105" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="54"/>
-      <c r="B105" s="239"/>
+      <c r="B105" s="233"/>
       <c r="C105" s="51"/>
-      <c r="D105" s="247"/>
+      <c r="D105" s="241"/>
       <c r="E105" s="57"/>
       <c r="F105" s="9"/>
       <c r="G105" s="29"/>
@@ -6803,9 +6796,9 @@
     </row>
     <row r="106" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="54"/>
-      <c r="B106" s="239"/>
+      <c r="B106" s="233"/>
       <c r="C106" s="51"/>
-      <c r="D106" s="247"/>
+      <c r="D106" s="241"/>
       <c r="E106" s="59"/>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -6834,9 +6827,9 @@
     </row>
     <row r="107" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="54"/>
-      <c r="B107" s="239"/>
+      <c r="B107" s="233"/>
       <c r="C107" s="51"/>
-      <c r="D107" s="247"/>
+      <c r="D107" s="241"/>
       <c r="E107" s="53"/>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -6865,7 +6858,7 @@
     </row>
     <row r="108" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="54"/>
-      <c r="B108" s="239"/>
+      <c r="B108" s="233"/>
       <c r="C108" s="51"/>
       <c r="D108" s="60"/>
       <c r="E108" s="53"/>
@@ -6896,9 +6889,9 @@
     </row>
     <row r="109" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
-      <c r="B109" s="239"/>
+      <c r="B109" s="233"/>
       <c r="C109" s="51"/>
-      <c r="D109" s="248"/>
+      <c r="D109" s="242"/>
       <c r="E109" s="55"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
@@ -6927,9 +6920,9 @@
     </row>
     <row r="110" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="54"/>
-      <c r="B110" s="239"/>
+      <c r="B110" s="233"/>
       <c r="C110" s="51"/>
-      <c r="D110" s="248"/>
+      <c r="D110" s="242"/>
       <c r="E110" s="55"/>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
@@ -6958,9 +6951,9 @@
     </row>
     <row r="111" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="54"/>
-      <c r="B111" s="239"/>
+      <c r="B111" s="233"/>
       <c r="C111" s="51"/>
-      <c r="D111" s="248"/>
+      <c r="D111" s="242"/>
       <c r="E111" s="55"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -6989,9 +6982,9 @@
     </row>
     <row r="112" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="54"/>
-      <c r="B112" s="239"/>
+      <c r="B112" s="233"/>
       <c r="C112" s="51"/>
-      <c r="D112" s="248"/>
+      <c r="D112" s="242"/>
       <c r="E112" s="57"/>
       <c r="F112" s="9"/>
       <c r="G112" s="29"/>
@@ -7020,9 +7013,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="62"/>
-      <c r="B113" s="239"/>
+      <c r="B113" s="233"/>
       <c r="C113" s="63"/>
-      <c r="D113" s="248"/>
+      <c r="D113" s="242"/>
       <c r="E113" s="64"/>
       <c r="F113" s="65"/>
       <c r="G113" s="65"/>
@@ -7051,9 +7044,9 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="68"/>
-      <c r="B114" s="239"/>
+      <c r="B114" s="233"/>
       <c r="C114" s="63"/>
-      <c r="D114" s="248"/>
+      <c r="D114" s="242"/>
       <c r="E114" s="69"/>
       <c r="F114" s="70"/>
       <c r="G114" s="71"/>
@@ -7082,9 +7075,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="68"/>
-      <c r="B115" s="239"/>
+      <c r="B115" s="233"/>
       <c r="C115" s="63"/>
-      <c r="D115" s="248"/>
+      <c r="D115" s="242"/>
       <c r="E115" s="75"/>
       <c r="F115" s="76"/>
       <c r="G115" s="76"/>
@@ -7113,9 +7106,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="68"/>
-      <c r="B116" s="239"/>
+      <c r="B116" s="233"/>
       <c r="C116" s="63"/>
-      <c r="D116" s="248"/>
+      <c r="D116" s="242"/>
       <c r="E116" s="75"/>
       <c r="F116" s="76"/>
       <c r="G116" s="76"/>
@@ -7144,9 +7137,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
-      <c r="B117" s="239"/>
+      <c r="B117" s="233"/>
       <c r="C117" s="63"/>
-      <c r="D117" s="248"/>
+      <c r="D117" s="242"/>
       <c r="E117" s="79"/>
       <c r="F117" s="76"/>
       <c r="G117" s="76"/>
@@ -7175,9 +7168,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="68"/>
-      <c r="B118" s="239"/>
+      <c r="B118" s="233"/>
       <c r="C118" s="63"/>
-      <c r="D118" s="248"/>
+      <c r="D118" s="242"/>
       <c r="E118" s="80"/>
       <c r="F118" s="70"/>
       <c r="G118" s="71"/>
@@ -7206,7 +7199,7 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="68"/>
-      <c r="B119" s="239"/>
+      <c r="B119" s="233"/>
       <c r="C119" s="63"/>
       <c r="D119" s="81"/>
       <c r="E119" s="69"/>
@@ -7237,9 +7230,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
-      <c r="B120" s="239"/>
+      <c r="B120" s="233"/>
       <c r="C120" s="63"/>
-      <c r="D120" s="249"/>
+      <c r="D120" s="243"/>
       <c r="E120" s="82"/>
       <c r="F120" s="70"/>
       <c r="G120" s="71"/>
@@ -7268,9 +7261,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="68"/>
-      <c r="B121" s="239"/>
+      <c r="B121" s="233"/>
       <c r="C121" s="63"/>
-      <c r="D121" s="249"/>
+      <c r="D121" s="243"/>
       <c r="E121" s="84"/>
       <c r="F121" s="76"/>
       <c r="G121" s="76"/>
@@ -7299,7 +7292,7 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
-      <c r="B122" s="239"/>
+      <c r="B122" s="233"/>
       <c r="C122" s="63"/>
       <c r="D122" s="1"/>
       <c r="E122" s="85"/>
@@ -7330,9 +7323,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
-      <c r="B123" s="239"/>
+      <c r="B123" s="233"/>
       <c r="C123" s="63"/>
-      <c r="D123" s="250"/>
+      <c r="D123" s="244"/>
       <c r="E123" s="84"/>
       <c r="F123" s="76"/>
       <c r="G123" s="76"/>
@@ -7361,9 +7354,9 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
-      <c r="B124" s="239"/>
+      <c r="B124" s="233"/>
       <c r="C124" s="63"/>
-      <c r="D124" s="250"/>
+      <c r="D124" s="244"/>
       <c r="E124" s="82"/>
       <c r="F124" s="76"/>
       <c r="G124" s="76"/>
@@ -7392,9 +7385,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="68"/>
-      <c r="B125" s="239"/>
+      <c r="B125" s="233"/>
       <c r="C125" s="63"/>
-      <c r="D125" s="250"/>
+      <c r="D125" s="244"/>
       <c r="E125" s="84"/>
       <c r="F125" s="76"/>
       <c r="G125" s="76"/>
@@ -7423,9 +7416,9 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="68"/>
-      <c r="B126" s="239"/>
+      <c r="B126" s="233"/>
       <c r="C126" s="63"/>
-      <c r="D126" s="250"/>
+      <c r="D126" s="244"/>
       <c r="E126" s="82"/>
       <c r="F126" s="70"/>
       <c r="G126" s="71"/>
@@ -7454,9 +7447,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="68"/>
-      <c r="B127" s="239"/>
+      <c r="B127" s="233"/>
       <c r="C127" s="63"/>
-      <c r="D127" s="250"/>
+      <c r="D127" s="244"/>
       <c r="E127" s="86"/>
       <c r="F127" s="87"/>
       <c r="G127" s="78"/>
@@ -7485,9 +7478,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="68"/>
-      <c r="B128" s="239"/>
+      <c r="B128" s="233"/>
       <c r="C128" s="63"/>
-      <c r="D128" s="250"/>
+      <c r="D128" s="244"/>
       <c r="E128" s="82"/>
       <c r="F128" s="88"/>
       <c r="G128" s="71"/>
@@ -7516,9 +7509,9 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="68"/>
-      <c r="B129" s="239"/>
+      <c r="B129" s="233"/>
       <c r="C129" s="63"/>
-      <c r="D129" s="250"/>
+      <c r="D129" s="244"/>
       <c r="E129" s="86"/>
       <c r="F129" s="89"/>
       <c r="G129" s="78"/>
@@ -7547,7 +7540,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
-      <c r="B130" s="239"/>
+      <c r="B130" s="233"/>
       <c r="C130" s="63"/>
       <c r="D130" s="90"/>
       <c r="E130" s="86"/>
@@ -7578,9 +7571,9 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68"/>
-      <c r="B131" s="239"/>
+      <c r="B131" s="233"/>
       <c r="C131" s="63"/>
-      <c r="D131" s="238"/>
+      <c r="D131" s="232"/>
       <c r="E131" s="91"/>
       <c r="F131" s="92"/>
       <c r="G131" s="78"/>
@@ -7609,9 +7602,9 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68"/>
-      <c r="B132" s="239"/>
+      <c r="B132" s="233"/>
       <c r="C132" s="63"/>
-      <c r="D132" s="238"/>
+      <c r="D132" s="232"/>
       <c r="E132" s="86"/>
       <c r="F132" s="92"/>
       <c r="G132" s="78"/>
@@ -7640,9 +7633,9 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68"/>
-      <c r="B133" s="239"/>
+      <c r="B133" s="233"/>
       <c r="C133" s="63"/>
-      <c r="D133" s="238"/>
+      <c r="D133" s="232"/>
       <c r="E133" s="93"/>
       <c r="F133" s="83"/>
       <c r="G133" s="83"/>
@@ -7671,9 +7664,9 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68"/>
-      <c r="B134" s="239"/>
+      <c r="B134" s="233"/>
       <c r="C134" s="63"/>
-      <c r="D134" s="238"/>
+      <c r="D134" s="232"/>
       <c r="E134" s="93"/>
       <c r="F134" s="83"/>
       <c r="G134" s="83"/>
@@ -7702,9 +7695,9 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
-      <c r="B135" s="239"/>
+      <c r="B135" s="233"/>
       <c r="C135" s="63"/>
-      <c r="D135" s="238"/>
+      <c r="D135" s="232"/>
       <c r="E135" s="93"/>
       <c r="F135" s="83"/>
       <c r="G135" s="83"/>
@@ -7733,9 +7726,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68"/>
-      <c r="B136" s="239"/>
+      <c r="B136" s="233"/>
       <c r="C136" s="63"/>
-      <c r="D136" s="238"/>
+      <c r="D136" s="232"/>
       <c r="E136" s="93"/>
       <c r="F136" s="83"/>
       <c r="G136" s="83"/>
@@ -7764,9 +7757,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68"/>
-      <c r="B137" s="239"/>
+      <c r="B137" s="233"/>
       <c r="C137" s="63"/>
-      <c r="D137" s="238"/>
+      <c r="D137" s="232"/>
       <c r="E137" s="93"/>
       <c r="F137" s="83"/>
       <c r="G137" s="83"/>
@@ -7795,9 +7788,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68"/>
-      <c r="B138" s="239"/>
+      <c r="B138" s="233"/>
       <c r="C138" s="63"/>
-      <c r="D138" s="238"/>
+      <c r="D138" s="232"/>
       <c r="E138" s="93"/>
       <c r="F138" s="83"/>
       <c r="G138" s="83"/>
@@ -7826,9 +7819,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68"/>
-      <c r="B139" s="239"/>
+      <c r="B139" s="233"/>
       <c r="C139" s="63"/>
-      <c r="D139" s="238"/>
+      <c r="D139" s="232"/>
       <c r="E139" s="93"/>
       <c r="F139" s="83"/>
       <c r="G139" s="83"/>
@@ -7857,7 +7850,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68"/>
-      <c r="B140" s="239"/>
+      <c r="B140" s="233"/>
       <c r="C140" s="94"/>
       <c r="D140" s="95"/>
       <c r="E140" s="93"/>
@@ -7888,7 +7881,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68"/>
-      <c r="B141" s="239"/>
+      <c r="B141" s="233"/>
       <c r="C141" s="96"/>
       <c r="D141" s="95"/>
       <c r="E141" s="93"/>
@@ -7919,7 +7912,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68"/>
-      <c r="B142" s="239"/>
+      <c r="B142" s="233"/>
       <c r="C142" s="96"/>
       <c r="D142" s="97"/>
       <c r="E142" s="93"/>
@@ -7950,9 +7943,9 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68"/>
-      <c r="B143" s="239"/>
+      <c r="B143" s="233"/>
       <c r="C143" s="96"/>
-      <c r="D143" s="232"/>
+      <c r="D143" s="247"/>
       <c r="E143" s="98"/>
       <c r="F143" s="83"/>
       <c r="G143" s="83"/>
@@ -7981,9 +7974,9 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68"/>
-      <c r="B144" s="239"/>
+      <c r="B144" s="233"/>
       <c r="C144" s="96"/>
-      <c r="D144" s="232"/>
+      <c r="D144" s="247"/>
       <c r="E144" s="98"/>
       <c r="F144" s="83"/>
       <c r="G144" s="83"/>
@@ -8012,7 +8005,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68"/>
-      <c r="B145" s="239"/>
+      <c r="B145" s="233"/>
       <c r="C145" s="96"/>
       <c r="D145" s="99"/>
       <c r="E145" s="93"/>
@@ -8043,7 +8036,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68"/>
-      <c r="B146" s="239"/>
+      <c r="B146" s="233"/>
       <c r="C146" s="96"/>
       <c r="D146" s="100"/>
       <c r="E146" s="93"/>
@@ -8074,7 +8067,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68"/>
-      <c r="B147" s="239"/>
+      <c r="B147" s="233"/>
       <c r="C147" s="96"/>
       <c r="D147" s="100"/>
       <c r="E147" s="101"/>
@@ -8105,7 +8098,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68"/>
-      <c r="B148" s="239"/>
+      <c r="B148" s="233"/>
       <c r="C148" s="96"/>
       <c r="D148" s="100"/>
       <c r="E148" s="93"/>
@@ -8136,7 +8129,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68"/>
-      <c r="B149" s="239"/>
+      <c r="B149" s="233"/>
       <c r="C149" s="96"/>
       <c r="D149" s="100"/>
       <c r="E149" s="93"/>
@@ -8167,7 +8160,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68"/>
-      <c r="B150" s="239"/>
+      <c r="B150" s="233"/>
       <c r="C150" s="96"/>
       <c r="D150" s="100"/>
       <c r="E150" s="93"/>
@@ -8198,7 +8191,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68"/>
-      <c r="B151" s="239"/>
+      <c r="B151" s="233"/>
       <c r="C151" s="96"/>
       <c r="D151" s="100"/>
       <c r="E151" s="93"/>
@@ -8229,7 +8222,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68"/>
-      <c r="B152" s="239"/>
+      <c r="B152" s="233"/>
       <c r="C152" s="96"/>
       <c r="D152" s="100"/>
       <c r="E152" s="101"/>
@@ -8260,7 +8253,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68"/>
-      <c r="B153" s="239"/>
+      <c r="B153" s="233"/>
       <c r="C153" s="96"/>
       <c r="D153" s="100"/>
       <c r="E153" s="101"/>
@@ -8291,7 +8284,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68"/>
-      <c r="B154" s="239"/>
+      <c r="B154" s="233"/>
       <c r="C154" s="96"/>
       <c r="D154" s="100"/>
       <c r="E154" s="101"/>
@@ -8322,7 +8315,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68"/>
-      <c r="B155" s="239"/>
+      <c r="B155" s="233"/>
       <c r="C155" s="96"/>
       <c r="D155" s="100"/>
       <c r="E155" s="93"/>
@@ -8353,7 +8346,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="68"/>
-      <c r="B156" s="239"/>
+      <c r="B156" s="233"/>
       <c r="C156" s="96"/>
       <c r="D156" s="100"/>
       <c r="E156" s="93"/>
@@ -8384,7 +8377,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68"/>
-      <c r="B157" s="239"/>
+      <c r="B157" s="233"/>
       <c r="C157" s="96"/>
       <c r="D157" s="100"/>
       <c r="E157" s="93"/>
@@ -8415,7 +8408,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="68"/>
-      <c r="B158" s="239"/>
+      <c r="B158" s="233"/>
       <c r="C158" s="96"/>
       <c r="D158" s="100"/>
       <c r="E158" s="93"/>
@@ -8446,7 +8439,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68"/>
-      <c r="B159" s="239"/>
+      <c r="B159" s="233"/>
       <c r="C159" s="96"/>
       <c r="D159" s="100"/>
       <c r="E159" s="93"/>
@@ -8477,7 +8470,7 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68"/>
-      <c r="B160" s="239"/>
+      <c r="B160" s="233"/>
       <c r="C160" s="96"/>
       <c r="D160" s="100"/>
       <c r="E160" s="93"/>
@@ -8508,7 +8501,7 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="106"/>
-      <c r="B161" s="239"/>
+      <c r="B161" s="233"/>
       <c r="C161" s="96"/>
       <c r="D161" s="107"/>
       <c r="E161" s="108"/>
@@ -8539,7 +8532,7 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="106"/>
-      <c r="B162" s="239"/>
+      <c r="B162" s="233"/>
       <c r="C162" s="96"/>
       <c r="D162" s="109"/>
       <c r="E162" s="93"/>
@@ -8570,7 +8563,7 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="106"/>
-      <c r="B163" s="239"/>
+      <c r="B163" s="233"/>
       <c r="C163" s="96"/>
       <c r="D163" s="109"/>
       <c r="E163" s="93"/>
@@ -8601,7 +8594,7 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="106"/>
-      <c r="B164" s="239"/>
+      <c r="B164" s="233"/>
       <c r="C164" s="96"/>
       <c r="D164" s="109"/>
       <c r="E164" s="110"/>
@@ -8632,7 +8625,7 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="106"/>
-      <c r="B165" s="239"/>
+      <c r="B165" s="233"/>
       <c r="C165" s="96"/>
       <c r="D165" s="109"/>
       <c r="E165" s="111"/>
@@ -8663,7 +8656,7 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="106"/>
-      <c r="B166" s="239"/>
+      <c r="B166" s="233"/>
       <c r="C166" s="96"/>
       <c r="D166" s="109"/>
       <c r="E166" s="111"/>
@@ -8694,7 +8687,7 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="106"/>
-      <c r="B167" s="239"/>
+      <c r="B167" s="233"/>
       <c r="C167" s="96"/>
       <c r="D167" s="109"/>
       <c r="E167" s="111"/>
@@ -8725,7 +8718,7 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="106"/>
-      <c r="B168" s="239"/>
+      <c r="B168" s="233"/>
       <c r="C168" s="96"/>
       <c r="D168" s="109"/>
       <c r="E168" s="111"/>
@@ -8756,7 +8749,7 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="106"/>
-      <c r="B169" s="239"/>
+      <c r="B169" s="233"/>
       <c r="C169" s="96"/>
       <c r="D169" s="109"/>
       <c r="E169" s="93"/>
@@ -8787,7 +8780,7 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="106"/>
-      <c r="B170" s="239"/>
+      <c r="B170" s="233"/>
       <c r="C170" s="96"/>
       <c r="D170" s="109"/>
       <c r="E170" s="93"/>
@@ -8818,7 +8811,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="106"/>
-      <c r="B171" s="239"/>
+      <c r="B171" s="233"/>
       <c r="C171" s="96"/>
       <c r="D171" s="109"/>
       <c r="E171" s="93"/>
@@ -8849,7 +8842,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="106"/>
-      <c r="B172" s="239"/>
+      <c r="B172" s="233"/>
       <c r="C172" s="96"/>
       <c r="D172" s="109"/>
       <c r="E172" s="93"/>
@@ -8880,7 +8873,7 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="106"/>
-      <c r="B173" s="239"/>
+      <c r="B173" s="233"/>
       <c r="C173" s="96"/>
       <c r="D173" s="109"/>
       <c r="E173" s="108"/>
@@ -8911,7 +8904,7 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="106"/>
-      <c r="B174" s="239"/>
+      <c r="B174" s="233"/>
       <c r="C174" s="96"/>
       <c r="D174" s="112"/>
       <c r="E174" s="113"/>
@@ -8942,7 +8935,7 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="106"/>
-      <c r="B175" s="239"/>
+      <c r="B175" s="233"/>
       <c r="C175" s="96"/>
       <c r="D175" s="114"/>
       <c r="E175" s="108"/>
@@ -8973,9 +8966,9 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="106"/>
-      <c r="B176" s="239"/>
+      <c r="B176" s="233"/>
       <c r="C176" s="96"/>
-      <c r="D176" s="233"/>
+      <c r="D176" s="248"/>
       <c r="E176" s="93"/>
       <c r="F176" s="83"/>
       <c r="G176" s="83"/>
@@ -8984,7 +8977,7 @@
       <c r="J176" s="83"/>
       <c r="K176" s="83"/>
       <c r="L176" s="74"/>
-      <c r="M176" s="234"/>
+      <c r="M176" s="249"/>
       <c r="N176" s="67"/>
       <c r="O176" s="67"/>
       <c r="P176" s="67"/>
@@ -9004,9 +8997,9 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="68"/>
-      <c r="B177" s="239"/>
+      <c r="B177" s="233"/>
       <c r="C177" s="96"/>
-      <c r="D177" s="233"/>
+      <c r="D177" s="248"/>
       <c r="E177" s="93"/>
       <c r="F177" s="83"/>
       <c r="G177" s="83"/>
@@ -9015,7 +9008,7 @@
       <c r="J177" s="83"/>
       <c r="K177" s="83"/>
       <c r="L177" s="74"/>
-      <c r="M177" s="234"/>
+      <c r="M177" s="249"/>
       <c r="N177" s="67"/>
       <c r="O177" s="67"/>
       <c r="P177" s="67"/>
@@ -9035,9 +9028,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="68"/>
-      <c r="B178" s="239"/>
+      <c r="B178" s="233"/>
       <c r="C178" s="96"/>
-      <c r="D178" s="233"/>
+      <c r="D178" s="248"/>
       <c r="E178" s="110"/>
       <c r="F178" s="83"/>
       <c r="G178" s="83"/>
@@ -9046,7 +9039,7 @@
       <c r="J178" s="83"/>
       <c r="K178" s="83"/>
       <c r="L178" s="74"/>
-      <c r="M178" s="234"/>
+      <c r="M178" s="249"/>
       <c r="N178" s="67"/>
       <c r="O178" s="67"/>
       <c r="P178" s="67"/>
@@ -9066,9 +9059,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="68"/>
-      <c r="B179" s="239"/>
+      <c r="B179" s="233"/>
       <c r="C179" s="96"/>
-      <c r="D179" s="233"/>
+      <c r="D179" s="248"/>
       <c r="E179" s="111"/>
       <c r="F179" s="83"/>
       <c r="G179" s="83"/>
@@ -9077,7 +9070,7 @@
       <c r="J179" s="83"/>
       <c r="K179" s="83"/>
       <c r="L179" s="74"/>
-      <c r="M179" s="234"/>
+      <c r="M179" s="249"/>
       <c r="N179" s="67"/>
       <c r="O179" s="67"/>
       <c r="P179" s="67"/>
@@ -9097,9 +9090,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="68"/>
-      <c r="B180" s="239"/>
+      <c r="B180" s="233"/>
       <c r="C180" s="96"/>
-      <c r="D180" s="233"/>
+      <c r="D180" s="248"/>
       <c r="E180" s="111"/>
       <c r="F180" s="83"/>
       <c r="G180" s="83"/>
@@ -9108,7 +9101,7 @@
       <c r="J180" s="83"/>
       <c r="K180" s="83"/>
       <c r="L180" s="74"/>
-      <c r="M180" s="234"/>
+      <c r="M180" s="249"/>
       <c r="N180" s="67"/>
       <c r="O180" s="67"/>
       <c r="P180" s="67"/>
@@ -9128,9 +9121,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="68"/>
-      <c r="B181" s="239"/>
+      <c r="B181" s="233"/>
       <c r="C181" s="96"/>
-      <c r="D181" s="233"/>
+      <c r="D181" s="248"/>
       <c r="E181" s="111"/>
       <c r="F181" s="83"/>
       <c r="G181" s="83"/>
@@ -9139,7 +9132,7 @@
       <c r="J181" s="83"/>
       <c r="K181" s="83"/>
       <c r="L181" s="74"/>
-      <c r="M181" s="234"/>
+      <c r="M181" s="249"/>
       <c r="N181" s="67"/>
       <c r="O181" s="67"/>
       <c r="P181" s="67"/>
@@ -9159,9 +9152,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="68"/>
-      <c r="B182" s="239"/>
+      <c r="B182" s="233"/>
       <c r="C182" s="96"/>
-      <c r="D182" s="233"/>
+      <c r="D182" s="248"/>
       <c r="E182" s="111"/>
       <c r="F182" s="83"/>
       <c r="G182" s="83"/>
@@ -9170,7 +9163,7 @@
       <c r="J182" s="83"/>
       <c r="K182" s="83"/>
       <c r="L182" s="74"/>
-      <c r="M182" s="234"/>
+      <c r="M182" s="249"/>
       <c r="N182" s="67"/>
       <c r="O182" s="67"/>
       <c r="P182" s="67"/>
@@ -9190,9 +9183,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="68"/>
-      <c r="B183" s="239"/>
+      <c r="B183" s="233"/>
       <c r="C183" s="96"/>
-      <c r="D183" s="233"/>
+      <c r="D183" s="248"/>
       <c r="E183" s="93"/>
       <c r="F183" s="83"/>
       <c r="G183" s="83"/>
@@ -9201,7 +9194,7 @@
       <c r="J183" s="83"/>
       <c r="K183" s="83"/>
       <c r="L183" s="74"/>
-      <c r="M183" s="234"/>
+      <c r="M183" s="249"/>
       <c r="N183" s="67"/>
       <c r="O183" s="67"/>
       <c r="P183" s="67"/>
@@ -9221,9 +9214,9 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="68"/>
-      <c r="B184" s="239"/>
+      <c r="B184" s="233"/>
       <c r="C184" s="96"/>
-      <c r="D184" s="233"/>
+      <c r="D184" s="248"/>
       <c r="E184" s="93"/>
       <c r="F184" s="83"/>
       <c r="G184" s="83"/>
@@ -9252,9 +9245,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="68"/>
-      <c r="B185" s="239"/>
+      <c r="B185" s="233"/>
       <c r="C185" s="96"/>
-      <c r="D185" s="233"/>
+      <c r="D185" s="248"/>
       <c r="E185" s="93"/>
       <c r="F185" s="83"/>
       <c r="G185" s="83"/>
@@ -9283,9 +9276,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="68"/>
-      <c r="B186" s="239"/>
+      <c r="B186" s="233"/>
       <c r="C186" s="96"/>
-      <c r="D186" s="233"/>
+      <c r="D186" s="248"/>
       <c r="E186" s="93"/>
       <c r="F186" s="83"/>
       <c r="G186" s="83"/>
@@ -9347,7 +9340,7 @@
       <c r="A188" s="115"/>
       <c r="B188" s="118"/>
       <c r="C188" s="117"/>
-      <c r="D188" s="235"/>
+      <c r="D188" s="250"/>
       <c r="E188" s="93"/>
       <c r="F188" s="83"/>
       <c r="G188" s="105"/>
@@ -9378,7 +9371,7 @@
       <c r="A189" s="115"/>
       <c r="B189" s="114"/>
       <c r="C189" s="119"/>
-      <c r="D189" s="235"/>
+      <c r="D189" s="250"/>
       <c r="E189" s="93"/>
       <c r="F189" s="83"/>
       <c r="G189" s="105"/>
@@ -9409,7 +9402,7 @@
       <c r="A190" s="115"/>
       <c r="B190" s="114"/>
       <c r="C190" s="119"/>
-      <c r="D190" s="235"/>
+      <c r="D190" s="250"/>
       <c r="E190" s="93"/>
       <c r="F190" s="83"/>
       <c r="G190" s="105"/>
@@ -9440,7 +9433,7 @@
       <c r="A191" s="115"/>
       <c r="B191" s="114"/>
       <c r="C191" s="114"/>
-      <c r="D191" s="235"/>
+      <c r="D191" s="250"/>
       <c r="E191" s="101"/>
       <c r="F191" s="83"/>
       <c r="G191" s="105"/>
@@ -9471,7 +9464,7 @@
       <c r="A192" s="115"/>
       <c r="B192" s="118"/>
       <c r="C192" s="114"/>
-      <c r="D192" s="235"/>
+      <c r="D192" s="250"/>
       <c r="E192" s="101"/>
       <c r="F192" s="83"/>
       <c r="G192" s="105"/>
@@ -9502,7 +9495,7 @@
       <c r="A193" s="115"/>
       <c r="B193" s="118"/>
       <c r="C193" s="114"/>
-      <c r="D193" s="235"/>
+      <c r="D193" s="250"/>
       <c r="E193" s="101"/>
       <c r="F193" s="83"/>
       <c r="G193" s="105"/>
@@ -9533,7 +9526,7 @@
       <c r="A194" s="115"/>
       <c r="B194" s="118"/>
       <c r="C194" s="114"/>
-      <c r="D194" s="235"/>
+      <c r="D194" s="250"/>
       <c r="E194" s="93"/>
       <c r="F194" s="83"/>
       <c r="G194" s="105"/>
@@ -9564,7 +9557,7 @@
       <c r="A195" s="115"/>
       <c r="B195" s="118"/>
       <c r="C195" s="114"/>
-      <c r="D195" s="235"/>
+      <c r="D195" s="250"/>
       <c r="E195" s="93"/>
       <c r="F195" s="83"/>
       <c r="G195" s="105"/>
@@ -9595,7 +9588,7 @@
       <c r="A196" s="115"/>
       <c r="B196" s="118"/>
       <c r="C196" s="118"/>
-      <c r="D196" s="235"/>
+      <c r="D196" s="250"/>
       <c r="E196" s="93"/>
       <c r="F196" s="83"/>
       <c r="G196" s="105"/>
@@ -10935,8 +10928,8 @@
       <c r="H239" s="139"/>
       <c r="I239" s="139"/>
       <c r="J239" s="139"/>
-      <c r="K239" s="231"/>
-      <c r="L239" s="234"/>
+      <c r="K239" s="246"/>
+      <c r="L239" s="249"/>
       <c r="M239" s="134"/>
       <c r="N239" s="67"/>
       <c r="O239" s="67"/>
@@ -10966,8 +10959,8 @@
       <c r="H240" s="140"/>
       <c r="I240" s="140"/>
       <c r="J240" s="140"/>
-      <c r="K240" s="231"/>
-      <c r="L240" s="234"/>
+      <c r="K240" s="246"/>
+      <c r="L240" s="249"/>
       <c r="M240" s="134"/>
       <c r="N240" s="67"/>
       <c r="O240" s="67"/>
@@ -10997,8 +10990,8 @@
       <c r="H241" s="65"/>
       <c r="I241" s="65"/>
       <c r="J241" s="65"/>
-      <c r="K241" s="231"/>
-      <c r="L241" s="234"/>
+      <c r="K241" s="246"/>
+      <c r="L241" s="249"/>
       <c r="M241" s="134"/>
       <c r="N241" s="67"/>
       <c r="O241" s="67"/>
@@ -11206,9 +11199,9 @@
     <row r="248" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="115"/>
       <c r="B248" s="126"/>
-      <c r="C248" s="227"/>
+      <c r="C248" s="251"/>
       <c r="D248" s="114"/>
-      <c r="E248" s="236"/>
+      <c r="E248" s="252"/>
       <c r="F248" s="76"/>
       <c r="G248" s="76"/>
       <c r="H248" s="76"/>
@@ -11237,9 +11230,9 @@
     <row r="249" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="115"/>
       <c r="B249" s="126"/>
-      <c r="C249" s="227"/>
+      <c r="C249" s="251"/>
       <c r="D249" s="114"/>
-      <c r="E249" s="236"/>
+      <c r="E249" s="252"/>
       <c r="F249" s="76"/>
       <c r="G249" s="76"/>
       <c r="H249" s="76"/>
@@ -11268,9 +11261,9 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="115"/>
       <c r="B250" s="126"/>
-      <c r="C250" s="227"/>
+      <c r="C250" s="251"/>
       <c r="D250" s="114"/>
-      <c r="E250" s="236"/>
+      <c r="E250" s="252"/>
       <c r="F250" s="76"/>
       <c r="G250" s="76"/>
       <c r="H250" s="76"/>
@@ -11299,7 +11292,7 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="115"/>
       <c r="B251" s="126"/>
-      <c r="C251" s="227"/>
+      <c r="C251" s="251"/>
       <c r="D251" s="114"/>
       <c r="E251" s="84"/>
       <c r="F251" s="76"/>
@@ -11330,7 +11323,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="115"/>
       <c r="B252" s="126"/>
-      <c r="C252" s="227"/>
+      <c r="C252" s="251"/>
       <c r="D252" s="114"/>
       <c r="E252" s="84"/>
       <c r="F252" s="76"/>
@@ -11361,7 +11354,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="115"/>
       <c r="B253" s="126"/>
-      <c r="C253" s="227"/>
+      <c r="C253" s="251"/>
       <c r="D253" s="114"/>
       <c r="E253" s="84"/>
       <c r="F253" s="137"/>
@@ -11392,7 +11385,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="115"/>
       <c r="B254" s="126"/>
-      <c r="C254" s="227"/>
+      <c r="C254" s="251"/>
       <c r="D254" s="114"/>
       <c r="E254" s="84"/>
       <c r="F254" s="76"/>
@@ -11423,7 +11416,7 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="115"/>
       <c r="B255" s="126"/>
-      <c r="C255" s="228"/>
+      <c r="C255" s="245"/>
       <c r="D255" s="124"/>
       <c r="E255" s="84"/>
       <c r="F255" s="137"/>
@@ -11454,7 +11447,7 @@
     <row r="256" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="115"/>
       <c r="B256" s="126"/>
-      <c r="C256" s="228"/>
+      <c r="C256" s="245"/>
       <c r="D256" s="145"/>
       <c r="E256" s="84"/>
       <c r="F256" s="137"/>
@@ -11516,7 +11509,7 @@
     <row r="258" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="115"/>
       <c r="B258" s="126"/>
-      <c r="C258" s="228"/>
+      <c r="C258" s="245"/>
       <c r="D258" s="124"/>
       <c r="E258" s="84"/>
       <c r="F258" s="76"/>
@@ -11547,7 +11540,7 @@
     <row r="259" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="115"/>
       <c r="B259" s="126"/>
-      <c r="C259" s="228"/>
+      <c r="C259" s="245"/>
       <c r="D259" s="125"/>
       <c r="E259" s="84"/>
       <c r="F259" s="76"/>
@@ -11578,7 +11571,7 @@
     <row r="260" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="115"/>
       <c r="B260" s="126"/>
-      <c r="C260" s="228"/>
+      <c r="C260" s="245"/>
       <c r="D260" s="125"/>
       <c r="E260" s="84"/>
       <c r="F260" s="76"/>
@@ -11609,7 +11602,7 @@
     <row r="261" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="115"/>
       <c r="B261" s="126"/>
-      <c r="C261" s="228"/>
+      <c r="C261" s="245"/>
       <c r="D261" s="125"/>
       <c r="E261" s="84"/>
       <c r="F261" s="137"/>
@@ -11640,7 +11633,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="115"/>
       <c r="B262" s="126"/>
-      <c r="C262" s="228"/>
+      <c r="C262" s="245"/>
       <c r="D262" s="125"/>
       <c r="E262" s="147"/>
       <c r="F262" s="76"/>
@@ -12020,7 +12013,7 @@
       <c r="H274" s="137"/>
       <c r="I274" s="137"/>
       <c r="J274" s="137"/>
-      <c r="K274" s="237"/>
+      <c r="K274" s="253"/>
       <c r="L274" s="74"/>
       <c r="M274" s="103"/>
       <c r="N274" s="67"/>
@@ -12051,7 +12044,7 @@
       <c r="H275" s="137"/>
       <c r="I275" s="137"/>
       <c r="J275" s="137"/>
-      <c r="K275" s="237"/>
+      <c r="K275" s="253"/>
       <c r="L275" s="74"/>
       <c r="M275" s="103"/>
       <c r="N275" s="67"/>
@@ -12136,7 +12129,7 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="115"/>
       <c r="B278" s="126"/>
-      <c r="C278" s="228"/>
+      <c r="C278" s="245"/>
       <c r="D278" s="124"/>
       <c r="E278" s="84"/>
       <c r="F278" s="137"/>
@@ -12144,7 +12137,7 @@
       <c r="H278" s="137"/>
       <c r="I278" s="137"/>
       <c r="J278" s="137"/>
-      <c r="K278" s="231"/>
+      <c r="K278" s="246"/>
       <c r="L278" s="74"/>
       <c r="M278" s="103"/>
       <c r="N278" s="67"/>
@@ -12167,7 +12160,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="115"/>
       <c r="B279" s="126"/>
-      <c r="C279" s="228"/>
+      <c r="C279" s="245"/>
       <c r="D279" s="145"/>
       <c r="E279" s="84"/>
       <c r="F279" s="137"/>
@@ -12175,7 +12168,7 @@
       <c r="H279" s="137"/>
       <c r="I279" s="137"/>
       <c r="J279" s="137"/>
-      <c r="K279" s="231"/>
+      <c r="K279" s="246"/>
       <c r="L279" s="74"/>
       <c r="M279" s="103"/>
       <c r="N279" s="67"/>
@@ -12198,7 +12191,7 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="115"/>
       <c r="B280" s="126"/>
-      <c r="C280" s="227"/>
+      <c r="C280" s="251"/>
       <c r="D280" s="138"/>
       <c r="E280" s="101"/>
       <c r="F280" s="83"/>
@@ -12229,7 +12222,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="115"/>
       <c r="B281" s="126"/>
-      <c r="C281" s="227"/>
+      <c r="C281" s="251"/>
       <c r="D281" s="99"/>
       <c r="E281" s="101"/>
       <c r="F281" s="83"/>
@@ -12291,7 +12284,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="115"/>
       <c r="B283" s="126"/>
-      <c r="C283" s="228"/>
+      <c r="C283" s="245"/>
       <c r="D283" s="124"/>
       <c r="E283" s="101"/>
       <c r="F283" s="83"/>
@@ -12322,7 +12315,7 @@
     <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="115"/>
       <c r="B284" s="126"/>
-      <c r="C284" s="228"/>
+      <c r="C284" s="245"/>
       <c r="D284" s="125"/>
       <c r="E284" s="101"/>
       <c r="F284" s="83"/>
@@ -12353,7 +12346,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="115"/>
       <c r="B285" s="126"/>
-      <c r="C285" s="228"/>
+      <c r="C285" s="245"/>
       <c r="D285" s="145"/>
       <c r="E285" s="101"/>
       <c r="F285" s="83"/>
@@ -12538,10 +12531,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="121"/>
-      <c r="B291" s="229"/>
-      <c r="C291" s="227"/>
+      <c r="B291" s="254"/>
+      <c r="C291" s="251"/>
       <c r="D291" s="114"/>
-      <c r="E291" s="227"/>
+      <c r="E291" s="251"/>
       <c r="F291" s="76"/>
       <c r="G291" s="76"/>
       <c r="H291" s="76"/>
@@ -12569,10 +12562,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="121"/>
-      <c r="B292" s="229"/>
-      <c r="C292" s="229"/>
+      <c r="B292" s="254"/>
+      <c r="C292" s="254"/>
       <c r="D292" s="114"/>
-      <c r="E292" s="227"/>
+      <c r="E292" s="251"/>
       <c r="F292" s="76"/>
       <c r="G292" s="76"/>
       <c r="H292" s="76"/>
@@ -12600,10 +12593,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="121"/>
-      <c r="B293" s="229"/>
-      <c r="C293" s="229"/>
+      <c r="B293" s="254"/>
+      <c r="C293" s="254"/>
       <c r="D293" s="114"/>
-      <c r="E293" s="227"/>
+      <c r="E293" s="251"/>
       <c r="F293" s="76"/>
       <c r="G293" s="76"/>
       <c r="H293" s="76"/>
@@ -12631,10 +12624,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="121"/>
-      <c r="B294" s="229"/>
-      <c r="C294" s="229"/>
+      <c r="B294" s="254"/>
+      <c r="C294" s="254"/>
       <c r="D294" s="114"/>
-      <c r="E294" s="227"/>
+      <c r="E294" s="251"/>
       <c r="F294" s="76"/>
       <c r="G294" s="76"/>
       <c r="H294" s="76"/>
@@ -12662,10 +12655,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="121"/>
-      <c r="B295" s="229"/>
-      <c r="C295" s="229"/>
+      <c r="B295" s="254"/>
+      <c r="C295" s="254"/>
       <c r="D295" s="114"/>
-      <c r="E295" s="227"/>
+      <c r="E295" s="251"/>
       <c r="F295" s="76"/>
       <c r="G295" s="76"/>
       <c r="H295" s="76"/>
@@ -12693,10 +12686,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="121"/>
-      <c r="B296" s="229"/>
-      <c r="C296" s="229"/>
+      <c r="B296" s="254"/>
+      <c r="C296" s="254"/>
       <c r="D296" s="114"/>
-      <c r="E296" s="227"/>
+      <c r="E296" s="251"/>
       <c r="F296" s="137"/>
       <c r="G296" s="137"/>
       <c r="H296" s="137"/>
@@ -12724,10 +12717,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="121"/>
-      <c r="B297" s="229"/>
-      <c r="C297" s="229"/>
+      <c r="B297" s="254"/>
+      <c r="C297" s="254"/>
       <c r="D297" s="114"/>
-      <c r="E297" s="227"/>
+      <c r="E297" s="251"/>
       <c r="F297" s="76"/>
       <c r="G297" s="76"/>
       <c r="H297" s="76"/>
@@ -12755,10 +12748,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="121"/>
-      <c r="B298" s="229"/>
-      <c r="C298" s="229"/>
+      <c r="B298" s="254"/>
+      <c r="C298" s="254"/>
       <c r="D298" s="114"/>
-      <c r="E298" s="227"/>
+      <c r="E298" s="251"/>
       <c r="F298" s="76"/>
       <c r="G298" s="76"/>
       <c r="H298" s="76"/>
@@ -12786,8 +12779,8 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="121"/>
-      <c r="B299" s="229"/>
-      <c r="C299" s="229"/>
+      <c r="B299" s="254"/>
+      <c r="C299" s="254"/>
       <c r="D299" s="114"/>
       <c r="E299" s="118"/>
       <c r="F299" s="73"/>
@@ -12817,8 +12810,8 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="121"/>
-      <c r="B300" s="229"/>
-      <c r="C300" s="229"/>
+      <c r="B300" s="254"/>
+      <c r="C300" s="254"/>
       <c r="D300" s="114"/>
       <c r="E300" s="118"/>
       <c r="F300" s="74"/>
@@ -12848,10 +12841,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="121"/>
-      <c r="B301" s="229"/>
-      <c r="C301" s="229"/>
+      <c r="B301" s="254"/>
+      <c r="C301" s="254"/>
       <c r="D301" s="138"/>
-      <c r="E301" s="227"/>
+      <c r="E301" s="251"/>
       <c r="F301" s="83"/>
       <c r="G301" s="83"/>
       <c r="H301" s="83"/>
@@ -12879,10 +12872,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="121"/>
-      <c r="B302" s="229"/>
-      <c r="C302" s="229"/>
+      <c r="B302" s="254"/>
+      <c r="C302" s="254"/>
       <c r="D302" s="159"/>
-      <c r="E302" s="227"/>
+      <c r="E302" s="251"/>
       <c r="F302" s="74"/>
       <c r="G302" s="74"/>
       <c r="H302" s="74"/>
@@ -12910,10 +12903,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="121"/>
-      <c r="B303" s="229"/>
-      <c r="C303" s="229"/>
+      <c r="B303" s="254"/>
+      <c r="C303" s="254"/>
       <c r="D303" s="159"/>
-      <c r="E303" s="227"/>
+      <c r="E303" s="251"/>
       <c r="F303" s="74"/>
       <c r="G303" s="74"/>
       <c r="H303" s="74"/>
@@ -12941,10 +12934,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="121"/>
-      <c r="B304" s="229"/>
-      <c r="C304" s="227"/>
+      <c r="B304" s="254"/>
+      <c r="C304" s="251"/>
       <c r="D304" s="99"/>
-      <c r="E304" s="227"/>
+      <c r="E304" s="251"/>
       <c r="F304" s="74"/>
       <c r="G304" s="74"/>
       <c r="H304" s="74"/>
@@ -12972,7 +12965,7 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="121"/>
-      <c r="B305" s="229"/>
+      <c r="B305" s="254"/>
       <c r="C305" s="114"/>
       <c r="D305" s="159"/>
       <c r="E305" s="159"/>
@@ -13003,10 +12996,10 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="121"/>
-      <c r="B306" s="229"/>
-      <c r="C306" s="227"/>
+      <c r="B306" s="254"/>
+      <c r="C306" s="251"/>
       <c r="D306" s="138"/>
-      <c r="E306" s="230"/>
+      <c r="E306" s="255"/>
       <c r="F306" s="83"/>
       <c r="G306" s="83"/>
       <c r="H306" s="83"/>
@@ -13034,10 +13027,10 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="121"/>
-      <c r="B307" s="229"/>
-      <c r="C307" s="229"/>
+      <c r="B307" s="254"/>
+      <c r="C307" s="254"/>
       <c r="D307" s="99"/>
-      <c r="E307" s="230"/>
+      <c r="E307" s="255"/>
       <c r="F307" s="83"/>
       <c r="G307" s="83"/>
       <c r="H307" s="83"/>
@@ -13065,8 +13058,8 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="121"/>
-      <c r="B308" s="229"/>
-      <c r="C308" s="227"/>
+      <c r="B308" s="254"/>
+      <c r="C308" s="251"/>
       <c r="D308" s="114"/>
       <c r="E308" s="115"/>
       <c r="F308" s="83"/>
@@ -13096,7 +13089,7 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="121"/>
-      <c r="B309" s="229"/>
+      <c r="B309" s="254"/>
       <c r="C309" s="118"/>
       <c r="D309" s="118"/>
       <c r="E309" s="121"/>
@@ -13127,10 +13120,10 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="121"/>
-      <c r="B310" s="229"/>
-      <c r="C310" s="227"/>
+      <c r="B310" s="254"/>
+      <c r="C310" s="251"/>
       <c r="D310" s="138"/>
-      <c r="E310" s="227"/>
+      <c r="E310" s="251"/>
       <c r="F310" s="83"/>
       <c r="G310" s="83"/>
       <c r="H310" s="83"/>
@@ -13158,10 +13151,10 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="121"/>
-      <c r="B311" s="229"/>
-      <c r="C311" s="229"/>
+      <c r="B311" s="254"/>
+      <c r="C311" s="254"/>
       <c r="D311" s="159"/>
-      <c r="E311" s="227"/>
+      <c r="E311" s="251"/>
       <c r="F311" s="83"/>
       <c r="G311" s="83"/>
       <c r="H311" s="83"/>
@@ -13189,10 +13182,10 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="121"/>
-      <c r="B312" s="229"/>
-      <c r="C312" s="229"/>
+      <c r="B312" s="254"/>
+      <c r="C312" s="254"/>
       <c r="D312" s="159"/>
-      <c r="E312" s="227"/>
+      <c r="E312" s="251"/>
       <c r="F312" s="83"/>
       <c r="G312" s="83"/>
       <c r="H312" s="83"/>
@@ -13220,10 +13213,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="121"/>
-      <c r="B313" s="229"/>
-      <c r="C313" s="229"/>
+      <c r="B313" s="254"/>
+      <c r="C313" s="254"/>
       <c r="D313" s="159"/>
-      <c r="E313" s="227"/>
+      <c r="E313" s="251"/>
       <c r="F313" s="83"/>
       <c r="G313" s="83"/>
       <c r="H313" s="83"/>
@@ -13251,10 +13244,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="121"/>
-      <c r="B314" s="229"/>
-      <c r="C314" s="229"/>
+      <c r="B314" s="254"/>
+      <c r="C314" s="254"/>
       <c r="D314" s="159"/>
-      <c r="E314" s="227"/>
+      <c r="E314" s="251"/>
       <c r="F314" s="76"/>
       <c r="G314" s="76"/>
       <c r="H314" s="76"/>
@@ -13282,10 +13275,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="121"/>
-      <c r="B315" s="229"/>
-      <c r="C315" s="229"/>
+      <c r="B315" s="254"/>
+      <c r="C315" s="254"/>
       <c r="D315" s="99"/>
-      <c r="E315" s="227"/>
+      <c r="E315" s="251"/>
       <c r="F315" s="76"/>
       <c r="G315" s="76"/>
       <c r="H315" s="76"/>
@@ -13313,10 +13306,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="121"/>
-      <c r="B316" s="229"/>
-      <c r="C316" s="229"/>
+      <c r="B316" s="254"/>
+      <c r="C316" s="254"/>
       <c r="D316" s="138"/>
-      <c r="E316" s="227"/>
+      <c r="E316" s="251"/>
       <c r="F316" s="83"/>
       <c r="G316" s="83"/>
       <c r="H316" s="83"/>
@@ -13344,10 +13337,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="121"/>
-      <c r="B317" s="229"/>
-      <c r="C317" s="229"/>
+      <c r="B317" s="254"/>
+      <c r="C317" s="254"/>
       <c r="D317" s="159"/>
-      <c r="E317" s="227"/>
+      <c r="E317" s="251"/>
       <c r="F317" s="74"/>
       <c r="G317" s="74"/>
       <c r="H317" s="74"/>
@@ -13375,10 +13368,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="121"/>
-      <c r="B318" s="229"/>
-      <c r="C318" s="229"/>
+      <c r="B318" s="254"/>
+      <c r="C318" s="254"/>
       <c r="D318" s="159"/>
-      <c r="E318" s="227"/>
+      <c r="E318" s="251"/>
       <c r="F318" s="74"/>
       <c r="G318" s="74"/>
       <c r="H318" s="74"/>
@@ -13406,10 +13399,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="121"/>
-      <c r="B319" s="229"/>
-      <c r="C319" s="229"/>
+      <c r="B319" s="254"/>
+      <c r="C319" s="254"/>
       <c r="D319" s="99"/>
-      <c r="E319" s="227"/>
+      <c r="E319" s="251"/>
       <c r="F319" s="74"/>
       <c r="G319" s="74"/>
       <c r="H319" s="74"/>
@@ -15545,13 +15538,30 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E310:E315"/>
+    <mergeCell ref="E316:E319"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="B291:B319"/>
+    <mergeCell ref="C291:C304"/>
+    <mergeCell ref="E291:E298"/>
+    <mergeCell ref="E301:E304"/>
+    <mergeCell ref="C306:C308"/>
+    <mergeCell ref="E306:E307"/>
+    <mergeCell ref="C310:C319"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D176:D186"/>
+    <mergeCell ref="M176:M183"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="K239:K241"/>
+    <mergeCell ref="L239:L241"/>
+    <mergeCell ref="C248:C254"/>
+    <mergeCell ref="E248:E250"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="C258:C262"/>
+    <mergeCell ref="K274:K275"/>
     <mergeCell ref="D131:D139"/>
     <mergeCell ref="B10:B186"/>
     <mergeCell ref="C10:C20"/>
@@ -15568,30 +15578,13 @@
     <mergeCell ref="D109:D118"/>
     <mergeCell ref="D120:D121"/>
     <mergeCell ref="D123:D129"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="K278:K279"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D176:D186"/>
-    <mergeCell ref="M176:M183"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="K239:K241"/>
-    <mergeCell ref="L239:L241"/>
-    <mergeCell ref="C248:C254"/>
-    <mergeCell ref="E248:E250"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="C258:C262"/>
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="E310:E315"/>
-    <mergeCell ref="E316:E319"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="B291:B319"/>
-    <mergeCell ref="C291:C304"/>
-    <mergeCell ref="E291:E298"/>
-    <mergeCell ref="E301:E304"/>
-    <mergeCell ref="C306:C308"/>
-    <mergeCell ref="E306:E307"/>
-    <mergeCell ref="C310:C319"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="L8 L10:L48 L50:L95 L131:L387">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">

--- a/Daraz sign up and login test cases.xlsx
+++ b/Daraz sign up and login test cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual Testing Project  Daraz Sign up and Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81267D9-C943-42E5-8459-10A71CECA8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A79E023-EEE7-4A78-8EF0-8757D2AFDBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="225">
   <si>
     <t>PASS</t>
   </si>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>User 
-Management</t>
   </si>
   <si>
     <t>UI Testing</t>
@@ -606,9 +602,6 @@
   </si>
   <si>
     <t>It will allow user to login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign Up &amp;  Login </t>
   </si>
   <si>
     <t>Check less than minimum digits of phone number</t>
@@ -2078,20 +2071,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2130,38 +2141,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2605,9 +2598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
   <dimension ref="A1:AC387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2629,12 +2622,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="253"/>
       <c r="C1" s="168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="169" t="s">
         <v>6</v>
@@ -2647,10 +2640,10 @@
       </c>
       <c r="G1" s="172"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="230" t="s">
+      <c r="I1" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="231"/>
+      <c r="J1" s="255"/>
       <c r="K1" s="3"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -2670,12 +2663,12 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="229"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="173" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D2" s="174" t="s">
         <v>10</v>
@@ -2712,16 +2705,16 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="229"/>
+      <c r="B3" s="253"/>
       <c r="C3" s="173"/>
       <c r="D3" s="174" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="176" t="s">
         <v>14</v>
@@ -2754,10 +2747,10 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="229"/>
+      <c r="B4" s="253"/>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
         <v>16</v>
@@ -2794,15 +2787,15 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="2"/>
       <c r="I5" s="217" t="s">
         <v>3</v>
@@ -2923,10 +2916,10 @@
         <v>36</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -2986,29 +2979,27 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="239"/>
+      <c r="C10" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="D10" s="239" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="233" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -3037,23 +3028,23 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="233"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="233"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -3082,23 +3073,23 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="233"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="239"/>
       <c r="E12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -3127,30 +3118,30 @@
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="233"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="233"/>
+      <c r="B13" s="239"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="239"/>
       <c r="E13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="G13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J13" s="166" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -3174,30 +3165,30 @@
       <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="233"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="233"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="239"/>
       <c r="E14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="166" t="s">
         <v>113</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="J14" s="166" t="s">
-        <v>114</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -3221,30 +3212,30 @@
       <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="233"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="233"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="239"/>
       <c r="E15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="H15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J15" s="166" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
@@ -3268,30 +3259,30 @@
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="233"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="233"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="239"/>
       <c r="E16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="166" t="s">
         <v>75</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J16" s="166" t="s">
-        <v>76</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
@@ -3315,30 +3306,30 @@
       <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="233"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="233"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="239"/>
       <c r="E17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" s="166" t="s">
         <v>67</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J17" s="166" t="s">
-        <v>68</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
@@ -3362,23 +3353,23 @@
       <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="233"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="233"/>
+      <c r="B18" s="239"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -3407,23 +3398,23 @@
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="233"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="233"/>
+      <c r="B19" s="239"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="239"/>
       <c r="E19" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -3452,23 +3443,23 @@
       <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -3495,9 +3486,9 @@
     </row>
     <row r="21" spans="1:29" s="194" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
-      <c r="B21" s="233"/>
+      <c r="B21" s="239"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="233"/>
+      <c r="D21" s="239"/>
       <c r="E21" s="188"/>
       <c r="F21" s="188"/>
       <c r="G21" s="188"/>
@@ -3528,28 +3519,28 @@
       <c r="A22" s="27">
         <v>13</v>
       </c>
-      <c r="B22" s="233"/>
-      <c r="C22" s="233" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="233"/>
+      <c r="B22" s="239"/>
+      <c r="C22" s="239" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="239"/>
       <c r="E22" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="12" t="s">
@@ -3577,23 +3568,23 @@
       <c r="A23" s="27">
         <v>14</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
       <c r="E23" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="31"/>
@@ -3622,30 +3613,30 @@
       <c r="A24" s="27">
         <v>15</v>
       </c>
-      <c r="B24" s="233"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="233"/>
+      <c r="B24" s="239"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="239"/>
       <c r="E24" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" s="29">
         <v>17</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J24" s="166" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24" s="35"/>
       <c r="N24" s="32"/>
@@ -3669,30 +3660,30 @@
       <c r="A25" s="27">
         <v>16</v>
       </c>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
+      <c r="B25" s="239"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
       <c r="E25" s="36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="29">
         <v>1784813242456</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J25" s="167" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M25" s="35"/>
       <c r="N25" s="32"/>
@@ -3716,30 +3707,30 @@
       <c r="A26" s="27">
         <v>17</v>
       </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="239"/>
       <c r="E26" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" s="29">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J26" s="167" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K26" s="38"/>
       <c r="L26" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="32"/>
@@ -3763,30 +3754,30 @@
       <c r="A27" s="27">
         <v>18</v>
       </c>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
       <c r="E27" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="H27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="I27" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" s="226" t="s">
         <v>87</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J27" s="226" t="s">
-        <v>88</v>
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="32"/>
@@ -3810,14 +3801,14 @@
       <c r="A28" s="27">
         <v>19</v>
       </c>
-      <c r="B28" s="233"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
       <c r="E28" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>36</v>
@@ -3826,7 +3817,7 @@
         <v>555555</v>
       </c>
       <c r="I28" s="224" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K28" s="225"/>
       <c r="L28" s="12" t="s">
@@ -3854,14 +3845,14 @@
       <c r="A29" s="27">
         <v>20</v>
       </c>
-      <c r="B29" s="233"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
       <c r="E29" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>36</v>
@@ -3870,7 +3861,7 @@
         <v>66666666</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J29"/>
       <c r="K29" s="31"/>
@@ -3899,23 +3890,23 @@
       <c r="A30" s="27">
         <v>21</v>
       </c>
-      <c r="B30" s="233"/>
-      <c r="C30" s="233"/>
-      <c r="D30" s="233"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
       <c r="E30" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="31"/>
@@ -3944,23 +3935,23 @@
       <c r="A31" s="27">
         <v>22</v>
       </c>
-      <c r="B31" s="233"/>
-      <c r="C31" s="233"/>
-      <c r="D31" s="233"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
       <c r="E31" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="31"/>
@@ -3989,23 +3980,23 @@
       <c r="A32" s="27">
         <v>23</v>
       </c>
-      <c r="B32" s="233"/>
-      <c r="C32" s="233"/>
-      <c r="D32" s="233"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="239"/>
       <c r="E32" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="31"/>
@@ -4034,23 +4025,23 @@
       <c r="A33" s="27">
         <v>24</v>
       </c>
-      <c r="B33" s="233"/>
-      <c r="C33" s="233"/>
-      <c r="D33" s="233"/>
+      <c r="B33" s="239"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="239"/>
       <c r="E33" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="31"/>
@@ -4079,14 +4070,14 @@
       <c r="A34" s="27">
         <v>25</v>
       </c>
-      <c r="B34" s="233"/>
-      <c r="C34" s="233"/>
-      <c r="D34" s="233"/>
+      <c r="B34" s="239"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="239"/>
       <c r="E34" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>36</v>
@@ -4095,7 +4086,7 @@
         <v>222222</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="31"/>
@@ -4124,23 +4115,23 @@
       <c r="A35" s="27">
         <v>26</v>
       </c>
-      <c r="B35" s="233"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="233"/>
+      <c r="B35" s="239"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="239"/>
       <c r="E35" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="221" t="s">
         <v>110</v>
-      </c>
-      <c r="F35" s="221" t="s">
-        <v>111</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="165" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
@@ -4169,23 +4160,23 @@
       <c r="A36" s="27">
         <v>27</v>
       </c>
-      <c r="B36" s="233"/>
-      <c r="C36" s="233"/>
-      <c r="D36" s="233"/>
+      <c r="B36" s="239"/>
+      <c r="C36" s="239"/>
+      <c r="D36" s="239"/>
       <c r="E36" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="31"/>
@@ -4214,30 +4205,30 @@
       <c r="A37" s="27">
         <v>28</v>
       </c>
-      <c r="B37" s="233"/>
-      <c r="C37" s="233"/>
-      <c r="D37" s="233"/>
+      <c r="B37" s="239"/>
+      <c r="C37" s="239"/>
+      <c r="D37" s="239"/>
       <c r="E37" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37" s="39">
         <v>123</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J37" s="166" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M37" s="35"/>
       <c r="N37" s="32"/>
@@ -4261,23 +4252,23 @@
       <c r="A38" s="27">
         <v>29</v>
       </c>
-      <c r="B38" s="233"/>
-      <c r="C38" s="233"/>
-      <c r="D38" s="233"/>
+      <c r="B38" s="239"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="239"/>
       <c r="E38" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -4306,30 +4297,30 @@
       <c r="A39" s="27">
         <v>30</v>
       </c>
-      <c r="B39" s="233"/>
-      <c r="C39" s="233"/>
-      <c r="D39" s="233"/>
+      <c r="B39" s="239"/>
+      <c r="C39" s="239"/>
+      <c r="D39" s="239"/>
       <c r="E39" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J39" s="166" t="s">
         <v>122</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" s="166" t="s">
-        <v>123</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M39" s="35"/>
       <c r="N39" s="32"/>
@@ -4353,23 +4344,23 @@
       <c r="A40" s="27">
         <v>31</v>
       </c>
-      <c r="B40" s="233"/>
-      <c r="C40" s="233"/>
-      <c r="D40" s="233"/>
+      <c r="B40" s="239"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="239"/>
       <c r="E40" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="165" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -4398,23 +4389,23 @@
       <c r="A41" s="27">
         <v>32</v>
       </c>
-      <c r="B41" s="233"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="233"/>
+      <c r="B41" s="239"/>
+      <c r="C41" s="239"/>
+      <c r="D41" s="239"/>
       <c r="E41" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
@@ -4443,23 +4434,23 @@
       <c r="A42" s="27">
         <v>33</v>
       </c>
-      <c r="B42" s="233"/>
-      <c r="C42" s="233"/>
-      <c r="D42" s="233"/>
+      <c r="B42" s="239"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="239"/>
       <c r="E42" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -4488,23 +4479,23 @@
       <c r="A43" s="27">
         <v>34</v>
       </c>
-      <c r="B43" s="233"/>
-      <c r="C43" s="233"/>
-      <c r="D43" s="233"/>
+      <c r="B43" s="239"/>
+      <c r="C43" s="239"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -4533,23 +4524,23 @@
       <c r="A44" s="27">
         <v>35</v>
       </c>
-      <c r="B44" s="233"/>
-      <c r="C44" s="233"/>
-      <c r="D44" s="233"/>
+      <c r="B44" s="239"/>
+      <c r="C44" s="239"/>
+      <c r="D44" s="239"/>
       <c r="E44" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -4576,9 +4567,9 @@
     </row>
     <row r="45" spans="1:29" s="199" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="195"/>
-      <c r="B45" s="233"/>
+      <c r="B45" s="239"/>
       <c r="C45" s="196"/>
-      <c r="D45" s="233"/>
+      <c r="D45" s="239"/>
       <c r="E45" s="197"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188"/>
@@ -4609,25 +4600,25 @@
       <c r="A46" s="27">
         <v>36</v>
       </c>
-      <c r="B46" s="233"/>
-      <c r="C46" s="233" t="s">
+      <c r="B46" s="239"/>
+      <c r="C46" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="233"/>
+      <c r="D46" s="239"/>
       <c r="E46" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="H46" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>135</v>
-      </c>
       <c r="I46" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -4656,23 +4647,23 @@
       <c r="A47" s="27">
         <v>37</v>
       </c>
-      <c r="B47" s="233"/>
-      <c r="C47" s="233"/>
-      <c r="D47" s="233"/>
+      <c r="B47" s="239"/>
+      <c r="C47" s="239"/>
+      <c r="D47" s="239"/>
       <c r="E47" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="G47" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G47" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>138</v>
-      </c>
       <c r="I47" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -4701,30 +4692,30 @@
       <c r="A48" s="27">
         <v>38</v>
       </c>
-      <c r="B48" s="233"/>
-      <c r="C48" s="233"/>
-      <c r="D48" s="233"/>
+      <c r="B48" s="239"/>
+      <c r="C48" s="239"/>
+      <c r="D48" s="239"/>
       <c r="E48" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="H48" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="I48" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="J48" s="166" t="s">
         <v>141</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="J48" s="166" t="s">
-        <v>142</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M48" s="12"/>
       <c r="N48" s="32"/>
@@ -4746,7 +4737,7 @@
     </row>
     <row r="49" spans="1:29" s="208" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="200"/>
-      <c r="B49" s="233"/>
+      <c r="B49" s="239"/>
       <c r="C49" s="201"/>
       <c r="D49" s="202"/>
       <c r="E49" s="203"/>
@@ -4779,27 +4770,27 @@
       <c r="A50" s="27">
         <v>39</v>
       </c>
-      <c r="B50" s="233"/>
-      <c r="C50" s="235" t="s">
+      <c r="B50" s="239"/>
+      <c r="C50" s="241" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="241" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="235" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="F50" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="G50" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -4828,23 +4819,23 @@
       <c r="A51" s="27">
         <v>40</v>
       </c>
-      <c r="B51" s="233"/>
-      <c r="C51" s="236"/>
-      <c r="D51" s="236"/>
+      <c r="B51" s="239"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="242"/>
       <c r="E51" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>145</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="31"/>
@@ -4873,30 +4864,30 @@
       <c r="A52" s="27">
         <v>41</v>
       </c>
-      <c r="B52" s="233"/>
-      <c r="C52" s="236"/>
-      <c r="D52" s="236"/>
+      <c r="B52" s="239"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="242"/>
       <c r="E52" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52" s="223">
         <v>1.23451234567897E+77</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M52" s="35"/>
       <c r="N52" s="32"/>
@@ -4911,30 +4902,30 @@
       <c r="A53" s="27">
         <v>42</v>
       </c>
-      <c r="B53" s="233"/>
-      <c r="C53" s="236"/>
-      <c r="D53" s="236"/>
+      <c r="B53" s="239"/>
+      <c r="C53" s="242"/>
+      <c r="D53" s="242"/>
       <c r="E53" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H53" s="30" t="s">
+      <c r="I53" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="J53" s="166" t="s">
         <v>150</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="J53" s="166" t="s">
-        <v>151</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M53" s="35"/>
       <c r="N53" s="32"/>
@@ -4958,30 +4949,30 @@
       <c r="A54" s="27">
         <v>43</v>
       </c>
-      <c r="B54" s="233"/>
-      <c r="C54" s="236"/>
-      <c r="D54" s="236"/>
+      <c r="B54" s="239"/>
+      <c r="C54" s="242"/>
+      <c r="D54" s="242"/>
       <c r="E54" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="G54" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" s="166" t="s">
         <v>153</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J54" s="166" t="s">
-        <v>154</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M54" s="35"/>
       <c r="N54" s="32"/>
@@ -5005,23 +4996,23 @@
       <c r="A55" s="27">
         <v>44</v>
       </c>
-      <c r="B55" s="233"/>
-      <c r="C55" s="236"/>
-      <c r="D55" s="236"/>
+      <c r="B55" s="239"/>
+      <c r="C55" s="242"/>
+      <c r="D55" s="242"/>
       <c r="E55" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="29" t="s">
         <v>155</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>156</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
@@ -5050,23 +5041,23 @@
       <c r="A56" s="27">
         <v>45</v>
       </c>
-      <c r="B56" s="233"/>
-      <c r="C56" s="236"/>
-      <c r="D56" s="236"/>
+      <c r="B56" s="239"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="242"/>
       <c r="E56" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="29" t="s">
         <v>158</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>159</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -5095,23 +5086,23 @@
       <c r="A57" s="27">
         <v>46</v>
       </c>
-      <c r="B57" s="233"/>
-      <c r="C57" s="236"/>
-      <c r="D57" s="236"/>
+      <c r="B57" s="239"/>
+      <c r="C57" s="242"/>
+      <c r="D57" s="242"/>
       <c r="E57" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="29" t="s">
         <v>160</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>161</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="222"/>
@@ -5140,21 +5131,21 @@
       <c r="A58" s="27">
         <v>47</v>
       </c>
-      <c r="B58" s="233"/>
-      <c r="C58" s="236"/>
-      <c r="D58" s="236"/>
+      <c r="B58" s="239"/>
+      <c r="C58" s="242"/>
+      <c r="D58" s="242"/>
       <c r="E58" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="29" t="s">
         <v>163</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>164</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H58" s="165"/>
       <c r="I58" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -5183,23 +5174,23 @@
       <c r="A59" s="27">
         <v>48</v>
       </c>
-      <c r="B59" s="233"/>
-      <c r="C59" s="236"/>
-      <c r="D59" s="236"/>
+      <c r="B59" s="239"/>
+      <c r="C59" s="242"/>
+      <c r="D59" s="242"/>
       <c r="E59" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="29" t="s">
         <v>165</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -5228,23 +5219,23 @@
       <c r="A60" s="27">
         <v>49</v>
       </c>
-      <c r="B60" s="233"/>
-      <c r="C60" s="236"/>
-      <c r="D60" s="236"/>
+      <c r="B60" s="239"/>
+      <c r="C60" s="242"/>
+      <c r="D60" s="242"/>
       <c r="E60" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="29" t="s">
         <v>167</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>168</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -5273,23 +5264,23 @@
       <c r="A61" s="27">
         <v>50</v>
       </c>
-      <c r="B61" s="233"/>
-      <c r="C61" s="236"/>
-      <c r="D61" s="236"/>
+      <c r="B61" s="239"/>
+      <c r="C61" s="242"/>
+      <c r="D61" s="242"/>
       <c r="E61" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>170</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -5318,23 +5309,23 @@
       <c r="A62" s="27">
         <v>51</v>
       </c>
-      <c r="B62" s="233"/>
-      <c r="C62" s="236"/>
-      <c r="D62" s="236"/>
+      <c r="B62" s="239"/>
+      <c r="C62" s="242"/>
+      <c r="D62" s="242"/>
       <c r="E62" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="29" t="s">
         <v>171</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>172</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
@@ -5363,23 +5354,23 @@
       <c r="A63" s="27">
         <v>52</v>
       </c>
-      <c r="B63" s="233"/>
-      <c r="C63" s="236"/>
-      <c r="D63" s="236"/>
+      <c r="B63" s="239"/>
+      <c r="C63" s="242"/>
+      <c r="D63" s="242"/>
       <c r="E63" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="29" t="s">
         <v>173</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>174</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
@@ -5408,30 +5399,30 @@
       <c r="A64" s="27">
         <v>53</v>
       </c>
-      <c r="B64" s="233"/>
-      <c r="C64" s="236"/>
-      <c r="D64" s="236"/>
+      <c r="B64" s="239"/>
+      <c r="C64" s="242"/>
+      <c r="D64" s="242"/>
       <c r="E64" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="G64" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J64" s="166" t="s">
         <v>176</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="J64" s="166" t="s">
-        <v>177</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M64" s="35"/>
       <c r="N64" s="32"/>
@@ -5455,23 +5446,23 @@
       <c r="A65" s="27">
         <v>54</v>
       </c>
-      <c r="B65" s="233"/>
-      <c r="C65" s="236"/>
-      <c r="D65" s="236"/>
+      <c r="B65" s="239"/>
+      <c r="C65" s="242"/>
+      <c r="D65" s="242"/>
       <c r="E65" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
@@ -5500,23 +5491,23 @@
       <c r="A66" s="27">
         <v>55</v>
       </c>
-      <c r="B66" s="233"/>
-      <c r="C66" s="236"/>
-      <c r="D66" s="236"/>
+      <c r="B66" s="239"/>
+      <c r="C66" s="242"/>
+      <c r="D66" s="242"/>
       <c r="E66" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -5545,30 +5536,30 @@
       <c r="A67" s="27">
         <v>56</v>
       </c>
-      <c r="B67" s="233"/>
-      <c r="C67" s="236"/>
-      <c r="D67" s="236"/>
+      <c r="B67" s="239"/>
+      <c r="C67" s="242"/>
+      <c r="D67" s="242"/>
       <c r="E67" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F67" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J67" s="166" t="s">
         <v>181</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J67" s="166" t="s">
-        <v>182</v>
       </c>
       <c r="K67" s="29"/>
       <c r="L67" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M67" s="35"/>
       <c r="N67" s="32"/>
@@ -5592,23 +5583,23 @@
       <c r="A68" s="27">
         <v>57</v>
       </c>
-      <c r="B68" s="233"/>
-      <c r="C68" s="236"/>
-      <c r="D68" s="236"/>
+      <c r="B68" s="239"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="242"/>
       <c r="E68" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
@@ -5637,23 +5628,23 @@
       <c r="A69" s="27">
         <v>58</v>
       </c>
-      <c r="B69" s="233"/>
-      <c r="C69" s="236"/>
-      <c r="D69" s="236"/>
+      <c r="B69" s="239"/>
+      <c r="C69" s="242"/>
+      <c r="D69" s="242"/>
       <c r="E69" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
@@ -5680,9 +5671,9 @@
     </row>
     <row r="70" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
-      <c r="B70" s="233"/>
-      <c r="C70" s="236"/>
-      <c r="D70" s="236"/>
+      <c r="B70" s="239"/>
+      <c r="C70" s="242"/>
+      <c r="D70" s="242"/>
       <c r="E70" s="36"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
@@ -5711,9 +5702,9 @@
     </row>
     <row r="71" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27"/>
-      <c r="B71" s="233"/>
-      <c r="C71" s="236"/>
-      <c r="D71" s="236"/>
+      <c r="B71" s="239"/>
+      <c r="C71" s="242"/>
+      <c r="D71" s="242"/>
       <c r="E71" s="36"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -5742,9 +5733,9 @@
     </row>
     <row r="72" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
-      <c r="B72" s="233"/>
-      <c r="C72" s="236"/>
-      <c r="D72" s="236"/>
+      <c r="B72" s="239"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="242"/>
       <c r="E72" s="36"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -5773,9 +5764,9 @@
     </row>
     <row r="73" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
-      <c r="B73" s="233"/>
-      <c r="C73" s="236"/>
-      <c r="D73" s="236"/>
+      <c r="B73" s="239"/>
+      <c r="C73" s="242"/>
+      <c r="D73" s="242"/>
       <c r="E73" s="36"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -5804,9 +5795,9 @@
     </row>
     <row r="74" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
-      <c r="B74" s="233"/>
-      <c r="C74" s="236"/>
-      <c r="D74" s="236"/>
+      <c r="B74" s="239"/>
+      <c r="C74" s="242"/>
+      <c r="D74" s="242"/>
       <c r="E74" s="36"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -5835,9 +5826,9 @@
     </row>
     <row r="75" spans="1:29" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
-      <c r="B75" s="233"/>
-      <c r="C75" s="237"/>
-      <c r="D75" s="237"/>
+      <c r="B75" s="239"/>
+      <c r="C75" s="243"/>
+      <c r="D75" s="243"/>
       <c r="E75" s="36"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
@@ -5866,7 +5857,7 @@
     </row>
     <row r="76" spans="1:29" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
-      <c r="B76" s="233"/>
+      <c r="B76" s="239"/>
       <c r="C76" s="47"/>
       <c r="D76" s="48"/>
       <c r="E76" s="49"/>
@@ -5897,9 +5888,9 @@
     </row>
     <row r="77" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
-      <c r="B77" s="233"/>
-      <c r="C77" s="238"/>
-      <c r="D77" s="239"/>
+      <c r="B77" s="239"/>
+      <c r="C77" s="244"/>
+      <c r="D77" s="245"/>
       <c r="E77" s="36"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
@@ -5928,9 +5919,9 @@
     </row>
     <row r="78" spans="1:29" s="34" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
-      <c r="B78" s="233"/>
-      <c r="C78" s="238"/>
-      <c r="D78" s="239"/>
+      <c r="B78" s="239"/>
+      <c r="C78" s="244"/>
+      <c r="D78" s="245"/>
       <c r="E78" s="36"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
@@ -5959,9 +5950,9 @@
     </row>
     <row r="79" spans="1:29" s="34" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
-      <c r="B79" s="233"/>
-      <c r="C79" s="238"/>
-      <c r="D79" s="239"/>
+      <c r="B79" s="239"/>
+      <c r="C79" s="244"/>
+      <c r="D79" s="245"/>
       <c r="E79" s="29"/>
       <c r="F79" s="18"/>
       <c r="G79" s="29"/>
@@ -5990,9 +5981,9 @@
     </row>
     <row r="80" spans="1:29" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
-      <c r="B80" s="233"/>
-      <c r="C80" s="238"/>
-      <c r="D80" s="239"/>
+      <c r="B80" s="239"/>
+      <c r="C80" s="244"/>
+      <c r="D80" s="245"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
@@ -6021,8 +6012,8 @@
     </row>
     <row r="81" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
-      <c r="B81" s="233"/>
-      <c r="C81" s="238"/>
+      <c r="B81" s="239"/>
+      <c r="C81" s="244"/>
       <c r="D81" s="52"/>
       <c r="E81" s="53"/>
       <c r="F81" s="29"/>
@@ -6052,7 +6043,7 @@
     </row>
     <row r="82" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="54"/>
-      <c r="B82" s="233"/>
+      <c r="B82" s="239"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
       <c r="E82" s="53"/>
@@ -6083,7 +6074,7 @@
     </row>
     <row r="83" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="54"/>
-      <c r="B83" s="233"/>
+      <c r="B83" s="239"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
       <c r="E83" s="55"/>
@@ -6114,7 +6105,7 @@
     </row>
     <row r="84" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
-      <c r="B84" s="233"/>
+      <c r="B84" s="239"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
       <c r="E84" s="55"/>
@@ -6145,7 +6136,7 @@
     </row>
     <row r="85" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
-      <c r="B85" s="233"/>
+      <c r="B85" s="239"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
       <c r="E85" s="55"/>
@@ -6176,7 +6167,7 @@
     </row>
     <row r="86" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
-      <c r="B86" s="233"/>
+      <c r="B86" s="239"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
       <c r="E86" s="55"/>
@@ -6207,7 +6198,7 @@
     </row>
     <row r="87" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
-      <c r="B87" s="233"/>
+      <c r="B87" s="239"/>
       <c r="C87" s="51"/>
       <c r="D87" s="56"/>
       <c r="E87" s="55"/>
@@ -6238,9 +6229,9 @@
     </row>
     <row r="88" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
-      <c r="B88" s="233"/>
+      <c r="B88" s="239"/>
       <c r="C88" s="51"/>
-      <c r="D88" s="240"/>
+      <c r="D88" s="246"/>
       <c r="E88" s="55"/>
       <c r="F88" s="18"/>
       <c r="G88" s="29"/>
@@ -6269,9 +6260,9 @@
     </row>
     <row r="89" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="54"/>
-      <c r="B89" s="233"/>
+      <c r="B89" s="239"/>
       <c r="C89" s="51"/>
-      <c r="D89" s="240"/>
+      <c r="D89" s="246"/>
       <c r="E89" s="55"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -6300,9 +6291,9 @@
     </row>
     <row r="90" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54"/>
-      <c r="B90" s="233"/>
+      <c r="B90" s="239"/>
       <c r="C90" s="51"/>
-      <c r="D90" s="240"/>
+      <c r="D90" s="246"/>
       <c r="E90" s="57"/>
       <c r="F90" s="9"/>
       <c r="G90" s="29"/>
@@ -6331,9 +6322,9 @@
     </row>
     <row r="91" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="54"/>
-      <c r="B91" s="233"/>
+      <c r="B91" s="239"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="240"/>
+      <c r="D91" s="246"/>
       <c r="E91" s="57"/>
       <c r="F91" s="9"/>
       <c r="G91" s="29"/>
@@ -6362,9 +6353,9 @@
     </row>
     <row r="92" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
-      <c r="B92" s="233"/>
+      <c r="B92" s="239"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="240"/>
+      <c r="D92" s="246"/>
       <c r="E92" s="57"/>
       <c r="F92" s="9"/>
       <c r="G92" s="29"/>
@@ -6393,7 +6384,7 @@
     </row>
     <row r="93" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
-      <c r="B93" s="233"/>
+      <c r="B93" s="239"/>
       <c r="C93" s="51"/>
       <c r="D93" s="58"/>
       <c r="E93" s="59"/>
@@ -6424,9 +6415,9 @@
     </row>
     <row r="94" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54"/>
-      <c r="B94" s="233"/>
+      <c r="B94" s="239"/>
       <c r="C94" s="51"/>
-      <c r="D94" s="240"/>
+      <c r="D94" s="246"/>
       <c r="E94" s="53"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -6455,9 +6446,9 @@
     </row>
     <row r="95" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
-      <c r="B95" s="233"/>
+      <c r="B95" s="239"/>
       <c r="C95" s="51"/>
-      <c r="D95" s="240"/>
+      <c r="D95" s="246"/>
       <c r="E95" s="53"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -6486,7 +6477,7 @@
     </row>
     <row r="96" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="54"/>
-      <c r="B96" s="233"/>
+      <c r="B96" s="239"/>
       <c r="C96" s="51"/>
       <c r="D96" s="60"/>
       <c r="E96" s="55"/>
@@ -6517,9 +6508,9 @@
     </row>
     <row r="97" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="54"/>
-      <c r="B97" s="233"/>
+      <c r="B97" s="239"/>
       <c r="C97" s="51"/>
-      <c r="D97" s="241"/>
+      <c r="D97" s="247"/>
       <c r="E97" s="55"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -6548,9 +6539,9 @@
     </row>
     <row r="98" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="54"/>
-      <c r="B98" s="233"/>
+      <c r="B98" s="239"/>
       <c r="C98" s="51"/>
-      <c r="D98" s="241"/>
+      <c r="D98" s="247"/>
       <c r="E98" s="55"/>
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
@@ -6579,9 +6570,9 @@
     </row>
     <row r="99" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54"/>
-      <c r="B99" s="233"/>
+      <c r="B99" s="239"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="241"/>
+      <c r="D99" s="247"/>
       <c r="E99" s="57"/>
       <c r="F99" s="9"/>
       <c r="G99" s="29"/>
@@ -6610,9 +6601,9 @@
     </row>
     <row r="100" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="54"/>
-      <c r="B100" s="233"/>
+      <c r="B100" s="239"/>
       <c r="C100" s="51"/>
-      <c r="D100" s="241"/>
+      <c r="D100" s="247"/>
       <c r="E100" s="53"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -6641,9 +6632,9 @@
     </row>
     <row r="101" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54"/>
-      <c r="B101" s="233"/>
+      <c r="B101" s="239"/>
       <c r="C101" s="51"/>
-      <c r="D101" s="241"/>
+      <c r="D101" s="247"/>
       <c r="E101" s="53"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -6672,9 +6663,9 @@
     </row>
     <row r="102" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="54"/>
-      <c r="B102" s="233"/>
+      <c r="B102" s="239"/>
       <c r="C102" s="51"/>
-      <c r="D102" s="241"/>
+      <c r="D102" s="247"/>
       <c r="E102" s="55"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -6703,9 +6694,9 @@
     </row>
     <row r="103" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="54"/>
-      <c r="B103" s="233"/>
+      <c r="B103" s="239"/>
       <c r="C103" s="51"/>
-      <c r="D103" s="241"/>
+      <c r="D103" s="247"/>
       <c r="E103" s="55"/>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
@@ -6734,9 +6725,9 @@
     </row>
     <row r="104" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="54"/>
-      <c r="B104" s="233"/>
+      <c r="B104" s="239"/>
       <c r="C104" s="51"/>
-      <c r="D104" s="241"/>
+      <c r="D104" s="247"/>
       <c r="E104" s="55"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
@@ -6765,9 +6756,9 @@
     </row>
     <row r="105" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="54"/>
-      <c r="B105" s="233"/>
+      <c r="B105" s="239"/>
       <c r="C105" s="51"/>
-      <c r="D105" s="241"/>
+      <c r="D105" s="247"/>
       <c r="E105" s="57"/>
       <c r="F105" s="9"/>
       <c r="G105" s="29"/>
@@ -6796,9 +6787,9 @@
     </row>
     <row r="106" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="54"/>
-      <c r="B106" s="233"/>
+      <c r="B106" s="239"/>
       <c r="C106" s="51"/>
-      <c r="D106" s="241"/>
+      <c r="D106" s="247"/>
       <c r="E106" s="59"/>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -6827,9 +6818,9 @@
     </row>
     <row r="107" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="54"/>
-      <c r="B107" s="233"/>
+      <c r="B107" s="239"/>
       <c r="C107" s="51"/>
-      <c r="D107" s="241"/>
+      <c r="D107" s="247"/>
       <c r="E107" s="53"/>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -6858,7 +6849,7 @@
     </row>
     <row r="108" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="54"/>
-      <c r="B108" s="233"/>
+      <c r="B108" s="239"/>
       <c r="C108" s="51"/>
       <c r="D108" s="60"/>
       <c r="E108" s="53"/>
@@ -6889,9 +6880,9 @@
     </row>
     <row r="109" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
-      <c r="B109" s="233"/>
+      <c r="B109" s="239"/>
       <c r="C109" s="51"/>
-      <c r="D109" s="242"/>
+      <c r="D109" s="248"/>
       <c r="E109" s="55"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
@@ -6920,9 +6911,9 @@
     </row>
     <row r="110" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="54"/>
-      <c r="B110" s="233"/>
+      <c r="B110" s="239"/>
       <c r="C110" s="51"/>
-      <c r="D110" s="242"/>
+      <c r="D110" s="248"/>
       <c r="E110" s="55"/>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
@@ -6951,9 +6942,9 @@
     </row>
     <row r="111" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="54"/>
-      <c r="B111" s="233"/>
+      <c r="B111" s="239"/>
       <c r="C111" s="51"/>
-      <c r="D111" s="242"/>
+      <c r="D111" s="248"/>
       <c r="E111" s="55"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -6982,9 +6973,9 @@
     </row>
     <row r="112" spans="1:29" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="54"/>
-      <c r="B112" s="233"/>
+      <c r="B112" s="239"/>
       <c r="C112" s="51"/>
-      <c r="D112" s="242"/>
+      <c r="D112" s="248"/>
       <c r="E112" s="57"/>
       <c r="F112" s="9"/>
       <c r="G112" s="29"/>
@@ -7013,9 +7004,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="62"/>
-      <c r="B113" s="233"/>
+      <c r="B113" s="239"/>
       <c r="C113" s="63"/>
-      <c r="D113" s="242"/>
+      <c r="D113" s="248"/>
       <c r="E113" s="64"/>
       <c r="F113" s="65"/>
       <c r="G113" s="65"/>
@@ -7044,9 +7035,9 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="68"/>
-      <c r="B114" s="233"/>
+      <c r="B114" s="239"/>
       <c r="C114" s="63"/>
-      <c r="D114" s="242"/>
+      <c r="D114" s="248"/>
       <c r="E114" s="69"/>
       <c r="F114" s="70"/>
       <c r="G114" s="71"/>
@@ -7075,9 +7066,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="68"/>
-      <c r="B115" s="233"/>
+      <c r="B115" s="239"/>
       <c r="C115" s="63"/>
-      <c r="D115" s="242"/>
+      <c r="D115" s="248"/>
       <c r="E115" s="75"/>
       <c r="F115" s="76"/>
       <c r="G115" s="76"/>
@@ -7106,9 +7097,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="68"/>
-      <c r="B116" s="233"/>
+      <c r="B116" s="239"/>
       <c r="C116" s="63"/>
-      <c r="D116" s="242"/>
+      <c r="D116" s="248"/>
       <c r="E116" s="75"/>
       <c r="F116" s="76"/>
       <c r="G116" s="76"/>
@@ -7137,9 +7128,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
-      <c r="B117" s="233"/>
+      <c r="B117" s="239"/>
       <c r="C117" s="63"/>
-      <c r="D117" s="242"/>
+      <c r="D117" s="248"/>
       <c r="E117" s="79"/>
       <c r="F117" s="76"/>
       <c r="G117" s="76"/>
@@ -7168,9 +7159,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="68"/>
-      <c r="B118" s="233"/>
+      <c r="B118" s="239"/>
       <c r="C118" s="63"/>
-      <c r="D118" s="242"/>
+      <c r="D118" s="248"/>
       <c r="E118" s="80"/>
       <c r="F118" s="70"/>
       <c r="G118" s="71"/>
@@ -7199,7 +7190,7 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="68"/>
-      <c r="B119" s="233"/>
+      <c r="B119" s="239"/>
       <c r="C119" s="63"/>
       <c r="D119" s="81"/>
       <c r="E119" s="69"/>
@@ -7230,9 +7221,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
-      <c r="B120" s="233"/>
+      <c r="B120" s="239"/>
       <c r="C120" s="63"/>
-      <c r="D120" s="243"/>
+      <c r="D120" s="249"/>
       <c r="E120" s="82"/>
       <c r="F120" s="70"/>
       <c r="G120" s="71"/>
@@ -7261,9 +7252,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="68"/>
-      <c r="B121" s="233"/>
+      <c r="B121" s="239"/>
       <c r="C121" s="63"/>
-      <c r="D121" s="243"/>
+      <c r="D121" s="249"/>
       <c r="E121" s="84"/>
       <c r="F121" s="76"/>
       <c r="G121" s="76"/>
@@ -7292,7 +7283,7 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
-      <c r="B122" s="233"/>
+      <c r="B122" s="239"/>
       <c r="C122" s="63"/>
       <c r="D122" s="1"/>
       <c r="E122" s="85"/>
@@ -7323,9 +7314,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
-      <c r="B123" s="233"/>
+      <c r="B123" s="239"/>
       <c r="C123" s="63"/>
-      <c r="D123" s="244"/>
+      <c r="D123" s="250"/>
       <c r="E123" s="84"/>
       <c r="F123" s="76"/>
       <c r="G123" s="76"/>
@@ -7354,9 +7345,9 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
-      <c r="B124" s="233"/>
+      <c r="B124" s="239"/>
       <c r="C124" s="63"/>
-      <c r="D124" s="244"/>
+      <c r="D124" s="250"/>
       <c r="E124" s="82"/>
       <c r="F124" s="76"/>
       <c r="G124" s="76"/>
@@ -7385,9 +7376,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="68"/>
-      <c r="B125" s="233"/>
+      <c r="B125" s="239"/>
       <c r="C125" s="63"/>
-      <c r="D125" s="244"/>
+      <c r="D125" s="250"/>
       <c r="E125" s="84"/>
       <c r="F125" s="76"/>
       <c r="G125" s="76"/>
@@ -7416,9 +7407,9 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="68"/>
-      <c r="B126" s="233"/>
+      <c r="B126" s="239"/>
       <c r="C126" s="63"/>
-      <c r="D126" s="244"/>
+      <c r="D126" s="250"/>
       <c r="E126" s="82"/>
       <c r="F126" s="70"/>
       <c r="G126" s="71"/>
@@ -7447,9 +7438,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="68"/>
-      <c r="B127" s="233"/>
+      <c r="B127" s="239"/>
       <c r="C127" s="63"/>
-      <c r="D127" s="244"/>
+      <c r="D127" s="250"/>
       <c r="E127" s="86"/>
       <c r="F127" s="87"/>
       <c r="G127" s="78"/>
@@ -7478,9 +7469,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="68"/>
-      <c r="B128" s="233"/>
+      <c r="B128" s="239"/>
       <c r="C128" s="63"/>
-      <c r="D128" s="244"/>
+      <c r="D128" s="250"/>
       <c r="E128" s="82"/>
       <c r="F128" s="88"/>
       <c r="G128" s="71"/>
@@ -7509,9 +7500,9 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="68"/>
-      <c r="B129" s="233"/>
+      <c r="B129" s="239"/>
       <c r="C129" s="63"/>
-      <c r="D129" s="244"/>
+      <c r="D129" s="250"/>
       <c r="E129" s="86"/>
       <c r="F129" s="89"/>
       <c r="G129" s="78"/>
@@ -7540,7 +7531,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
-      <c r="B130" s="233"/>
+      <c r="B130" s="239"/>
       <c r="C130" s="63"/>
       <c r="D130" s="90"/>
       <c r="E130" s="86"/>
@@ -7571,9 +7562,9 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68"/>
-      <c r="B131" s="233"/>
+      <c r="B131" s="239"/>
       <c r="C131" s="63"/>
-      <c r="D131" s="232"/>
+      <c r="D131" s="238"/>
       <c r="E131" s="91"/>
       <c r="F131" s="92"/>
       <c r="G131" s="78"/>
@@ -7602,9 +7593,9 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68"/>
-      <c r="B132" s="233"/>
+      <c r="B132" s="239"/>
       <c r="C132" s="63"/>
-      <c r="D132" s="232"/>
+      <c r="D132" s="238"/>
       <c r="E132" s="86"/>
       <c r="F132" s="92"/>
       <c r="G132" s="78"/>
@@ -7633,9 +7624,9 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68"/>
-      <c r="B133" s="233"/>
+      <c r="B133" s="239"/>
       <c r="C133" s="63"/>
-      <c r="D133" s="232"/>
+      <c r="D133" s="238"/>
       <c r="E133" s="93"/>
       <c r="F133" s="83"/>
       <c r="G133" s="83"/>
@@ -7664,9 +7655,9 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68"/>
-      <c r="B134" s="233"/>
+      <c r="B134" s="239"/>
       <c r="C134" s="63"/>
-      <c r="D134" s="232"/>
+      <c r="D134" s="238"/>
       <c r="E134" s="93"/>
       <c r="F134" s="83"/>
       <c r="G134" s="83"/>
@@ -7695,9 +7686,9 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
-      <c r="B135" s="233"/>
+      <c r="B135" s="239"/>
       <c r="C135" s="63"/>
-      <c r="D135" s="232"/>
+      <c r="D135" s="238"/>
       <c r="E135" s="93"/>
       <c r="F135" s="83"/>
       <c r="G135" s="83"/>
@@ -7726,9 +7717,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68"/>
-      <c r="B136" s="233"/>
+      <c r="B136" s="239"/>
       <c r="C136" s="63"/>
-      <c r="D136" s="232"/>
+      <c r="D136" s="238"/>
       <c r="E136" s="93"/>
       <c r="F136" s="83"/>
       <c r="G136" s="83"/>
@@ -7757,9 +7748,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68"/>
-      <c r="B137" s="233"/>
+      <c r="B137" s="239"/>
       <c r="C137" s="63"/>
-      <c r="D137" s="232"/>
+      <c r="D137" s="238"/>
       <c r="E137" s="93"/>
       <c r="F137" s="83"/>
       <c r="G137" s="83"/>
@@ -7788,9 +7779,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68"/>
-      <c r="B138" s="233"/>
+      <c r="B138" s="239"/>
       <c r="C138" s="63"/>
-      <c r="D138" s="232"/>
+      <c r="D138" s="238"/>
       <c r="E138" s="93"/>
       <c r="F138" s="83"/>
       <c r="G138" s="83"/>
@@ -7819,9 +7810,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68"/>
-      <c r="B139" s="233"/>
+      <c r="B139" s="239"/>
       <c r="C139" s="63"/>
-      <c r="D139" s="232"/>
+      <c r="D139" s="238"/>
       <c r="E139" s="93"/>
       <c r="F139" s="83"/>
       <c r="G139" s="83"/>
@@ -7850,7 +7841,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68"/>
-      <c r="B140" s="233"/>
+      <c r="B140" s="239"/>
       <c r="C140" s="94"/>
       <c r="D140" s="95"/>
       <c r="E140" s="93"/>
@@ -7881,7 +7872,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68"/>
-      <c r="B141" s="233"/>
+      <c r="B141" s="239"/>
       <c r="C141" s="96"/>
       <c r="D141" s="95"/>
       <c r="E141" s="93"/>
@@ -7912,7 +7903,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68"/>
-      <c r="B142" s="233"/>
+      <c r="B142" s="239"/>
       <c r="C142" s="96"/>
       <c r="D142" s="97"/>
       <c r="E142" s="93"/>
@@ -7943,9 +7934,9 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68"/>
-      <c r="B143" s="233"/>
+      <c r="B143" s="239"/>
       <c r="C143" s="96"/>
-      <c r="D143" s="247"/>
+      <c r="D143" s="232"/>
       <c r="E143" s="98"/>
       <c r="F143" s="83"/>
       <c r="G143" s="83"/>
@@ -7974,9 +7965,9 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68"/>
-      <c r="B144" s="233"/>
+      <c r="B144" s="239"/>
       <c r="C144" s="96"/>
-      <c r="D144" s="247"/>
+      <c r="D144" s="232"/>
       <c r="E144" s="98"/>
       <c r="F144" s="83"/>
       <c r="G144" s="83"/>
@@ -8005,7 +7996,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68"/>
-      <c r="B145" s="233"/>
+      <c r="B145" s="239"/>
       <c r="C145" s="96"/>
       <c r="D145" s="99"/>
       <c r="E145" s="93"/>
@@ -8036,7 +8027,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68"/>
-      <c r="B146" s="233"/>
+      <c r="B146" s="239"/>
       <c r="C146" s="96"/>
       <c r="D146" s="100"/>
       <c r="E146" s="93"/>
@@ -8067,7 +8058,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68"/>
-      <c r="B147" s="233"/>
+      <c r="B147" s="239"/>
       <c r="C147" s="96"/>
       <c r="D147" s="100"/>
       <c r="E147" s="101"/>
@@ -8098,7 +8089,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68"/>
-      <c r="B148" s="233"/>
+      <c r="B148" s="239"/>
       <c r="C148" s="96"/>
       <c r="D148" s="100"/>
       <c r="E148" s="93"/>
@@ -8129,7 +8120,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68"/>
-      <c r="B149" s="233"/>
+      <c r="B149" s="239"/>
       <c r="C149" s="96"/>
       <c r="D149" s="100"/>
       <c r="E149" s="93"/>
@@ -8160,7 +8151,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68"/>
-      <c r="B150" s="233"/>
+      <c r="B150" s="239"/>
       <c r="C150" s="96"/>
       <c r="D150" s="100"/>
       <c r="E150" s="93"/>
@@ -8191,7 +8182,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68"/>
-      <c r="B151" s="233"/>
+      <c r="B151" s="239"/>
       <c r="C151" s="96"/>
       <c r="D151" s="100"/>
       <c r="E151" s="93"/>
@@ -8222,7 +8213,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68"/>
-      <c r="B152" s="233"/>
+      <c r="B152" s="239"/>
       <c r="C152" s="96"/>
       <c r="D152" s="100"/>
       <c r="E152" s="101"/>
@@ -8253,7 +8244,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68"/>
-      <c r="B153" s="233"/>
+      <c r="B153" s="239"/>
       <c r="C153" s="96"/>
       <c r="D153" s="100"/>
       <c r="E153" s="101"/>
@@ -8284,7 +8275,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68"/>
-      <c r="B154" s="233"/>
+      <c r="B154" s="239"/>
       <c r="C154" s="96"/>
       <c r="D154" s="100"/>
       <c r="E154" s="101"/>
@@ -8315,7 +8306,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68"/>
-      <c r="B155" s="233"/>
+      <c r="B155" s="239"/>
       <c r="C155" s="96"/>
       <c r="D155" s="100"/>
       <c r="E155" s="93"/>
@@ -8346,7 +8337,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="68"/>
-      <c r="B156" s="233"/>
+      <c r="B156" s="239"/>
       <c r="C156" s="96"/>
       <c r="D156" s="100"/>
       <c r="E156" s="93"/>
@@ -8377,7 +8368,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68"/>
-      <c r="B157" s="233"/>
+      <c r="B157" s="239"/>
       <c r="C157" s="96"/>
       <c r="D157" s="100"/>
       <c r="E157" s="93"/>
@@ -8408,7 +8399,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="68"/>
-      <c r="B158" s="233"/>
+      <c r="B158" s="239"/>
       <c r="C158" s="96"/>
       <c r="D158" s="100"/>
       <c r="E158" s="93"/>
@@ -8439,7 +8430,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68"/>
-      <c r="B159" s="233"/>
+      <c r="B159" s="239"/>
       <c r="C159" s="96"/>
       <c r="D159" s="100"/>
       <c r="E159" s="93"/>
@@ -8470,7 +8461,7 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68"/>
-      <c r="B160" s="233"/>
+      <c r="B160" s="239"/>
       <c r="C160" s="96"/>
       <c r="D160" s="100"/>
       <c r="E160" s="93"/>
@@ -8501,7 +8492,7 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="106"/>
-      <c r="B161" s="233"/>
+      <c r="B161" s="239"/>
       <c r="C161" s="96"/>
       <c r="D161" s="107"/>
       <c r="E161" s="108"/>
@@ -8532,7 +8523,7 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="106"/>
-      <c r="B162" s="233"/>
+      <c r="B162" s="239"/>
       <c r="C162" s="96"/>
       <c r="D162" s="109"/>
       <c r="E162" s="93"/>
@@ -8563,7 +8554,7 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="106"/>
-      <c r="B163" s="233"/>
+      <c r="B163" s="239"/>
       <c r="C163" s="96"/>
       <c r="D163" s="109"/>
       <c r="E163" s="93"/>
@@ -8594,7 +8585,7 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="106"/>
-      <c r="B164" s="233"/>
+      <c r="B164" s="239"/>
       <c r="C164" s="96"/>
       <c r="D164" s="109"/>
       <c r="E164" s="110"/>
@@ -8625,7 +8616,7 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="106"/>
-      <c r="B165" s="233"/>
+      <c r="B165" s="239"/>
       <c r="C165" s="96"/>
       <c r="D165" s="109"/>
       <c r="E165" s="111"/>
@@ -8656,7 +8647,7 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="106"/>
-      <c r="B166" s="233"/>
+      <c r="B166" s="239"/>
       <c r="C166" s="96"/>
       <c r="D166" s="109"/>
       <c r="E166" s="111"/>
@@ -8687,7 +8678,7 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="106"/>
-      <c r="B167" s="233"/>
+      <c r="B167" s="239"/>
       <c r="C167" s="96"/>
       <c r="D167" s="109"/>
       <c r="E167" s="111"/>
@@ -8718,7 +8709,7 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="106"/>
-      <c r="B168" s="233"/>
+      <c r="B168" s="239"/>
       <c r="C168" s="96"/>
       <c r="D168" s="109"/>
       <c r="E168" s="111"/>
@@ -8749,7 +8740,7 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="106"/>
-      <c r="B169" s="233"/>
+      <c r="B169" s="239"/>
       <c r="C169" s="96"/>
       <c r="D169" s="109"/>
       <c r="E169" s="93"/>
@@ -8780,7 +8771,7 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="106"/>
-      <c r="B170" s="233"/>
+      <c r="B170" s="239"/>
       <c r="C170" s="96"/>
       <c r="D170" s="109"/>
       <c r="E170" s="93"/>
@@ -8811,7 +8802,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="106"/>
-      <c r="B171" s="233"/>
+      <c r="B171" s="239"/>
       <c r="C171" s="96"/>
       <c r="D171" s="109"/>
       <c r="E171" s="93"/>
@@ -8842,7 +8833,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="106"/>
-      <c r="B172" s="233"/>
+      <c r="B172" s="239"/>
       <c r="C172" s="96"/>
       <c r="D172" s="109"/>
       <c r="E172" s="93"/>
@@ -8873,7 +8864,7 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="106"/>
-      <c r="B173" s="233"/>
+      <c r="B173" s="239"/>
       <c r="C173" s="96"/>
       <c r="D173" s="109"/>
       <c r="E173" s="108"/>
@@ -8904,7 +8895,7 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="106"/>
-      <c r="B174" s="233"/>
+      <c r="B174" s="239"/>
       <c r="C174" s="96"/>
       <c r="D174" s="112"/>
       <c r="E174" s="113"/>
@@ -8935,7 +8926,7 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="106"/>
-      <c r="B175" s="233"/>
+      <c r="B175" s="239"/>
       <c r="C175" s="96"/>
       <c r="D175" s="114"/>
       <c r="E175" s="108"/>
@@ -8966,9 +8957,9 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="106"/>
-      <c r="B176" s="233"/>
+      <c r="B176" s="239"/>
       <c r="C176" s="96"/>
-      <c r="D176" s="248"/>
+      <c r="D176" s="233"/>
       <c r="E176" s="93"/>
       <c r="F176" s="83"/>
       <c r="G176" s="83"/>
@@ -8977,7 +8968,7 @@
       <c r="J176" s="83"/>
       <c r="K176" s="83"/>
       <c r="L176" s="74"/>
-      <c r="M176" s="249"/>
+      <c r="M176" s="234"/>
       <c r="N176" s="67"/>
       <c r="O176" s="67"/>
       <c r="P176" s="67"/>
@@ -8997,9 +8988,9 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="68"/>
-      <c r="B177" s="233"/>
+      <c r="B177" s="239"/>
       <c r="C177" s="96"/>
-      <c r="D177" s="248"/>
+      <c r="D177" s="233"/>
       <c r="E177" s="93"/>
       <c r="F177" s="83"/>
       <c r="G177" s="83"/>
@@ -9008,7 +8999,7 @@
       <c r="J177" s="83"/>
       <c r="K177" s="83"/>
       <c r="L177" s="74"/>
-      <c r="M177" s="249"/>
+      <c r="M177" s="234"/>
       <c r="N177" s="67"/>
       <c r="O177" s="67"/>
       <c r="P177" s="67"/>
@@ -9028,9 +9019,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="68"/>
-      <c r="B178" s="233"/>
+      <c r="B178" s="239"/>
       <c r="C178" s="96"/>
-      <c r="D178" s="248"/>
+      <c r="D178" s="233"/>
       <c r="E178" s="110"/>
       <c r="F178" s="83"/>
       <c r="G178" s="83"/>
@@ -9039,7 +9030,7 @@
       <c r="J178" s="83"/>
       <c r="K178" s="83"/>
       <c r="L178" s="74"/>
-      <c r="M178" s="249"/>
+      <c r="M178" s="234"/>
       <c r="N178" s="67"/>
       <c r="O178" s="67"/>
       <c r="P178" s="67"/>
@@ -9059,9 +9050,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="68"/>
-      <c r="B179" s="233"/>
+      <c r="B179" s="239"/>
       <c r="C179" s="96"/>
-      <c r="D179" s="248"/>
+      <c r="D179" s="233"/>
       <c r="E179" s="111"/>
       <c r="F179" s="83"/>
       <c r="G179" s="83"/>
@@ -9070,7 +9061,7 @@
       <c r="J179" s="83"/>
       <c r="K179" s="83"/>
       <c r="L179" s="74"/>
-      <c r="M179" s="249"/>
+      <c r="M179" s="234"/>
       <c r="N179" s="67"/>
       <c r="O179" s="67"/>
       <c r="P179" s="67"/>
@@ -9090,9 +9081,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="68"/>
-      <c r="B180" s="233"/>
+      <c r="B180" s="239"/>
       <c r="C180" s="96"/>
-      <c r="D180" s="248"/>
+      <c r="D180" s="233"/>
       <c r="E180" s="111"/>
       <c r="F180" s="83"/>
       <c r="G180" s="83"/>
@@ -9101,7 +9092,7 @@
       <c r="J180" s="83"/>
       <c r="K180" s="83"/>
       <c r="L180" s="74"/>
-      <c r="M180" s="249"/>
+      <c r="M180" s="234"/>
       <c r="N180" s="67"/>
       <c r="O180" s="67"/>
       <c r="P180" s="67"/>
@@ -9121,9 +9112,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="68"/>
-      <c r="B181" s="233"/>
+      <c r="B181" s="239"/>
       <c r="C181" s="96"/>
-      <c r="D181" s="248"/>
+      <c r="D181" s="233"/>
       <c r="E181" s="111"/>
       <c r="F181" s="83"/>
       <c r="G181" s="83"/>
@@ -9132,7 +9123,7 @@
       <c r="J181" s="83"/>
       <c r="K181" s="83"/>
       <c r="L181" s="74"/>
-      <c r="M181" s="249"/>
+      <c r="M181" s="234"/>
       <c r="N181" s="67"/>
       <c r="O181" s="67"/>
       <c r="P181" s="67"/>
@@ -9152,9 +9143,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="68"/>
-      <c r="B182" s="233"/>
+      <c r="B182" s="239"/>
       <c r="C182" s="96"/>
-      <c r="D182" s="248"/>
+      <c r="D182" s="233"/>
       <c r="E182" s="111"/>
       <c r="F182" s="83"/>
       <c r="G182" s="83"/>
@@ -9163,7 +9154,7 @@
       <c r="J182" s="83"/>
       <c r="K182" s="83"/>
       <c r="L182" s="74"/>
-      <c r="M182" s="249"/>
+      <c r="M182" s="234"/>
       <c r="N182" s="67"/>
       <c r="O182" s="67"/>
       <c r="P182" s="67"/>
@@ -9183,9 +9174,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="68"/>
-      <c r="B183" s="233"/>
+      <c r="B183" s="239"/>
       <c r="C183" s="96"/>
-      <c r="D183" s="248"/>
+      <c r="D183" s="233"/>
       <c r="E183" s="93"/>
       <c r="F183" s="83"/>
       <c r="G183" s="83"/>
@@ -9194,7 +9185,7 @@
       <c r="J183" s="83"/>
       <c r="K183" s="83"/>
       <c r="L183" s="74"/>
-      <c r="M183" s="249"/>
+      <c r="M183" s="234"/>
       <c r="N183" s="67"/>
       <c r="O183" s="67"/>
       <c r="P183" s="67"/>
@@ -9214,9 +9205,9 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="68"/>
-      <c r="B184" s="233"/>
+      <c r="B184" s="239"/>
       <c r="C184" s="96"/>
-      <c r="D184" s="248"/>
+      <c r="D184" s="233"/>
       <c r="E184" s="93"/>
       <c r="F184" s="83"/>
       <c r="G184" s="83"/>
@@ -9245,9 +9236,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="68"/>
-      <c r="B185" s="233"/>
+      <c r="B185" s="239"/>
       <c r="C185" s="96"/>
-      <c r="D185" s="248"/>
+      <c r="D185" s="233"/>
       <c r="E185" s="93"/>
       <c r="F185" s="83"/>
       <c r="G185" s="83"/>
@@ -9276,9 +9267,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="68"/>
-      <c r="B186" s="233"/>
+      <c r="B186" s="239"/>
       <c r="C186" s="96"/>
-      <c r="D186" s="248"/>
+      <c r="D186" s="233"/>
       <c r="E186" s="93"/>
       <c r="F186" s="83"/>
       <c r="G186" s="83"/>
@@ -9340,7 +9331,7 @@
       <c r="A188" s="115"/>
       <c r="B188" s="118"/>
       <c r="C188" s="117"/>
-      <c r="D188" s="250"/>
+      <c r="D188" s="235"/>
       <c r="E188" s="93"/>
       <c r="F188" s="83"/>
       <c r="G188" s="105"/>
@@ -9371,7 +9362,7 @@
       <c r="A189" s="115"/>
       <c r="B189" s="114"/>
       <c r="C189" s="119"/>
-      <c r="D189" s="250"/>
+      <c r="D189" s="235"/>
       <c r="E189" s="93"/>
       <c r="F189" s="83"/>
       <c r="G189" s="105"/>
@@ -9402,7 +9393,7 @@
       <c r="A190" s="115"/>
       <c r="B190" s="114"/>
       <c r="C190" s="119"/>
-      <c r="D190" s="250"/>
+      <c r="D190" s="235"/>
       <c r="E190" s="93"/>
       <c r="F190" s="83"/>
       <c r="G190" s="105"/>
@@ -9433,7 +9424,7 @@
       <c r="A191" s="115"/>
       <c r="B191" s="114"/>
       <c r="C191" s="114"/>
-      <c r="D191" s="250"/>
+      <c r="D191" s="235"/>
       <c r="E191" s="101"/>
       <c r="F191" s="83"/>
       <c r="G191" s="105"/>
@@ -9464,7 +9455,7 @@
       <c r="A192" s="115"/>
       <c r="B192" s="118"/>
       <c r="C192" s="114"/>
-      <c r="D192" s="250"/>
+      <c r="D192" s="235"/>
       <c r="E192" s="101"/>
       <c r="F192" s="83"/>
       <c r="G192" s="105"/>
@@ -9495,7 +9486,7 @@
       <c r="A193" s="115"/>
       <c r="B193" s="118"/>
       <c r="C193" s="114"/>
-      <c r="D193" s="250"/>
+      <c r="D193" s="235"/>
       <c r="E193" s="101"/>
       <c r="F193" s="83"/>
       <c r="G193" s="105"/>
@@ -9526,7 +9517,7 @@
       <c r="A194" s="115"/>
       <c r="B194" s="118"/>
       <c r="C194" s="114"/>
-      <c r="D194" s="250"/>
+      <c r="D194" s="235"/>
       <c r="E194" s="93"/>
       <c r="F194" s="83"/>
       <c r="G194" s="105"/>
@@ -9557,7 +9548,7 @@
       <c r="A195" s="115"/>
       <c r="B195" s="118"/>
       <c r="C195" s="114"/>
-      <c r="D195" s="250"/>
+      <c r="D195" s="235"/>
       <c r="E195" s="93"/>
       <c r="F195" s="83"/>
       <c r="G195" s="105"/>
@@ -9588,7 +9579,7 @@
       <c r="A196" s="115"/>
       <c r="B196" s="118"/>
       <c r="C196" s="118"/>
-      <c r="D196" s="250"/>
+      <c r="D196" s="235"/>
       <c r="E196" s="93"/>
       <c r="F196" s="83"/>
       <c r="G196" s="105"/>
@@ -10928,8 +10919,8 @@
       <c r="H239" s="139"/>
       <c r="I239" s="139"/>
       <c r="J239" s="139"/>
-      <c r="K239" s="246"/>
-      <c r="L239" s="249"/>
+      <c r="K239" s="231"/>
+      <c r="L239" s="234"/>
       <c r="M239" s="134"/>
       <c r="N239" s="67"/>
       <c r="O239" s="67"/>
@@ -10959,8 +10950,8 @@
       <c r="H240" s="140"/>
       <c r="I240" s="140"/>
       <c r="J240" s="140"/>
-      <c r="K240" s="246"/>
-      <c r="L240" s="249"/>
+      <c r="K240" s="231"/>
+      <c r="L240" s="234"/>
       <c r="M240" s="134"/>
       <c r="N240" s="67"/>
       <c r="O240" s="67"/>
@@ -10990,8 +10981,8 @@
       <c r="H241" s="65"/>
       <c r="I241" s="65"/>
       <c r="J241" s="65"/>
-      <c r="K241" s="246"/>
-      <c r="L241" s="249"/>
+      <c r="K241" s="231"/>
+      <c r="L241" s="234"/>
       <c r="M241" s="134"/>
       <c r="N241" s="67"/>
       <c r="O241" s="67"/>
@@ -11199,9 +11190,9 @@
     <row r="248" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="115"/>
       <c r="B248" s="126"/>
-      <c r="C248" s="251"/>
+      <c r="C248" s="227"/>
       <c r="D248" s="114"/>
-      <c r="E248" s="252"/>
+      <c r="E248" s="236"/>
       <c r="F248" s="76"/>
       <c r="G248" s="76"/>
       <c r="H248" s="76"/>
@@ -11230,9 +11221,9 @@
     <row r="249" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="115"/>
       <c r="B249" s="126"/>
-      <c r="C249" s="251"/>
+      <c r="C249" s="227"/>
       <c r="D249" s="114"/>
-      <c r="E249" s="252"/>
+      <c r="E249" s="236"/>
       <c r="F249" s="76"/>
       <c r="G249" s="76"/>
       <c r="H249" s="76"/>
@@ -11261,9 +11252,9 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="115"/>
       <c r="B250" s="126"/>
-      <c r="C250" s="251"/>
+      <c r="C250" s="227"/>
       <c r="D250" s="114"/>
-      <c r="E250" s="252"/>
+      <c r="E250" s="236"/>
       <c r="F250" s="76"/>
       <c r="G250" s="76"/>
       <c r="H250" s="76"/>
@@ -11292,7 +11283,7 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="115"/>
       <c r="B251" s="126"/>
-      <c r="C251" s="251"/>
+      <c r="C251" s="227"/>
       <c r="D251" s="114"/>
       <c r="E251" s="84"/>
       <c r="F251" s="76"/>
@@ -11323,7 +11314,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="115"/>
       <c r="B252" s="126"/>
-      <c r="C252" s="251"/>
+      <c r="C252" s="227"/>
       <c r="D252" s="114"/>
       <c r="E252" s="84"/>
       <c r="F252" s="76"/>
@@ -11354,7 +11345,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="115"/>
       <c r="B253" s="126"/>
-      <c r="C253" s="251"/>
+      <c r="C253" s="227"/>
       <c r="D253" s="114"/>
       <c r="E253" s="84"/>
       <c r="F253" s="137"/>
@@ -11385,7 +11376,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="115"/>
       <c r="B254" s="126"/>
-      <c r="C254" s="251"/>
+      <c r="C254" s="227"/>
       <c r="D254" s="114"/>
       <c r="E254" s="84"/>
       <c r="F254" s="76"/>
@@ -11416,7 +11407,7 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="115"/>
       <c r="B255" s="126"/>
-      <c r="C255" s="245"/>
+      <c r="C255" s="228"/>
       <c r="D255" s="124"/>
       <c r="E255" s="84"/>
       <c r="F255" s="137"/>
@@ -11447,7 +11438,7 @@
     <row r="256" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="115"/>
       <c r="B256" s="126"/>
-      <c r="C256" s="245"/>
+      <c r="C256" s="228"/>
       <c r="D256" s="145"/>
       <c r="E256" s="84"/>
       <c r="F256" s="137"/>
@@ -11509,7 +11500,7 @@
     <row r="258" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="115"/>
       <c r="B258" s="126"/>
-      <c r="C258" s="245"/>
+      <c r="C258" s="228"/>
       <c r="D258" s="124"/>
       <c r="E258" s="84"/>
       <c r="F258" s="76"/>
@@ -11540,7 +11531,7 @@
     <row r="259" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="115"/>
       <c r="B259" s="126"/>
-      <c r="C259" s="245"/>
+      <c r="C259" s="228"/>
       <c r="D259" s="125"/>
       <c r="E259" s="84"/>
       <c r="F259" s="76"/>
@@ -11571,7 +11562,7 @@
     <row r="260" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="115"/>
       <c r="B260" s="126"/>
-      <c r="C260" s="245"/>
+      <c r="C260" s="228"/>
       <c r="D260" s="125"/>
       <c r="E260" s="84"/>
       <c r="F260" s="76"/>
@@ -11602,7 +11593,7 @@
     <row r="261" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="115"/>
       <c r="B261" s="126"/>
-      <c r="C261" s="245"/>
+      <c r="C261" s="228"/>
       <c r="D261" s="125"/>
       <c r="E261" s="84"/>
       <c r="F261" s="137"/>
@@ -11633,7 +11624,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="115"/>
       <c r="B262" s="126"/>
-      <c r="C262" s="245"/>
+      <c r="C262" s="228"/>
       <c r="D262" s="125"/>
       <c r="E262" s="147"/>
       <c r="F262" s="76"/>
@@ -12013,7 +12004,7 @@
       <c r="H274" s="137"/>
       <c r="I274" s="137"/>
       <c r="J274" s="137"/>
-      <c r="K274" s="253"/>
+      <c r="K274" s="237"/>
       <c r="L274" s="74"/>
       <c r="M274" s="103"/>
       <c r="N274" s="67"/>
@@ -12044,7 +12035,7 @@
       <c r="H275" s="137"/>
       <c r="I275" s="137"/>
       <c r="J275" s="137"/>
-      <c r="K275" s="253"/>
+      <c r="K275" s="237"/>
       <c r="L275" s="74"/>
       <c r="M275" s="103"/>
       <c r="N275" s="67"/>
@@ -12129,7 +12120,7 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="115"/>
       <c r="B278" s="126"/>
-      <c r="C278" s="245"/>
+      <c r="C278" s="228"/>
       <c r="D278" s="124"/>
       <c r="E278" s="84"/>
       <c r="F278" s="137"/>
@@ -12137,7 +12128,7 @@
       <c r="H278" s="137"/>
       <c r="I278" s="137"/>
       <c r="J278" s="137"/>
-      <c r="K278" s="246"/>
+      <c r="K278" s="231"/>
       <c r="L278" s="74"/>
       <c r="M278" s="103"/>
       <c r="N278" s="67"/>
@@ -12160,7 +12151,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="115"/>
       <c r="B279" s="126"/>
-      <c r="C279" s="245"/>
+      <c r="C279" s="228"/>
       <c r="D279" s="145"/>
       <c r="E279" s="84"/>
       <c r="F279" s="137"/>
@@ -12168,7 +12159,7 @@
       <c r="H279" s="137"/>
       <c r="I279" s="137"/>
       <c r="J279" s="137"/>
-      <c r="K279" s="246"/>
+      <c r="K279" s="231"/>
       <c r="L279" s="74"/>
       <c r="M279" s="103"/>
       <c r="N279" s="67"/>
@@ -12191,7 +12182,7 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="115"/>
       <c r="B280" s="126"/>
-      <c r="C280" s="251"/>
+      <c r="C280" s="227"/>
       <c r="D280" s="138"/>
       <c r="E280" s="101"/>
       <c r="F280" s="83"/>
@@ -12222,7 +12213,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="115"/>
       <c r="B281" s="126"/>
-      <c r="C281" s="251"/>
+      <c r="C281" s="227"/>
       <c r="D281" s="99"/>
       <c r="E281" s="101"/>
       <c r="F281" s="83"/>
@@ -12284,7 +12275,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="115"/>
       <c r="B283" s="126"/>
-      <c r="C283" s="245"/>
+      <c r="C283" s="228"/>
       <c r="D283" s="124"/>
       <c r="E283" s="101"/>
       <c r="F283" s="83"/>
@@ -12315,7 +12306,7 @@
     <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="115"/>
       <c r="B284" s="126"/>
-      <c r="C284" s="245"/>
+      <c r="C284" s="228"/>
       <c r="D284" s="125"/>
       <c r="E284" s="101"/>
       <c r="F284" s="83"/>
@@ -12346,7 +12337,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="115"/>
       <c r="B285" s="126"/>
-      <c r="C285" s="245"/>
+      <c r="C285" s="228"/>
       <c r="D285" s="145"/>
       <c r="E285" s="101"/>
       <c r="F285" s="83"/>
@@ -12531,10 +12522,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="121"/>
-      <c r="B291" s="254"/>
-      <c r="C291" s="251"/>
+      <c r="B291" s="229"/>
+      <c r="C291" s="227"/>
       <c r="D291" s="114"/>
-      <c r="E291" s="251"/>
+      <c r="E291" s="227"/>
       <c r="F291" s="76"/>
       <c r="G291" s="76"/>
       <c r="H291" s="76"/>
@@ -12562,10 +12553,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="121"/>
-      <c r="B292" s="254"/>
-      <c r="C292" s="254"/>
+      <c r="B292" s="229"/>
+      <c r="C292" s="229"/>
       <c r="D292" s="114"/>
-      <c r="E292" s="251"/>
+      <c r="E292" s="227"/>
       <c r="F292" s="76"/>
       <c r="G292" s="76"/>
       <c r="H292" s="76"/>
@@ -12593,10 +12584,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="121"/>
-      <c r="B293" s="254"/>
-      <c r="C293" s="254"/>
+      <c r="B293" s="229"/>
+      <c r="C293" s="229"/>
       <c r="D293" s="114"/>
-      <c r="E293" s="251"/>
+      <c r="E293" s="227"/>
       <c r="F293" s="76"/>
       <c r="G293" s="76"/>
       <c r="H293" s="76"/>
@@ -12624,10 +12615,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="121"/>
-      <c r="B294" s="254"/>
-      <c r="C294" s="254"/>
+      <c r="B294" s="229"/>
+      <c r="C294" s="229"/>
       <c r="D294" s="114"/>
-      <c r="E294" s="251"/>
+      <c r="E294" s="227"/>
       <c r="F294" s="76"/>
       <c r="G294" s="76"/>
       <c r="H294" s="76"/>
@@ -12655,10 +12646,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="121"/>
-      <c r="B295" s="254"/>
-      <c r="C295" s="254"/>
+      <c r="B295" s="229"/>
+      <c r="C295" s="229"/>
       <c r="D295" s="114"/>
-      <c r="E295" s="251"/>
+      <c r="E295" s="227"/>
       <c r="F295" s="76"/>
       <c r="G295" s="76"/>
       <c r="H295" s="76"/>
@@ -12686,10 +12677,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="121"/>
-      <c r="B296" s="254"/>
-      <c r="C296" s="254"/>
+      <c r="B296" s="229"/>
+      <c r="C296" s="229"/>
       <c r="D296" s="114"/>
-      <c r="E296" s="251"/>
+      <c r="E296" s="227"/>
       <c r="F296" s="137"/>
       <c r="G296" s="137"/>
       <c r="H296" s="137"/>
@@ -12717,10 +12708,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="121"/>
-      <c r="B297" s="254"/>
-      <c r="C297" s="254"/>
+      <c r="B297" s="229"/>
+      <c r="C297" s="229"/>
       <c r="D297" s="114"/>
-      <c r="E297" s="251"/>
+      <c r="E297" s="227"/>
       <c r="F297" s="76"/>
       <c r="G297" s="76"/>
       <c r="H297" s="76"/>
@@ -12748,10 +12739,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="121"/>
-      <c r="B298" s="254"/>
-      <c r="C298" s="254"/>
+      <c r="B298" s="229"/>
+      <c r="C298" s="229"/>
       <c r="D298" s="114"/>
-      <c r="E298" s="251"/>
+      <c r="E298" s="227"/>
       <c r="F298" s="76"/>
       <c r="G298" s="76"/>
       <c r="H298" s="76"/>
@@ -12779,8 +12770,8 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="121"/>
-      <c r="B299" s="254"/>
-      <c r="C299" s="254"/>
+      <c r="B299" s="229"/>
+      <c r="C299" s="229"/>
       <c r="D299" s="114"/>
       <c r="E299" s="118"/>
       <c r="F299" s="73"/>
@@ -12810,8 +12801,8 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="121"/>
-      <c r="B300" s="254"/>
-      <c r="C300" s="254"/>
+      <c r="B300" s="229"/>
+      <c r="C300" s="229"/>
       <c r="D300" s="114"/>
       <c r="E300" s="118"/>
       <c r="F300" s="74"/>
@@ -12841,10 +12832,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="121"/>
-      <c r="B301" s="254"/>
-      <c r="C301" s="254"/>
+      <c r="B301" s="229"/>
+      <c r="C301" s="229"/>
       <c r="D301" s="138"/>
-      <c r="E301" s="251"/>
+      <c r="E301" s="227"/>
       <c r="F301" s="83"/>
       <c r="G301" s="83"/>
       <c r="H301" s="83"/>
@@ -12872,10 +12863,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="121"/>
-      <c r="B302" s="254"/>
-      <c r="C302" s="254"/>
+      <c r="B302" s="229"/>
+      <c r="C302" s="229"/>
       <c r="D302" s="159"/>
-      <c r="E302" s="251"/>
+      <c r="E302" s="227"/>
       <c r="F302" s="74"/>
       <c r="G302" s="74"/>
       <c r="H302" s="74"/>
@@ -12903,10 +12894,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="121"/>
-      <c r="B303" s="254"/>
-      <c r="C303" s="254"/>
+      <c r="B303" s="229"/>
+      <c r="C303" s="229"/>
       <c r="D303" s="159"/>
-      <c r="E303" s="251"/>
+      <c r="E303" s="227"/>
       <c r="F303" s="74"/>
       <c r="G303" s="74"/>
       <c r="H303" s="74"/>
@@ -12934,10 +12925,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="121"/>
-      <c r="B304" s="254"/>
-      <c r="C304" s="251"/>
+      <c r="B304" s="229"/>
+      <c r="C304" s="227"/>
       <c r="D304" s="99"/>
-      <c r="E304" s="251"/>
+      <c r="E304" s="227"/>
       <c r="F304" s="74"/>
       <c r="G304" s="74"/>
       <c r="H304" s="74"/>
@@ -12965,7 +12956,7 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="121"/>
-      <c r="B305" s="254"/>
+      <c r="B305" s="229"/>
       <c r="C305" s="114"/>
       <c r="D305" s="159"/>
       <c r="E305" s="159"/>
@@ -12996,10 +12987,10 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="121"/>
-      <c r="B306" s="254"/>
-      <c r="C306" s="251"/>
+      <c r="B306" s="229"/>
+      <c r="C306" s="227"/>
       <c r="D306" s="138"/>
-      <c r="E306" s="255"/>
+      <c r="E306" s="230"/>
       <c r="F306" s="83"/>
       <c r="G306" s="83"/>
       <c r="H306" s="83"/>
@@ -13027,10 +13018,10 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="121"/>
-      <c r="B307" s="254"/>
-      <c r="C307" s="254"/>
+      <c r="B307" s="229"/>
+      <c r="C307" s="229"/>
       <c r="D307" s="99"/>
-      <c r="E307" s="255"/>
+      <c r="E307" s="230"/>
       <c r="F307" s="83"/>
       <c r="G307" s="83"/>
       <c r="H307" s="83"/>
@@ -13058,8 +13049,8 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="121"/>
-      <c r="B308" s="254"/>
-      <c r="C308" s="251"/>
+      <c r="B308" s="229"/>
+      <c r="C308" s="227"/>
       <c r="D308" s="114"/>
       <c r="E308" s="115"/>
       <c r="F308" s="83"/>
@@ -13089,7 +13080,7 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="121"/>
-      <c r="B309" s="254"/>
+      <c r="B309" s="229"/>
       <c r="C309" s="118"/>
       <c r="D309" s="118"/>
       <c r="E309" s="121"/>
@@ -13120,10 +13111,10 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="121"/>
-      <c r="B310" s="254"/>
-      <c r="C310" s="251"/>
+      <c r="B310" s="229"/>
+      <c r="C310" s="227"/>
       <c r="D310" s="138"/>
-      <c r="E310" s="251"/>
+      <c r="E310" s="227"/>
       <c r="F310" s="83"/>
       <c r="G310" s="83"/>
       <c r="H310" s="83"/>
@@ -13151,10 +13142,10 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="121"/>
-      <c r="B311" s="254"/>
-      <c r="C311" s="254"/>
+      <c r="B311" s="229"/>
+      <c r="C311" s="229"/>
       <c r="D311" s="159"/>
-      <c r="E311" s="251"/>
+      <c r="E311" s="227"/>
       <c r="F311" s="83"/>
       <c r="G311" s="83"/>
       <c r="H311" s="83"/>
@@ -13182,10 +13173,10 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="121"/>
-      <c r="B312" s="254"/>
-      <c r="C312" s="254"/>
+      <c r="B312" s="229"/>
+      <c r="C312" s="229"/>
       <c r="D312" s="159"/>
-      <c r="E312" s="251"/>
+      <c r="E312" s="227"/>
       <c r="F312" s="83"/>
       <c r="G312" s="83"/>
       <c r="H312" s="83"/>
@@ -13213,10 +13204,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="121"/>
-      <c r="B313" s="254"/>
-      <c r="C313" s="254"/>
+      <c r="B313" s="229"/>
+      <c r="C313" s="229"/>
       <c r="D313" s="159"/>
-      <c r="E313" s="251"/>
+      <c r="E313" s="227"/>
       <c r="F313" s="83"/>
       <c r="G313" s="83"/>
       <c r="H313" s="83"/>
@@ -13244,10 +13235,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="121"/>
-      <c r="B314" s="254"/>
-      <c r="C314" s="254"/>
+      <c r="B314" s="229"/>
+      <c r="C314" s="229"/>
       <c r="D314" s="159"/>
-      <c r="E314" s="251"/>
+      <c r="E314" s="227"/>
       <c r="F314" s="76"/>
       <c r="G314" s="76"/>
       <c r="H314" s="76"/>
@@ -13275,10 +13266,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="121"/>
-      <c r="B315" s="254"/>
-      <c r="C315" s="254"/>
+      <c r="B315" s="229"/>
+      <c r="C315" s="229"/>
       <c r="D315" s="99"/>
-      <c r="E315" s="251"/>
+      <c r="E315" s="227"/>
       <c r="F315" s="76"/>
       <c r="G315" s="76"/>
       <c r="H315" s="76"/>
@@ -13306,10 +13297,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="121"/>
-      <c r="B316" s="254"/>
-      <c r="C316" s="254"/>
+      <c r="B316" s="229"/>
+      <c r="C316" s="229"/>
       <c r="D316" s="138"/>
-      <c r="E316" s="251"/>
+      <c r="E316" s="227"/>
       <c r="F316" s="83"/>
       <c r="G316" s="83"/>
       <c r="H316" s="83"/>
@@ -13337,10 +13328,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="121"/>
-      <c r="B317" s="254"/>
-      <c r="C317" s="254"/>
+      <c r="B317" s="229"/>
+      <c r="C317" s="229"/>
       <c r="D317" s="159"/>
-      <c r="E317" s="251"/>
+      <c r="E317" s="227"/>
       <c r="F317" s="74"/>
       <c r="G317" s="74"/>
       <c r="H317" s="74"/>
@@ -13368,10 +13359,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="121"/>
-      <c r="B318" s="254"/>
-      <c r="C318" s="254"/>
+      <c r="B318" s="229"/>
+      <c r="C318" s="229"/>
       <c r="D318" s="159"/>
-      <c r="E318" s="251"/>
+      <c r="E318" s="227"/>
       <c r="F318" s="74"/>
       <c r="G318" s="74"/>
       <c r="H318" s="74"/>
@@ -13399,10 +13390,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="121"/>
-      <c r="B319" s="254"/>
-      <c r="C319" s="254"/>
+      <c r="B319" s="229"/>
+      <c r="C319" s="229"/>
       <c r="D319" s="99"/>
-      <c r="E319" s="251"/>
+      <c r="E319" s="227"/>
       <c r="F319" s="74"/>
       <c r="G319" s="74"/>
       <c r="H319" s="74"/>
@@ -15538,30 +15529,13 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="E310:E315"/>
-    <mergeCell ref="E316:E319"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="B291:B319"/>
-    <mergeCell ref="C291:C304"/>
-    <mergeCell ref="E291:E298"/>
-    <mergeCell ref="E301:E304"/>
-    <mergeCell ref="C306:C308"/>
-    <mergeCell ref="E306:E307"/>
-    <mergeCell ref="C310:C319"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="K278:K279"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D176:D186"/>
-    <mergeCell ref="M176:M183"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="K239:K241"/>
-    <mergeCell ref="L239:L241"/>
-    <mergeCell ref="C248:C254"/>
-    <mergeCell ref="E248:E250"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="C258:C262"/>
-    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="D131:D139"/>
     <mergeCell ref="B10:B186"/>
     <mergeCell ref="C10:C20"/>
@@ -15578,13 +15552,30 @@
     <mergeCell ref="D109:D118"/>
     <mergeCell ref="D120:D121"/>
     <mergeCell ref="D123:D129"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D176:D186"/>
+    <mergeCell ref="M176:M183"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="K239:K241"/>
+    <mergeCell ref="L239:L241"/>
+    <mergeCell ref="C248:C254"/>
+    <mergeCell ref="E248:E250"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="C258:C262"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="E310:E315"/>
+    <mergeCell ref="E316:E319"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="B291:B319"/>
+    <mergeCell ref="C291:C304"/>
+    <mergeCell ref="E291:E298"/>
+    <mergeCell ref="E301:E304"/>
+    <mergeCell ref="C306:C308"/>
+    <mergeCell ref="E306:E307"/>
+    <mergeCell ref="C310:C319"/>
   </mergeCells>
   <conditionalFormatting sqref="L8 L10:L48 L50:L95 L131:L387">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
